--- a/database.xlsx
+++ b/database.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyServer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D56A5D5-A821-4EC3-A027-443FEB30BE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="43260" yWindow="4365" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,16 +20,63 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>2021001b</t>
+  </si>
+  <si>
+    <t>для АДМ KDS200 Standart</t>
+  </si>
+  <si>
+    <t>не была в ремонте</t>
+  </si>
+  <si>
+    <t>для АДМ KDS200 Compact</t>
+  </si>
+  <si>
+    <t>была в ремонте 01.06.2025</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,11 +102,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +390,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="64.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>12345</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>25501</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45951</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D56A5D5-A821-4EC3-A027-443FEB30BE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F75AEA-D9F7-401B-BC9B-A99B023BC924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43260" yWindow="4365" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39480" yWindow="3030" windowWidth="15330" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>code</t>
   </si>
@@ -55,6 +55,33 @@
   </si>
   <si>
     <t>была в ремонте 01.06.2025</t>
+  </si>
+  <si>
+    <t>МАКС</t>
+  </si>
+  <si>
+    <t>Компакт</t>
+  </si>
+  <si>
+    <t>произведена:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">произведена: </t>
+  </si>
+  <si>
+    <t>нет наклеек и надписей</t>
+  </si>
+  <si>
+    <t>единственная сумка с нормальной наклейкой (машина 31982, Ногинск, технопарк, Лемана про)</t>
+  </si>
+  <si>
+    <t>на сумке есть наклейка с надписью Райфайзен</t>
+  </si>
+  <si>
+    <t>есть наклейка 31502</t>
+  </si>
+  <si>
+    <t>на сумке есть надпись "30117"</t>
   </si>
 </sst>
 </file>
@@ -71,14 +98,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Segoe UI"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -102,15 +132,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -391,76 +431,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="64.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>45292</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>12345</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>45292</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>25501</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>45951</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>24925</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>24945</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45553</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>24946</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>24953</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45553</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>24903</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>24986</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>24861</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>24792</v>
+      </c>
+      <c r="C12" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>24997</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>24996</v>
+      </c>
+      <c r="C14" s="7">
+        <v>45567</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F75AEA-D9F7-401B-BC9B-A99B023BC924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EFE310-3E2F-47D6-88A0-F96336346496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39480" yWindow="3030" windowWidth="15330" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="19">
   <si>
     <t>code</t>
   </si>
@@ -45,28 +45,13 @@
     <t>2021001b</t>
   </si>
   <si>
-    <t>для АДМ KDS200 Standart</t>
-  </si>
-  <si>
     <t>не была в ремонте</t>
-  </si>
-  <si>
-    <t>для АДМ KDS200 Compact</t>
   </si>
   <si>
     <t>была в ремонте 01.06.2025</t>
   </si>
   <si>
-    <t>МАКС</t>
-  </si>
-  <si>
     <t>Компакт</t>
-  </si>
-  <si>
-    <t>произведена:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">произведена: </t>
   </si>
   <si>
     <t>нет наклеек и надписей</t>
@@ -83,17 +68,43 @@
   <si>
     <t>на сумке есть надпись "30117"</t>
   </si>
+  <si>
+    <t>22601k</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Стандарт</t>
+  </si>
+  <si>
+    <t>Макс</t>
+  </si>
+  <si>
+    <t>22381k</t>
+  </si>
+  <si>
+    <t>была в ремонте 14.01.2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,25 +143,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -431,15 +446,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.5703125" style="1" customWidth="1"/>
@@ -456,7 +471,7 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -465,34 +480,34 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5">
         <v>45292</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>12345</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5">
         <v>45292</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>25501</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5">
@@ -504,84 +519,84 @@
       <c r="A5" s="6">
         <v>24925</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45897</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>24945</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="7">
         <v>45553</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>24946</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>24953</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>45553</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>24903</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>24986</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45544</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,7 +604,7 @@
         <v>24861</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" s="7">
         <v>45412</v>
@@ -607,6 +622,9 @@
       <c r="A13" s="6">
         <v>24997</v>
       </c>
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C13" s="7">
         <v>45567</v>
       </c>
@@ -615,8 +633,1334 @@
       <c r="A14" s="6">
         <v>24996</v>
       </c>
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C14" s="7">
         <v>45567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>24963</v>
+      </c>
+      <c r="C15" s="7">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>24934</v>
+      </c>
+      <c r="C16" s="7">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>24917</v>
+      </c>
+      <c r="C17" s="7">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>24961</v>
+      </c>
+      <c r="C18" s="7">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>24913</v>
+      </c>
+      <c r="C19" s="7">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>24980</v>
+      </c>
+      <c r="C20" s="7">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>24960</v>
+      </c>
+      <c r="C21" s="7">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>24934</v>
+      </c>
+      <c r="C22" s="7">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>24977</v>
+      </c>
+      <c r="C23" s="7">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>24965</v>
+      </c>
+      <c r="C24" s="7">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24910</v>
+      </c>
+      <c r="C25" s="7">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>24912</v>
+      </c>
+      <c r="C26" s="7">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>24979</v>
+      </c>
+      <c r="C27" s="7">
+        <v>45512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>24970</v>
+      </c>
+      <c r="C28" s="7">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>24974</v>
+      </c>
+      <c r="C29" s="7">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>24901</v>
+      </c>
+      <c r="C30" s="7">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>24973</v>
+      </c>
+      <c r="C31" s="7">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>24918</v>
+      </c>
+      <c r="C32" s="7">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>24957</v>
+      </c>
+      <c r="C33" s="7">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>24904</v>
+      </c>
+      <c r="C34" s="7">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>24951</v>
+      </c>
+      <c r="C35" s="7">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>24931</v>
+      </c>
+      <c r="C36" s="7">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>24953</v>
+      </c>
+      <c r="C37" s="7">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>24945</v>
+      </c>
+      <c r="C38" s="7">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>24928</v>
+      </c>
+      <c r="C39" s="7">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>24904</v>
+      </c>
+      <c r="C40" s="7">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>24924</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>24916</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>24902</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>24976</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>24923</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>24911</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>24981</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>24939</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>24908</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>24975</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>24900</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>24958</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>24985</v>
+      </c>
+      <c r="C53" s="7">
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>24984</v>
+      </c>
+      <c r="C54" s="7">
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>24987</v>
+      </c>
+      <c r="C55" s="7">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>24927</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="7">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>24995</v>
+      </c>
+      <c r="C57" s="7">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>24994</v>
+      </c>
+      <c r="C58" s="7">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>24993</v>
+      </c>
+      <c r="C59" s="7">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>24992</v>
+      </c>
+      <c r="C60" s="7">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>24991</v>
+      </c>
+      <c r="C61" s="7">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>24989</v>
+      </c>
+      <c r="C62" s="7">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>24990</v>
+      </c>
+      <c r="C63" s="7">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="7">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>24988</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="7">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>24955</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="7">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>24954</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="7">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>24932</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="7">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>24972</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="7">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>24936</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>25049</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>24999</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>25043</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>24998</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>25015</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>25058</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>25069</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="7">
+        <v>45579</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>25001</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>25041</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>25036</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>25024</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>25040</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>25074</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>25048</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>25035</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>25010</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>25000</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="7">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>25026</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="7">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>25023</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="7">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>25071</v>
+      </c>
+      <c r="B91" s="8"/>
+      <c r="C91" s="7">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>25080</v>
+      </c>
+      <c r="B92" s="8"/>
+      <c r="C92" s="7">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>25017</v>
+      </c>
+      <c r="B93" s="8"/>
+      <c r="C93" s="7">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>25003</v>
+      </c>
+      <c r="B94" s="8"/>
+      <c r="C94" s="7">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>25009</v>
+      </c>
+      <c r="B95" s="8"/>
+      <c r="C95" s="7">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>25028</v>
+      </c>
+      <c r="B96" s="8"/>
+      <c r="C96" s="7">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>25030</v>
+      </c>
+      <c r="B97" s="8"/>
+      <c r="C97" s="7">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>25072</v>
+      </c>
+      <c r="B98" s="8"/>
+      <c r="C98" s="7">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>25018</v>
+      </c>
+      <c r="B99" s="8"/>
+      <c r="C99" s="7">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>25057</v>
+      </c>
+      <c r="B100" s="8"/>
+      <c r="C100" s="7">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>25077</v>
+      </c>
+      <c r="B101" s="8"/>
+      <c r="C101" s="7">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>25066</v>
+      </c>
+      <c r="B102" s="8"/>
+      <c r="C102" s="7">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>25078</v>
+      </c>
+      <c r="B103" s="8"/>
+      <c r="C103" s="7">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>25037</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="7">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>25079</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="7">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>25075</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="7">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>25070</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="7">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>25056</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="7">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>25047</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="7">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <v>25016</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="7">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
+        <v>25034</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="7">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>25013</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="7">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>25045</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="7">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>25012</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="7">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>25039</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="7">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>25081</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="7">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>25006</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="7">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>25019</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="7">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>25055</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>25085</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <v>25052</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>25064</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>25068</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>25062</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>25061</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>25053</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>25060</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <v>25014</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>25046</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>25021</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <v>25020</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <v>25002</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <v>25025</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <v>25022</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
+        <v>25011</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
+        <v>25029</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
+        <v>25007</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="6">
+        <v>25032</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="6">
+        <v>25005</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <v>25042</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="6">
+        <v>25031</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="6">
+        <v>25033</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="6">
+        <v>25038</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <v>25044</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="6">
+        <v>25050</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="6">
+        <v>25054</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" s="7">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="6">
+        <v>25063</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="7">
+        <v>45636</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EFE310-3E2F-47D6-88A0-F96336346496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22683C72-4A1F-4E44-AEE2-977A0BDCCC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40050" yWindow="1650" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D1384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A1350" workbookViewId="0">
+      <selection activeCell="A231" sqref="A231:A1384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,6 +1963,5776 @@
         <v>45636</v>
       </c>
     </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="6">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="6">
+        <v>100002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="6">
+        <v>100003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="6">
+        <v>100004</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="6">
+        <v>100005</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="6">
+        <v>100006</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="6">
+        <v>100007</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="6">
+        <v>100008</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="6">
+        <v>100009</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="6">
+        <v>100010</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="6">
+        <v>100011</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="6">
+        <v>100012</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="6">
+        <v>100013</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="6">
+        <v>100014</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="6">
+        <v>100015</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="6">
+        <v>100016</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="6">
+        <v>100017</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="6">
+        <v>100018</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="6">
+        <v>100019</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="6">
+        <v>100020</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="6">
+        <v>100021</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="6">
+        <v>100022</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="6">
+        <v>100023</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="6">
+        <v>100024</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="6">
+        <v>100025</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="6">
+        <v>100026</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="6">
+        <v>100027</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="6">
+        <v>100028</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="6">
+        <v>100029</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="6">
+        <v>100030</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="6">
+        <v>100031</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="6">
+        <v>100032</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="6">
+        <v>100033</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="6">
+        <v>100034</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="6">
+        <v>100035</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="6">
+        <v>100036</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="6">
+        <v>100037</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="6">
+        <v>100038</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="6">
+        <v>100039</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="6">
+        <v>100040</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="6">
+        <v>100041</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="6">
+        <v>100042</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="6">
+        <v>100043</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="6">
+        <v>100044</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="6">
+        <v>100045</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="6">
+        <v>100046</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="6">
+        <v>100047</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="6">
+        <v>100048</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="6">
+        <v>100049</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="6">
+        <v>100050</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="6">
+        <v>100051</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="6">
+        <v>100052</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="6">
+        <v>100053</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="6">
+        <v>100054</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="6">
+        <v>100055</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="6">
+        <v>100056</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="6">
+        <v>100057</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="6">
+        <v>100058</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="6">
+        <v>100059</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="6">
+        <v>100060</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="6">
+        <v>100061</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="6">
+        <v>100062</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="6">
+        <v>100063</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="6">
+        <v>100064</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="6">
+        <v>100065</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="6">
+        <v>100066</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="6">
+        <v>100067</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="6">
+        <v>100068</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="6">
+        <v>100069</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="6">
+        <v>100070</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="6">
+        <v>100071</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="6">
+        <v>100072</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="6">
+        <v>100073</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="6">
+        <v>100074</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="6">
+        <v>100075</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="6">
+        <v>100076</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="6">
+        <v>100077</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="6">
+        <v>100078</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="6">
+        <v>100079</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="6">
+        <v>100080</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="6">
+        <v>100081</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="6">
+        <v>100082</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="6">
+        <v>100083</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="6">
+        <v>100084</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="6">
+        <v>100085</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="6">
+        <v>100086</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="6">
+        <v>100087</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="6">
+        <v>100088</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="6">
+        <v>100089</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="6">
+        <v>100090</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="6">
+        <v>100091</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="6">
+        <v>100092</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="6">
+        <v>100093</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="6">
+        <v>100094</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="6">
+        <v>100095</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="6">
+        <v>100096</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="6">
+        <v>100097</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="6">
+        <v>100098</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="6">
+        <v>100099</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="6">
+        <v>100100</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="6">
+        <v>100101</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="6">
+        <v>100102</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="6">
+        <v>100103</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="6">
+        <v>100104</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="6">
+        <v>100105</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="6">
+        <v>100106</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="6">
+        <v>100107</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="6">
+        <v>100108</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="6">
+        <v>100109</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="6">
+        <v>100110</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="6">
+        <v>100111</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="6">
+        <v>100112</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="6">
+        <v>100113</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="6">
+        <v>100114</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="6">
+        <v>100115</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="6">
+        <v>100116</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="6">
+        <v>100117</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="6">
+        <v>100118</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="6">
+        <v>100119</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="6">
+        <v>100120</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="6">
+        <v>100121</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="6">
+        <v>100122</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="6">
+        <v>100123</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="6">
+        <v>100124</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="6">
+        <v>100125</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="6">
+        <v>100126</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="6">
+        <v>100127</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="6">
+        <v>100128</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="6">
+        <v>100129</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="6">
+        <v>100130</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="6">
+        <v>100131</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="6">
+        <v>100132</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="6">
+        <v>100133</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="6">
+        <v>100134</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="6">
+        <v>100135</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="6">
+        <v>100136</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="6">
+        <v>100137</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="6">
+        <v>100138</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="6">
+        <v>100139</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="6">
+        <v>100140</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="6">
+        <v>100141</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="6">
+        <v>100142</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="6">
+        <v>100143</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="6">
+        <v>100144</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="6">
+        <v>100145</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="6">
+        <v>100146</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="6">
+        <v>100147</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="6">
+        <v>100148</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="6">
+        <v>100149</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="6">
+        <v>100150</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="6">
+        <v>100151</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="6">
+        <v>100152</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="6">
+        <v>100153</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="6">
+        <v>100154</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="6">
+        <v>100155</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="6">
+        <v>100156</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="6">
+        <v>100157</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="6">
+        <v>100158</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="6">
+        <v>100159</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="6">
+        <v>100160</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="6">
+        <v>100161</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="6">
+        <v>100162</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="6">
+        <v>100163</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="6">
+        <v>100164</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="6">
+        <v>100165</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="6">
+        <v>100166</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="6">
+        <v>100167</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="6">
+        <v>100168</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="6">
+        <v>100169</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="6">
+        <v>100170</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="6">
+        <v>100171</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="6">
+        <v>100172</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="6">
+        <v>100173</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="6">
+        <v>100174</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="6">
+        <v>100175</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="6">
+        <v>100176</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="6">
+        <v>100177</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="6">
+        <v>100178</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="6">
+        <v>100179</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="6">
+        <v>100180</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="6">
+        <v>100181</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="6">
+        <v>100182</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="6">
+        <v>100183</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="6">
+        <v>100184</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="6">
+        <v>100185</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="6">
+        <v>100186</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="6">
+        <v>100187</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="6">
+        <v>100188</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="6">
+        <v>100189</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="6">
+        <v>100190</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="6">
+        <v>100191</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="6">
+        <v>100192</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="6">
+        <v>100193</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="6">
+        <v>100194</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="6">
+        <v>100195</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="6">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="6">
+        <v>100197</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="6">
+        <v>100198</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="6">
+        <v>100199</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="6">
+        <v>100200</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="6">
+        <v>100201</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="6">
+        <v>100202</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="6">
+        <v>100203</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="6">
+        <v>100204</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="6">
+        <v>100205</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="6">
+        <v>100206</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="6">
+        <v>100207</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="6">
+        <v>100208</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="6">
+        <v>100209</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="6">
+        <v>100210</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="6">
+        <v>100211</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="6">
+        <v>100212</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="6">
+        <v>100213</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="6">
+        <v>100214</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="6">
+        <v>100215</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="6">
+        <v>100216</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="6">
+        <v>100217</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="6">
+        <v>100218</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="6">
+        <v>100219</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="6">
+        <v>100220</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="6">
+        <v>100221</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="6">
+        <v>100222</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="6">
+        <v>100223</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="6">
+        <v>100224</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="6">
+        <v>100225</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="6">
+        <v>100226</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="6">
+        <v>100227</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="6">
+        <v>100228</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="6">
+        <v>100229</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="6">
+        <v>100230</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="6">
+        <v>100231</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="6">
+        <v>100232</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="6">
+        <v>100233</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="6">
+        <v>100234</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="6">
+        <v>100235</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="6">
+        <v>100236</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="6">
+        <v>100237</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="6">
+        <v>100238</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="6">
+        <v>100239</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="6">
+        <v>100240</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="6">
+        <v>100241</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="6">
+        <v>100242</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="6">
+        <v>100243</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="6">
+        <v>100244</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="6">
+        <v>100245</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="6">
+        <v>100246</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="6">
+        <v>100247</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="6">
+        <v>100248</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="6">
+        <v>100249</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="6">
+        <v>100250</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="6">
+        <v>100251</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="6">
+        <v>100252</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="6">
+        <v>100253</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="6">
+        <v>100254</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="6">
+        <v>100255</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="6">
+        <v>100256</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="6">
+        <v>100257</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="6">
+        <v>100258</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="6">
+        <v>100259</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="6">
+        <v>100260</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="6">
+        <v>100261</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="6">
+        <v>100262</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="6">
+        <v>100263</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="6">
+        <v>100264</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="6">
+        <v>100265</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="6">
+        <v>100266</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="6">
+        <v>100267</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="6">
+        <v>100268</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="6">
+        <v>100269</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="6">
+        <v>100270</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="6">
+        <v>100271</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="6">
+        <v>100272</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="6">
+        <v>100273</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="6">
+        <v>100274</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="6">
+        <v>100275</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="6">
+        <v>100276</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="6">
+        <v>100277</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="6">
+        <v>100278</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="6">
+        <v>100279</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="6">
+        <v>100280</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="6">
+        <v>100281</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="6">
+        <v>100282</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="6">
+        <v>100283</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="6">
+        <v>100284</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="6">
+        <v>100285</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="6">
+        <v>100286</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="6">
+        <v>100287</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="6">
+        <v>100288</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="6">
+        <v>100289</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="6">
+        <v>100290</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="6">
+        <v>100291</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="6">
+        <v>100292</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="6">
+        <v>100293</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="6">
+        <v>100294</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="6">
+        <v>100295</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="6">
+        <v>100296</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="6">
+        <v>100297</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="6">
+        <v>100298</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="6">
+        <v>100299</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="6">
+        <v>100300</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="6">
+        <v>100301</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" s="6">
+        <v>100302</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" s="6">
+        <v>100303</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" s="6">
+        <v>100304</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" s="6">
+        <v>100305</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" s="6">
+        <v>100306</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" s="6">
+        <v>100307</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="6">
+        <v>100308</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" s="6">
+        <v>100309</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" s="6">
+        <v>100310</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" s="6">
+        <v>100311</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" s="6">
+        <v>100312</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" s="6">
+        <v>100313</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" s="6">
+        <v>100314</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" s="6">
+        <v>100315</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" s="6">
+        <v>100316</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" s="6">
+        <v>100317</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" s="6">
+        <v>100318</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" s="6">
+        <v>100319</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" s="6">
+        <v>100320</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" s="6">
+        <v>100321</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" s="6">
+        <v>100322</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" s="6">
+        <v>100323</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" s="6">
+        <v>100324</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" s="6">
+        <v>100325</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" s="6">
+        <v>100326</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" s="6">
+        <v>100327</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" s="6">
+        <v>100328</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" s="6">
+        <v>100329</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" s="6">
+        <v>100330</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" s="6">
+        <v>100331</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" s="6">
+        <v>100332</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" s="6">
+        <v>100333</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" s="6">
+        <v>100334</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" s="6">
+        <v>100335</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" s="6">
+        <v>100336</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" s="6">
+        <v>100337</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" s="6">
+        <v>100338</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" s="6">
+        <v>100339</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" s="6">
+        <v>100340</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" s="6">
+        <v>100341</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" s="6">
+        <v>100342</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" s="6">
+        <v>100343</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" s="6">
+        <v>100344</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" s="6">
+        <v>100345</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" s="6">
+        <v>100346</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" s="6">
+        <v>100347</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" s="6">
+        <v>100348</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" s="6">
+        <v>100349</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" s="6">
+        <v>100350</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" s="6">
+        <v>100351</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="6">
+        <v>100352</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" s="6">
+        <v>100353</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" s="6">
+        <v>100354</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" s="6">
+        <v>100355</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" s="6">
+        <v>100356</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" s="6">
+        <v>100357</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" s="6">
+        <v>100358</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" s="6">
+        <v>100359</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" s="6">
+        <v>100360</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" s="6">
+        <v>100361</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" s="6">
+        <v>100362</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" s="6">
+        <v>100363</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" s="6">
+        <v>100364</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" s="6">
+        <v>100365</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" s="6">
+        <v>100366</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" s="6">
+        <v>100367</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" s="6">
+        <v>100368</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" s="6">
+        <v>100369</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" s="6">
+        <v>100370</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" s="6">
+        <v>100371</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" s="6">
+        <v>100372</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" s="6">
+        <v>100373</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" s="6">
+        <v>100374</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" s="6">
+        <v>100375</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" s="6">
+        <v>100376</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" s="6">
+        <v>100377</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" s="6">
+        <v>100378</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" s="6">
+        <v>100379</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" s="6">
+        <v>100380</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" s="6">
+        <v>100381</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" s="6">
+        <v>100382</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" s="6">
+        <v>100383</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" s="6">
+        <v>100384</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" s="6">
+        <v>100385</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" s="6">
+        <v>100386</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" s="6">
+        <v>100387</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" s="6">
+        <v>100388</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" s="6">
+        <v>100389</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" s="6">
+        <v>100390</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" s="6">
+        <v>100391</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" s="6">
+        <v>100392</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" s="6">
+        <v>100393</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" s="6">
+        <v>100394</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" s="6">
+        <v>100395</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" s="6">
+        <v>100396</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" s="6">
+        <v>100397</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" s="6">
+        <v>100398</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" s="6">
+        <v>100399</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" s="6">
+        <v>100400</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" s="6">
+        <v>100401</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" s="6">
+        <v>100402</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" s="6">
+        <v>100403</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" s="6">
+        <v>100404</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" s="6">
+        <v>100405</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" s="6">
+        <v>100406</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" s="6">
+        <v>100407</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" s="6">
+        <v>100408</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" s="6">
+        <v>100409</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" s="6">
+        <v>100410</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" s="6">
+        <v>100411</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" s="6">
+        <v>100412</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" s="6">
+        <v>100413</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" s="6">
+        <v>100414</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" s="6">
+        <v>100415</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" s="6">
+        <v>100416</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" s="6">
+        <v>100417</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" s="6">
+        <v>100418</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" s="6">
+        <v>100419</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" s="6">
+        <v>100420</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" s="6">
+        <v>100421</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" s="6">
+        <v>100422</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" s="6">
+        <v>100423</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" s="6">
+        <v>100424</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" s="6">
+        <v>100425</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" s="6">
+        <v>100426</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" s="6">
+        <v>100427</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" s="6">
+        <v>100428</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" s="6">
+        <v>100429</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" s="6">
+        <v>100430</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" s="6">
+        <v>100431</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" s="6">
+        <v>100432</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" s="6">
+        <v>100433</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" s="6">
+        <v>100434</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" s="6">
+        <v>100435</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" s="6">
+        <v>100436</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" s="6">
+        <v>100437</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" s="6">
+        <v>100438</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" s="6">
+        <v>100439</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" s="6">
+        <v>100440</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" s="6">
+        <v>100441</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" s="6">
+        <v>100442</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" s="6">
+        <v>100443</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" s="6">
+        <v>100444</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" s="6">
+        <v>100445</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" s="6">
+        <v>100446</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" s="6">
+        <v>100447</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" s="6">
+        <v>100448</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" s="6">
+        <v>100449</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" s="6">
+        <v>100450</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" s="6">
+        <v>100451</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" s="6">
+        <v>100452</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" s="6">
+        <v>100453</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" s="6">
+        <v>100454</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" s="6">
+        <v>100455</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" s="6">
+        <v>100456</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" s="6">
+        <v>100457</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" s="6">
+        <v>100458</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" s="6">
+        <v>100459</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" s="6">
+        <v>100460</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" s="6">
+        <v>100461</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" s="6">
+        <v>100462</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" s="6">
+        <v>100463</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" s="6">
+        <v>100464</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" s="6">
+        <v>100465</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" s="6">
+        <v>100466</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" s="6">
+        <v>100467</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" s="6">
+        <v>100468</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" s="6">
+        <v>100469</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" s="6">
+        <v>100470</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" s="6">
+        <v>100471</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" s="6">
+        <v>100472</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" s="6">
+        <v>100473</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" s="6">
+        <v>100474</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" s="6">
+        <v>100475</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" s="6">
+        <v>100476</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" s="6">
+        <v>100477</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" s="6">
+        <v>100478</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" s="6">
+        <v>100479</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" s="6">
+        <v>100480</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" s="6">
+        <v>100481</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" s="6">
+        <v>100482</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" s="6">
+        <v>100483</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" s="6">
+        <v>100484</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" s="6">
+        <v>100485</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" s="6">
+        <v>100486</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" s="6">
+        <v>100487</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" s="6">
+        <v>100488</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" s="6">
+        <v>100489</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" s="6">
+        <v>100490</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" s="6">
+        <v>100491</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722" s="6">
+        <v>100492</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" s="6">
+        <v>100493</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" s="6">
+        <v>100494</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725" s="6">
+        <v>100495</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" s="6">
+        <v>100496</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727" s="6">
+        <v>100497</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" s="6">
+        <v>100498</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729" s="6">
+        <v>100499</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" s="6">
+        <v>100500</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" s="6">
+        <v>100501</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" s="6">
+        <v>100502</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733" s="6">
+        <v>100503</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" s="6">
+        <v>100504</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" s="6">
+        <v>100505</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" s="6">
+        <v>100506</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" s="6">
+        <v>100507</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" s="6">
+        <v>100508</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739" s="6">
+        <v>100509</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" s="6">
+        <v>100510</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" s="6">
+        <v>100511</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742" s="6">
+        <v>100512</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" s="6">
+        <v>100513</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" s="6">
+        <v>100514</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" s="6">
+        <v>100515</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" s="6">
+        <v>100516</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" s="6">
+        <v>100517</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748" s="6">
+        <v>100518</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749" s="6">
+        <v>100519</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" s="6">
+        <v>100520</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" s="6">
+        <v>100521</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" s="6">
+        <v>100522</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" s="6">
+        <v>100523</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754" s="6">
+        <v>100524</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" s="6">
+        <v>100525</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" s="6">
+        <v>100526</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" s="6">
+        <v>100527</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" s="6">
+        <v>100528</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" s="6">
+        <v>100529</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" s="6">
+        <v>100530</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" s="6">
+        <v>100531</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" s="6">
+        <v>100532</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" s="6">
+        <v>100533</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764" s="6">
+        <v>100534</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765" s="6">
+        <v>100535</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" s="6">
+        <v>100536</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767" s="6">
+        <v>100537</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" s="6">
+        <v>100538</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" s="6">
+        <v>100539</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" s="6">
+        <v>100540</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" s="6">
+        <v>100541</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" s="6">
+        <v>100542</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" s="6">
+        <v>100543</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" s="6">
+        <v>100544</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" s="6">
+        <v>100545</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" s="6">
+        <v>100546</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" s="6">
+        <v>100547</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" s="6">
+        <v>100548</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" s="6">
+        <v>100549</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" s="6">
+        <v>100550</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" s="6">
+        <v>100551</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" s="6">
+        <v>100552</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" s="6">
+        <v>100553</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784" s="6">
+        <v>100554</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785" s="6">
+        <v>100555</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786" s="6">
+        <v>100556</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787" s="6">
+        <v>100557</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788" s="6">
+        <v>100558</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789" s="6">
+        <v>100559</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790" s="6">
+        <v>100560</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791" s="6">
+        <v>100561</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792" s="6">
+        <v>100562</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793" s="6">
+        <v>100563</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794" s="6">
+        <v>100564</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795" s="6">
+        <v>100565</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" s="6">
+        <v>100566</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797" s="6">
+        <v>100567</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798" s="6">
+        <v>100568</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799" s="6">
+        <v>100569</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800" s="6">
+        <v>100570</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" s="6">
+        <v>100571</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802" s="6">
+        <v>100572</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" s="6">
+        <v>100573</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804" s="6">
+        <v>100574</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805" s="6">
+        <v>100575</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" s="6">
+        <v>100576</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807" s="6">
+        <v>100577</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808" s="6">
+        <v>100578</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" s="6">
+        <v>100579</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810" s="6">
+        <v>100580</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811" s="6">
+        <v>100581</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812" s="6">
+        <v>100582</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813" s="6">
+        <v>100583</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814" s="6">
+        <v>100584</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815" s="6">
+        <v>100585</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816" s="6">
+        <v>100586</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817" s="6">
+        <v>100587</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818" s="6">
+        <v>100588</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819" s="6">
+        <v>100589</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820" s="6">
+        <v>100590</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821" s="6">
+        <v>100591</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822" s="6">
+        <v>100592</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823" s="6">
+        <v>100593</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824" s="6">
+        <v>100594</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825" s="6">
+        <v>100595</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826" s="6">
+        <v>100596</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827" s="6">
+        <v>100597</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828" s="6">
+        <v>100598</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829" s="6">
+        <v>100599</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830" s="6">
+        <v>100600</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831" s="6">
+        <v>100601</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832" s="6">
+        <v>100602</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" s="6">
+        <v>100603</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834" s="6">
+        <v>100604</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" s="6">
+        <v>100605</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836" s="6">
+        <v>100606</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837" s="6">
+        <v>100607</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838" s="6">
+        <v>100608</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839" s="6">
+        <v>100609</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" s="6">
+        <v>100610</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" s="6">
+        <v>100611</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842" s="6">
+        <v>100612</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" s="6">
+        <v>100613</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844" s="6">
+        <v>100614</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" s="6">
+        <v>100615</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" s="6">
+        <v>100616</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" s="6">
+        <v>100617</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848" s="6">
+        <v>100618</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849" s="6">
+        <v>100619</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850" s="6">
+        <v>100620</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851" s="6">
+        <v>100621</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852" s="6">
+        <v>100622</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" s="6">
+        <v>100623</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" s="6">
+        <v>100624</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855" s="6">
+        <v>100625</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856" s="6">
+        <v>100626</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" s="6">
+        <v>100627</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858" s="6">
+        <v>100628</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859" s="6">
+        <v>100629</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" s="6">
+        <v>100630</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861" s="6">
+        <v>100631</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862" s="6">
+        <v>100632</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863" s="6">
+        <v>100633</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864" s="6">
+        <v>100634</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865" s="6">
+        <v>100635</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866" s="6">
+        <v>100636</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867" s="6">
+        <v>100637</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868" s="6">
+        <v>100638</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869" s="6">
+        <v>100639</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870" s="6">
+        <v>100640</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871" s="6">
+        <v>100641</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872" s="6">
+        <v>100642</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873" s="6">
+        <v>100643</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874" s="6">
+        <v>100644</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875" s="6">
+        <v>100645</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876" s="6">
+        <v>100646</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877" s="6">
+        <v>100647</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878" s="6">
+        <v>100648</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879" s="6">
+        <v>100649</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880" s="6">
+        <v>100650</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881" s="6">
+        <v>100651</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882" s="6">
+        <v>100652</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883" s="6">
+        <v>100653</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884" s="6">
+        <v>100654</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885" s="6">
+        <v>100655</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886" s="6">
+        <v>100656</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887" s="6">
+        <v>100657</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888" s="6">
+        <v>100658</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889" s="6">
+        <v>100659</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890" s="6">
+        <v>100660</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891" s="6">
+        <v>100661</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892" s="6">
+        <v>100662</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893" s="6">
+        <v>100663</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894" s="6">
+        <v>100664</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895" s="6">
+        <v>100665</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896" s="6">
+        <v>100666</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897" s="6">
+        <v>100667</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898" s="6">
+        <v>100668</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899" s="6">
+        <v>100669</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900" s="6">
+        <v>100670</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901" s="6">
+        <v>100671</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902" s="6">
+        <v>100672</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903" s="6">
+        <v>100673</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904" s="6">
+        <v>100674</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905" s="6">
+        <v>100675</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906" s="6">
+        <v>100676</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907" s="6">
+        <v>100677</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908" s="6">
+        <v>100678</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909" s="6">
+        <v>100679</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910" s="6">
+        <v>100680</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911" s="6">
+        <v>100681</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912" s="6">
+        <v>100682</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913" s="6">
+        <v>100683</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914" s="6">
+        <v>100684</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915" s="6">
+        <v>100685</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916" s="6">
+        <v>100686</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917" s="6">
+        <v>100687</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918" s="6">
+        <v>100688</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919" s="6">
+        <v>100689</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920" s="6">
+        <v>100690</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921" s="6">
+        <v>100691</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922" s="6">
+        <v>100692</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923" s="6">
+        <v>100693</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924" s="6">
+        <v>100694</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925" s="6">
+        <v>100695</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926" s="6">
+        <v>100696</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927" s="6">
+        <v>100697</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928" s="6">
+        <v>100698</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929" s="6">
+        <v>100699</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930" s="6">
+        <v>100700</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931" s="6">
+        <v>100701</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932" s="6">
+        <v>100702</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933" s="6">
+        <v>100703</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934" s="6">
+        <v>100704</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935" s="6">
+        <v>100705</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936" s="6">
+        <v>100706</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937" s="6">
+        <v>100707</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938" s="6">
+        <v>100708</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939" s="6">
+        <v>100709</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940" s="6">
+        <v>100710</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941" s="6">
+        <v>100711</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942" s="6">
+        <v>100712</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943" s="6">
+        <v>100713</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944" s="6">
+        <v>100714</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945" s="6">
+        <v>100715</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946" s="6">
+        <v>100716</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947" s="6">
+        <v>100717</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A948" s="6">
+        <v>100718</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A949" s="6">
+        <v>100719</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A950" s="6">
+        <v>100720</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A951" s="6">
+        <v>100721</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952" s="6">
+        <v>100722</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A953" s="6">
+        <v>100723</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954" s="6">
+        <v>100724</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955" s="6">
+        <v>100725</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956" s="6">
+        <v>100726</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A957" s="6">
+        <v>100727</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958" s="6">
+        <v>100728</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A959" s="6">
+        <v>100729</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960" s="6">
+        <v>100730</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A961" s="6">
+        <v>100731</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962" s="6">
+        <v>100732</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A963" s="6">
+        <v>100733</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964" s="6">
+        <v>100734</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A965" s="6">
+        <v>100735</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966" s="6">
+        <v>100736</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A967" s="6">
+        <v>100737</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968" s="6">
+        <v>100738</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969" s="6">
+        <v>100739</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970" s="6">
+        <v>100740</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A971" s="6">
+        <v>100741</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A972" s="6">
+        <v>100742</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973" s="6">
+        <v>100743</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974" s="6">
+        <v>100744</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A975" s="6">
+        <v>100745</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976" s="6">
+        <v>100746</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A977" s="6">
+        <v>100747</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A978" s="6">
+        <v>100748</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A979" s="6">
+        <v>100749</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A980" s="6">
+        <v>100750</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A981" s="6">
+        <v>100751</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A982" s="6">
+        <v>100752</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A983" s="6">
+        <v>100753</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A984" s="6">
+        <v>100754</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A985" s="6">
+        <v>100755</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986" s="6">
+        <v>100756</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A987" s="6">
+        <v>100757</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A988" s="6">
+        <v>100758</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A989" s="6">
+        <v>100759</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A990" s="6">
+        <v>100760</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A991" s="6">
+        <v>100761</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A992" s="6">
+        <v>100762</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A993" s="6">
+        <v>100763</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A994" s="6">
+        <v>100764</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A995" s="6">
+        <v>100765</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A996" s="6">
+        <v>100766</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A997" s="6">
+        <v>100767</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A998" s="6">
+        <v>100768</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A999" s="6">
+        <v>100769</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1000" s="6">
+        <v>100770</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1001" s="6">
+        <v>100771</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1002" s="6">
+        <v>100772</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1003" s="6">
+        <v>100773</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1004" s="6">
+        <v>100774</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1005" s="6">
+        <v>100775</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1006" s="6">
+        <v>100776</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1007" s="6">
+        <v>100777</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1008" s="6">
+        <v>100778</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1009" s="6">
+        <v>100779</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1010" s="6">
+        <v>100780</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1011" s="6">
+        <v>100781</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1012" s="6">
+        <v>100782</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1013" s="6">
+        <v>100783</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1014" s="6">
+        <v>100784</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1015" s="6">
+        <v>100785</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1016" s="6">
+        <v>100786</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1017" s="6">
+        <v>100787</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1018" s="6">
+        <v>100788</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1019" s="6">
+        <v>100789</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1020" s="6">
+        <v>100790</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1021" s="6">
+        <v>100791</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1022" s="6">
+        <v>100792</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1023" s="6">
+        <v>100793</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1024" s="6">
+        <v>100794</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1025" s="6">
+        <v>100795</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1026" s="6">
+        <v>100796</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1027" s="6">
+        <v>100797</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1028" s="6">
+        <v>100798</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1029" s="6">
+        <v>100799</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1030" s="6">
+        <v>100800</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1031" s="6">
+        <v>100801</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1032" s="6">
+        <v>100802</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1033" s="6">
+        <v>100803</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1034" s="6">
+        <v>100804</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1035" s="6">
+        <v>100805</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1036" s="6">
+        <v>100806</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1037" s="6">
+        <v>100807</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1038" s="6">
+        <v>100808</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1039" s="6">
+        <v>100809</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1040" s="6">
+        <v>100810</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1041" s="6">
+        <v>100811</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1042" s="6">
+        <v>100812</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1043" s="6">
+        <v>100813</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1044" s="6">
+        <v>100814</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1045" s="6">
+        <v>100815</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1046" s="6">
+        <v>100816</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1047" s="6">
+        <v>100817</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048" s="6">
+        <v>100818</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1049" s="6">
+        <v>100819</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1050" s="6">
+        <v>100820</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1051" s="6">
+        <v>100821</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1052" s="6">
+        <v>100822</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1053" s="6">
+        <v>100823</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1054" s="6">
+        <v>100824</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1055" s="6">
+        <v>100825</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1056" s="6">
+        <v>100826</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1057" s="6">
+        <v>100827</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1058" s="6">
+        <v>100828</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1059" s="6">
+        <v>100829</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1060" s="6">
+        <v>100830</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1061" s="6">
+        <v>100831</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1062" s="6">
+        <v>100832</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1063" s="6">
+        <v>100833</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1064" s="6">
+        <v>100834</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1065" s="6">
+        <v>100835</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1066" s="6">
+        <v>100836</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1067" s="6">
+        <v>100837</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1068" s="6">
+        <v>100838</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1069" s="6">
+        <v>100839</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1070" s="6">
+        <v>100840</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1071" s="6">
+        <v>100841</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1072" s="6">
+        <v>100842</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1073" s="6">
+        <v>100843</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1074" s="6">
+        <v>100844</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1075" s="6">
+        <v>100845</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1076" s="6">
+        <v>100846</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1077" s="6">
+        <v>100847</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1078" s="6">
+        <v>100848</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1079" s="6">
+        <v>100849</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1080" s="6">
+        <v>100850</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1081" s="6">
+        <v>100851</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1082" s="6">
+        <v>100852</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1083" s="6">
+        <v>100853</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1084" s="6">
+        <v>100854</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1085" s="6">
+        <v>100855</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1086" s="6">
+        <v>100856</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1087" s="6">
+        <v>100857</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1088" s="6">
+        <v>100858</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1089" s="6">
+        <v>100859</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1090" s="6">
+        <v>100860</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1091" s="6">
+        <v>100861</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1092" s="6">
+        <v>100862</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1093" s="6">
+        <v>100863</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1094" s="6">
+        <v>100864</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1095" s="6">
+        <v>100865</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1096" s="6">
+        <v>100866</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1097" s="6">
+        <v>100867</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1098" s="6">
+        <v>100868</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1099" s="6">
+        <v>100869</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1100" s="6">
+        <v>100870</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1101" s="6">
+        <v>100871</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1102" s="6">
+        <v>100872</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1103" s="6">
+        <v>100873</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1104" s="6">
+        <v>100874</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1105" s="6">
+        <v>100875</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1106" s="6">
+        <v>100876</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1107" s="6">
+        <v>100877</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1108" s="6">
+        <v>100878</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1109" s="6">
+        <v>100879</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1110" s="6">
+        <v>100880</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1111" s="6">
+        <v>100881</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1112" s="6">
+        <v>100882</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1113" s="6">
+        <v>100883</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1114" s="6">
+        <v>100884</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1115" s="6">
+        <v>100885</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1116" s="6">
+        <v>100886</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1117" s="6">
+        <v>100887</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1118" s="6">
+        <v>100888</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1119" s="6">
+        <v>100889</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1120" s="6">
+        <v>100890</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1121" s="6">
+        <v>100891</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1122" s="6">
+        <v>100892</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1123" s="6">
+        <v>100893</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1124" s="6">
+        <v>100894</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1125" s="6">
+        <v>100895</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1126" s="6">
+        <v>100896</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1127" s="6">
+        <v>100897</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1128" s="6">
+        <v>100898</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1129" s="6">
+        <v>100899</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1130" s="6">
+        <v>100900</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1131" s="6">
+        <v>100901</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1132" s="6">
+        <v>100902</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1133" s="6">
+        <v>100903</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1134" s="6">
+        <v>100904</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1135" s="6">
+        <v>100905</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1136" s="6">
+        <v>100906</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1137" s="6">
+        <v>100907</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1138" s="6">
+        <v>100908</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1139" s="6">
+        <v>100909</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1140" s="6">
+        <v>100910</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1141" s="6">
+        <v>100911</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1142" s="6">
+        <v>100912</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1143" s="6">
+        <v>100913</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1144" s="6">
+        <v>100914</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1145" s="6">
+        <v>100915</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1146" s="6">
+        <v>100916</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1147" s="6">
+        <v>100917</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1148" s="6">
+        <v>100918</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1149" s="6">
+        <v>100919</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1150" s="6">
+        <v>100920</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1151" s="6">
+        <v>100921</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1152" s="6">
+        <v>100922</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1153" s="6">
+        <v>100923</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1154" s="6">
+        <v>100924</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1155" s="6">
+        <v>100925</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1156" s="6">
+        <v>100926</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1157" s="6">
+        <v>100927</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1158" s="6">
+        <v>100928</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1159" s="6">
+        <v>100929</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1160" s="6">
+        <v>100930</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1161" s="6">
+        <v>100931</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1162" s="6">
+        <v>100932</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1163" s="6">
+        <v>100933</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1164" s="6">
+        <v>100934</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1165" s="6">
+        <v>100935</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1166" s="6">
+        <v>100936</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1167" s="6">
+        <v>100937</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1168" s="6">
+        <v>100938</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1169" s="6">
+        <v>100939</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1170" s="6">
+        <v>100940</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1171" s="6">
+        <v>100941</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1172" s="6">
+        <v>100942</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1173" s="6">
+        <v>100943</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1174" s="6">
+        <v>100944</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1175" s="6">
+        <v>100945</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1176" s="6">
+        <v>100946</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1177" s="6">
+        <v>100947</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1178" s="6">
+        <v>100948</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1179" s="6">
+        <v>100949</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1180" s="6">
+        <v>100950</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1181" s="6">
+        <v>100951</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1182" s="6">
+        <v>100952</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1183" s="6">
+        <v>100953</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1184" s="6">
+        <v>100954</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1185" s="6">
+        <v>100955</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1186" s="6">
+        <v>100956</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1187" s="6">
+        <v>100957</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1188" s="6">
+        <v>100958</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1189" s="6">
+        <v>100959</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1190" s="6">
+        <v>100960</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1191" s="6">
+        <v>100961</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1192" s="6">
+        <v>100962</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1193" s="6">
+        <v>100963</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1194" s="6">
+        <v>100964</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1195" s="6">
+        <v>100965</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1196" s="6">
+        <v>100966</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1197" s="6">
+        <v>100967</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1198" s="6">
+        <v>100968</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1199" s="6">
+        <v>100969</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1200" s="6">
+        <v>100970</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1201" s="6">
+        <v>100971</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1202" s="6">
+        <v>100972</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1203" s="6">
+        <v>100973</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1204" s="6">
+        <v>100974</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1205" s="6">
+        <v>100975</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1206" s="6">
+        <v>100976</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1207" s="6">
+        <v>100977</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1208" s="6">
+        <v>100978</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1209" s="6">
+        <v>100979</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1210" s="6">
+        <v>100980</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1211" s="6">
+        <v>100981</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1212" s="6">
+        <v>100982</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1213" s="6">
+        <v>100983</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1214" s="6">
+        <v>100984</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1215" s="6">
+        <v>100985</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1216" s="6">
+        <v>100986</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1217" s="6">
+        <v>100987</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1218" s="6">
+        <v>100988</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1219" s="6">
+        <v>100989</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1220" s="6">
+        <v>100990</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1221" s="6">
+        <v>100991</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1222" s="6">
+        <v>100992</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1223" s="6">
+        <v>100993</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1224" s="6">
+        <v>100994</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1225" s="6">
+        <v>100995</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1226" s="6">
+        <v>100996</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1227" s="6">
+        <v>100997</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1228" s="6">
+        <v>100998</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1229" s="6">
+        <v>100999</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1230" s="6">
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1231" s="6">
+        <v>101001</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1232" s="6">
+        <v>101002</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1233" s="6">
+        <v>101003</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1234" s="6">
+        <v>101004</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1235" s="6">
+        <v>101005</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1236" s="6">
+        <v>101006</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1237" s="6">
+        <v>101007</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1238" s="6">
+        <v>101008</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1239" s="6">
+        <v>101009</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1240" s="6">
+        <v>101010</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1241" s="6">
+        <v>101011</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1242" s="6">
+        <v>101012</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1243" s="6">
+        <v>101013</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1244" s="6">
+        <v>101014</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1245" s="6">
+        <v>101015</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1246" s="6">
+        <v>101016</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1247" s="6">
+        <v>101017</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1248" s="6">
+        <v>101018</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1249" s="6">
+        <v>101019</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1250" s="6">
+        <v>101020</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1251" s="6">
+        <v>101021</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1252" s="6">
+        <v>101022</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1253" s="6">
+        <v>101023</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1254" s="6">
+        <v>101024</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1255" s="6">
+        <v>101025</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1256" s="6">
+        <v>101026</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1257" s="6">
+        <v>101027</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1258" s="6">
+        <v>101028</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1259" s="6">
+        <v>101029</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1260" s="6">
+        <v>101030</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1261" s="6">
+        <v>101031</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1262" s="6">
+        <v>101032</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1263" s="6">
+        <v>101033</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1264" s="6">
+        <v>101034</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1265" s="6">
+        <v>101035</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1266" s="6">
+        <v>101036</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1267" s="6">
+        <v>101037</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1268" s="6">
+        <v>101038</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1269" s="6">
+        <v>101039</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1270" s="6">
+        <v>101040</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1271" s="6">
+        <v>101041</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1272" s="6">
+        <v>101042</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1273" s="6">
+        <v>101043</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1274" s="6">
+        <v>101044</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1275" s="6">
+        <v>101045</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1276" s="6">
+        <v>101046</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1277" s="6">
+        <v>101047</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1278" s="6">
+        <v>101048</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1279" s="6">
+        <v>101049</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1280" s="6">
+        <v>101050</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1281" s="6">
+        <v>101051</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1282" s="6">
+        <v>101052</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1283" s="6">
+        <v>101053</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1284" s="6">
+        <v>101054</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1285" s="6">
+        <v>101055</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1286" s="6">
+        <v>101056</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1287" s="6">
+        <v>101057</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1288" s="6">
+        <v>101058</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1289" s="6">
+        <v>101059</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1290" s="6">
+        <v>101060</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1291" s="6">
+        <v>101061</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1292" s="6">
+        <v>101062</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1293" s="6">
+        <v>101063</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1294" s="6">
+        <v>101064</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1295" s="6">
+        <v>101065</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1296" s="6">
+        <v>101066</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1297" s="6">
+        <v>101067</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1298" s="6">
+        <v>101068</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1299" s="6">
+        <v>101069</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1300" s="6">
+        <v>101070</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1301" s="6">
+        <v>101071</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1302" s="6">
+        <v>101072</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1303" s="6">
+        <v>101073</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1304" s="6">
+        <v>101074</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1305" s="6">
+        <v>101075</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1306" s="6">
+        <v>101076</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1307" s="6">
+        <v>101077</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1308" s="6">
+        <v>101078</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1309" s="6">
+        <v>101079</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1310" s="6">
+        <v>101080</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1311" s="6">
+        <v>101081</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1312" s="6">
+        <v>101082</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1313" s="6">
+        <v>101083</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1314" s="6">
+        <v>101084</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1315" s="6">
+        <v>101085</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1316" s="6">
+        <v>101086</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1317" s="6">
+        <v>101087</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1318" s="6">
+        <v>101088</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1319" s="6">
+        <v>101089</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1320" s="6">
+        <v>101090</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1321" s="6">
+        <v>101091</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1322" s="6">
+        <v>101092</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1323" s="6">
+        <v>101093</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1324" s="6">
+        <v>101094</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1325" s="6">
+        <v>101095</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1326" s="6">
+        <v>101096</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1327" s="6">
+        <v>101097</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1328" s="6">
+        <v>101098</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1329" s="6">
+        <v>101099</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1330" s="6">
+        <v>101100</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1331" s="6">
+        <v>101101</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1332" s="6">
+        <v>101102</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1333" s="6">
+        <v>101103</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1334" s="6">
+        <v>101104</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1335" s="6">
+        <v>101105</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1336" s="6">
+        <v>101106</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1337" s="6">
+        <v>101107</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1338" s="6">
+        <v>101108</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1339" s="6">
+        <v>101109</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1340" s="6">
+        <v>101110</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1341" s="6">
+        <v>101111</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1342" s="6">
+        <v>101112</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1343" s="6">
+        <v>101113</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1344" s="6">
+        <v>101114</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1345" s="6">
+        <v>101115</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1346" s="6">
+        <v>101116</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1347" s="6">
+        <v>101117</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1348" s="6">
+        <v>101118</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1349" s="6">
+        <v>101119</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1350" s="6">
+        <v>101120</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1351" s="6">
+        <v>101121</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1352" s="6">
+        <v>101122</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1353" s="6">
+        <v>101123</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1354" s="6">
+        <v>101124</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1355" s="6">
+        <v>101125</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1356" s="6">
+        <v>101126</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1357" s="6">
+        <v>101127</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1358" s="6">
+        <v>101128</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1359" s="6">
+        <v>101129</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1360" s="6">
+        <v>101130</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1361" s="6">
+        <v>101131</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1362" s="6">
+        <v>101132</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1363" s="6">
+        <v>101133</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1364" s="6">
+        <v>101134</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1365" s="6">
+        <v>101135</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1366" s="6">
+        <v>101136</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1367" s="6">
+        <v>101137</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1368" s="6">
+        <v>101138</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1369" s="6">
+        <v>101139</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1370" s="6">
+        <v>101140</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1371" s="6">
+        <v>101141</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1372" s="6">
+        <v>101142</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1373" s="6">
+        <v>101143</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1374" s="6">
+        <v>101144</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1375" s="6">
+        <v>101145</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1376" s="6">
+        <v>101146</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1377" s="6">
+        <v>101147</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1378" s="6">
+        <v>101148</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1379" s="6">
+        <v>101149</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1380" s="6">
+        <v>101150</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1381" s="6">
+        <v>101151</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1382" s="6">
+        <v>101152</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1383" s="6">
+        <v>101153</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1384" s="6">
+        <v>101154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10AD944-E89C-49D5-8FF3-8BB51F7FCB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861B7DDF-A78E-4305-A9A2-89926587DA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42360" yWindow="3960" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6810" yWindow="2415" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="23">
   <si>
     <t>code</t>
   </si>
@@ -52,21 +52,6 @@
   </si>
   <si>
     <t>Компакт</t>
-  </si>
-  <si>
-    <t>нет наклеек и надписей</t>
-  </si>
-  <si>
-    <t>единственная сумка с нормальной наклейкой (машина 31982, Ногинск, технопарк, Лемана про)</t>
-  </si>
-  <si>
-    <t>на сумке есть наклейка с надписью Райфайзен</t>
-  </si>
-  <si>
-    <t>есть наклейка 31502</t>
-  </si>
-  <si>
-    <t>на сумке есть надпись "30117"</t>
   </si>
   <si>
     <t>22601k</t>
@@ -101,17 +86,37 @@
   <si>
     <t>в ремонте. Пришла без наклеек и надписей</t>
   </si>
+  <si>
+    <t>в ремонте. Пришла с наклейкой (машина 31982, Ногинск, технопарк, Лемана про)</t>
+  </si>
+  <si>
+    <t>в ремонте. На сумке есть наклейка 31502</t>
+  </si>
+  <si>
+    <t>в ремонте. На сумке есть надпись "30117"</t>
+  </si>
+  <si>
+    <t>в ремонте. На сумке есть наклейка с надписью Райфайзен</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,25 +163,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -460,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4">
         <v>45292</v>
@@ -532,13 +538,13 @@
         <v>24925</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7">
         <v>45897</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -546,13 +552,13 @@
         <v>24945</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7">
         <v>45553</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
+      <c r="D6" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -560,13 +566,13 @@
         <v>24946</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45553</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -574,13 +580,13 @@
         <v>24953</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8" s="7">
         <v>45553</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
+      <c r="D8" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,13 +594,13 @@
         <v>24903</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45553</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,13 +608,13 @@
         <v>24986</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7">
         <v>45544</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
+      <c r="D10" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,7 +1059,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C60" s="7">
         <v>45553</v>
@@ -1119,7 +1125,7 @@
         <v>24936</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C66" s="7">
         <v>45579</v>
@@ -1130,7 +1136,7 @@
         <v>25049</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C67" s="7">
         <v>45579</v>
@@ -1141,7 +1147,7 @@
         <v>24999</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C68" s="7">
         <v>45579</v>
@@ -1152,7 +1158,7 @@
         <v>25043</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C69" s="7">
         <v>45579</v>
@@ -1163,7 +1169,7 @@
         <v>24998</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C70" s="7">
         <v>45579</v>
@@ -1174,7 +1180,7 @@
         <v>25015</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C71" s="7">
         <v>45579</v>
@@ -1185,7 +1191,7 @@
         <v>25058</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C72" s="7">
         <v>45579</v>
@@ -1196,13 +1202,13 @@
         <v>25069</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C73" s="7">
         <v>45579</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1210,7 +1216,7 @@
         <v>25001</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C74" s="7">
         <v>45579</v>
@@ -1221,7 +1227,7 @@
         <v>25041</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C75" s="7">
         <v>45579</v>
@@ -1232,7 +1238,7 @@
         <v>25036</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C76" s="7">
         <v>45579</v>
@@ -1243,7 +1249,7 @@
         <v>25024</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C77" s="7">
         <v>45579</v>
@@ -1254,7 +1260,7 @@
         <v>25040</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C78" s="7">
         <v>45579</v>
@@ -1265,7 +1271,7 @@
         <v>25074</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C79" s="7">
         <v>45579</v>
@@ -1276,7 +1282,7 @@
         <v>25048</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C80" s="7">
         <v>45579</v>
@@ -1287,7 +1293,7 @@
         <v>25035</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C81" s="7">
         <v>45579</v>
@@ -1298,7 +1304,7 @@
         <v>25010</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C82" s="7">
         <v>45579</v>
@@ -1309,7 +1315,7 @@
         <v>25000</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C83" s="7">
         <v>45579</v>
@@ -1317,7 +1323,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C84" s="7">
         <v>45616</v>
@@ -1613,7 +1619,7 @@
         <v>25055</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C115" s="7">
         <v>45636</v>
@@ -1624,7 +1630,7 @@
         <v>25085</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C116" s="7">
         <v>45636</v>
@@ -1635,7 +1641,7 @@
         <v>25052</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C117" s="7">
         <v>45636</v>
@@ -1646,7 +1652,7 @@
         <v>25064</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C118" s="7">
         <v>45636</v>
@@ -1657,7 +1663,7 @@
         <v>25068</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C119" s="7">
         <v>45636</v>
@@ -1668,7 +1674,7 @@
         <v>25062</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C120" s="7">
         <v>45636</v>
@@ -1679,7 +1685,7 @@
         <v>25061</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C121" s="7">
         <v>45636</v>
@@ -1690,7 +1696,7 @@
         <v>25053</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C122" s="7">
         <v>45636</v>
@@ -1701,7 +1707,7 @@
         <v>25060</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C123" s="7">
         <v>45636</v>
@@ -1712,7 +1718,7 @@
         <v>25014</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C124" s="7">
         <v>45636</v>
@@ -1723,7 +1729,7 @@
         <v>25046</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C125" s="7">
         <v>45636</v>
@@ -1734,7 +1740,7 @@
         <v>25021</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C126" s="7">
         <v>45636</v>
@@ -1745,7 +1751,7 @@
         <v>25020</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C127" s="7">
         <v>45636</v>
@@ -1756,7 +1762,7 @@
         <v>25002</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C128" s="7">
         <v>45636</v>
@@ -1767,7 +1773,7 @@
         <v>25025</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C129" s="7">
         <v>45636</v>
@@ -1778,7 +1784,7 @@
         <v>25022</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C130" s="7">
         <v>45636</v>
@@ -1789,7 +1795,7 @@
         <v>25011</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C131" s="7">
         <v>45636</v>
@@ -1800,7 +1806,7 @@
         <v>25029</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C132" s="7">
         <v>45636</v>
@@ -1811,7 +1817,7 @@
         <v>25007</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C133" s="7">
         <v>45636</v>
@@ -1822,7 +1828,7 @@
         <v>25032</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C134" s="7">
         <v>45636</v>
@@ -1833,7 +1839,7 @@
         <v>25005</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C135" s="7">
         <v>45636</v>
@@ -1844,7 +1850,7 @@
         <v>25042</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C136" s="7">
         <v>45636</v>
@@ -1855,7 +1861,7 @@
         <v>25031</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C137" s="7">
         <v>45636</v>
@@ -1866,7 +1872,7 @@
         <v>25033</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C138" s="7">
         <v>45636</v>
@@ -1877,7 +1883,7 @@
         <v>25038</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C139" s="7">
         <v>45636</v>
@@ -1888,7 +1894,7 @@
         <v>25044</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C140" s="7">
         <v>45636</v>
@@ -1899,7 +1905,7 @@
         <v>25050</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C141" s="7">
         <v>45636</v>
@@ -1910,7 +1916,7 @@
         <v>25054</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C142" s="7">
         <v>45636</v>
@@ -1921,7 +1927,7 @@
         <v>25063</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C143" s="7">
         <v>45636</v>
@@ -1932,7 +1938,7 @@
         <v>25502</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C144" s="4">
         <v>45951</v>
@@ -1944,7 +1950,7 @@
         <v>25503</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C145" s="4">
         <v>45951</v>
@@ -1956,7 +1962,7 @@
         <v>25504</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C146" s="4">
         <v>45951</v>
@@ -1968,7 +1974,7 @@
         <v>25505</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C147" s="4">
         <v>45951</v>
@@ -1980,7 +1986,7 @@
         <v>25506</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C148" s="4">
         <v>45951</v>
@@ -1992,7 +1998,7 @@
         <v>25507</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C149" s="4">
         <v>45951</v>
@@ -2004,7 +2010,7 @@
         <v>25508</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C150" s="4">
         <v>45951</v>
@@ -2016,7 +2022,7 @@
         <v>25509</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C151" s="4">
         <v>45951</v>
@@ -2028,7 +2034,7 @@
         <v>25510</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C152" s="4">
         <v>45951</v>
@@ -2040,7 +2046,7 @@
         <v>25511</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C153" s="4">
         <v>45951</v>
@@ -2052,7 +2058,7 @@
         <v>25512</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C154" s="4">
         <v>45951</v>
@@ -2064,7 +2070,7 @@
         <v>25513</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C155" s="4">
         <v>45951</v>
@@ -2076,7 +2082,7 @@
         <v>25514</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C156" s="4">
         <v>45951</v>
@@ -2088,7 +2094,7 @@
         <v>25515</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C157" s="4">
         <v>45951</v>
@@ -2100,7 +2106,7 @@
         <v>25516</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C158" s="4">
         <v>45951</v>
@@ -2112,7 +2118,7 @@
         <v>25517</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C159" s="4">
         <v>45951</v>
@@ -2124,7 +2130,7 @@
         <v>25518</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C160" s="4">
         <v>45951</v>
@@ -2136,7 +2142,7 @@
         <v>25519</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C161" s="4">
         <v>45951</v>
@@ -2148,7 +2154,7 @@
         <v>25520</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C162" s="4">
         <v>45951</v>
@@ -2160,13 +2166,13 @@
         <v>24858</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C163" s="4">
         <v>45951</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -2174,7 +2180,7 @@
         <v>25421</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C164" s="4">
         <v>45796</v>
@@ -2186,7 +2192,7 @@
         <v>25422</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C165" s="4">
         <v>45796</v>
@@ -2198,7 +2204,7 @@
         <v>25423</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C166" s="4">
         <v>45796</v>
@@ -2210,7 +2216,7 @@
         <v>25424</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C167" s="4">
         <v>45796</v>
@@ -2222,7 +2228,7 @@
         <v>25425</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C168" s="4">
         <v>45796</v>
@@ -2234,7 +2240,7 @@
         <v>25426</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C169" s="4">
         <v>45796</v>
@@ -2246,7 +2252,7 @@
         <v>25428</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C170" s="4">
         <v>45796</v>
@@ -2258,7 +2264,7 @@
         <v>25429</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C171" s="4">
         <v>45796</v>
@@ -2270,7 +2276,7 @@
         <v>25430</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C172" s="4">
         <v>45796</v>
@@ -2282,7 +2288,7 @@
         <v>25435</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C173" s="4">
         <v>45796</v>
@@ -2294,13 +2300,13 @@
         <v>25540</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -2308,13 +2314,13 @@
         <v>25541</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -2322,13 +2328,13 @@
         <v>25542</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -2336,13 +2342,13 @@
         <v>25543</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -2350,13 +2356,13 @@
         <v>25544</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -2364,13 +2370,13 @@
         <v>25545</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -2378,13 +2384,13 @@
         <v>25549</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -2392,13 +2398,13 @@
         <v>25550</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861B7DDF-A78E-4305-A9A2-89926587DA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077C7C5C-0A97-4406-8160-8E999414E250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="2415" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43350" yWindow="4950" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1374"/>
+  <dimension ref="A1:D1182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A1165" workbookViewId="0">
+      <selection activeCell="A1183" sqref="A1183:XFD1374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7217,966 +7217,6 @@
         <v>100962</v>
       </c>
     </row>
-    <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1183" s="5">
-        <v>100963</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1184" s="5">
-        <v>100964</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1185" s="5">
-        <v>100965</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1186" s="5">
-        <v>100966</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1187" s="5">
-        <v>100967</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1188" s="5">
-        <v>100968</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1189" s="5">
-        <v>100969</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1190" s="5">
-        <v>100970</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1191" s="5">
-        <v>100971</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1192" s="5">
-        <v>100972</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1193" s="5">
-        <v>100973</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1194" s="5">
-        <v>100974</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1195" s="5">
-        <v>100975</v>
-      </c>
-    </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1196" s="5">
-        <v>100976</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1197" s="5">
-        <v>100977</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1198" s="5">
-        <v>100978</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1199" s="5">
-        <v>100979</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1200" s="5">
-        <v>100980</v>
-      </c>
-    </row>
-    <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1201" s="5">
-        <v>100981</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1202" s="5">
-        <v>100982</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1203" s="5">
-        <v>100983</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1204" s="5">
-        <v>100984</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1205" s="5">
-        <v>100985</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1206" s="5">
-        <v>100986</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1207" s="5">
-        <v>100987</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1208" s="5">
-        <v>100988</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1209" s="5">
-        <v>100989</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1210" s="5">
-        <v>100990</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1211" s="5">
-        <v>100991</v>
-      </c>
-    </row>
-    <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1212" s="5">
-        <v>100992</v>
-      </c>
-    </row>
-    <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1213" s="5">
-        <v>100993</v>
-      </c>
-    </row>
-    <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1214" s="5">
-        <v>100994</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1215" s="5">
-        <v>100995</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1216" s="5">
-        <v>100996</v>
-      </c>
-    </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1217" s="5">
-        <v>100997</v>
-      </c>
-    </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1218" s="5">
-        <v>100998</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1219" s="5">
-        <v>100999</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1220" s="5">
-        <v>101000</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1221" s="5">
-        <v>101001</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1222" s="5">
-        <v>101002</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1223" s="5">
-        <v>101003</v>
-      </c>
-    </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1224" s="5">
-        <v>101004</v>
-      </c>
-    </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1225" s="5">
-        <v>101005</v>
-      </c>
-    </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1226" s="5">
-        <v>101006</v>
-      </c>
-    </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1227" s="5">
-        <v>101007</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1228" s="5">
-        <v>101008</v>
-      </c>
-    </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1229" s="5">
-        <v>101009</v>
-      </c>
-    </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1230" s="5">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1231" s="5">
-        <v>101011</v>
-      </c>
-    </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1232" s="5">
-        <v>101012</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1233" s="5">
-        <v>101013</v>
-      </c>
-    </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1234" s="5">
-        <v>101014</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1235" s="5">
-        <v>101015</v>
-      </c>
-    </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1236" s="5">
-        <v>101016</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1237" s="5">
-        <v>101017</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1238" s="5">
-        <v>101018</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1239" s="5">
-        <v>101019</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1240" s="5">
-        <v>101020</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1241" s="5">
-        <v>101021</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1242" s="5">
-        <v>101022</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1243" s="5">
-        <v>101023</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1244" s="5">
-        <v>101024</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1245" s="5">
-        <v>101025</v>
-      </c>
-    </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1246" s="5">
-        <v>101026</v>
-      </c>
-    </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1247" s="5">
-        <v>101027</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1248" s="5">
-        <v>101028</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1249" s="5">
-        <v>101029</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1250" s="5">
-        <v>101030</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1251" s="5">
-        <v>101031</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1252" s="5">
-        <v>101032</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1253" s="5">
-        <v>101033</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1254" s="5">
-        <v>101034</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1255" s="5">
-        <v>101035</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1256" s="5">
-        <v>101036</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1257" s="5">
-        <v>101037</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1258" s="5">
-        <v>101038</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1259" s="5">
-        <v>101039</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1260" s="5">
-        <v>101040</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1261" s="5">
-        <v>101041</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1262" s="5">
-        <v>101042</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1263" s="5">
-        <v>101043</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1264" s="5">
-        <v>101044</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1265" s="5">
-        <v>101045</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1266" s="5">
-        <v>101046</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1267" s="5">
-        <v>101047</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1268" s="5">
-        <v>101048</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1269" s="5">
-        <v>101049</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1270" s="5">
-        <v>101050</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1271" s="5">
-        <v>101051</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1272" s="5">
-        <v>101052</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1273" s="5">
-        <v>101053</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1274" s="5">
-        <v>101054</v>
-      </c>
-    </row>
-    <row r="1275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1275" s="5">
-        <v>101055</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1276" s="5">
-        <v>101056</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1277" s="5">
-        <v>101057</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1278" s="5">
-        <v>101058</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1279" s="5">
-        <v>101059</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1280" s="5">
-        <v>101060</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1281" s="5">
-        <v>101061</v>
-      </c>
-    </row>
-    <row r="1282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1282" s="5">
-        <v>101062</v>
-      </c>
-    </row>
-    <row r="1283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1283" s="5">
-        <v>101063</v>
-      </c>
-    </row>
-    <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1284" s="5">
-        <v>101064</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1285" s="5">
-        <v>101065</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1286" s="5">
-        <v>101066</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1287" s="5">
-        <v>101067</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1288" s="5">
-        <v>101068</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1289" s="5">
-        <v>101069</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1290" s="5">
-        <v>101070</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1291" s="5">
-        <v>101071</v>
-      </c>
-    </row>
-    <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1292" s="5">
-        <v>101072</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1293" s="5">
-        <v>101073</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1294" s="5">
-        <v>101074</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1295" s="5">
-        <v>101075</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1296" s="5">
-        <v>101076</v>
-      </c>
-    </row>
-    <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1297" s="5">
-        <v>101077</v>
-      </c>
-    </row>
-    <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1298" s="5">
-        <v>101078</v>
-      </c>
-    </row>
-    <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1299" s="5">
-        <v>101079</v>
-      </c>
-    </row>
-    <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1300" s="5">
-        <v>101080</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1301" s="5">
-        <v>101081</v>
-      </c>
-    </row>
-    <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1302" s="5">
-        <v>101082</v>
-      </c>
-    </row>
-    <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1303" s="5">
-        <v>101083</v>
-      </c>
-    </row>
-    <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1304" s="5">
-        <v>101084</v>
-      </c>
-    </row>
-    <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1305" s="5">
-        <v>101085</v>
-      </c>
-    </row>
-    <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1306" s="5">
-        <v>101086</v>
-      </c>
-    </row>
-    <row r="1307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1307" s="5">
-        <v>101087</v>
-      </c>
-    </row>
-    <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1308" s="5">
-        <v>101088</v>
-      </c>
-    </row>
-    <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1309" s="5">
-        <v>101089</v>
-      </c>
-    </row>
-    <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1310" s="5">
-        <v>101090</v>
-      </c>
-    </row>
-    <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1311" s="5">
-        <v>101091</v>
-      </c>
-    </row>
-    <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1312" s="5">
-        <v>101092</v>
-      </c>
-    </row>
-    <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1313" s="5">
-        <v>101093</v>
-      </c>
-    </row>
-    <row r="1314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1314" s="5">
-        <v>101094</v>
-      </c>
-    </row>
-    <row r="1315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1315" s="5">
-        <v>101095</v>
-      </c>
-    </row>
-    <row r="1316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1316" s="5">
-        <v>101096</v>
-      </c>
-    </row>
-    <row r="1317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1317" s="5">
-        <v>101097</v>
-      </c>
-    </row>
-    <row r="1318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1318" s="5">
-        <v>101098</v>
-      </c>
-    </row>
-    <row r="1319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1319" s="5">
-        <v>101099</v>
-      </c>
-    </row>
-    <row r="1320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1320" s="5">
-        <v>101100</v>
-      </c>
-    </row>
-    <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1321" s="5">
-        <v>101101</v>
-      </c>
-    </row>
-    <row r="1322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1322" s="5">
-        <v>101102</v>
-      </c>
-    </row>
-    <row r="1323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1323" s="5">
-        <v>101103</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1324" s="5">
-        <v>101104</v>
-      </c>
-    </row>
-    <row r="1325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1325" s="5">
-        <v>101105</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1326" s="5">
-        <v>101106</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1327" s="5">
-        <v>101107</v>
-      </c>
-    </row>
-    <row r="1328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1328" s="5">
-        <v>101108</v>
-      </c>
-    </row>
-    <row r="1329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1329" s="5">
-        <v>101109</v>
-      </c>
-    </row>
-    <row r="1330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1330" s="5">
-        <v>101110</v>
-      </c>
-    </row>
-    <row r="1331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1331" s="5">
-        <v>101111</v>
-      </c>
-    </row>
-    <row r="1332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1332" s="5">
-        <v>101112</v>
-      </c>
-    </row>
-    <row r="1333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1333" s="5">
-        <v>101113</v>
-      </c>
-    </row>
-    <row r="1334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1334" s="5">
-        <v>101114</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1335" s="5">
-        <v>101115</v>
-      </c>
-    </row>
-    <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1336" s="5">
-        <v>101116</v>
-      </c>
-    </row>
-    <row r="1337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1337" s="5">
-        <v>101117</v>
-      </c>
-    </row>
-    <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1338" s="5">
-        <v>101118</v>
-      </c>
-    </row>
-    <row r="1339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1339" s="5">
-        <v>101119</v>
-      </c>
-    </row>
-    <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1340" s="5">
-        <v>101120</v>
-      </c>
-    </row>
-    <row r="1341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1341" s="5">
-        <v>101121</v>
-      </c>
-    </row>
-    <row r="1342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1342" s="5">
-        <v>101122</v>
-      </c>
-    </row>
-    <row r="1343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1343" s="5">
-        <v>101123</v>
-      </c>
-    </row>
-    <row r="1344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1344" s="5">
-        <v>101124</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1345" s="5">
-        <v>101125</v>
-      </c>
-    </row>
-    <row r="1346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1346" s="5">
-        <v>101126</v>
-      </c>
-    </row>
-    <row r="1347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1347" s="5">
-        <v>101127</v>
-      </c>
-    </row>
-    <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1348" s="5">
-        <v>101128</v>
-      </c>
-    </row>
-    <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1349" s="5">
-        <v>101129</v>
-      </c>
-    </row>
-    <row r="1350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1350" s="5">
-        <v>101130</v>
-      </c>
-    </row>
-    <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1351" s="5">
-        <v>101131</v>
-      </c>
-    </row>
-    <row r="1352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1352" s="5">
-        <v>101132</v>
-      </c>
-    </row>
-    <row r="1353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1353" s="5">
-        <v>101133</v>
-      </c>
-    </row>
-    <row r="1354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1354" s="5">
-        <v>101134</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1355" s="5">
-        <v>101135</v>
-      </c>
-    </row>
-    <row r="1356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1356" s="5">
-        <v>101136</v>
-      </c>
-    </row>
-    <row r="1357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1357" s="5">
-        <v>101137</v>
-      </c>
-    </row>
-    <row r="1358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1358" s="5">
-        <v>101138</v>
-      </c>
-    </row>
-    <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1359" s="5">
-        <v>101139</v>
-      </c>
-    </row>
-    <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1360" s="5">
-        <v>101140</v>
-      </c>
-    </row>
-    <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1361" s="5">
-        <v>101141</v>
-      </c>
-    </row>
-    <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1362" s="5">
-        <v>101142</v>
-      </c>
-    </row>
-    <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1363" s="5">
-        <v>101143</v>
-      </c>
-    </row>
-    <row r="1364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1364" s="5">
-        <v>101144</v>
-      </c>
-    </row>
-    <row r="1365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1365" s="5">
-        <v>101145</v>
-      </c>
-    </row>
-    <row r="1366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1366" s="5">
-        <v>101146</v>
-      </c>
-    </row>
-    <row r="1367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1367" s="5">
-        <v>101147</v>
-      </c>
-    </row>
-    <row r="1368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1368" s="5">
-        <v>101148</v>
-      </c>
-    </row>
-    <row r="1369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1369" s="5">
-        <v>101149</v>
-      </c>
-    </row>
-    <row r="1370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1370" s="5">
-        <v>101150</v>
-      </c>
-    </row>
-    <row r="1371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1371" s="5">
-        <v>101151</v>
-      </c>
-    </row>
-    <row r="1372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1372" s="5">
-        <v>101152</v>
-      </c>
-    </row>
-    <row r="1373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1373" s="5">
-        <v>101153</v>
-      </c>
-    </row>
-    <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1374" s="5">
-        <v>101154</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077C7C5C-0A97-4406-8160-8E999414E250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3584934C-3BC2-4C18-BAED-8F8A7B6999F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43350" yWindow="4950" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47130" yWindow="2910" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="25">
   <si>
     <t>code</t>
   </si>
@@ -98,17 +98,39 @@
   <si>
     <t>в ремонте. На сумке есть наклейка с надписью Райфайзен</t>
   </si>
+  <si>
+    <t>была в ремонте 05.09.2025</t>
+  </si>
+  <si>
+    <t>была в ремонте 12.09.2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,26 +185,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -464,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1182"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1165" workbookViewId="0">
-      <selection activeCell="A1183" sqref="A1183:XFD1374"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="D343" sqref="D343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,6 +1357,9 @@
       <c r="A84" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="B84" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C84" s="7">
         <v>45616</v>
       </c>
@@ -1333,6 +1368,9 @@
       <c r="A85" s="5">
         <v>25026</v>
       </c>
+      <c r="B85" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C85" s="7">
         <v>45615</v>
       </c>
@@ -1341,6 +1379,9 @@
       <c r="A86" s="5">
         <v>25023</v>
       </c>
+      <c r="B86" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C86" s="7">
         <v>45615</v>
       </c>
@@ -1349,6 +1390,9 @@
       <c r="A87" s="5">
         <v>25071</v>
       </c>
+      <c r="B87" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C87" s="7">
         <v>45615</v>
       </c>
@@ -1357,6 +1401,9 @@
       <c r="A88" s="5">
         <v>25080</v>
       </c>
+      <c r="B88" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C88" s="7">
         <v>45615</v>
       </c>
@@ -1365,6 +1412,9 @@
       <c r="A89" s="5">
         <v>25017</v>
       </c>
+      <c r="B89" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C89" s="7">
         <v>45615</v>
       </c>
@@ -1373,6 +1423,9 @@
       <c r="A90" s="5">
         <v>25003</v>
       </c>
+      <c r="B90" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C90" s="7">
         <v>45615</v>
       </c>
@@ -1381,6 +1434,9 @@
       <c r="A91" s="5">
         <v>25009</v>
       </c>
+      <c r="B91" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C91" s="7">
         <v>45615</v>
       </c>
@@ -1389,6 +1445,9 @@
       <c r="A92" s="5">
         <v>25028</v>
       </c>
+      <c r="B92" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C92" s="7">
         <v>45615</v>
       </c>
@@ -1397,6 +1456,9 @@
       <c r="A93" s="5">
         <v>25030</v>
       </c>
+      <c r="B93" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C93" s="7">
         <v>45615</v>
       </c>
@@ -1405,6 +1467,9 @@
       <c r="A94" s="5">
         <v>25072</v>
       </c>
+      <c r="B94" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C94" s="7">
         <v>45615</v>
       </c>
@@ -1413,6 +1478,9 @@
       <c r="A95" s="5">
         <v>25018</v>
       </c>
+      <c r="B95" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C95" s="7">
         <v>45615</v>
       </c>
@@ -1421,6 +1489,9 @@
       <c r="A96" s="5">
         <v>25057</v>
       </c>
+      <c r="B96" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C96" s="7">
         <v>45615</v>
       </c>
@@ -1429,6 +1500,9 @@
       <c r="A97" s="5">
         <v>25077</v>
       </c>
+      <c r="B97" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C97" s="7">
         <v>45615</v>
       </c>
@@ -1437,6 +1511,9 @@
       <c r="A98" s="5">
         <v>25066</v>
       </c>
+      <c r="B98" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C98" s="7">
         <v>45615</v>
       </c>
@@ -1445,6 +1522,9 @@
       <c r="A99" s="5">
         <v>25078</v>
       </c>
+      <c r="B99" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C99" s="7">
         <v>45615</v>
       </c>
@@ -2407,4815 +2487,5913 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="5">
+        <v>25214</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="5">
+        <v>25202</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="5">
+        <v>25238</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="5">
+        <v>25249</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="5">
+        <v>25215</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="5">
+        <v>25225</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="5">
+        <v>25209</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="5">
+        <v>25250</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="5">
+        <v>25235</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="5">
+        <v>25213</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="5">
+        <v>25268</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="5">
+        <v>25264</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C193" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="5">
+        <v>25283</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C194" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="5">
+        <v>25261</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="5">
+        <v>25279</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="5">
+        <v>25273</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C197" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="5">
+        <v>25291</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="5">
+        <v>25293</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="5">
+        <v>25263</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="5">
+        <v>25290</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="5">
+        <v>25266</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="5">
+        <v>25284</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="5">
+        <v>25292</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="5">
+        <v>25300</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="5">
+        <v>25258</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="5">
+        <v>25257</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="5">
+        <v>25259</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C208" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="5">
+        <v>25285</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C209" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="5">
+        <v>25269</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="5">
+        <v>25287</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C211" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="5">
+        <v>25251</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C212" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="5">
+        <v>25278</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="5">
+        <v>25288</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="5">
+        <v>25252</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C215" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="5">
+        <v>25280</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C216" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="5">
+        <v>25297</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="5">
+        <v>25296</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C218" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="5">
+        <v>25282</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C219" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="5">
+        <v>25274</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C220" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
-        <v>100001</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25255</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C221" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
-        <v>100002</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25281</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
-        <v>100003</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25253</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C223" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
-        <v>100004</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25286</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
-        <v>100005</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25271</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C225" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
-        <v>100006</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25272</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
-        <v>100007</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25289</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C227" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
-        <v>100008</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25267</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C228" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
-        <v>100009</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25256</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
-        <v>100010</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25221</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
-        <v>100011</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25210</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
-        <v>100012</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25218</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
-        <v>100013</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25248</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
-        <v>100014</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25206</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C234" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
-        <v>100015</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25239</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C235" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
-        <v>100016</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25217</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C236" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
-        <v>100017</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25231</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C237" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
-        <v>100018</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25216</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
-        <v>100019</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25243</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
-        <v>100020</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25236</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C240" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
-        <v>100021</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25203</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C241" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
-        <v>100022</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25234</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C242" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
-        <v>100023</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25245</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C243" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
-        <v>100024</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25227</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C244" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
-        <v>100025</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25247</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
-        <v>100026</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25208</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
-        <v>100027</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25434</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C247" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
-        <v>100028</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25433</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
-        <v>100029</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25432</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C249" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
-        <v>100030</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25431</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C250" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
-        <v>100031</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25440</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C251" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
-        <v>100032</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25439</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
-        <v>100033</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25436</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C253" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
-        <v>100034</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25437</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C254" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
-        <v>100035</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25438</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C255" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
-        <v>100036</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25444</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
-        <v>100037</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25443</v>
+      </c>
+      <c r="B257" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C257" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
-        <v>100038</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25442</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C258" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
-        <v>100039</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25233</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C259" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
-        <v>100040</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25445</v>
+      </c>
+      <c r="B260" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C260" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
-        <v>100041</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25441</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C261" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
-        <v>100042</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25207</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C262" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
-        <v>100043</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25211</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
-        <v>100044</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25237</v>
+      </c>
+      <c r="B264" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C264" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
-        <v>100045</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25222</v>
+      </c>
+      <c r="B265" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C265" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
-        <v>100046</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25220</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C266" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
-        <v>100047</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25228</v>
+      </c>
+      <c r="B267" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C267" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
-        <v>100048</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25205</v>
+      </c>
+      <c r="B268" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C268" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
-        <v>100049</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25242</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C269" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
-        <v>100050</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25201</v>
+      </c>
+      <c r="B270" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C270" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
-        <v>100051</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25240</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C271" s="7">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
-        <v>100052</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25299</v>
+      </c>
+      <c r="C272" s="12">
+        <v>45903</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
-        <v>100053</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24936</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273" s="7"/>
+      <c r="D273" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
-        <v>100054</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="5">
-        <v>100055</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="5">
-        <v>100056</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="5">
-        <v>100057</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="5">
-        <v>100058</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="5">
-        <v>100059</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="5">
-        <v>100060</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="5">
-        <v>100061</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="5">
-        <v>100062</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25059</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" s="7"/>
+      <c r="D274" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
-        <v>100063</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25406</v>
+      </c>
+      <c r="C283" s="7">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
-        <v>100064</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25417</v>
+      </c>
+      <c r="C284" s="7">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
-        <v>100065</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25414</v>
+      </c>
+      <c r="C285" s="7">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="5">
-        <v>100066</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25411</v>
+      </c>
+      <c r="C286" s="7">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
-        <v>100067</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25416</v>
+      </c>
+      <c r="C287" s="7">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="5">
-        <v>100068</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25404</v>
+      </c>
+      <c r="C288" s="7">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
-        <v>100069</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25412</v>
+      </c>
+      <c r="C289" s="7">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="5">
-        <v>100070</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25413</v>
+      </c>
+      <c r="C290" s="7">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
-        <v>100071</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25415</v>
+      </c>
+      <c r="C291" s="7">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="5">
-        <v>100072</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25420</v>
+      </c>
+      <c r="C292" s="7">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="5">
-        <v>100073</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25453</v>
+      </c>
+      <c r="C293" s="7">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
-        <v>100074</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25419</v>
+      </c>
+      <c r="C294" s="7">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
-        <v>100075</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25224</v>
+      </c>
+      <c r="C295" s="7">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="5">
-        <v>100076</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25226</v>
+      </c>
+      <c r="C296" s="7">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
-        <v>100077</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25230</v>
+      </c>
+      <c r="C297" s="7">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="5">
-        <v>100078</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25219</v>
+      </c>
+      <c r="C298" s="7">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
-        <v>100079</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25204</v>
+      </c>
+      <c r="C299" s="7">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
-        <v>100080</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25232</v>
+      </c>
+      <c r="C300" s="7">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
-        <v>100081</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25229</v>
+      </c>
+      <c r="C301" s="7">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="5">
-        <v>100082</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25241</v>
+      </c>
+      <c r="C302" s="7">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="5">
-        <v>100083</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25244</v>
+      </c>
+      <c r="C303" s="7">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="5">
-        <v>100084</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25246</v>
+      </c>
+      <c r="C304" s="7">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
-        <v>100085</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25450</v>
+      </c>
+      <c r="B305" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C305" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
-        <v>100086</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25449</v>
+      </c>
+      <c r="B306" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C306" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
-        <v>100087</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25448</v>
+      </c>
+      <c r="B307" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C307" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="5">
-        <v>100088</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25447</v>
+      </c>
+      <c r="B308" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C308" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
-        <v>100089</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25446</v>
+      </c>
+      <c r="B309" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="5">
-        <v>100090</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25260</v>
+      </c>
+      <c r="B310" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C310" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
-        <v>100091</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25355</v>
+      </c>
+      <c r="B311" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C311" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
-        <v>100092</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25270</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
-        <v>100093</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25357</v>
+      </c>
+      <c r="B313" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C313" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="5">
-        <v>100094</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25367</v>
+      </c>
+      <c r="B314" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
-        <v>100095</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25363</v>
+      </c>
+      <c r="B315" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C315" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="5">
-        <v>100096</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25276</v>
+      </c>
+      <c r="B316" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C316" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
-        <v>100097</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25366</v>
+      </c>
+      <c r="B317" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="5">
-        <v>100098</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25384</v>
+      </c>
+      <c r="B318" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
-        <v>100099</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25391</v>
+      </c>
+      <c r="B319" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="5">
-        <v>100100</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25385</v>
+      </c>
+      <c r="B320" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C320" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
-        <v>100101</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25359</v>
+      </c>
+      <c r="B321" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="5">
-        <v>100102</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25364</v>
+      </c>
+      <c r="B322" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C322" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
-        <v>100103</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25369</v>
+      </c>
+      <c r="B323" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C323" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="5">
-        <v>100104</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25368</v>
+      </c>
+      <c r="B324" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
-        <v>100105</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25395</v>
+      </c>
+      <c r="B325" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="5">
-        <v>100106</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25400</v>
+      </c>
+      <c r="B326" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C326" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
-        <v>100107</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25358</v>
+      </c>
+      <c r="B327" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C327" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="5">
-        <v>100108</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25361</v>
+      </c>
+      <c r="B328" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C328" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="5">
-        <v>100109</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25394</v>
+      </c>
+      <c r="B329" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C329" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="5">
-        <v>100110</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25354</v>
+      </c>
+      <c r="B330" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="5">
-        <v>100111</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25362</v>
+      </c>
+      <c r="B331" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C331" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="5">
-        <v>100112</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25393</v>
+      </c>
+      <c r="B332" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C332" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="5">
-        <v>100113</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25389</v>
+      </c>
+      <c r="B333" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C333" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="5">
-        <v>100114</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25399</v>
+      </c>
+      <c r="B334" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C334" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="5">
-        <v>100115</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25392</v>
+      </c>
+      <c r="B335" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C335" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="5">
-        <v>100116</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25388</v>
+      </c>
+      <c r="B336" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C336" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
-        <v>100117</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25352</v>
+      </c>
+      <c r="B337" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C337" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="5">
-        <v>100118</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25360</v>
+      </c>
+      <c r="B338" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C338" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
-        <v>100119</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25356</v>
+      </c>
+      <c r="B339" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="5">
-        <v>100120</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25390</v>
+      </c>
+      <c r="B340" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C340" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="5">
-        <v>100121</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25387</v>
+      </c>
+      <c r="B341" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C341" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="5">
-        <v>100122</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25397</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C342" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="5">
-        <v>100123</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25398</v>
+      </c>
+      <c r="B343" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C343" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="5">
-        <v>100124</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25353</v>
+      </c>
+      <c r="B344" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C344" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="5">
-        <v>100125</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25396</v>
+      </c>
+      <c r="B345" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="5">
-        <v>100126</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25351</v>
+      </c>
+      <c r="B346" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346" s="7">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="5">
-        <v>100127</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25485</v>
+      </c>
+      <c r="B347" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347" s="7">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="5">
-        <v>100128</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25471</v>
+      </c>
+      <c r="B348" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C348" s="7">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="5">
-        <v>100129</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25480</v>
+      </c>
+      <c r="B349" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349" s="7">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="5">
-        <v>100130</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25484</v>
+      </c>
+      <c r="B350" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C350" s="7">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="5">
-        <v>100131</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25482</v>
+      </c>
+      <c r="B351" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C351" s="7">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="5">
-        <v>100132</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25483</v>
+      </c>
+      <c r="B352" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C352" s="7">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="5">
-        <v>100133</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25481</v>
+      </c>
+      <c r="B353" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C353" s="7">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="5">
-        <v>100134</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25479</v>
+      </c>
+      <c r="B354" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354" s="7">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="5">
-        <v>100135</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25476</v>
+      </c>
+      <c r="B355" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355" s="7">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="5">
-        <v>100136</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25490</v>
+      </c>
+      <c r="B356" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356" s="7">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="5">
-        <v>100137</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25478</v>
+      </c>
+      <c r="B357" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357" s="7">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="5">
-        <v>100138</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25477</v>
+      </c>
+      <c r="B358" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C358" s="7">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="5">
-        <v>100139</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+        <v>100141</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="5">
-        <v>100140</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+        <v>100142</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="5">
-        <v>100141</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+        <v>100143</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="5">
-        <v>100142</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+        <v>100144</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="5">
-        <v>100143</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+        <v>100145</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="5">
-        <v>100144</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+        <v>100146</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="5">
-        <v>100145</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+        <v>100147</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="5">
-        <v>100146</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+        <v>100148</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="5">
-        <v>100147</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+        <v>100149</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="5">
-        <v>100148</v>
+        <v>100150</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="5">
-        <v>100149</v>
+        <v>100151</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="5">
-        <v>100150</v>
+        <v>100152</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="5">
-        <v>100151</v>
+        <v>100153</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="5">
-        <v>100152</v>
+        <v>100154</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="5">
-        <v>100153</v>
+        <v>100155</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="5">
-        <v>100154</v>
+        <v>100156</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="5">
-        <v>100155</v>
+        <v>100157</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="5">
-        <v>100156</v>
+        <v>100158</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="5">
-        <v>100157</v>
+        <v>100159</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="5">
-        <v>100158</v>
+        <v>100160</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="5">
-        <v>100159</v>
+        <v>100161</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="5">
-        <v>100160</v>
+        <v>100162</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="5">
-        <v>100161</v>
+        <v>100163</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="5">
-        <v>100162</v>
+        <v>100164</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="5">
-        <v>100163</v>
+        <v>100165</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="5">
-        <v>100164</v>
+        <v>100166</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="5">
-        <v>100165</v>
+        <v>100167</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="5">
-        <v>100166</v>
+        <v>100168</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="5">
-        <v>100167</v>
+        <v>100169</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="5">
-        <v>100168</v>
+        <v>100170</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="5">
-        <v>100169</v>
+        <v>100171</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="5">
-        <v>100170</v>
+        <v>100172</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="5">
-        <v>100171</v>
+        <v>100173</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="5">
-        <v>100172</v>
+        <v>100174</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="5">
-        <v>100173</v>
+        <v>100175</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="5">
-        <v>100174</v>
+        <v>100176</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="5">
-        <v>100175</v>
+        <v>100177</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="5">
-        <v>100176</v>
+        <v>100178</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="5">
-        <v>100177</v>
+        <v>100179</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="5">
-        <v>100178</v>
+        <v>100180</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="5">
-        <v>100179</v>
+        <v>100181</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="5">
-        <v>100180</v>
+        <v>100182</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="5">
-        <v>100181</v>
+        <v>100183</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="5">
-        <v>100182</v>
+        <v>100184</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="5">
-        <v>100183</v>
+        <v>100185</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="5">
-        <v>100184</v>
+        <v>100186</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="5">
-        <v>100185</v>
+        <v>100187</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="5">
-        <v>100186</v>
+        <v>100188</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="5">
-        <v>100187</v>
+        <v>100189</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="5">
-        <v>100188</v>
+        <v>100190</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="5">
-        <v>100189</v>
+        <v>100191</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="5">
-        <v>100190</v>
+        <v>100192</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="5">
-        <v>100191</v>
+        <v>100193</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="5">
-        <v>100192</v>
+        <v>100194</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="5">
-        <v>100193</v>
+        <v>100195</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="5">
-        <v>100194</v>
+        <v>100196</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="5">
-        <v>100195</v>
+        <v>100197</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="5">
-        <v>100196</v>
+        <v>100198</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="5">
-        <v>100197</v>
+        <v>100199</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="5">
-        <v>100198</v>
+        <v>100200</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="5">
-        <v>100199</v>
+        <v>100201</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="5">
-        <v>100200</v>
+        <v>100202</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
-        <v>100201</v>
+        <v>100203</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="5">
-        <v>100202</v>
+        <v>100204</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
-        <v>100203</v>
+        <v>100205</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="5">
-        <v>100204</v>
+        <v>100206</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="5">
-        <v>100205</v>
+        <v>100207</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="5">
-        <v>100206</v>
+        <v>100208</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="5">
-        <v>100207</v>
+        <v>100209</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="5">
-        <v>100208</v>
+        <v>100210</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="5">
-        <v>100209</v>
+        <v>100211</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="5">
-        <v>100210</v>
+        <v>100212</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
-        <v>100211</v>
+        <v>100213</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="5">
-        <v>100212</v>
+        <v>100214</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
-        <v>100213</v>
+        <v>100215</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="5">
-        <v>100214</v>
+        <v>100216</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="5">
-        <v>100215</v>
+        <v>100217</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="5">
-        <v>100216</v>
+        <v>100218</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="5">
-        <v>100217</v>
+        <v>100219</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="5">
-        <v>100218</v>
+        <v>100220</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="5">
-        <v>100219</v>
+        <v>100221</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="5">
-        <v>100220</v>
+        <v>100222</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="5">
-        <v>100221</v>
+        <v>100223</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="5">
-        <v>100222</v>
+        <v>100224</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="5">
-        <v>100223</v>
+        <v>100225</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="5">
-        <v>100224</v>
+        <v>100226</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="5">
-        <v>100225</v>
+        <v>100227</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="5">
-        <v>100226</v>
+        <v>100228</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="5">
-        <v>100227</v>
+        <v>100229</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="5">
-        <v>100228</v>
+        <v>100230</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
-        <v>100229</v>
+        <v>100231</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="5">
-        <v>100230</v>
+        <v>100232</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="5">
-        <v>100231</v>
+        <v>100233</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="5">
-        <v>100232</v>
+        <v>100234</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="5">
-        <v>100233</v>
+        <v>100235</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="5">
-        <v>100234</v>
+        <v>100236</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="5">
-        <v>100235</v>
+        <v>100237</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="5">
-        <v>100236</v>
+        <v>100238</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="5">
-        <v>100237</v>
+        <v>100239</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="5">
-        <v>100238</v>
+        <v>100240</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="5">
-        <v>100239</v>
+        <v>100241</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="5">
-        <v>100240</v>
+        <v>100242</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
-        <v>100241</v>
+        <v>100243</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="5">
-        <v>100242</v>
+        <v>100244</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
-        <v>100243</v>
+        <v>100245</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="5">
-        <v>100244</v>
+        <v>100246</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="5">
-        <v>100245</v>
+        <v>100247</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="5">
-        <v>100246</v>
+        <v>100248</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
-        <v>100247</v>
+        <v>100249</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="5">
-        <v>100248</v>
+        <v>100250</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="5">
-        <v>100249</v>
+        <v>100251</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="5">
-        <v>100250</v>
+        <v>100252</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="5">
-        <v>100251</v>
+        <v>100253</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="5">
-        <v>100252</v>
+        <v>100254</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="5">
-        <v>100253</v>
+        <v>100255</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="5">
-        <v>100254</v>
+        <v>100256</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="5">
-        <v>100255</v>
+        <v>100257</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="5">
-        <v>100256</v>
+        <v>100258</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="5">
-        <v>100257</v>
+        <v>100259</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="5">
-        <v>100258</v>
+        <v>100260</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="5">
-        <v>100259</v>
+        <v>100261</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="5">
-        <v>100260</v>
+        <v>100262</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="5">
-        <v>100261</v>
+        <v>100263</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="5">
-        <v>100262</v>
+        <v>100264</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="5">
-        <v>100263</v>
+        <v>100265</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="5">
-        <v>100264</v>
+        <v>100266</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="5">
-        <v>100265</v>
+        <v>100267</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="5">
-        <v>100266</v>
+        <v>100268</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="5">
-        <v>100267</v>
+        <v>100269</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="5">
-        <v>100268</v>
+        <v>100270</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="5">
-        <v>100269</v>
+        <v>100271</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="5">
-        <v>100270</v>
+        <v>100272</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
-        <v>100271</v>
+        <v>100273</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="5">
-        <v>100272</v>
+        <v>100274</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="5">
-        <v>100273</v>
+        <v>100275</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="5">
-        <v>100274</v>
+        <v>100276</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="5">
-        <v>100275</v>
+        <v>100277</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="5">
-        <v>100276</v>
+        <v>100278</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
-        <v>100277</v>
+        <v>100279</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="5">
-        <v>100278</v>
+        <v>100280</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="5">
-        <v>100279</v>
+        <v>100281</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="5">
-        <v>100280</v>
+        <v>100282</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
-        <v>100281</v>
+        <v>100283</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="5">
-        <v>100282</v>
+        <v>100284</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="5">
-        <v>100283</v>
+        <v>100285</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="5">
-        <v>100284</v>
+        <v>100286</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="5">
-        <v>100285</v>
+        <v>100287</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="5">
-        <v>100286</v>
+        <v>100288</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="5">
-        <v>100287</v>
+        <v>100289</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="5">
-        <v>100288</v>
+        <v>100290</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="5">
-        <v>100289</v>
+        <v>100291</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="5">
-        <v>100290</v>
+        <v>100292</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="5">
-        <v>100291</v>
+        <v>100293</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="5">
-        <v>100292</v>
+        <v>100294</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="5">
-        <v>100293</v>
+        <v>100295</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="5">
-        <v>100294</v>
+        <v>100296</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="5">
-        <v>100295</v>
+        <v>100297</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="5">
-        <v>100296</v>
+        <v>100298</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="5">
-        <v>100297</v>
+        <v>100299</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="5">
-        <v>100298</v>
+        <v>100300</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="5">
-        <v>100299</v>
+        <v>100301</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="5">
-        <v>100300</v>
+        <v>100302</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="5">
-        <v>100301</v>
+        <v>100303</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="5">
-        <v>100302</v>
+        <v>100304</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="5">
-        <v>100303</v>
+        <v>100305</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="5">
-        <v>100304</v>
+        <v>100306</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="5">
-        <v>100305</v>
+        <v>100307</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="5">
-        <v>100306</v>
+        <v>100308</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="5">
-        <v>100307</v>
+        <v>100309</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="5">
-        <v>100308</v>
+        <v>100310</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="5">
-        <v>100309</v>
+        <v>100311</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="5">
-        <v>100310</v>
+        <v>100312</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="5">
-        <v>100311</v>
+        <v>100313</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="5">
-        <v>100312</v>
+        <v>100314</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="5">
-        <v>100313</v>
+        <v>100315</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="5">
-        <v>100314</v>
+        <v>100316</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="5">
-        <v>100315</v>
+        <v>100317</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="5">
-        <v>100316</v>
+        <v>100318</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="5">
-        <v>100317</v>
+        <v>100319</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="5">
-        <v>100318</v>
+        <v>100320</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="5">
-        <v>100319</v>
+        <v>100321</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="5">
-        <v>100320</v>
+        <v>100322</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="5">
-        <v>100321</v>
+        <v>100323</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="5">
-        <v>100322</v>
+        <v>100324</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="5">
-        <v>100323</v>
+        <v>100325</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="5">
-        <v>100324</v>
+        <v>100326</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="5">
-        <v>100325</v>
+        <v>100327</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="5">
-        <v>100326</v>
+        <v>100328</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="5">
-        <v>100327</v>
+        <v>100329</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="5">
-        <v>100328</v>
+        <v>100330</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="5">
-        <v>100329</v>
+        <v>100331</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="5">
-        <v>100330</v>
+        <v>100332</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="5">
-        <v>100331</v>
+        <v>100333</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="5">
-        <v>100332</v>
+        <v>100334</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="5">
-        <v>100333</v>
+        <v>100335</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="5">
-        <v>100334</v>
+        <v>100336</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="5">
-        <v>100335</v>
+        <v>100337</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="5">
-        <v>100336</v>
+        <v>100338</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="5">
-        <v>100337</v>
+        <v>100339</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="5">
-        <v>100338</v>
+        <v>100340</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="5">
-        <v>100339</v>
+        <v>100341</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="5">
-        <v>100340</v>
+        <v>100342</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="5">
-        <v>100341</v>
+        <v>100343</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="5">
-        <v>100342</v>
+        <v>100344</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="5">
-        <v>100343</v>
+        <v>100345</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="5">
-        <v>100344</v>
+        <v>100346</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="5">
-        <v>100345</v>
+        <v>100347</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="5">
-        <v>100346</v>
+        <v>100348</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="5">
-        <v>100347</v>
+        <v>100349</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="5">
-        <v>100348</v>
+        <v>100350</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="5">
-        <v>100349</v>
+        <v>100351</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="5">
-        <v>100350</v>
+        <v>100352</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="5">
-        <v>100351</v>
+        <v>100353</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="5">
-        <v>100352</v>
+        <v>100354</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" s="5">
-        <v>100353</v>
+        <v>100355</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="5">
-        <v>100354</v>
+        <v>100356</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="5">
-        <v>100355</v>
+        <v>100357</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="5">
-        <v>100356</v>
+        <v>100358</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" s="5">
-        <v>100357</v>
+        <v>100359</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" s="5">
-        <v>100358</v>
+        <v>100360</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" s="5">
-        <v>100359</v>
+        <v>100361</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" s="5">
-        <v>100360</v>
+        <v>100362</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" s="5">
-        <v>100361</v>
+        <v>100363</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" s="5">
-        <v>100362</v>
+        <v>100364</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" s="5">
-        <v>100363</v>
+        <v>100365</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" s="5">
-        <v>100364</v>
+        <v>100366</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" s="5">
-        <v>100365</v>
+        <v>100367</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" s="5">
-        <v>100366</v>
+        <v>100368</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" s="5">
-        <v>100367</v>
+        <v>100369</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" s="5">
-        <v>100368</v>
+        <v>100370</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" s="5">
-        <v>100369</v>
+        <v>100371</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" s="5">
-        <v>100370</v>
+        <v>100372</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" s="5">
-        <v>100371</v>
+        <v>100373</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" s="5">
-        <v>100372</v>
+        <v>100374</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" s="5">
-        <v>100373</v>
+        <v>100375</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" s="5">
-        <v>100374</v>
+        <v>100376</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" s="5">
-        <v>100375</v>
+        <v>100377</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" s="5">
-        <v>100376</v>
+        <v>100378</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" s="5">
-        <v>100377</v>
+        <v>100379</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" s="5">
-        <v>100378</v>
+        <v>100380</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" s="5">
-        <v>100379</v>
+        <v>100381</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" s="5">
-        <v>100380</v>
+        <v>100382</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" s="5">
-        <v>100381</v>
+        <v>100383</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" s="5">
-        <v>100382</v>
+        <v>100384</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" s="5">
-        <v>100383</v>
+        <v>100385</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" s="5">
-        <v>100384</v>
+        <v>100386</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" s="5">
-        <v>100385</v>
+        <v>100387</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" s="5">
-        <v>100386</v>
+        <v>100388</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" s="5">
-        <v>100387</v>
+        <v>100389</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" s="5">
-        <v>100388</v>
+        <v>100390</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" s="5">
-        <v>100389</v>
+        <v>100391</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" s="5">
-        <v>100390</v>
+        <v>100392</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" s="5">
-        <v>100391</v>
+        <v>100393</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" s="5">
-        <v>100392</v>
+        <v>100394</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" s="5">
-        <v>100393</v>
+        <v>100395</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" s="5">
-        <v>100394</v>
+        <v>100396</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" s="5">
-        <v>100395</v>
+        <v>100397</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" s="5">
-        <v>100396</v>
+        <v>100398</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" s="5">
-        <v>100397</v>
+        <v>100399</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" s="5">
-        <v>100398</v>
+        <v>100400</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" s="5">
-        <v>100399</v>
+        <v>100401</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" s="5">
-        <v>100400</v>
+        <v>100402</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" s="5">
-        <v>100401</v>
+        <v>100403</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" s="5">
-        <v>100402</v>
+        <v>100404</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" s="5">
-        <v>100403</v>
+        <v>100405</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" s="5">
-        <v>100404</v>
+        <v>100406</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" s="5">
-        <v>100405</v>
+        <v>100407</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" s="5">
-        <v>100406</v>
+        <v>100408</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" s="5">
-        <v>100407</v>
+        <v>100409</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" s="5">
-        <v>100408</v>
+        <v>100410</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" s="5">
-        <v>100409</v>
+        <v>100411</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" s="5">
-        <v>100410</v>
+        <v>100412</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" s="5">
-        <v>100411</v>
+        <v>100413</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" s="5">
-        <v>100412</v>
+        <v>100414</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" s="5">
-        <v>100413</v>
+        <v>100415</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" s="5">
-        <v>100414</v>
+        <v>100416</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" s="5">
-        <v>100415</v>
+        <v>100417</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" s="5">
-        <v>100416</v>
+        <v>100418</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" s="5">
-        <v>100417</v>
+        <v>100419</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" s="5">
-        <v>100418</v>
+        <v>100420</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" s="5">
-        <v>100419</v>
+        <v>100421</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" s="5">
-        <v>100420</v>
+        <v>100422</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" s="5">
-        <v>100421</v>
+        <v>100423</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" s="5">
-        <v>100422</v>
+        <v>100424</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" s="5">
-        <v>100423</v>
+        <v>100425</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" s="5">
-        <v>100424</v>
+        <v>100426</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" s="5">
-        <v>100425</v>
+        <v>100427</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" s="5">
-        <v>100426</v>
+        <v>100428</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" s="5">
-        <v>100427</v>
+        <v>100429</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" s="5">
-        <v>100428</v>
+        <v>100430</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" s="5">
-        <v>100429</v>
+        <v>100431</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" s="5">
-        <v>100430</v>
+        <v>100432</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" s="5">
-        <v>100431</v>
+        <v>100433</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" s="5">
-        <v>100432</v>
+        <v>100434</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" s="5">
-        <v>100433</v>
+        <v>100435</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" s="5">
-        <v>100434</v>
+        <v>100436</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" s="5">
-        <v>100435</v>
+        <v>100437</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" s="5">
-        <v>100436</v>
+        <v>100438</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" s="5">
-        <v>100437</v>
+        <v>100439</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" s="5">
-        <v>100438</v>
+        <v>100440</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" s="5">
-        <v>100439</v>
+        <v>100441</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" s="5">
-        <v>100440</v>
+        <v>100442</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" s="5">
-        <v>100441</v>
+        <v>100443</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" s="5">
-        <v>100442</v>
+        <v>100444</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" s="5">
-        <v>100443</v>
+        <v>100445</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" s="5">
-        <v>100444</v>
+        <v>100446</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" s="5">
-        <v>100445</v>
+        <v>100447</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" s="5">
-        <v>100446</v>
+        <v>100448</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" s="5">
-        <v>100447</v>
+        <v>100449</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" s="5">
-        <v>100448</v>
+        <v>100450</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" s="5">
-        <v>100449</v>
+        <v>100451</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" s="5">
-        <v>100450</v>
+        <v>100452</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" s="5">
-        <v>100451</v>
+        <v>100453</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" s="5">
-        <v>100452</v>
+        <v>100454</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" s="5">
-        <v>100453</v>
+        <v>100455</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" s="5">
-        <v>100454</v>
+        <v>100456</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" s="5">
-        <v>100455</v>
+        <v>100457</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" s="5">
-        <v>100456</v>
+        <v>100458</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" s="5">
-        <v>100457</v>
+        <v>100459</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" s="5">
-        <v>100458</v>
+        <v>100460</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" s="5">
-        <v>100459</v>
+        <v>100461</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" s="5">
-        <v>100460</v>
+        <v>100462</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" s="5">
-        <v>100461</v>
+        <v>100463</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" s="5">
-        <v>100462</v>
+        <v>100464</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" s="5">
-        <v>100463</v>
+        <v>100465</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" s="5">
-        <v>100464</v>
+        <v>100466</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" s="5">
-        <v>100465</v>
+        <v>100467</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" s="5">
-        <v>100466</v>
+        <v>100468</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" s="5">
-        <v>100467</v>
+        <v>100469</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" s="5">
-        <v>100468</v>
+        <v>100470</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" s="5">
-        <v>100469</v>
+        <v>100471</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" s="5">
-        <v>100470</v>
+        <v>100472</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" s="5">
-        <v>100471</v>
+        <v>100473</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" s="5">
-        <v>100472</v>
+        <v>100474</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" s="5">
-        <v>100473</v>
+        <v>100475</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" s="5">
-        <v>100474</v>
+        <v>100476</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" s="5">
-        <v>100475</v>
+        <v>100477</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" s="5">
-        <v>100476</v>
+        <v>100478</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" s="5">
-        <v>100477</v>
+        <v>100479</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" s="5">
-        <v>100478</v>
+        <v>100480</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" s="5">
-        <v>100479</v>
+        <v>100481</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" s="5">
-        <v>100480</v>
+        <v>100482</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" s="5">
-        <v>100481</v>
+        <v>100483</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" s="5">
-        <v>100482</v>
+        <v>100484</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" s="5">
-        <v>100483</v>
+        <v>100485</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704" s="5">
-        <v>100484</v>
+        <v>100486</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" s="5">
-        <v>100485</v>
+        <v>100487</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" s="5">
-        <v>100486</v>
+        <v>100488</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" s="5">
-        <v>100487</v>
+        <v>100489</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" s="5">
-        <v>100488</v>
+        <v>100490</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" s="5">
-        <v>100489</v>
+        <v>100491</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" s="5">
-        <v>100490</v>
+        <v>100492</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711" s="5">
-        <v>100491</v>
+        <v>100493</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712" s="5">
-        <v>100492</v>
+        <v>100494</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" s="5">
-        <v>100493</v>
+        <v>100495</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" s="5">
-        <v>100494</v>
+        <v>100496</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" s="5">
-        <v>100495</v>
+        <v>100497</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" s="5">
-        <v>100496</v>
+        <v>100498</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" s="5">
-        <v>100497</v>
+        <v>100499</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" s="5">
-        <v>100498</v>
+        <v>100500</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" s="5">
-        <v>100499</v>
+        <v>100501</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" s="5">
-        <v>100500</v>
+        <v>100502</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721" s="5">
-        <v>100501</v>
+        <v>100503</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" s="5">
-        <v>100502</v>
+        <v>100504</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723" s="5">
-        <v>100503</v>
+        <v>100505</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724" s="5">
-        <v>100504</v>
+        <v>100506</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725" s="5">
-        <v>100505</v>
+        <v>100507</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726" s="5">
-        <v>100506</v>
+        <v>100508</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727" s="5">
-        <v>100507</v>
+        <v>100509</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" s="5">
-        <v>100508</v>
+        <v>100510</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" s="5">
-        <v>100509</v>
+        <v>100511</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" s="5">
-        <v>100510</v>
+        <v>100512</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" s="5">
-        <v>100511</v>
+        <v>100513</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732" s="5">
-        <v>100512</v>
+        <v>100514</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733" s="5">
-        <v>100513</v>
+        <v>100515</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734" s="5">
-        <v>100514</v>
+        <v>100516</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" s="5">
-        <v>100515</v>
+        <v>100517</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" s="5">
-        <v>100516</v>
+        <v>100518</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" s="5">
-        <v>100517</v>
+        <v>100519</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" s="5">
-        <v>100518</v>
+        <v>100520</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" s="5">
-        <v>100519</v>
+        <v>100521</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740" s="5">
-        <v>100520</v>
+        <v>100522</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741" s="5">
-        <v>100521</v>
+        <v>100523</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742" s="5">
-        <v>100522</v>
+        <v>100524</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743" s="5">
-        <v>100523</v>
+        <v>100525</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744" s="5">
-        <v>100524</v>
+        <v>100526</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745" s="5">
-        <v>100525</v>
+        <v>100527</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746" s="5">
-        <v>100526</v>
+        <v>100528</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747" s="5">
-        <v>100527</v>
+        <v>100529</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748" s="5">
-        <v>100528</v>
+        <v>100530</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749" s="5">
-        <v>100529</v>
+        <v>100531</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750" s="5">
-        <v>100530</v>
+        <v>100532</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751" s="5">
-        <v>100531</v>
+        <v>100533</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752" s="5">
-        <v>100532</v>
+        <v>100534</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753" s="5">
-        <v>100533</v>
+        <v>100535</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754" s="5">
-        <v>100534</v>
+        <v>100536</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755" s="5">
-        <v>100535</v>
+        <v>100537</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756" s="5">
-        <v>100536</v>
+        <v>100538</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757" s="5">
-        <v>100537</v>
+        <v>100539</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758" s="5">
-        <v>100538</v>
+        <v>100540</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759" s="5">
-        <v>100539</v>
+        <v>100541</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" s="5">
-        <v>100540</v>
+        <v>100542</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" s="5">
-        <v>100541</v>
+        <v>100543</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" s="5">
-        <v>100542</v>
+        <v>100544</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" s="5">
-        <v>100543</v>
+        <v>100545</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" s="5">
-        <v>100544</v>
+        <v>100546</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" s="5">
-        <v>100545</v>
+        <v>100547</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" s="5">
-        <v>100546</v>
+        <v>100548</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" s="5">
-        <v>100547</v>
+        <v>100549</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" s="5">
-        <v>100548</v>
+        <v>100550</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" s="5">
-        <v>100549</v>
+        <v>100551</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" s="5">
-        <v>100550</v>
+        <v>100552</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" s="5">
-        <v>100551</v>
+        <v>100553</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" s="5">
-        <v>100552</v>
+        <v>100554</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" s="5">
-        <v>100553</v>
+        <v>100555</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" s="5">
-        <v>100554</v>
+        <v>100556</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" s="5">
-        <v>100555</v>
+        <v>100557</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" s="5">
-        <v>100556</v>
+        <v>100558</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" s="5">
-        <v>100557</v>
+        <v>100559</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" s="5">
-        <v>100558</v>
+        <v>100560</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" s="5">
-        <v>100559</v>
+        <v>100561</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" s="5">
-        <v>100560</v>
+        <v>100562</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" s="5">
-        <v>100561</v>
+        <v>100563</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" s="5">
-        <v>100562</v>
+        <v>100564</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" s="5">
-        <v>100563</v>
+        <v>100565</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" s="5">
-        <v>100564</v>
+        <v>100566</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" s="5">
-        <v>100565</v>
+        <v>100567</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" s="5">
-        <v>100566</v>
+        <v>100568</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787" s="5">
-        <v>100567</v>
+        <v>100569</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" s="5">
-        <v>100568</v>
+        <v>100570</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789" s="5">
-        <v>100569</v>
+        <v>100571</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790" s="5">
-        <v>100570</v>
+        <v>100572</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791" s="5">
-        <v>100571</v>
+        <v>100573</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792" s="5">
-        <v>100572</v>
+        <v>100574</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793" s="5">
-        <v>100573</v>
+        <v>100575</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" s="5">
-        <v>100574</v>
+        <v>100576</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795" s="5">
-        <v>100575</v>
+        <v>100577</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796" s="5">
-        <v>100576</v>
+        <v>100578</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797" s="5">
-        <v>100577</v>
+        <v>100579</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798" s="5">
-        <v>100578</v>
+        <v>100580</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799" s="5">
-        <v>100579</v>
+        <v>100581</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800" s="5">
-        <v>100580</v>
+        <v>100582</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801" s="5">
-        <v>100581</v>
+        <v>100583</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802" s="5">
-        <v>100582</v>
+        <v>100584</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803" s="5">
-        <v>100583</v>
+        <v>100585</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804" s="5">
-        <v>100584</v>
+        <v>100586</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805" s="5">
-        <v>100585</v>
+        <v>100587</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806" s="5">
-        <v>100586</v>
+        <v>100588</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807" s="5">
-        <v>100587</v>
+        <v>100589</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808" s="5">
-        <v>100588</v>
+        <v>100590</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809" s="5">
-        <v>100589</v>
+        <v>100591</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810" s="5">
-        <v>100590</v>
+        <v>100592</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811" s="5">
-        <v>100591</v>
+        <v>100593</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812" s="5">
-        <v>100592</v>
+        <v>100594</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813" s="5">
-        <v>100593</v>
+        <v>100595</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814" s="5">
-        <v>100594</v>
+        <v>100596</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815" s="5">
-        <v>100595</v>
+        <v>100597</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816" s="5">
-        <v>100596</v>
+        <v>100598</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817" s="5">
-        <v>100597</v>
+        <v>100599</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818" s="5">
-        <v>100598</v>
+        <v>100600</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819" s="5">
-        <v>100599</v>
+        <v>100601</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820" s="5">
-        <v>100600</v>
+        <v>100602</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821" s="5">
-        <v>100601</v>
+        <v>100603</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822" s="5">
-        <v>100602</v>
+        <v>100604</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823" s="5">
-        <v>100603</v>
+        <v>100605</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824" s="5">
-        <v>100604</v>
+        <v>100606</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825" s="5">
-        <v>100605</v>
+        <v>100607</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826" s="5">
-        <v>100606</v>
+        <v>100608</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827" s="5">
-        <v>100607</v>
+        <v>100609</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828" s="5">
-        <v>100608</v>
+        <v>100610</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829" s="5">
-        <v>100609</v>
+        <v>100611</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830" s="5">
-        <v>100610</v>
+        <v>100612</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831" s="5">
-        <v>100611</v>
+        <v>100613</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832" s="5">
-        <v>100612</v>
+        <v>100614</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833" s="5">
-        <v>100613</v>
+        <v>100615</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834" s="5">
-        <v>100614</v>
+        <v>100616</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835" s="5">
-        <v>100615</v>
+        <v>100617</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836" s="5">
-        <v>100616</v>
+        <v>100618</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837" s="5">
-        <v>100617</v>
+        <v>100619</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838" s="5">
-        <v>100618</v>
+        <v>100620</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839" s="5">
-        <v>100619</v>
+        <v>100621</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840" s="5">
-        <v>100620</v>
+        <v>100622</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841" s="5">
-        <v>100621</v>
+        <v>100623</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842" s="5">
-        <v>100622</v>
+        <v>100624</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843" s="5">
-        <v>100623</v>
+        <v>100625</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844" s="5">
-        <v>100624</v>
+        <v>100626</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845" s="5">
-        <v>100625</v>
+        <v>100627</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846" s="5">
-        <v>100626</v>
+        <v>100628</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847" s="5">
-        <v>100627</v>
+        <v>100629</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848" s="5">
-        <v>100628</v>
+        <v>100630</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849" s="5">
-        <v>100629</v>
+        <v>100631</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850" s="5">
-        <v>100630</v>
+        <v>100632</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851" s="5">
-        <v>100631</v>
+        <v>100633</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852" s="5">
-        <v>100632</v>
+        <v>100634</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853" s="5">
-        <v>100633</v>
+        <v>100635</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854" s="5">
-        <v>100634</v>
+        <v>100636</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855" s="5">
-        <v>100635</v>
+        <v>100637</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856" s="5">
-        <v>100636</v>
+        <v>100638</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857" s="5">
-        <v>100637</v>
+        <v>100639</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858" s="5">
-        <v>100638</v>
+        <v>100640</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859" s="5">
-        <v>100639</v>
+        <v>100641</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860" s="5">
-        <v>100640</v>
+        <v>100642</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861" s="5">
-        <v>100641</v>
+        <v>100643</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862" s="5">
-        <v>100642</v>
+        <v>100644</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863" s="5">
-        <v>100643</v>
+        <v>100645</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864" s="5">
-        <v>100644</v>
+        <v>100646</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865" s="5">
-        <v>100645</v>
+        <v>100647</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866" s="5">
-        <v>100646</v>
+        <v>100648</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867" s="5">
-        <v>100647</v>
+        <v>100649</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868" s="5">
-        <v>100648</v>
+        <v>100650</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869" s="5">
-        <v>100649</v>
+        <v>100651</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870" s="5">
-        <v>100650</v>
+        <v>100652</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871" s="5">
-        <v>100651</v>
+        <v>100653</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872" s="5">
-        <v>100652</v>
+        <v>100654</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873" s="5">
-        <v>100653</v>
+        <v>100655</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874" s="5">
-        <v>100654</v>
+        <v>100656</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875" s="5">
-        <v>100655</v>
+        <v>100657</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876" s="5">
-        <v>100656</v>
+        <v>100658</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877" s="5">
-        <v>100657</v>
+        <v>100659</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878" s="5">
-        <v>100658</v>
+        <v>100660</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879" s="5">
-        <v>100659</v>
+        <v>100661</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880" s="5">
-        <v>100660</v>
+        <v>100662</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881" s="5">
-        <v>100661</v>
+        <v>100663</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882" s="5">
-        <v>100662</v>
+        <v>100664</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883" s="5">
-        <v>100663</v>
+        <v>100665</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884" s="5">
-        <v>100664</v>
+        <v>100666</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885" s="5">
-        <v>100665</v>
+        <v>100667</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886" s="5">
-        <v>100666</v>
+        <v>100668</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887" s="5">
-        <v>100667</v>
+        <v>100669</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888" s="5">
-        <v>100668</v>
+        <v>100670</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889" s="5">
-        <v>100669</v>
+        <v>100671</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890" s="5">
-        <v>100670</v>
+        <v>100672</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891" s="5">
-        <v>100671</v>
+        <v>100673</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892" s="5">
-        <v>100672</v>
+        <v>100674</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893" s="5">
-        <v>100673</v>
+        <v>100675</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894" s="5">
-        <v>100674</v>
+        <v>100676</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895" s="5">
-        <v>100675</v>
+        <v>100677</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896" s="5">
-        <v>100676</v>
+        <v>100678</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897" s="5">
-        <v>100677</v>
+        <v>100679</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898" s="5">
-        <v>100678</v>
+        <v>100680</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899" s="5">
-        <v>100679</v>
+        <v>100681</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900" s="5">
-        <v>100680</v>
+        <v>100682</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901" s="5">
-        <v>100681</v>
+        <v>100683</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902" s="5">
-        <v>100682</v>
+        <v>100684</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903" s="5">
-        <v>100683</v>
+        <v>100685</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904" s="5">
-        <v>100684</v>
+        <v>100686</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905" s="5">
-        <v>100685</v>
+        <v>100687</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906" s="5">
-        <v>100686</v>
+        <v>100688</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907" s="5">
-        <v>100687</v>
+        <v>100689</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908" s="5">
-        <v>100688</v>
+        <v>100690</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909" s="5">
-        <v>100689</v>
+        <v>100691</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910" s="5">
-        <v>100690</v>
+        <v>100692</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911" s="5">
-        <v>100691</v>
+        <v>100693</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912" s="5">
-        <v>100692</v>
+        <v>100694</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913" s="5">
-        <v>100693</v>
+        <v>100695</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914" s="5">
-        <v>100694</v>
+        <v>100696</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915" s="5">
-        <v>100695</v>
+        <v>100697</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916" s="5">
-        <v>100696</v>
+        <v>100698</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917" s="5">
-        <v>100697</v>
+        <v>100699</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918" s="5">
-        <v>100698</v>
+        <v>100700</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919" s="5">
-        <v>100699</v>
+        <v>100701</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920" s="5">
-        <v>100700</v>
+        <v>100702</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921" s="5">
-        <v>100701</v>
+        <v>100703</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922" s="5">
-        <v>100702</v>
+        <v>100704</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923" s="5">
-        <v>100703</v>
+        <v>100705</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924" s="5">
-        <v>100704</v>
+        <v>100706</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925" s="5">
-        <v>100705</v>
+        <v>100707</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926" s="5">
-        <v>100706</v>
+        <v>100708</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927" s="5">
-        <v>100707</v>
+        <v>100709</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928" s="5">
-        <v>100708</v>
+        <v>100710</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929" s="5">
-        <v>100709</v>
+        <v>100711</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930" s="5">
-        <v>100710</v>
+        <v>100712</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931" s="5">
-        <v>100711</v>
+        <v>100713</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932" s="5">
-        <v>100712</v>
+        <v>100714</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933" s="5">
-        <v>100713</v>
+        <v>100715</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934" s="5">
-        <v>100714</v>
+        <v>100716</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935" s="5">
-        <v>100715</v>
+        <v>100717</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936" s="5">
-        <v>100716</v>
+        <v>100718</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937" s="5">
-        <v>100717</v>
+        <v>100719</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938" s="5">
-        <v>100718</v>
+        <v>100720</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939" s="5">
-        <v>100719</v>
+        <v>100721</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940" s="5">
-        <v>100720</v>
+        <v>100722</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941" s="5">
-        <v>100721</v>
+        <v>100723</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942" s="5">
-        <v>100722</v>
+        <v>100724</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943" s="5">
-        <v>100723</v>
+        <v>100725</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944" s="5">
-        <v>100724</v>
+        <v>100726</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945" s="5">
-        <v>100725</v>
+        <v>100727</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946" s="5">
-        <v>100726</v>
+        <v>100728</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947" s="5">
-        <v>100727</v>
+        <v>100729</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948" s="5">
-        <v>100728</v>
+        <v>100730</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949" s="5">
-        <v>100729</v>
+        <v>100731</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950" s="5">
-        <v>100730</v>
+        <v>100732</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951" s="5">
-        <v>100731</v>
+        <v>100733</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952" s="5">
-        <v>100732</v>
+        <v>100734</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953" s="5">
-        <v>100733</v>
+        <v>100735</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954" s="5">
-        <v>100734</v>
+        <v>100736</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955" s="5">
-        <v>100735</v>
+        <v>100737</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956" s="5">
-        <v>100736</v>
+        <v>100738</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957" s="5">
-        <v>100737</v>
+        <v>100739</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958" s="5">
-        <v>100738</v>
+        <v>100740</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959" s="5">
-        <v>100739</v>
+        <v>100741</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960" s="5">
-        <v>100740</v>
+        <v>100742</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961" s="5">
-        <v>100741</v>
+        <v>100743</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962" s="5">
-        <v>100742</v>
+        <v>100744</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963" s="5">
-        <v>100743</v>
+        <v>100745</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964" s="5">
-        <v>100744</v>
+        <v>100746</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965" s="5">
-        <v>100745</v>
+        <v>100747</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966" s="5">
-        <v>100746</v>
+        <v>100748</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967" s="5">
-        <v>100747</v>
+        <v>100749</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968" s="5">
-        <v>100748</v>
+        <v>100750</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969" s="5">
-        <v>100749</v>
+        <v>100751</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A970" s="5">
-        <v>100750</v>
+        <v>100752</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971" s="5">
-        <v>100751</v>
+        <v>100753</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972" s="5">
-        <v>100752</v>
+        <v>100754</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973" s="5">
-        <v>100753</v>
+        <v>100755</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974" s="5">
-        <v>100754</v>
+        <v>100756</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975" s="5">
-        <v>100755</v>
+        <v>100757</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976" s="5">
-        <v>100756</v>
+        <v>100758</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977" s="5">
-        <v>100757</v>
+        <v>100759</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978" s="5">
-        <v>100758</v>
+        <v>100760</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979" s="5">
-        <v>100759</v>
+        <v>100761</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980" s="5">
-        <v>100760</v>
+        <v>100762</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981" s="5">
-        <v>100761</v>
+        <v>100763</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982" s="5">
-        <v>100762</v>
+        <v>100764</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983" s="5">
-        <v>100763</v>
+        <v>100765</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984" s="5">
-        <v>100764</v>
+        <v>100766</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A985" s="5">
-        <v>100765</v>
+        <v>100767</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A986" s="5">
-        <v>100766</v>
+        <v>100768</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987" s="5">
-        <v>100767</v>
+        <v>100769</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988" s="5">
-        <v>100768</v>
+        <v>100770</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989" s="5">
-        <v>100769</v>
+        <v>100771</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A990" s="5">
-        <v>100770</v>
+        <v>100772</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A991" s="5">
-        <v>100771</v>
+        <v>100773</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992" s="5">
-        <v>100772</v>
+        <v>100774</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993" s="5">
-        <v>100773</v>
+        <v>100775</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A994" s="5">
-        <v>100774</v>
+        <v>100776</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995" s="5">
-        <v>100775</v>
+        <v>100777</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996" s="5">
-        <v>100776</v>
+        <v>100778</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997" s="5">
-        <v>100777</v>
+        <v>100779</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998" s="5">
-        <v>100778</v>
+        <v>100780</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999" s="5">
-        <v>100779</v>
+        <v>100781</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000" s="5">
-        <v>100780</v>
+        <v>100782</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1001" s="5">
-        <v>100781</v>
+        <v>100783</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1002" s="5">
-        <v>100782</v>
+        <v>100784</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1003" s="5">
-        <v>100783</v>
+        <v>100785</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1004" s="5">
-        <v>100784</v>
+        <v>100786</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1005" s="5">
-        <v>100785</v>
+        <v>100787</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1006" s="5">
-        <v>100786</v>
+        <v>100788</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1007" s="5">
-        <v>100787</v>
+        <v>100789</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1008" s="5">
-        <v>100788</v>
+        <v>100790</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1009" s="5">
-        <v>100789</v>
+        <v>100791</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1010" s="5">
-        <v>100790</v>
+        <v>100792</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1011" s="5">
-        <v>100791</v>
+        <v>100793</v>
       </c>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1012" s="5">
-        <v>100792</v>
+        <v>100794</v>
       </c>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1013" s="5">
-        <v>100793</v>
+        <v>100795</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1014" s="5">
-        <v>100794</v>
+        <v>100796</v>
       </c>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1015" s="5">
-        <v>100795</v>
+        <v>100797</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1016" s="5">
-        <v>100796</v>
+        <v>100798</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1017" s="5">
-        <v>100797</v>
+        <v>100799</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1018" s="5">
-        <v>100798</v>
+        <v>100800</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1019" s="5">
-        <v>100799</v>
+        <v>100801</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1020" s="5">
-        <v>100800</v>
+        <v>100802</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1021" s="5">
-        <v>100801</v>
+        <v>100803</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1022" s="5">
-        <v>100802</v>
+        <v>100804</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1023" s="5">
-        <v>100803</v>
+        <v>100805</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1024" s="5">
-        <v>100804</v>
+        <v>100806</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1025" s="5">
-        <v>100805</v>
+        <v>100807</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1026" s="5">
-        <v>100806</v>
+        <v>100808</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1027" s="5">
-        <v>100807</v>
+        <v>100809</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1028" s="5">
-        <v>100808</v>
+        <v>100810</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1029" s="5">
-        <v>100809</v>
+        <v>100811</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1030" s="5">
-        <v>100810</v>
+        <v>100812</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1031" s="5">
-        <v>100811</v>
+        <v>100813</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1032" s="5">
-        <v>100812</v>
+        <v>100814</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1033" s="5">
-        <v>100813</v>
+        <v>100815</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1034" s="5">
-        <v>100814</v>
+        <v>100816</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1035" s="5">
-        <v>100815</v>
+        <v>100817</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1036" s="5">
-        <v>100816</v>
+        <v>100818</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1037" s="5">
-        <v>100817</v>
+        <v>100819</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1038" s="5">
-        <v>100818</v>
+        <v>100820</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1039" s="5">
-        <v>100819</v>
+        <v>100821</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1040" s="5">
-        <v>100820</v>
+        <v>100822</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1041" s="5">
-        <v>100821</v>
+        <v>100823</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1042" s="5">
-        <v>100822</v>
+        <v>100824</v>
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1043" s="5">
-        <v>100823</v>
+        <v>100825</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1044" s="5">
-        <v>100824</v>
+        <v>100826</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1045" s="5">
-        <v>100825</v>
+        <v>100827</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1046" s="5">
-        <v>100826</v>
+        <v>100828</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1047" s="5">
-        <v>100827</v>
+        <v>100829</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048" s="5">
-        <v>100828</v>
+        <v>100830</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1049" s="5">
-        <v>100829</v>
+        <v>100831</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1050" s="5">
-        <v>100830</v>
+        <v>100832</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1051" s="5">
-        <v>100831</v>
+        <v>100833</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1052" s="5">
-        <v>100832</v>
+        <v>100834</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1053" s="5">
-        <v>100833</v>
+        <v>100835</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1054" s="5">
-        <v>100834</v>
+        <v>100836</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1055" s="5">
-        <v>100835</v>
+        <v>100837</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056" s="5">
-        <v>100836</v>
+        <v>100838</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1057" s="5">
-        <v>100837</v>
+        <v>100839</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1058" s="5">
-        <v>100838</v>
+        <v>100840</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1059" s="5">
-        <v>100839</v>
+        <v>100841</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1060" s="5">
-        <v>100840</v>
+        <v>100842</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1061" s="5">
-        <v>100841</v>
+        <v>100843</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062" s="5">
-        <v>100842</v>
+        <v>100844</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1063" s="5">
-        <v>100843</v>
+        <v>100845</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1064" s="5">
-        <v>100844</v>
+        <v>100846</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1065" s="5">
-        <v>100845</v>
+        <v>100847</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1066" s="5">
-        <v>100846</v>
+        <v>100848</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1067" s="5">
-        <v>100847</v>
+        <v>100849</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1068" s="5">
-        <v>100848</v>
+        <v>100850</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1069" s="5">
-        <v>100849</v>
+        <v>100851</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1070" s="5">
-        <v>100850</v>
+        <v>100852</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1071" s="5">
-        <v>100851</v>
+        <v>100853</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1072" s="5">
-        <v>100852</v>
+        <v>100854</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1073" s="5">
-        <v>100853</v>
+        <v>100855</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1074" s="5">
-        <v>100854</v>
+        <v>100856</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1075" s="5">
-        <v>100855</v>
+        <v>100857</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1076" s="5">
-        <v>100856</v>
+        <v>100858</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1077" s="5">
-        <v>100857</v>
+        <v>100859</v>
       </c>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1078" s="5">
-        <v>100858</v>
+        <v>100860</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1079" s="5">
-        <v>100859</v>
+        <v>100861</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1080" s="5">
-        <v>100860</v>
+        <v>100862</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1081" s="5">
-        <v>100861</v>
+        <v>100863</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1082" s="5">
-        <v>100862</v>
+        <v>100864</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1083" s="5">
-        <v>100863</v>
+        <v>100865</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1084" s="5">
-        <v>100864</v>
+        <v>100866</v>
       </c>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1085" s="5">
-        <v>100865</v>
+        <v>100867</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1086" s="5">
-        <v>100866</v>
+        <v>100868</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1087" s="5">
-        <v>100867</v>
+        <v>100869</v>
       </c>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1088" s="5">
-        <v>100868</v>
+        <v>100870</v>
       </c>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1089" s="5">
-        <v>100869</v>
+        <v>100871</v>
       </c>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1090" s="5">
-        <v>100870</v>
+        <v>100872</v>
       </c>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1091" s="5">
-        <v>100871</v>
+        <v>100873</v>
       </c>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1092" s="5">
-        <v>100872</v>
+        <v>100874</v>
       </c>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1093" s="5">
-        <v>100873</v>
+        <v>100875</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1094" s="5">
-        <v>100874</v>
+        <v>100876</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1095" s="5">
-        <v>100875</v>
+        <v>100877</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1096" s="5">
-        <v>100876</v>
+        <v>100878</v>
       </c>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1097" s="5">
-        <v>100877</v>
+        <v>100879</v>
       </c>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1098" s="5">
-        <v>100878</v>
+        <v>100880</v>
       </c>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1099" s="5">
-        <v>100879</v>
+        <v>100881</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1100" s="5">
-        <v>100880</v>
+        <v>100882</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1101" s="5">
-        <v>100881</v>
+        <v>100883</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1102" s="5">
-        <v>100882</v>
+        <v>100884</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1103" s="5">
-        <v>100883</v>
+        <v>100885</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1104" s="5">
-        <v>100884</v>
+        <v>100886</v>
       </c>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1105" s="5">
-        <v>100885</v>
+        <v>100887</v>
       </c>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1106" s="5">
-        <v>100886</v>
+        <v>100888</v>
       </c>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1107" s="5">
-        <v>100887</v>
+        <v>100889</v>
       </c>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1108" s="5">
-        <v>100888</v>
+        <v>100890</v>
       </c>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1109" s="5">
-        <v>100889</v>
+        <v>100891</v>
       </c>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1110" s="5">
-        <v>100890</v>
+        <v>100892</v>
       </c>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1111" s="5">
-        <v>100891</v>
+        <v>100893</v>
       </c>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1112" s="5">
-        <v>100892</v>
+        <v>100894</v>
       </c>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1113" s="5">
-        <v>100893</v>
+        <v>100895</v>
       </c>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1114" s="5">
-        <v>100894</v>
+        <v>100896</v>
       </c>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1115" s="5">
-        <v>100895</v>
+        <v>100897</v>
       </c>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1116" s="5">
-        <v>100896</v>
+        <v>100898</v>
       </c>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1117" s="5">
-        <v>100897</v>
+        <v>100899</v>
       </c>
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1118" s="5">
-        <v>100898</v>
+        <v>100900</v>
       </c>
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1119" s="5">
-        <v>100899</v>
+        <v>100901</v>
       </c>
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1120" s="5">
-        <v>100900</v>
+        <v>100902</v>
       </c>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1121" s="5">
-        <v>100901</v>
+        <v>100903</v>
       </c>
     </row>
     <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1122" s="5">
-        <v>100902</v>
+        <v>100904</v>
       </c>
     </row>
     <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1123" s="5">
-        <v>100903</v>
+        <v>100905</v>
       </c>
     </row>
     <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1124" s="5">
-        <v>100904</v>
+        <v>100906</v>
       </c>
     </row>
     <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1125" s="5">
-        <v>100905</v>
+        <v>100907</v>
       </c>
     </row>
     <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1126" s="5">
-        <v>100906</v>
+        <v>100908</v>
       </c>
     </row>
     <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1127" s="5">
-        <v>100907</v>
+        <v>100909</v>
       </c>
     </row>
     <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1128" s="5">
-        <v>100908</v>
+        <v>100910</v>
       </c>
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1129" s="5">
-        <v>100909</v>
+        <v>100911</v>
       </c>
     </row>
     <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1130" s="5">
-        <v>100910</v>
+        <v>100912</v>
       </c>
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1131" s="5">
-        <v>100911</v>
+        <v>100913</v>
       </c>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1132" s="5">
-        <v>100912</v>
+        <v>100914</v>
       </c>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1133" s="5">
-        <v>100913</v>
+        <v>100915</v>
       </c>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1134" s="5">
-        <v>100914</v>
+        <v>100916</v>
       </c>
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1135" s="5">
-        <v>100915</v>
+        <v>100917</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1136" s="5">
-        <v>100916</v>
+        <v>100918</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1137" s="5">
-        <v>100917</v>
+        <v>100919</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1138" s="5">
-        <v>100918</v>
+        <v>100920</v>
       </c>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1139" s="5">
-        <v>100919</v>
+        <v>100921</v>
       </c>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1140" s="5">
-        <v>100920</v>
+        <v>100922</v>
       </c>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1141" s="5">
-        <v>100921</v>
+        <v>100923</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1142" s="5">
-        <v>100922</v>
+        <v>100924</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1143" s="5">
-        <v>100923</v>
+        <v>100925</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1144" s="5">
-        <v>100924</v>
+        <v>100926</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1145" s="5">
-        <v>100925</v>
+        <v>100927</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1146" s="5">
-        <v>100926</v>
+        <v>100928</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1147" s="5">
-        <v>100927</v>
+        <v>100929</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1148" s="5">
-        <v>100928</v>
+        <v>100930</v>
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1149" s="5">
-        <v>100929</v>
+        <v>100931</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1150" s="5">
-        <v>100930</v>
+        <v>100932</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1151" s="5">
-        <v>100931</v>
+        <v>100933</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1152" s="5">
-        <v>100932</v>
+        <v>100934</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1153" s="5">
-        <v>100933</v>
+        <v>100935</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1154" s="5">
-        <v>100934</v>
+        <v>100936</v>
       </c>
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1155" s="5">
-        <v>100935</v>
+        <v>100937</v>
       </c>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1156" s="5">
-        <v>100936</v>
+        <v>100938</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1157" s="5">
-        <v>100937</v>
+        <v>100939</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1158" s="5">
-        <v>100938</v>
+        <v>100940</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1159" s="5">
-        <v>100939</v>
+        <v>100941</v>
       </c>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1160" s="5">
-        <v>100940</v>
+        <v>100942</v>
       </c>
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1161" s="5">
-        <v>100941</v>
+        <v>100943</v>
       </c>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1162" s="5">
-        <v>100942</v>
+        <v>100944</v>
       </c>
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1163" s="5">
-        <v>100943</v>
+        <v>100945</v>
       </c>
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1164" s="5">
-        <v>100944</v>
+        <v>100946</v>
       </c>
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1165" s="5">
-        <v>100945</v>
+        <v>100947</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1166" s="5">
-        <v>100946</v>
+        <v>100948</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1167" s="5">
-        <v>100947</v>
+        <v>100949</v>
       </c>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1168" s="5">
-        <v>100948</v>
+        <v>100950</v>
       </c>
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1169" s="5">
-        <v>100949</v>
+        <v>100951</v>
       </c>
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1170" s="5">
-        <v>100950</v>
+        <v>100952</v>
       </c>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1171" s="5">
-        <v>100951</v>
+        <v>100953</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1172" s="5">
-        <v>100952</v>
+        <v>100954</v>
       </c>
     </row>
     <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1173" s="5">
-        <v>100953</v>
+        <v>100955</v>
       </c>
     </row>
     <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1174" s="5">
-        <v>100954</v>
+        <v>100956</v>
       </c>
     </row>
     <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1175" s="5">
-        <v>100955</v>
+        <v>100957</v>
       </c>
     </row>
     <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1176" s="5">
-        <v>100956</v>
+        <v>100958</v>
       </c>
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1177" s="5">
-        <v>100957</v>
+        <v>100959</v>
       </c>
     </row>
     <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1178" s="5">
-        <v>100958</v>
+        <v>100960</v>
       </c>
     </row>
     <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1179" s="5">
-        <v>100959</v>
+        <v>100961</v>
       </c>
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1180" s="5">
-        <v>100960</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1181" s="5">
-        <v>100961</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1182" s="5">
         <v>100962</v>
       </c>
+    </row>
+    <row r="1048574" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1048574" s="10"/>
+    </row>
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1048576" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3584934C-3BC2-4C18-BAED-8F8A7B6999F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DF715A-BDED-4405-89E6-F0679FDF609D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47130" yWindow="2910" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39030" yWindow="2910" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="D343" sqref="D343"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +573,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="7">
-        <v>45897</v>
+        <v>45532</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>18</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DF715A-BDED-4405-89E6-F0679FDF609D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D158B6-F724-475B-BCB0-27D41A3EC81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39030" yWindow="2910" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9225" yWindow="4710" windowWidth="22380" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="26">
   <si>
     <t>code</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>не была в ремонте</t>
-  </si>
-  <si>
-    <t>была в ремонте 01.06.2025</t>
   </si>
   <si>
     <t>Компакт</t>
@@ -104,17 +101,31 @@
   <si>
     <t>была в ремонте 12.09.2025</t>
   </si>
+  <si>
+    <t>тестовый номер</t>
+  </si>
+  <si>
+    <t>сервер и база данных доступны</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,37 +196,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -499,7 +513,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
         <v>45292</v>
@@ -543,14 +557,14 @@
       <c r="A3" s="3">
         <v>12345</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
+      <c r="B3" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="4">
         <v>45292</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -558,7 +572,7 @@
         <v>25501</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4">
         <v>45951</v>
@@ -570,13 +584,13 @@
         <v>24925</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7">
         <v>45532</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -584,13 +598,13 @@
         <v>24945</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7">
         <v>45553</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,13 +612,13 @@
         <v>24946</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>45553</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,13 +626,13 @@
         <v>24953</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7">
         <v>45553</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,13 +640,13 @@
         <v>24903</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="7">
         <v>45553</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,13 +654,13 @@
         <v>24986</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>45544</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,7 +668,7 @@
         <v>24861</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="7">
         <v>45412</v>
@@ -673,7 +687,7 @@
         <v>24997</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="7">
         <v>45567</v>
@@ -684,7 +698,7 @@
         <v>24996</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="7">
         <v>45567</v>
@@ -871,7 +885,7 @@
         <v>24924</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" s="7">
         <v>45532</v>
@@ -882,7 +896,7 @@
         <v>24916</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" s="7">
         <v>45532</v>
@@ -893,7 +907,7 @@
         <v>24902</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" s="7">
         <v>45532</v>
@@ -904,7 +918,7 @@
         <v>24976</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" s="7">
         <v>45532</v>
@@ -915,7 +929,7 @@
         <v>24923</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" s="7">
         <v>45532</v>
@@ -926,7 +940,7 @@
         <v>24911</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" s="7">
         <v>45532</v>
@@ -937,7 +951,7 @@
         <v>24981</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" s="7">
         <v>45532</v>
@@ -948,7 +962,7 @@
         <v>24939</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" s="7">
         <v>45532</v>
@@ -959,7 +973,7 @@
         <v>24908</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" s="7">
         <v>45532</v>
@@ -970,7 +984,7 @@
         <v>24975</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" s="7">
         <v>45532</v>
@@ -981,7 +995,7 @@
         <v>24900</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" s="7">
         <v>45532</v>
@@ -992,7 +1006,7 @@
         <v>24958</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" s="7">
         <v>45532</v>
@@ -1027,7 +1041,7 @@
         <v>24927</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" s="7">
         <v>45553</v>
@@ -1091,7 +1105,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" s="7">
         <v>45553</v>
@@ -1102,7 +1116,7 @@
         <v>24988</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" s="7">
         <v>45553</v>
@@ -1113,7 +1127,7 @@
         <v>24955</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" s="7">
         <v>45553</v>
@@ -1124,7 +1138,7 @@
         <v>24954</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" s="7">
         <v>45553</v>
@@ -1135,7 +1149,7 @@
         <v>24932</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" s="7">
         <v>45553</v>
@@ -1146,7 +1160,7 @@
         <v>24972</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" s="7">
         <v>45553</v>
@@ -1157,7 +1171,7 @@
         <v>24936</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C66" s="7">
         <v>45579</v>
@@ -1168,7 +1182,7 @@
         <v>25049</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C67" s="7">
         <v>45579</v>
@@ -1179,7 +1193,7 @@
         <v>24999</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C68" s="7">
         <v>45579</v>
@@ -1190,7 +1204,7 @@
         <v>25043</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C69" s="7">
         <v>45579</v>
@@ -1201,7 +1215,7 @@
         <v>24998</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70" s="7">
         <v>45579</v>
@@ -1212,7 +1226,7 @@
         <v>25015</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71" s="7">
         <v>45579</v>
@@ -1223,7 +1237,7 @@
         <v>25058</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" s="7">
         <v>45579</v>
@@ -1234,13 +1248,13 @@
         <v>25069</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C73" s="7">
         <v>45579</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1248,7 +1262,7 @@
         <v>25001</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74" s="7">
         <v>45579</v>
@@ -1259,7 +1273,7 @@
         <v>25041</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75" s="7">
         <v>45579</v>
@@ -1270,7 +1284,7 @@
         <v>25036</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" s="7">
         <v>45579</v>
@@ -1281,7 +1295,7 @@
         <v>25024</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" s="7">
         <v>45579</v>
@@ -1292,7 +1306,7 @@
         <v>25040</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C78" s="7">
         <v>45579</v>
@@ -1303,7 +1317,7 @@
         <v>25074</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79" s="7">
         <v>45579</v>
@@ -1314,7 +1328,7 @@
         <v>25048</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" s="7">
         <v>45579</v>
@@ -1325,7 +1339,7 @@
         <v>25035</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C81" s="7">
         <v>45579</v>
@@ -1336,7 +1350,7 @@
         <v>25010</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C82" s="7">
         <v>45579</v>
@@ -1347,7 +1361,7 @@
         <v>25000</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83" s="7">
         <v>45579</v>
@@ -1355,10 +1369,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84" s="7">
         <v>45616</v>
@@ -1369,7 +1383,7 @@
         <v>25026</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C85" s="7">
         <v>45615</v>
@@ -1380,7 +1394,7 @@
         <v>25023</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C86" s="7">
         <v>45615</v>
@@ -1391,7 +1405,7 @@
         <v>25071</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C87" s="7">
         <v>45615</v>
@@ -1402,7 +1416,7 @@
         <v>25080</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C88" s="7">
         <v>45615</v>
@@ -1413,7 +1427,7 @@
         <v>25017</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C89" s="7">
         <v>45615</v>
@@ -1424,7 +1438,7 @@
         <v>25003</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C90" s="7">
         <v>45615</v>
@@ -1435,7 +1449,7 @@
         <v>25009</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91" s="7">
         <v>45615</v>
@@ -1446,7 +1460,7 @@
         <v>25028</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C92" s="7">
         <v>45615</v>
@@ -1457,7 +1471,7 @@
         <v>25030</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C93" s="7">
         <v>45615</v>
@@ -1468,7 +1482,7 @@
         <v>25072</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C94" s="7">
         <v>45615</v>
@@ -1479,7 +1493,7 @@
         <v>25018</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C95" s="7">
         <v>45615</v>
@@ -1490,7 +1504,7 @@
         <v>25057</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C96" s="7">
         <v>45615</v>
@@ -1501,7 +1515,7 @@
         <v>25077</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C97" s="7">
         <v>45615</v>
@@ -1512,7 +1526,7 @@
         <v>25066</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C98" s="7">
         <v>45615</v>
@@ -1523,7 +1537,7 @@
         <v>25078</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C99" s="7">
         <v>45615</v>
@@ -1534,7 +1548,7 @@
         <v>25037</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" s="7">
         <v>45616</v>
@@ -1545,7 +1559,7 @@
         <v>25079</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" s="7">
         <v>45616</v>
@@ -1556,7 +1570,7 @@
         <v>25075</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" s="7">
         <v>45616</v>
@@ -1567,7 +1581,7 @@
         <v>25070</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" s="7">
         <v>45616</v>
@@ -1578,7 +1592,7 @@
         <v>25056</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" s="7">
         <v>45616</v>
@@ -1589,7 +1603,7 @@
         <v>25047</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" s="7">
         <v>45616</v>
@@ -1600,7 +1614,7 @@
         <v>25016</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" s="7">
         <v>45616</v>
@@ -1611,7 +1625,7 @@
         <v>25034</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" s="7">
         <v>45616</v>
@@ -1622,7 +1636,7 @@
         <v>25013</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" s="7">
         <v>45616</v>
@@ -1633,7 +1647,7 @@
         <v>25045</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C109" s="7">
         <v>45616</v>
@@ -1644,7 +1658,7 @@
         <v>25012</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" s="7">
         <v>45616</v>
@@ -1655,7 +1669,7 @@
         <v>25039</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" s="7">
         <v>45616</v>
@@ -1666,7 +1680,7 @@
         <v>25081</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" s="7">
         <v>45616</v>
@@ -1677,7 +1691,7 @@
         <v>25006</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" s="7">
         <v>45616</v>
@@ -1688,7 +1702,7 @@
         <v>25019</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114" s="7">
         <v>45616</v>
@@ -1699,7 +1713,7 @@
         <v>25055</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C115" s="7">
         <v>45636</v>
@@ -1710,7 +1724,7 @@
         <v>25085</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C116" s="7">
         <v>45636</v>
@@ -1721,7 +1735,7 @@
         <v>25052</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C117" s="7">
         <v>45636</v>
@@ -1732,7 +1746,7 @@
         <v>25064</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C118" s="7">
         <v>45636</v>
@@ -1743,7 +1757,7 @@
         <v>25068</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C119" s="7">
         <v>45636</v>
@@ -1754,7 +1768,7 @@
         <v>25062</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C120" s="7">
         <v>45636</v>
@@ -1765,7 +1779,7 @@
         <v>25061</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C121" s="7">
         <v>45636</v>
@@ -1776,7 +1790,7 @@
         <v>25053</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C122" s="7">
         <v>45636</v>
@@ -1787,7 +1801,7 @@
         <v>25060</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C123" s="7">
         <v>45636</v>
@@ -1798,7 +1812,7 @@
         <v>25014</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C124" s="7">
         <v>45636</v>
@@ -1809,7 +1823,7 @@
         <v>25046</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C125" s="7">
         <v>45636</v>
@@ -1820,7 +1834,7 @@
         <v>25021</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C126" s="7">
         <v>45636</v>
@@ -1831,7 +1845,7 @@
         <v>25020</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C127" s="7">
         <v>45636</v>
@@ -1842,7 +1856,7 @@
         <v>25002</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C128" s="7">
         <v>45636</v>
@@ -1853,7 +1867,7 @@
         <v>25025</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C129" s="7">
         <v>45636</v>
@@ -1864,7 +1878,7 @@
         <v>25022</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C130" s="7">
         <v>45636</v>
@@ -1875,7 +1889,7 @@
         <v>25011</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C131" s="7">
         <v>45636</v>
@@ -1886,7 +1900,7 @@
         <v>25029</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C132" s="7">
         <v>45636</v>
@@ -1897,7 +1911,7 @@
         <v>25007</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C133" s="7">
         <v>45636</v>
@@ -1908,7 +1922,7 @@
         <v>25032</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C134" s="7">
         <v>45636</v>
@@ -1919,7 +1933,7 @@
         <v>25005</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C135" s="7">
         <v>45636</v>
@@ -1930,7 +1944,7 @@
         <v>25042</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C136" s="7">
         <v>45636</v>
@@ -1941,7 +1955,7 @@
         <v>25031</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C137" s="7">
         <v>45636</v>
@@ -1952,7 +1966,7 @@
         <v>25033</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C138" s="7">
         <v>45636</v>
@@ -1963,7 +1977,7 @@
         <v>25038</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C139" s="7">
         <v>45636</v>
@@ -1974,7 +1988,7 @@
         <v>25044</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C140" s="7">
         <v>45636</v>
@@ -1985,7 +1999,7 @@
         <v>25050</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C141" s="7">
         <v>45636</v>
@@ -1996,7 +2010,7 @@
         <v>25054</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C142" s="7">
         <v>45636</v>
@@ -2007,7 +2021,7 @@
         <v>25063</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C143" s="7">
         <v>45636</v>
@@ -2018,7 +2032,7 @@
         <v>25502</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C144" s="4">
         <v>45951</v>
@@ -2030,7 +2044,7 @@
         <v>25503</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C145" s="4">
         <v>45951</v>
@@ -2042,7 +2056,7 @@
         <v>25504</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C146" s="4">
         <v>45951</v>
@@ -2054,7 +2068,7 @@
         <v>25505</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C147" s="4">
         <v>45951</v>
@@ -2066,7 +2080,7 @@
         <v>25506</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C148" s="4">
         <v>45951</v>
@@ -2078,7 +2092,7 @@
         <v>25507</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C149" s="4">
         <v>45951</v>
@@ -2090,7 +2104,7 @@
         <v>25508</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C150" s="4">
         <v>45951</v>
@@ -2102,7 +2116,7 @@
         <v>25509</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C151" s="4">
         <v>45951</v>
@@ -2114,7 +2128,7 @@
         <v>25510</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C152" s="4">
         <v>45951</v>
@@ -2126,7 +2140,7 @@
         <v>25511</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C153" s="4">
         <v>45951</v>
@@ -2138,7 +2152,7 @@
         <v>25512</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C154" s="4">
         <v>45951</v>
@@ -2150,7 +2164,7 @@
         <v>25513</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C155" s="4">
         <v>45951</v>
@@ -2162,7 +2176,7 @@
         <v>25514</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C156" s="4">
         <v>45951</v>
@@ -2174,7 +2188,7 @@
         <v>25515</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C157" s="4">
         <v>45951</v>
@@ -2186,7 +2200,7 @@
         <v>25516</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C158" s="4">
         <v>45951</v>
@@ -2198,7 +2212,7 @@
         <v>25517</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C159" s="4">
         <v>45951</v>
@@ -2210,7 +2224,7 @@
         <v>25518</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C160" s="4">
         <v>45951</v>
@@ -2222,7 +2236,7 @@
         <v>25519</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C161" s="4">
         <v>45951</v>
@@ -2234,7 +2248,7 @@
         <v>25520</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C162" s="4">
         <v>45951</v>
@@ -2246,13 +2260,13 @@
         <v>24858</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C163" s="4">
         <v>45951</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -2260,7 +2274,7 @@
         <v>25421</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C164" s="4">
         <v>45796</v>
@@ -2272,7 +2286,7 @@
         <v>25422</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C165" s="4">
         <v>45796</v>
@@ -2284,7 +2298,7 @@
         <v>25423</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C166" s="4">
         <v>45796</v>
@@ -2296,7 +2310,7 @@
         <v>25424</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C167" s="4">
         <v>45796</v>
@@ -2308,7 +2322,7 @@
         <v>25425</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C168" s="4">
         <v>45796</v>
@@ -2320,7 +2334,7 @@
         <v>25426</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C169" s="4">
         <v>45796</v>
@@ -2332,7 +2346,7 @@
         <v>25428</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C170" s="4">
         <v>45796</v>
@@ -2344,7 +2358,7 @@
         <v>25429</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C171" s="4">
         <v>45796</v>
@@ -2356,7 +2370,7 @@
         <v>25430</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C172" s="4">
         <v>45796</v>
@@ -2368,7 +2382,7 @@
         <v>25435</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C173" s="4">
         <v>45796</v>
@@ -2380,13 +2394,13 @@
         <v>25540</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -2394,13 +2408,13 @@
         <v>25541</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -2408,13 +2422,13 @@
         <v>25542</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -2422,13 +2436,13 @@
         <v>25543</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -2436,13 +2450,13 @@
         <v>25544</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -2450,13 +2464,13 @@
         <v>25545</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -2464,13 +2478,13 @@
         <v>25549</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -2478,13 +2492,13 @@
         <v>25550</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -2492,7 +2506,7 @@
         <v>25214</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C182" s="7">
         <v>45741</v>
@@ -2503,7 +2517,7 @@
         <v>25202</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C183" s="7">
         <v>45741</v>
@@ -2514,7 +2528,7 @@
         <v>25238</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C184" s="7">
         <v>45741</v>
@@ -2525,7 +2539,7 @@
         <v>25249</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C185" s="7">
         <v>45741</v>
@@ -2536,7 +2550,7 @@
         <v>25215</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C186" s="7">
         <v>45741</v>
@@ -2547,7 +2561,7 @@
         <v>25225</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C187" s="7">
         <v>45741</v>
@@ -2558,7 +2572,7 @@
         <v>25209</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C188" s="7">
         <v>45741</v>
@@ -2569,7 +2583,7 @@
         <v>25250</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C189" s="7">
         <v>45741</v>
@@ -2580,7 +2594,7 @@
         <v>25235</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C190" s="7">
         <v>45741</v>
@@ -2591,7 +2605,7 @@
         <v>25213</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C191" s="7">
         <v>45741</v>
@@ -2602,7 +2616,7 @@
         <v>25268</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C192" s="7">
         <v>45741</v>
@@ -2613,7 +2627,7 @@
         <v>25264</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C193" s="7">
         <v>45741</v>
@@ -2624,7 +2638,7 @@
         <v>25283</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C194" s="7">
         <v>45741</v>
@@ -2635,7 +2649,7 @@
         <v>25261</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C195" s="7">
         <v>45741</v>
@@ -2646,7 +2660,7 @@
         <v>25279</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C196" s="7">
         <v>45741</v>
@@ -2657,7 +2671,7 @@
         <v>25273</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C197" s="7">
         <v>45741</v>
@@ -2668,7 +2682,7 @@
         <v>25291</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C198" s="7">
         <v>45741</v>
@@ -2679,7 +2693,7 @@
         <v>25293</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C199" s="7">
         <v>45741</v>
@@ -2690,7 +2704,7 @@
         <v>25263</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C200" s="7">
         <v>45741</v>
@@ -2701,7 +2715,7 @@
         <v>25290</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C201" s="7">
         <v>45741</v>
@@ -2712,7 +2726,7 @@
         <v>25266</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C202" s="7">
         <v>45741</v>
@@ -2723,7 +2737,7 @@
         <v>25284</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C203" s="7">
         <v>45741</v>
@@ -2734,7 +2748,7 @@
         <v>25292</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C204" s="7">
         <v>45741</v>
@@ -2745,7 +2759,7 @@
         <v>25300</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C205" s="7">
         <v>45741</v>
@@ -2756,7 +2770,7 @@
         <v>25258</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C206" s="7">
         <v>45741</v>
@@ -2767,7 +2781,7 @@
         <v>25257</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C207" s="7">
         <v>45741</v>
@@ -2778,7 +2792,7 @@
         <v>25259</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C208" s="7">
         <v>45741</v>
@@ -2789,7 +2803,7 @@
         <v>25285</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C209" s="7">
         <v>45741</v>
@@ -2800,7 +2814,7 @@
         <v>25269</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C210" s="7">
         <v>45741</v>
@@ -2811,7 +2825,7 @@
         <v>25287</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C211" s="7">
         <v>45741</v>
@@ -2822,7 +2836,7 @@
         <v>25251</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C212" s="7">
         <v>45741</v>
@@ -2833,7 +2847,7 @@
         <v>25278</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C213" s="7">
         <v>45741</v>
@@ -2844,7 +2858,7 @@
         <v>25288</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C214" s="7">
         <v>45741</v>
@@ -2855,7 +2869,7 @@
         <v>25252</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C215" s="7">
         <v>45741</v>
@@ -2866,7 +2880,7 @@
         <v>25280</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C216" s="7">
         <v>45741</v>
@@ -2877,7 +2891,7 @@
         <v>25297</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C217" s="7">
         <v>45741</v>
@@ -2888,7 +2902,7 @@
         <v>25296</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C218" s="7">
         <v>45741</v>
@@ -2899,7 +2913,7 @@
         <v>25282</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C219" s="7">
         <v>45741</v>
@@ -2910,7 +2924,7 @@
         <v>25274</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C220" s="7">
         <v>45741</v>
@@ -2921,7 +2935,7 @@
         <v>25255</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C221" s="7">
         <v>45741</v>
@@ -2932,7 +2946,7 @@
         <v>25281</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C222" s="7">
         <v>45741</v>
@@ -2943,7 +2957,7 @@
         <v>25253</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C223" s="7">
         <v>45741</v>
@@ -2954,7 +2968,7 @@
         <v>25286</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C224" s="7">
         <v>45741</v>
@@ -2965,7 +2979,7 @@
         <v>25271</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C225" s="7">
         <v>45741</v>
@@ -2976,7 +2990,7 @@
         <v>25272</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C226" s="7">
         <v>45741</v>
@@ -2987,7 +3001,7 @@
         <v>25289</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C227" s="7">
         <v>45741</v>
@@ -2998,7 +3012,7 @@
         <v>25267</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C228" s="7">
         <v>45741</v>
@@ -3009,7 +3023,7 @@
         <v>25256</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C229" s="7">
         <v>45741</v>
@@ -3020,7 +3034,7 @@
         <v>25221</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C230" s="7">
         <v>45741</v>
@@ -3031,7 +3045,7 @@
         <v>25210</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C231" s="7">
         <v>45741</v>
@@ -3042,7 +3056,7 @@
         <v>25218</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C232" s="7">
         <v>45741</v>
@@ -3053,7 +3067,7 @@
         <v>25248</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C233" s="7">
         <v>45741</v>
@@ -3064,7 +3078,7 @@
         <v>25206</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C234" s="7">
         <v>45741</v>
@@ -3075,7 +3089,7 @@
         <v>25239</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C235" s="7">
         <v>45741</v>
@@ -3086,7 +3100,7 @@
         <v>25217</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C236" s="7">
         <v>45741</v>
@@ -3097,7 +3111,7 @@
         <v>25231</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C237" s="7">
         <v>45741</v>
@@ -3108,7 +3122,7 @@
         <v>25216</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C238" s="7">
         <v>45741</v>
@@ -3119,7 +3133,7 @@
         <v>25243</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C239" s="7">
         <v>45741</v>
@@ -3130,7 +3144,7 @@
         <v>25236</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C240" s="7">
         <v>45741</v>
@@ -3141,7 +3155,7 @@
         <v>25203</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C241" s="7">
         <v>45741</v>
@@ -3152,7 +3166,7 @@
         <v>25234</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C242" s="7">
         <v>45791</v>
@@ -3163,7 +3177,7 @@
         <v>25245</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C243" s="7">
         <v>45791</v>
@@ -3174,7 +3188,7 @@
         <v>25227</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C244" s="7">
         <v>45791</v>
@@ -3185,7 +3199,7 @@
         <v>25247</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C245" s="7">
         <v>45791</v>
@@ -3196,7 +3210,7 @@
         <v>25208</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C246" s="7">
         <v>45791</v>
@@ -3207,7 +3221,7 @@
         <v>25434</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C247" s="7">
         <v>45791</v>
@@ -3218,7 +3232,7 @@
         <v>25433</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C248" s="7">
         <v>45791</v>
@@ -3229,7 +3243,7 @@
         <v>25432</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C249" s="7">
         <v>45791</v>
@@ -3240,7 +3254,7 @@
         <v>25431</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C250" s="7">
         <v>45791</v>
@@ -3251,7 +3265,7 @@
         <v>25440</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C251" s="7">
         <v>45791</v>
@@ -3262,7 +3276,7 @@
         <v>25439</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C252" s="7">
         <v>45791</v>
@@ -3273,7 +3287,7 @@
         <v>25436</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C253" s="7">
         <v>45791</v>
@@ -3284,7 +3298,7 @@
         <v>25437</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C254" s="7">
         <v>45791</v>
@@ -3295,7 +3309,7 @@
         <v>25438</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C255" s="7">
         <v>45791</v>
@@ -3306,7 +3320,7 @@
         <v>25444</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C256" s="7">
         <v>45791</v>
@@ -3317,7 +3331,7 @@
         <v>25443</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C257" s="7">
         <v>45791</v>
@@ -3328,7 +3342,7 @@
         <v>25442</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C258" s="7">
         <v>45791</v>
@@ -3339,7 +3353,7 @@
         <v>25233</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C259" s="7">
         <v>45791</v>
@@ -3350,7 +3364,7 @@
         <v>25445</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C260" s="7">
         <v>45791</v>
@@ -3361,7 +3375,7 @@
         <v>25441</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C261" s="7">
         <v>45791</v>
@@ -3372,7 +3386,7 @@
         <v>25207</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C262" s="7">
         <v>45791</v>
@@ -3383,7 +3397,7 @@
         <v>25211</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C263" s="7">
         <v>45791</v>
@@ -3394,7 +3408,7 @@
         <v>25237</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C264" s="7">
         <v>45791</v>
@@ -3405,7 +3419,7 @@
         <v>25222</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C265" s="7">
         <v>45791</v>
@@ -3416,7 +3430,7 @@
         <v>25220</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C266" s="7">
         <v>45791</v>
@@ -3427,7 +3441,7 @@
         <v>25228</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C267" s="7">
         <v>45791</v>
@@ -3438,7 +3452,7 @@
         <v>25205</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C268" s="7">
         <v>45791</v>
@@ -3449,7 +3463,7 @@
         <v>25242</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C269" s="7">
         <v>45791</v>
@@ -3460,7 +3474,7 @@
         <v>25201</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C270" s="7">
         <v>45791</v>
@@ -3471,7 +3485,7 @@
         <v>25240</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C271" s="7">
         <v>45791</v>
@@ -3490,11 +3504,11 @@
         <v>24936</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C273" s="7"/>
       <c r="D273" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -3502,11 +3516,11 @@
         <v>25059</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C274" s="7"/>
       <c r="D274" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -3690,7 +3704,7 @@
         <v>25450</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C305" s="7">
         <v>45775</v>
@@ -3701,7 +3715,7 @@
         <v>25449</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C306" s="7">
         <v>45775</v>
@@ -3712,7 +3726,7 @@
         <v>25448</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C307" s="7">
         <v>45775</v>
@@ -3723,7 +3737,7 @@
         <v>25447</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C308" s="7">
         <v>45775</v>
@@ -3734,7 +3748,7 @@
         <v>25446</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C309" s="7">
         <v>45775</v>
@@ -3745,7 +3759,7 @@
         <v>25260</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C310" s="7">
         <v>45775</v>
@@ -3756,7 +3770,7 @@
         <v>25355</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C311" s="7">
         <v>45775</v>
@@ -3767,7 +3781,7 @@
         <v>25270</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C312" s="7">
         <v>45775</v>
@@ -3778,7 +3792,7 @@
         <v>25357</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C313" s="7">
         <v>45775</v>
@@ -3789,7 +3803,7 @@
         <v>25367</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C314" s="7">
         <v>45775</v>
@@ -3800,7 +3814,7 @@
         <v>25363</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C315" s="7">
         <v>45775</v>
@@ -3811,7 +3825,7 @@
         <v>25276</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C316" s="7">
         <v>45775</v>
@@ -3822,7 +3836,7 @@
         <v>25366</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C317" s="7">
         <v>45775</v>
@@ -3833,7 +3847,7 @@
         <v>25384</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C318" s="7">
         <v>45775</v>
@@ -3844,7 +3858,7 @@
         <v>25391</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C319" s="7">
         <v>45775</v>
@@ -3855,7 +3869,7 @@
         <v>25385</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C320" s="7">
         <v>45775</v>
@@ -3866,7 +3880,7 @@
         <v>25359</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C321" s="7">
         <v>45775</v>
@@ -3877,7 +3891,7 @@
         <v>25364</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C322" s="7">
         <v>45775</v>
@@ -3888,7 +3902,7 @@
         <v>25369</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C323" s="7">
         <v>45775</v>
@@ -3899,7 +3913,7 @@
         <v>25368</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C324" s="7">
         <v>45775</v>
@@ -3910,7 +3924,7 @@
         <v>25395</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C325" s="7">
         <v>45775</v>
@@ -3921,7 +3935,7 @@
         <v>25400</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C326" s="7">
         <v>45775</v>
@@ -3932,7 +3946,7 @@
         <v>25358</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C327" s="7">
         <v>45775</v>
@@ -3943,7 +3957,7 @@
         <v>25361</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C328" s="7">
         <v>45775</v>
@@ -3954,7 +3968,7 @@
         <v>25394</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C329" s="7">
         <v>45775</v>
@@ -3965,7 +3979,7 @@
         <v>25354</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C330" s="7">
         <v>45775</v>
@@ -3976,7 +3990,7 @@
         <v>25362</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C331" s="7">
         <v>45775</v>
@@ -3987,7 +4001,7 @@
         <v>25393</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C332" s="7">
         <v>45775</v>
@@ -3998,7 +4012,7 @@
         <v>25389</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C333" s="7">
         <v>45775</v>
@@ -4009,7 +4023,7 @@
         <v>25399</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C334" s="7">
         <v>45775</v>
@@ -4020,7 +4034,7 @@
         <v>25392</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C335" s="7">
         <v>45775</v>
@@ -4031,7 +4045,7 @@
         <v>25388</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C336" s="7">
         <v>45775</v>
@@ -4042,7 +4056,7 @@
         <v>25352</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C337" s="7">
         <v>45775</v>
@@ -4053,7 +4067,7 @@
         <v>25360</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C338" s="7">
         <v>45775</v>
@@ -4064,7 +4078,7 @@
         <v>25356</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C339" s="7">
         <v>45775</v>
@@ -4075,7 +4089,7 @@
         <v>25390</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C340" s="7">
         <v>45775</v>
@@ -4086,7 +4100,7 @@
         <v>25387</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C341" s="7">
         <v>45775</v>
@@ -4097,7 +4111,7 @@
         <v>25397</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C342" s="7">
         <v>45775</v>
@@ -4108,7 +4122,7 @@
         <v>25398</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C343" s="7">
         <v>45775</v>
@@ -4119,7 +4133,7 @@
         <v>25353</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C344" s="7">
         <v>45775</v>
@@ -4130,7 +4144,7 @@
         <v>25396</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C345" s="7">
         <v>45775</v>
@@ -4141,7 +4155,7 @@
         <v>25351</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C346" s="7">
         <v>45775</v>
@@ -4152,7 +4166,7 @@
         <v>25485</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C347" s="7">
         <v>45841</v>
@@ -4163,7 +4177,7 @@
         <v>25471</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C348" s="7">
         <v>45841</v>
@@ -4174,7 +4188,7 @@
         <v>25480</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C349" s="7">
         <v>45841</v>
@@ -4185,7 +4199,7 @@
         <v>25484</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C350" s="7">
         <v>45841</v>
@@ -4196,7 +4210,7 @@
         <v>25482</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C351" s="7">
         <v>45841</v>
@@ -4207,7 +4221,7 @@
         <v>25483</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C352" s="7">
         <v>45841</v>
@@ -4218,7 +4232,7 @@
         <v>25481</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C353" s="7">
         <v>45841</v>
@@ -4229,7 +4243,7 @@
         <v>25479</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C354" s="7">
         <v>45841</v>
@@ -4240,7 +4254,7 @@
         <v>25476</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C355" s="7">
         <v>45841</v>
@@ -4251,7 +4265,7 @@
         <v>25490</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C356" s="7">
         <v>45841</v>
@@ -4262,7 +4276,7 @@
         <v>25478</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C357" s="7">
         <v>45841</v>
@@ -4273,7 +4287,7 @@
         <v>25477</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C358" s="7">
         <v>45841</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D158B6-F724-475B-BCB0-27D41A3EC81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6DBD78-3903-42C8-A463-1FA0697B6BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="4710" windowWidth="22380" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6720" yWindow="2505" windowWidth="22380" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -102,10 +102,10 @@
     <t>была в ремонте 12.09.2025</t>
   </si>
   <si>
-    <t>тестовый номер</t>
+    <t>xxxxx</t>
   </si>
   <si>
-    <t>сервер и база данных доступны</t>
+    <t>тестовый номер для проверки доступности сервера и базы данных</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>12345</v>
       </c>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6DBD78-3903-42C8-A463-1FA0697B6BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAB6F00-0C58-481F-B3B5-958CB5136BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="2505" windowWidth="22380" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15495" yWindow="1995" windowWidth="20220" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="27">
   <si>
     <t>code</t>
   </si>
@@ -107,17 +107,28 @@
   <si>
     <t>тестовый номер для проверки доступности сервера и базы данных</t>
   </si>
+  <si>
+    <t>МАКС</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,37 +207,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D1191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="C288" sqref="C288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3523,97 +3537,183 @@
         <v>22</v>
       </c>
     </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="5">
+        <v>24978</v>
+      </c>
+      <c r="B275" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C275" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="5">
+        <v>24924</v>
+      </c>
+      <c r="B276" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C276" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="5">
+        <v>24916</v>
+      </c>
+      <c r="B277" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C277" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="5">
+        <v>24924</v>
+      </c>
+      <c r="B278" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C278" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="5">
+        <v>24902</v>
+      </c>
+      <c r="B279" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C279" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="5">
+        <v>24976</v>
+      </c>
+      <c r="B280" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C280" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="5">
+        <v>24923</v>
+      </c>
+      <c r="B281" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C281" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="5">
+        <v>24911</v>
+      </c>
+      <c r="B282" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C282" s="7">
+        <v>45532</v>
+      </c>
+    </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
-        <v>25406</v>
+        <v>24981</v>
+      </c>
+      <c r="B283" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="C283" s="7">
-        <v>45825</v>
+        <v>45532</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
-        <v>25417</v>
+        <v>24939</v>
+      </c>
+      <c r="B284" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="C284" s="7">
-        <v>45825</v>
+        <v>45532</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
-        <v>25414</v>
+        <v>24908</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="C285" s="7">
-        <v>45825</v>
+        <v>45532</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="5">
-        <v>25411</v>
+        <v>24975</v>
+      </c>
+      <c r="B286" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="C286" s="7">
-        <v>45825</v>
+        <v>45532</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
-        <v>25416</v>
+        <v>24900</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="C287" s="7">
-        <v>45825</v>
+        <v>45532</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="5">
-        <v>25404</v>
+        <v>24958</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="C288" s="7">
-        <v>45825</v>
+        <v>45532</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
-        <v>25412</v>
-      </c>
-      <c r="C289" s="7">
-        <v>45825</v>
+        <v>24985</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="5">
-        <v>25413</v>
-      </c>
-      <c r="C290" s="7">
-        <v>45825</v>
+        <v>24984</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
-        <v>25415</v>
-      </c>
-      <c r="C291" s="7">
-        <v>45825</v>
+        <v>24986</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="5">
-        <v>25420</v>
-      </c>
-      <c r="C292" s="7">
-        <v>45825</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="5">
-        <v>25453</v>
-      </c>
-      <c r="C293" s="7">
-        <v>45825</v>
+        <v>24987</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
-        <v>25419</v>
+        <v>25406</v>
       </c>
       <c r="C294" s="7">
         <v>45825</v>
@@ -3621,208 +3721,175 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
-        <v>25224</v>
+        <v>25417</v>
       </c>
       <c r="C295" s="7">
-        <v>45727</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="5">
-        <v>25226</v>
+        <v>25414</v>
       </c>
       <c r="C296" s="7">
-        <v>45727</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
-        <v>25230</v>
+        <v>25411</v>
       </c>
       <c r="C297" s="7">
-        <v>45727</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="5">
-        <v>25219</v>
+        <v>25416</v>
       </c>
       <c r="C298" s="7">
-        <v>45727</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
-        <v>25204</v>
+        <v>25404</v>
       </c>
       <c r="C299" s="7">
-        <v>45727</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
-        <v>25232</v>
+        <v>25412</v>
       </c>
       <c r="C300" s="7">
-        <v>45727</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
-        <v>25229</v>
+        <v>25413</v>
       </c>
       <c r="C301" s="7">
-        <v>45727</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="5">
-        <v>25241</v>
+        <v>25415</v>
       </c>
       <c r="C302" s="7">
-        <v>45727</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="5">
-        <v>25244</v>
+        <v>25420</v>
       </c>
       <c r="C303" s="7">
-        <v>45727</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="5">
-        <v>25246</v>
+        <v>25453</v>
       </c>
       <c r="C304" s="7">
-        <v>45727</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
-        <v>25450</v>
-      </c>
-      <c r="B305" s="11" t="s">
-        <v>6</v>
+        <v>25419</v>
       </c>
       <c r="C305" s="7">
-        <v>45775</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
-        <v>25449</v>
-      </c>
-      <c r="B306" s="11" t="s">
-        <v>6</v>
+        <v>25224</v>
       </c>
       <c r="C306" s="7">
-        <v>45775</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
-        <v>25448</v>
-      </c>
-      <c r="B307" s="11" t="s">
-        <v>6</v>
+        <v>25226</v>
       </c>
       <c r="C307" s="7">
-        <v>45775</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="5">
-        <v>25447</v>
-      </c>
-      <c r="B308" s="11" t="s">
-        <v>6</v>
+        <v>25230</v>
       </c>
       <c r="C308" s="7">
-        <v>45775</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
-        <v>25446</v>
-      </c>
-      <c r="B309" s="11" t="s">
-        <v>6</v>
+        <v>25219</v>
       </c>
       <c r="C309" s="7">
-        <v>45775</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="5">
-        <v>25260</v>
-      </c>
-      <c r="B310" s="11" t="s">
-        <v>6</v>
+        <v>25204</v>
       </c>
       <c r="C310" s="7">
-        <v>45775</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
-        <v>25355</v>
-      </c>
-      <c r="B311" s="11" t="s">
-        <v>6</v>
+        <v>25232</v>
       </c>
       <c r="C311" s="7">
-        <v>45775</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
-        <v>25270</v>
-      </c>
-      <c r="B312" s="11" t="s">
-        <v>6</v>
+        <v>25229</v>
       </c>
       <c r="C312" s="7">
-        <v>45775</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
-        <v>25357</v>
-      </c>
-      <c r="B313" s="11" t="s">
-        <v>6</v>
+        <v>25241</v>
       </c>
       <c r="C313" s="7">
-        <v>45775</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="5">
-        <v>25367</v>
-      </c>
-      <c r="B314" s="11" t="s">
-        <v>6</v>
+        <v>25244</v>
       </c>
       <c r="C314" s="7">
-        <v>45775</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
-        <v>25363</v>
-      </c>
-      <c r="B315" s="11" t="s">
-        <v>6</v>
+        <v>25246</v>
       </c>
       <c r="C315" s="7">
-        <v>45775</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="5">
-        <v>25276</v>
+        <v>25450</v>
       </c>
       <c r="B316" s="11" t="s">
         <v>6</v>
@@ -3833,7 +3900,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
-        <v>25366</v>
+        <v>25449</v>
       </c>
       <c r="B317" s="11" t="s">
         <v>6</v>
@@ -3844,7 +3911,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="5">
-        <v>25384</v>
+        <v>25448</v>
       </c>
       <c r="B318" s="11" t="s">
         <v>6</v>
@@ -3855,7 +3922,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
-        <v>25391</v>
+        <v>25447</v>
       </c>
       <c r="B319" s="11" t="s">
         <v>6</v>
@@ -3866,7 +3933,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="5">
-        <v>25385</v>
+        <v>25446</v>
       </c>
       <c r="B320" s="11" t="s">
         <v>6</v>
@@ -3877,7 +3944,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
-        <v>25359</v>
+        <v>25260</v>
       </c>
       <c r="B321" s="11" t="s">
         <v>6</v>
@@ -3888,7 +3955,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="5">
-        <v>25364</v>
+        <v>25355</v>
       </c>
       <c r="B322" s="11" t="s">
         <v>6</v>
@@ -3899,7 +3966,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
-        <v>25369</v>
+        <v>25270</v>
       </c>
       <c r="B323" s="11" t="s">
         <v>6</v>
@@ -3910,7 +3977,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="5">
-        <v>25368</v>
+        <v>25357</v>
       </c>
       <c r="B324" s="11" t="s">
         <v>6</v>
@@ -3921,7 +3988,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
-        <v>25395</v>
+        <v>25367</v>
       </c>
       <c r="B325" s="11" t="s">
         <v>6</v>
@@ -3932,7 +3999,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="5">
-        <v>25400</v>
+        <v>25363</v>
       </c>
       <c r="B326" s="11" t="s">
         <v>6</v>
@@ -3943,7 +4010,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
-        <v>25358</v>
+        <v>25276</v>
       </c>
       <c r="B327" s="11" t="s">
         <v>6</v>
@@ -3954,7 +4021,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="5">
-        <v>25361</v>
+        <v>25366</v>
       </c>
       <c r="B328" s="11" t="s">
         <v>6</v>
@@ -3965,7 +4032,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="5">
-        <v>25394</v>
+        <v>25384</v>
       </c>
       <c r="B329" s="11" t="s">
         <v>6</v>
@@ -3976,7 +4043,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="5">
-        <v>25354</v>
+        <v>25391</v>
       </c>
       <c r="B330" s="11" t="s">
         <v>6</v>
@@ -3987,7 +4054,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="5">
-        <v>25362</v>
+        <v>25385</v>
       </c>
       <c r="B331" s="11" t="s">
         <v>6</v>
@@ -3998,7 +4065,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="5">
-        <v>25393</v>
+        <v>25359</v>
       </c>
       <c r="B332" s="11" t="s">
         <v>6</v>
@@ -4009,7 +4076,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="5">
-        <v>25389</v>
+        <v>25364</v>
       </c>
       <c r="B333" s="11" t="s">
         <v>6</v>
@@ -4020,7 +4087,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="5">
-        <v>25399</v>
+        <v>25369</v>
       </c>
       <c r="B334" s="11" t="s">
         <v>6</v>
@@ -4031,7 +4098,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="5">
-        <v>25392</v>
+        <v>25368</v>
       </c>
       <c r="B335" s="11" t="s">
         <v>6</v>
@@ -4042,7 +4109,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="5">
-        <v>25388</v>
+        <v>25395</v>
       </c>
       <c r="B336" s="11" t="s">
         <v>6</v>
@@ -4053,7 +4120,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
-        <v>25352</v>
+        <v>25400</v>
       </c>
       <c r="B337" s="11" t="s">
         <v>6</v>
@@ -4064,7 +4131,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="5">
-        <v>25360</v>
+        <v>25358</v>
       </c>
       <c r="B338" s="11" t="s">
         <v>6</v>
@@ -4075,7 +4142,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
-        <v>25356</v>
+        <v>25361</v>
       </c>
       <c r="B339" s="11" t="s">
         <v>6</v>
@@ -4086,7 +4153,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="5">
-        <v>25390</v>
+        <v>25394</v>
       </c>
       <c r="B340" s="11" t="s">
         <v>6</v>
@@ -4097,7 +4164,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="5">
-        <v>25387</v>
+        <v>25354</v>
       </c>
       <c r="B341" s="11" t="s">
         <v>6</v>
@@ -4108,7 +4175,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="5">
-        <v>25397</v>
+        <v>25362</v>
       </c>
       <c r="B342" s="11" t="s">
         <v>6</v>
@@ -4119,7 +4186,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="5">
-        <v>25398</v>
+        <v>25393</v>
       </c>
       <c r="B343" s="11" t="s">
         <v>6</v>
@@ -4130,7 +4197,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="5">
-        <v>25353</v>
+        <v>25389</v>
       </c>
       <c r="B344" s="11" t="s">
         <v>6</v>
@@ -4141,7 +4208,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="5">
-        <v>25396</v>
+        <v>25399</v>
       </c>
       <c r="B345" s="11" t="s">
         <v>6</v>
@@ -4152,7 +4219,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="5">
-        <v>25351</v>
+        <v>25392</v>
       </c>
       <c r="B346" s="11" t="s">
         <v>6</v>
@@ -4163,128 +4230,128 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="5">
-        <v>25485</v>
+        <v>25388</v>
       </c>
       <c r="B347" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C347" s="7">
-        <v>45841</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="5">
-        <v>25471</v>
+        <v>25352</v>
       </c>
       <c r="B348" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C348" s="7">
-        <v>45841</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="5">
-        <v>25480</v>
+        <v>25360</v>
       </c>
       <c r="B349" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C349" s="7">
-        <v>45841</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="5">
-        <v>25484</v>
+        <v>25356</v>
       </c>
       <c r="B350" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C350" s="7">
-        <v>45841</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="5">
-        <v>25482</v>
+        <v>25390</v>
       </c>
       <c r="B351" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C351" s="7">
-        <v>45841</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="5">
-        <v>25483</v>
+        <v>25387</v>
       </c>
       <c r="B352" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C352" s="7">
-        <v>45841</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="5">
-        <v>25481</v>
+        <v>25397</v>
       </c>
       <c r="B353" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C353" s="7">
-        <v>45841</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="5">
-        <v>25479</v>
+        <v>25398</v>
       </c>
       <c r="B354" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C354" s="7">
-        <v>45841</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="5">
-        <v>25476</v>
+        <v>25353</v>
       </c>
       <c r="B355" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C355" s="7">
-        <v>45841</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="5">
-        <v>25490</v>
+        <v>25396</v>
       </c>
       <c r="B356" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C356" s="7">
-        <v>45841</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="5">
-        <v>25478</v>
+        <v>25351</v>
       </c>
       <c r="B357" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C357" s="7">
-        <v>45841</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="5">
-        <v>25477</v>
+        <v>25485</v>
       </c>
       <c r="B358" s="11" t="s">
         <v>6</v>
@@ -4295,4119 +4362,4234 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="5">
-        <v>100141</v>
+        <v>25471</v>
+      </c>
+      <c r="B359" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C359" s="7">
+        <v>45841</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="5">
-        <v>100142</v>
+        <v>25480</v>
+      </c>
+      <c r="B360" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C360" s="7">
+        <v>45841</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="5">
-        <v>100143</v>
+        <v>25484</v>
+      </c>
+      <c r="B361" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C361" s="7">
+        <v>45841</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="5">
-        <v>100144</v>
+        <v>25482</v>
+      </c>
+      <c r="B362" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C362" s="7">
+        <v>45841</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="5">
-        <v>100145</v>
+        <v>25483</v>
+      </c>
+      <c r="B363" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C363" s="7">
+        <v>45841</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="5">
-        <v>100146</v>
+        <v>25481</v>
+      </c>
+      <c r="B364" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C364" s="7">
+        <v>45841</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="5">
-        <v>100147</v>
+        <v>25479</v>
+      </c>
+      <c r="B365" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C365" s="7">
+        <v>45841</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="5">
-        <v>100148</v>
+        <v>25476</v>
+      </c>
+      <c r="B366" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C366" s="7">
+        <v>45841</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="5">
-        <v>100149</v>
+        <v>25490</v>
+      </c>
+      <c r="B367" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C367" s="7">
+        <v>45841</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="5">
+        <v>25478</v>
+      </c>
+      <c r="B368" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C368" s="7">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="5">
+        <v>25477</v>
+      </c>
+      <c r="B369" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C369" s="7">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="5">
+        <v>100141</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="5">
+        <v>100142</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="5">
+        <v>100143</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="5">
+        <v>100144</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="5">
+        <v>100145</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="5">
+        <v>100146</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="5">
+        <v>100147</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="5">
+        <v>100148</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="5">
+        <v>100149</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="5">
         <v>100150</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="5">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="5">
         <v>100151</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="5">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="5">
         <v>100152</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="5">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="5">
         <v>100153</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="5">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="5">
         <v>100154</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="5">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="5">
         <v>100155</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="5">
-        <v>100156</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="5">
-        <v>100157</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="5">
-        <v>100158</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="5">
-        <v>100159</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="5">
-        <v>100160</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="5">
-        <v>100161</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="5">
-        <v>100162</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="5">
-        <v>100163</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="5">
-        <v>100164</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="5">
-        <v>100165</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="5">
-        <v>100166</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="5">
-        <v>100167</v>
+        <v>100156</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="5">
-        <v>100168</v>
+        <v>100157</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="5">
-        <v>100169</v>
+        <v>100158</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="5">
-        <v>100170</v>
+        <v>100159</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="5">
-        <v>100171</v>
+        <v>100160</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="5">
-        <v>100172</v>
+        <v>100161</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="5">
-        <v>100173</v>
+        <v>100162</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="5">
-        <v>100174</v>
+        <v>100163</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="5">
-        <v>100175</v>
+        <v>100164</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="5">
-        <v>100176</v>
+        <v>100165</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="5">
-        <v>100177</v>
+        <v>100166</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="5">
-        <v>100178</v>
+        <v>100167</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="5">
-        <v>100179</v>
+        <v>100168</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="5">
-        <v>100180</v>
+        <v>100169</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="5">
-        <v>100181</v>
+        <v>100170</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="5">
-        <v>100182</v>
+        <v>100171</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="5">
-        <v>100183</v>
+        <v>100172</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="5">
-        <v>100184</v>
+        <v>100173</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="5">
-        <v>100185</v>
+        <v>100174</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="5">
-        <v>100186</v>
+        <v>100175</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="5">
-        <v>100187</v>
+        <v>100176</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="5">
-        <v>100188</v>
+        <v>100177</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="5">
-        <v>100189</v>
+        <v>100178</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="5">
-        <v>100190</v>
+        <v>100179</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="5">
-        <v>100191</v>
+        <v>100180</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="5">
-        <v>100192</v>
+        <v>100181</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="5">
-        <v>100193</v>
+        <v>100182</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="5">
-        <v>100194</v>
+        <v>100183</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="5">
-        <v>100195</v>
+        <v>100184</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="5">
-        <v>100196</v>
+        <v>100185</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="5">
-        <v>100197</v>
+        <v>100186</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="5">
-        <v>100198</v>
+        <v>100187</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="5">
-        <v>100199</v>
+        <v>100188</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="5">
-        <v>100200</v>
+        <v>100189</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="5">
-        <v>100201</v>
+        <v>100190</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="5">
-        <v>100202</v>
+        <v>100191</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
-        <v>100203</v>
+        <v>100192</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="5">
-        <v>100204</v>
+        <v>100193</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
-        <v>100205</v>
+        <v>100194</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="5">
-        <v>100206</v>
+        <v>100195</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="5">
-        <v>100207</v>
+        <v>100196</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="5">
-        <v>100208</v>
+        <v>100197</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="5">
-        <v>100209</v>
+        <v>100198</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="5">
-        <v>100210</v>
+        <v>100199</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="5">
-        <v>100211</v>
+        <v>100200</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="5">
-        <v>100212</v>
+        <v>100201</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
-        <v>100213</v>
+        <v>100202</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="5">
-        <v>100214</v>
+        <v>100203</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
-        <v>100215</v>
+        <v>100204</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="5">
-        <v>100216</v>
+        <v>100205</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="5">
-        <v>100217</v>
+        <v>100206</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="5">
-        <v>100218</v>
+        <v>100207</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="5">
-        <v>100219</v>
+        <v>100208</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="5">
-        <v>100220</v>
+        <v>100209</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="5">
-        <v>100221</v>
+        <v>100210</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="5">
-        <v>100222</v>
+        <v>100211</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="5">
-        <v>100223</v>
+        <v>100212</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="5">
-        <v>100224</v>
+        <v>100213</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="5">
-        <v>100225</v>
+        <v>100214</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="5">
-        <v>100226</v>
+        <v>100215</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="5">
-        <v>100227</v>
+        <v>100216</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="5">
-        <v>100228</v>
+        <v>100217</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="5">
-        <v>100229</v>
+        <v>100218</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="5">
-        <v>100230</v>
+        <v>100219</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
-        <v>100231</v>
+        <v>100220</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="5">
-        <v>100232</v>
+        <v>100221</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="5">
-        <v>100233</v>
+        <v>100222</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="5">
-        <v>100234</v>
+        <v>100223</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="5">
-        <v>100235</v>
+        <v>100224</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="5">
-        <v>100236</v>
+        <v>100225</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="5">
-        <v>100237</v>
+        <v>100226</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="5">
-        <v>100238</v>
+        <v>100227</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="5">
-        <v>100239</v>
+        <v>100228</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="5">
-        <v>100240</v>
+        <v>100229</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="5">
-        <v>100241</v>
+        <v>100230</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="5">
-        <v>100242</v>
+        <v>100231</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
-        <v>100243</v>
+        <v>100232</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="5">
-        <v>100244</v>
+        <v>100233</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
-        <v>100245</v>
+        <v>100234</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="5">
-        <v>100246</v>
+        <v>100235</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="5">
-        <v>100247</v>
+        <v>100236</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="5">
-        <v>100248</v>
+        <v>100237</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
-        <v>100249</v>
+        <v>100238</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="5">
-        <v>100250</v>
+        <v>100239</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="5">
-        <v>100251</v>
+        <v>100240</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="5">
-        <v>100252</v>
+        <v>100241</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="5">
-        <v>100253</v>
+        <v>100242</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="5">
-        <v>100254</v>
+        <v>100243</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="5">
-        <v>100255</v>
+        <v>100244</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="5">
-        <v>100256</v>
+        <v>100245</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="5">
-        <v>100257</v>
+        <v>100246</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="5">
-        <v>100258</v>
+        <v>100247</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="5">
-        <v>100259</v>
+        <v>100248</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="5">
-        <v>100260</v>
+        <v>100249</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="5">
-        <v>100261</v>
+        <v>100250</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="5">
-        <v>100262</v>
+        <v>100251</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="5">
-        <v>100263</v>
+        <v>100252</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="5">
-        <v>100264</v>
+        <v>100253</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="5">
-        <v>100265</v>
+        <v>100254</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="5">
-        <v>100266</v>
+        <v>100255</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="5">
-        <v>100267</v>
+        <v>100256</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="5">
-        <v>100268</v>
+        <v>100257</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="5">
-        <v>100269</v>
+        <v>100258</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="5">
-        <v>100270</v>
+        <v>100259</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="5">
-        <v>100271</v>
+        <v>100260</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="5">
-        <v>100272</v>
+        <v>100261</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
-        <v>100273</v>
+        <v>100262</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="5">
-        <v>100274</v>
+        <v>100263</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="5">
-        <v>100275</v>
+        <v>100264</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="5">
-        <v>100276</v>
+        <v>100265</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="5">
-        <v>100277</v>
+        <v>100266</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="5">
-        <v>100278</v>
+        <v>100267</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
-        <v>100279</v>
+        <v>100268</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="5">
-        <v>100280</v>
+        <v>100269</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="5">
-        <v>100281</v>
+        <v>100270</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="5">
-        <v>100282</v>
+        <v>100271</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
-        <v>100283</v>
+        <v>100272</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="5">
-        <v>100284</v>
+        <v>100273</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="5">
-        <v>100285</v>
+        <v>100274</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="5">
-        <v>100286</v>
+        <v>100275</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="5">
-        <v>100287</v>
+        <v>100276</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="5">
-        <v>100288</v>
+        <v>100277</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="5">
-        <v>100289</v>
+        <v>100278</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="5">
-        <v>100290</v>
+        <v>100279</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="5">
-        <v>100291</v>
+        <v>100280</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="5">
-        <v>100292</v>
+        <v>100281</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="5">
-        <v>100293</v>
+        <v>100282</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="5">
-        <v>100294</v>
+        <v>100283</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="5">
-        <v>100295</v>
+        <v>100284</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="5">
-        <v>100296</v>
+        <v>100285</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="5">
-        <v>100297</v>
+        <v>100286</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="5">
-        <v>100298</v>
+        <v>100287</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="5">
-        <v>100299</v>
+        <v>100288</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="5">
-        <v>100300</v>
+        <v>100289</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="5">
-        <v>100301</v>
+        <v>100290</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="5">
-        <v>100302</v>
+        <v>100291</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="5">
-        <v>100303</v>
+        <v>100292</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="5">
-        <v>100304</v>
+        <v>100293</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="5">
-        <v>100305</v>
+        <v>100294</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="5">
-        <v>100306</v>
+        <v>100295</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="5">
-        <v>100307</v>
+        <v>100296</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="5">
-        <v>100308</v>
+        <v>100297</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="5">
-        <v>100309</v>
+        <v>100298</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="5">
-        <v>100310</v>
+        <v>100299</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="5">
-        <v>100311</v>
+        <v>100300</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="5">
-        <v>100312</v>
+        <v>100301</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="5">
-        <v>100313</v>
+        <v>100302</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="5">
-        <v>100314</v>
+        <v>100303</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="5">
-        <v>100315</v>
+        <v>100304</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="5">
-        <v>100316</v>
+        <v>100305</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="5">
-        <v>100317</v>
+        <v>100306</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="5">
-        <v>100318</v>
+        <v>100307</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="5">
-        <v>100319</v>
+        <v>100308</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="5">
-        <v>100320</v>
+        <v>100309</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="5">
-        <v>100321</v>
+        <v>100310</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="5">
-        <v>100322</v>
+        <v>100311</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="5">
-        <v>100323</v>
+        <v>100312</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="5">
-        <v>100324</v>
+        <v>100313</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="5">
-        <v>100325</v>
+        <v>100314</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="5">
-        <v>100326</v>
+        <v>100315</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="5">
-        <v>100327</v>
+        <v>100316</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="5">
-        <v>100328</v>
+        <v>100317</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="5">
-        <v>100329</v>
+        <v>100318</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="5">
-        <v>100330</v>
+        <v>100319</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="5">
-        <v>100331</v>
+        <v>100320</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="5">
-        <v>100332</v>
+        <v>100321</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="5">
-        <v>100333</v>
+        <v>100322</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="5">
-        <v>100334</v>
+        <v>100323</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="5">
-        <v>100335</v>
+        <v>100324</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="5">
-        <v>100336</v>
+        <v>100325</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="5">
-        <v>100337</v>
+        <v>100326</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="5">
-        <v>100338</v>
+        <v>100327</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="5">
-        <v>100339</v>
+        <v>100328</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="5">
-        <v>100340</v>
+        <v>100329</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="5">
-        <v>100341</v>
+        <v>100330</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="5">
-        <v>100342</v>
+        <v>100331</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="5">
-        <v>100343</v>
+        <v>100332</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="5">
-        <v>100344</v>
+        <v>100333</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="5">
-        <v>100345</v>
+        <v>100334</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="5">
-        <v>100346</v>
+        <v>100335</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="5">
-        <v>100347</v>
+        <v>100336</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="5">
-        <v>100348</v>
+        <v>100337</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="5">
-        <v>100349</v>
+        <v>100338</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="5">
-        <v>100350</v>
+        <v>100339</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="5">
-        <v>100351</v>
+        <v>100340</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="5">
-        <v>100352</v>
+        <v>100341</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="5">
-        <v>100353</v>
+        <v>100342</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="5">
-        <v>100354</v>
+        <v>100343</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" s="5">
-        <v>100355</v>
+        <v>100344</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="5">
-        <v>100356</v>
+        <v>100345</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="5">
-        <v>100357</v>
+        <v>100346</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="5">
-        <v>100358</v>
+        <v>100347</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" s="5">
-        <v>100359</v>
+        <v>100348</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" s="5">
-        <v>100360</v>
+        <v>100349</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" s="5">
-        <v>100361</v>
+        <v>100350</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" s="5">
-        <v>100362</v>
+        <v>100351</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" s="5">
-        <v>100363</v>
+        <v>100352</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" s="5">
-        <v>100364</v>
+        <v>100353</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" s="5">
-        <v>100365</v>
+        <v>100354</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" s="5">
-        <v>100366</v>
+        <v>100355</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" s="5">
-        <v>100367</v>
+        <v>100356</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" s="5">
-        <v>100368</v>
+        <v>100357</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" s="5">
-        <v>100369</v>
+        <v>100358</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" s="5">
-        <v>100370</v>
+        <v>100359</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" s="5">
-        <v>100371</v>
+        <v>100360</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" s="5">
-        <v>100372</v>
+        <v>100361</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" s="5">
-        <v>100373</v>
+        <v>100362</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" s="5">
-        <v>100374</v>
+        <v>100363</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" s="5">
-        <v>100375</v>
+        <v>100364</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" s="5">
-        <v>100376</v>
+        <v>100365</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" s="5">
-        <v>100377</v>
+        <v>100366</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" s="5">
-        <v>100378</v>
+        <v>100367</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" s="5">
-        <v>100379</v>
+        <v>100368</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" s="5">
-        <v>100380</v>
+        <v>100369</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" s="5">
-        <v>100381</v>
+        <v>100370</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" s="5">
-        <v>100382</v>
+        <v>100371</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" s="5">
-        <v>100383</v>
+        <v>100372</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" s="5">
-        <v>100384</v>
+        <v>100373</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" s="5">
-        <v>100385</v>
+        <v>100374</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" s="5">
-        <v>100386</v>
+        <v>100375</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" s="5">
-        <v>100387</v>
+        <v>100376</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" s="5">
-        <v>100388</v>
+        <v>100377</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" s="5">
-        <v>100389</v>
+        <v>100378</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" s="5">
-        <v>100390</v>
+        <v>100379</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" s="5">
-        <v>100391</v>
+        <v>100380</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" s="5">
-        <v>100392</v>
+        <v>100381</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" s="5">
-        <v>100393</v>
+        <v>100382</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" s="5">
-        <v>100394</v>
+        <v>100383</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" s="5">
-        <v>100395</v>
+        <v>100384</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" s="5">
-        <v>100396</v>
+        <v>100385</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" s="5">
-        <v>100397</v>
+        <v>100386</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" s="5">
-        <v>100398</v>
+        <v>100387</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" s="5">
-        <v>100399</v>
+        <v>100388</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" s="5">
-        <v>100400</v>
+        <v>100389</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" s="5">
-        <v>100401</v>
+        <v>100390</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" s="5">
-        <v>100402</v>
+        <v>100391</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" s="5">
-        <v>100403</v>
+        <v>100392</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" s="5">
-        <v>100404</v>
+        <v>100393</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" s="5">
-        <v>100405</v>
+        <v>100394</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" s="5">
-        <v>100406</v>
+        <v>100395</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" s="5">
-        <v>100407</v>
+        <v>100396</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" s="5">
-        <v>100408</v>
+        <v>100397</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" s="5">
-        <v>100409</v>
+        <v>100398</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" s="5">
-        <v>100410</v>
+        <v>100399</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" s="5">
-        <v>100411</v>
+        <v>100400</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" s="5">
-        <v>100412</v>
+        <v>100401</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" s="5">
-        <v>100413</v>
+        <v>100402</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" s="5">
-        <v>100414</v>
+        <v>100403</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" s="5">
-        <v>100415</v>
+        <v>100404</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" s="5">
-        <v>100416</v>
+        <v>100405</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" s="5">
-        <v>100417</v>
+        <v>100406</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" s="5">
-        <v>100418</v>
+        <v>100407</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" s="5">
-        <v>100419</v>
+        <v>100408</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" s="5">
-        <v>100420</v>
+        <v>100409</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" s="5">
-        <v>100421</v>
+        <v>100410</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" s="5">
-        <v>100422</v>
+        <v>100411</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" s="5">
-        <v>100423</v>
+        <v>100412</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" s="5">
-        <v>100424</v>
+        <v>100413</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" s="5">
-        <v>100425</v>
+        <v>100414</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" s="5">
-        <v>100426</v>
+        <v>100415</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" s="5">
-        <v>100427</v>
+        <v>100416</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" s="5">
-        <v>100428</v>
+        <v>100417</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" s="5">
-        <v>100429</v>
+        <v>100418</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" s="5">
-        <v>100430</v>
+        <v>100419</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" s="5">
-        <v>100431</v>
+        <v>100420</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" s="5">
-        <v>100432</v>
+        <v>100421</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" s="5">
-        <v>100433</v>
+        <v>100422</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" s="5">
-        <v>100434</v>
+        <v>100423</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" s="5">
-        <v>100435</v>
+        <v>100424</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" s="5">
-        <v>100436</v>
+        <v>100425</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" s="5">
-        <v>100437</v>
+        <v>100426</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" s="5">
-        <v>100438</v>
+        <v>100427</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" s="5">
-        <v>100439</v>
+        <v>100428</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" s="5">
-        <v>100440</v>
+        <v>100429</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" s="5">
-        <v>100441</v>
+        <v>100430</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" s="5">
-        <v>100442</v>
+        <v>100431</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" s="5">
-        <v>100443</v>
+        <v>100432</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" s="5">
-        <v>100444</v>
+        <v>100433</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" s="5">
-        <v>100445</v>
+        <v>100434</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" s="5">
-        <v>100446</v>
+        <v>100435</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" s="5">
-        <v>100447</v>
+        <v>100436</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" s="5">
-        <v>100448</v>
+        <v>100437</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" s="5">
-        <v>100449</v>
+        <v>100438</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" s="5">
-        <v>100450</v>
+        <v>100439</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" s="5">
-        <v>100451</v>
+        <v>100440</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" s="5">
-        <v>100452</v>
+        <v>100441</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" s="5">
-        <v>100453</v>
+        <v>100442</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" s="5">
-        <v>100454</v>
+        <v>100443</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" s="5">
-        <v>100455</v>
+        <v>100444</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" s="5">
-        <v>100456</v>
+        <v>100445</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" s="5">
-        <v>100457</v>
+        <v>100446</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" s="5">
-        <v>100458</v>
+        <v>100447</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" s="5">
-        <v>100459</v>
+        <v>100448</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" s="5">
-        <v>100460</v>
+        <v>100449</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" s="5">
-        <v>100461</v>
+        <v>100450</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" s="5">
-        <v>100462</v>
+        <v>100451</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" s="5">
-        <v>100463</v>
+        <v>100452</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" s="5">
-        <v>100464</v>
+        <v>100453</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" s="5">
-        <v>100465</v>
+        <v>100454</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" s="5">
-        <v>100466</v>
+        <v>100455</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" s="5">
-        <v>100467</v>
+        <v>100456</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" s="5">
-        <v>100468</v>
+        <v>100457</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" s="5">
-        <v>100469</v>
+        <v>100458</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" s="5">
-        <v>100470</v>
+        <v>100459</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" s="5">
-        <v>100471</v>
+        <v>100460</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" s="5">
-        <v>100472</v>
+        <v>100461</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" s="5">
-        <v>100473</v>
+        <v>100462</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" s="5">
-        <v>100474</v>
+        <v>100463</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" s="5">
-        <v>100475</v>
+        <v>100464</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" s="5">
-        <v>100476</v>
+        <v>100465</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" s="5">
-        <v>100477</v>
+        <v>100466</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" s="5">
-        <v>100478</v>
+        <v>100467</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" s="5">
-        <v>100479</v>
+        <v>100468</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" s="5">
-        <v>100480</v>
+        <v>100469</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" s="5">
-        <v>100481</v>
+        <v>100470</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" s="5">
-        <v>100482</v>
+        <v>100471</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" s="5">
-        <v>100483</v>
+        <v>100472</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" s="5">
-        <v>100484</v>
+        <v>100473</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" s="5">
-        <v>100485</v>
+        <v>100474</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704" s="5">
-        <v>100486</v>
+        <v>100475</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" s="5">
-        <v>100487</v>
+        <v>100476</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" s="5">
-        <v>100488</v>
+        <v>100477</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" s="5">
-        <v>100489</v>
+        <v>100478</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" s="5">
-        <v>100490</v>
+        <v>100479</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" s="5">
-        <v>100491</v>
+        <v>100480</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" s="5">
-        <v>100492</v>
+        <v>100481</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711" s="5">
-        <v>100493</v>
+        <v>100482</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712" s="5">
-        <v>100494</v>
+        <v>100483</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" s="5">
-        <v>100495</v>
+        <v>100484</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" s="5">
-        <v>100496</v>
+        <v>100485</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" s="5">
-        <v>100497</v>
+        <v>100486</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" s="5">
-        <v>100498</v>
+        <v>100487</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" s="5">
-        <v>100499</v>
+        <v>100488</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" s="5">
-        <v>100500</v>
+        <v>100489</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" s="5">
-        <v>100501</v>
+        <v>100490</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" s="5">
-        <v>100502</v>
+        <v>100491</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721" s="5">
-        <v>100503</v>
+        <v>100492</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" s="5">
-        <v>100504</v>
+        <v>100493</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723" s="5">
-        <v>100505</v>
+        <v>100494</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724" s="5">
-        <v>100506</v>
+        <v>100495</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725" s="5">
-        <v>100507</v>
+        <v>100496</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726" s="5">
-        <v>100508</v>
+        <v>100497</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727" s="5">
-        <v>100509</v>
+        <v>100498</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" s="5">
-        <v>100510</v>
+        <v>100499</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" s="5">
-        <v>100511</v>
+        <v>100500</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" s="5">
-        <v>100512</v>
+        <v>100501</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" s="5">
-        <v>100513</v>
+        <v>100502</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732" s="5">
-        <v>100514</v>
+        <v>100503</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733" s="5">
-        <v>100515</v>
+        <v>100504</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734" s="5">
-        <v>100516</v>
+        <v>100505</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" s="5">
-        <v>100517</v>
+        <v>100506</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" s="5">
-        <v>100518</v>
+        <v>100507</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" s="5">
-        <v>100519</v>
+        <v>100508</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" s="5">
-        <v>100520</v>
+        <v>100509</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" s="5">
-        <v>100521</v>
+        <v>100510</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740" s="5">
-        <v>100522</v>
+        <v>100511</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741" s="5">
-        <v>100523</v>
+        <v>100512</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742" s="5">
-        <v>100524</v>
+        <v>100513</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743" s="5">
-        <v>100525</v>
+        <v>100514</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744" s="5">
-        <v>100526</v>
+        <v>100515</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745" s="5">
-        <v>100527</v>
+        <v>100516</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746" s="5">
-        <v>100528</v>
+        <v>100517</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747" s="5">
-        <v>100529</v>
+        <v>100518</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748" s="5">
-        <v>100530</v>
+        <v>100519</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749" s="5">
-        <v>100531</v>
+        <v>100520</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750" s="5">
-        <v>100532</v>
+        <v>100521</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751" s="5">
-        <v>100533</v>
+        <v>100522</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752" s="5">
-        <v>100534</v>
+        <v>100523</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753" s="5">
-        <v>100535</v>
+        <v>100524</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754" s="5">
-        <v>100536</v>
+        <v>100525</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755" s="5">
-        <v>100537</v>
+        <v>100526</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756" s="5">
-        <v>100538</v>
+        <v>100527</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757" s="5">
-        <v>100539</v>
+        <v>100528</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758" s="5">
-        <v>100540</v>
+        <v>100529</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759" s="5">
-        <v>100541</v>
+        <v>100530</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" s="5">
-        <v>100542</v>
+        <v>100531</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" s="5">
-        <v>100543</v>
+        <v>100532</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" s="5">
-        <v>100544</v>
+        <v>100533</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" s="5">
-        <v>100545</v>
+        <v>100534</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" s="5">
-        <v>100546</v>
+        <v>100535</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" s="5">
-        <v>100547</v>
+        <v>100536</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" s="5">
-        <v>100548</v>
+        <v>100537</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" s="5">
-        <v>100549</v>
+        <v>100538</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" s="5">
-        <v>100550</v>
+        <v>100539</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" s="5">
-        <v>100551</v>
+        <v>100540</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" s="5">
-        <v>100552</v>
+        <v>100541</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" s="5">
-        <v>100553</v>
+        <v>100542</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" s="5">
-        <v>100554</v>
+        <v>100543</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" s="5">
-        <v>100555</v>
+        <v>100544</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" s="5">
-        <v>100556</v>
+        <v>100545</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" s="5">
-        <v>100557</v>
+        <v>100546</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" s="5">
-        <v>100558</v>
+        <v>100547</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" s="5">
-        <v>100559</v>
+        <v>100548</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" s="5">
-        <v>100560</v>
+        <v>100549</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" s="5">
-        <v>100561</v>
+        <v>100550</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" s="5">
-        <v>100562</v>
+        <v>100551</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" s="5">
-        <v>100563</v>
+        <v>100552</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" s="5">
-        <v>100564</v>
+        <v>100553</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" s="5">
-        <v>100565</v>
+        <v>100554</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" s="5">
-        <v>100566</v>
+        <v>100555</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" s="5">
-        <v>100567</v>
+        <v>100556</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" s="5">
-        <v>100568</v>
+        <v>100557</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787" s="5">
-        <v>100569</v>
+        <v>100558</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" s="5">
-        <v>100570</v>
+        <v>100559</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789" s="5">
-        <v>100571</v>
+        <v>100560</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790" s="5">
-        <v>100572</v>
+        <v>100561</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791" s="5">
-        <v>100573</v>
+        <v>100562</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792" s="5">
-        <v>100574</v>
+        <v>100563</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793" s="5">
-        <v>100575</v>
+        <v>100564</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" s="5">
-        <v>100576</v>
+        <v>100565</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795" s="5">
-        <v>100577</v>
+        <v>100566</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796" s="5">
-        <v>100578</v>
+        <v>100567</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797" s="5">
-        <v>100579</v>
+        <v>100568</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798" s="5">
-        <v>100580</v>
+        <v>100569</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799" s="5">
-        <v>100581</v>
+        <v>100570</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800" s="5">
-        <v>100582</v>
+        <v>100571</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801" s="5">
-        <v>100583</v>
+        <v>100572</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802" s="5">
-        <v>100584</v>
+        <v>100573</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803" s="5">
-        <v>100585</v>
+        <v>100574</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804" s="5">
-        <v>100586</v>
+        <v>100575</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805" s="5">
-        <v>100587</v>
+        <v>100576</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806" s="5">
-        <v>100588</v>
+        <v>100577</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807" s="5">
-        <v>100589</v>
+        <v>100578</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808" s="5">
-        <v>100590</v>
+        <v>100579</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809" s="5">
-        <v>100591</v>
+        <v>100580</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810" s="5">
-        <v>100592</v>
+        <v>100581</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811" s="5">
-        <v>100593</v>
+        <v>100582</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812" s="5">
-        <v>100594</v>
+        <v>100583</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813" s="5">
-        <v>100595</v>
+        <v>100584</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814" s="5">
-        <v>100596</v>
+        <v>100585</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815" s="5">
-        <v>100597</v>
+        <v>100586</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816" s="5">
-        <v>100598</v>
+        <v>100587</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817" s="5">
-        <v>100599</v>
+        <v>100588</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818" s="5">
-        <v>100600</v>
+        <v>100589</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819" s="5">
-        <v>100601</v>
+        <v>100590</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820" s="5">
-        <v>100602</v>
+        <v>100591</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821" s="5">
-        <v>100603</v>
+        <v>100592</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822" s="5">
-        <v>100604</v>
+        <v>100593</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823" s="5">
-        <v>100605</v>
+        <v>100594</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824" s="5">
-        <v>100606</v>
+        <v>100595</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825" s="5">
-        <v>100607</v>
+        <v>100596</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826" s="5">
-        <v>100608</v>
+        <v>100597</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827" s="5">
-        <v>100609</v>
+        <v>100598</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828" s="5">
-        <v>100610</v>
+        <v>100599</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829" s="5">
-        <v>100611</v>
+        <v>100600</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830" s="5">
-        <v>100612</v>
+        <v>100601</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831" s="5">
-        <v>100613</v>
+        <v>100602</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832" s="5">
-        <v>100614</v>
+        <v>100603</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833" s="5">
-        <v>100615</v>
+        <v>100604</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834" s="5">
-        <v>100616</v>
+        <v>100605</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835" s="5">
-        <v>100617</v>
+        <v>100606</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836" s="5">
-        <v>100618</v>
+        <v>100607</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837" s="5">
-        <v>100619</v>
+        <v>100608</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838" s="5">
-        <v>100620</v>
+        <v>100609</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839" s="5">
-        <v>100621</v>
+        <v>100610</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840" s="5">
-        <v>100622</v>
+        <v>100611</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841" s="5">
-        <v>100623</v>
+        <v>100612</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842" s="5">
-        <v>100624</v>
+        <v>100613</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843" s="5">
-        <v>100625</v>
+        <v>100614</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844" s="5">
-        <v>100626</v>
+        <v>100615</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845" s="5">
-        <v>100627</v>
+        <v>100616</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846" s="5">
-        <v>100628</v>
+        <v>100617</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847" s="5">
-        <v>100629</v>
+        <v>100618</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848" s="5">
-        <v>100630</v>
+        <v>100619</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849" s="5">
-        <v>100631</v>
+        <v>100620</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850" s="5">
-        <v>100632</v>
+        <v>100621</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851" s="5">
-        <v>100633</v>
+        <v>100622</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852" s="5">
-        <v>100634</v>
+        <v>100623</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853" s="5">
-        <v>100635</v>
+        <v>100624</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854" s="5">
-        <v>100636</v>
+        <v>100625</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855" s="5">
-        <v>100637</v>
+        <v>100626</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856" s="5">
-        <v>100638</v>
+        <v>100627</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857" s="5">
-        <v>100639</v>
+        <v>100628</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858" s="5">
-        <v>100640</v>
+        <v>100629</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859" s="5">
-        <v>100641</v>
+        <v>100630</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860" s="5">
-        <v>100642</v>
+        <v>100631</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861" s="5">
-        <v>100643</v>
+        <v>100632</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862" s="5">
-        <v>100644</v>
+        <v>100633</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863" s="5">
-        <v>100645</v>
+        <v>100634</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864" s="5">
-        <v>100646</v>
+        <v>100635</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865" s="5">
-        <v>100647</v>
+        <v>100636</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866" s="5">
-        <v>100648</v>
+        <v>100637</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867" s="5">
-        <v>100649</v>
+        <v>100638</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868" s="5">
-        <v>100650</v>
+        <v>100639</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869" s="5">
-        <v>100651</v>
+        <v>100640</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870" s="5">
-        <v>100652</v>
+        <v>100641</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871" s="5">
-        <v>100653</v>
+        <v>100642</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872" s="5">
-        <v>100654</v>
+        <v>100643</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873" s="5">
-        <v>100655</v>
+        <v>100644</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874" s="5">
-        <v>100656</v>
+        <v>100645</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875" s="5">
-        <v>100657</v>
+        <v>100646</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876" s="5">
-        <v>100658</v>
+        <v>100647</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877" s="5">
-        <v>100659</v>
+        <v>100648</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878" s="5">
-        <v>100660</v>
+        <v>100649</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879" s="5">
-        <v>100661</v>
+        <v>100650</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880" s="5">
-        <v>100662</v>
+        <v>100651</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881" s="5">
-        <v>100663</v>
+        <v>100652</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882" s="5">
-        <v>100664</v>
+        <v>100653</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883" s="5">
-        <v>100665</v>
+        <v>100654</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884" s="5">
-        <v>100666</v>
+        <v>100655</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885" s="5">
-        <v>100667</v>
+        <v>100656</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886" s="5">
-        <v>100668</v>
+        <v>100657</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887" s="5">
-        <v>100669</v>
+        <v>100658</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888" s="5">
-        <v>100670</v>
+        <v>100659</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889" s="5">
-        <v>100671</v>
+        <v>100660</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890" s="5">
-        <v>100672</v>
+        <v>100661</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891" s="5">
-        <v>100673</v>
+        <v>100662</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892" s="5">
-        <v>100674</v>
+        <v>100663</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893" s="5">
-        <v>100675</v>
+        <v>100664</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894" s="5">
-        <v>100676</v>
+        <v>100665</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895" s="5">
-        <v>100677</v>
+        <v>100666</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896" s="5">
-        <v>100678</v>
+        <v>100667</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897" s="5">
-        <v>100679</v>
+        <v>100668</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898" s="5">
-        <v>100680</v>
+        <v>100669</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899" s="5">
-        <v>100681</v>
+        <v>100670</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900" s="5">
-        <v>100682</v>
+        <v>100671</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901" s="5">
-        <v>100683</v>
+        <v>100672</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902" s="5">
-        <v>100684</v>
+        <v>100673</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903" s="5">
-        <v>100685</v>
+        <v>100674</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904" s="5">
-        <v>100686</v>
+        <v>100675</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905" s="5">
-        <v>100687</v>
+        <v>100676</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906" s="5">
-        <v>100688</v>
+        <v>100677</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907" s="5">
-        <v>100689</v>
+        <v>100678</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908" s="5">
-        <v>100690</v>
+        <v>100679</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909" s="5">
-        <v>100691</v>
+        <v>100680</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910" s="5">
-        <v>100692</v>
+        <v>100681</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911" s="5">
-        <v>100693</v>
+        <v>100682</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912" s="5">
-        <v>100694</v>
+        <v>100683</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913" s="5">
-        <v>100695</v>
+        <v>100684</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914" s="5">
-        <v>100696</v>
+        <v>100685</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915" s="5">
-        <v>100697</v>
+        <v>100686</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916" s="5">
-        <v>100698</v>
+        <v>100687</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917" s="5">
-        <v>100699</v>
+        <v>100688</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918" s="5">
-        <v>100700</v>
+        <v>100689</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919" s="5">
-        <v>100701</v>
+        <v>100690</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920" s="5">
-        <v>100702</v>
+        <v>100691</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921" s="5">
-        <v>100703</v>
+        <v>100692</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922" s="5">
-        <v>100704</v>
+        <v>100693</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923" s="5">
-        <v>100705</v>
+        <v>100694</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924" s="5">
-        <v>100706</v>
+        <v>100695</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925" s="5">
-        <v>100707</v>
+        <v>100696</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926" s="5">
-        <v>100708</v>
+        <v>100697</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927" s="5">
-        <v>100709</v>
+        <v>100698</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928" s="5">
-        <v>100710</v>
+        <v>100699</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929" s="5">
-        <v>100711</v>
+        <v>100700</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930" s="5">
-        <v>100712</v>
+        <v>100701</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931" s="5">
-        <v>100713</v>
+        <v>100702</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932" s="5">
-        <v>100714</v>
+        <v>100703</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933" s="5">
-        <v>100715</v>
+        <v>100704</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934" s="5">
-        <v>100716</v>
+        <v>100705</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935" s="5">
-        <v>100717</v>
+        <v>100706</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936" s="5">
-        <v>100718</v>
+        <v>100707</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937" s="5">
-        <v>100719</v>
+        <v>100708</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938" s="5">
-        <v>100720</v>
+        <v>100709</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939" s="5">
-        <v>100721</v>
+        <v>100710</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940" s="5">
-        <v>100722</v>
+        <v>100711</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941" s="5">
-        <v>100723</v>
+        <v>100712</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942" s="5">
-        <v>100724</v>
+        <v>100713</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943" s="5">
-        <v>100725</v>
+        <v>100714</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944" s="5">
-        <v>100726</v>
+        <v>100715</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945" s="5">
-        <v>100727</v>
+        <v>100716</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946" s="5">
-        <v>100728</v>
+        <v>100717</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947" s="5">
-        <v>100729</v>
+        <v>100718</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948" s="5">
-        <v>100730</v>
+        <v>100719</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949" s="5">
-        <v>100731</v>
+        <v>100720</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950" s="5">
-        <v>100732</v>
+        <v>100721</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951" s="5">
-        <v>100733</v>
+        <v>100722</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952" s="5">
-        <v>100734</v>
+        <v>100723</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953" s="5">
-        <v>100735</v>
+        <v>100724</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954" s="5">
-        <v>100736</v>
+        <v>100725</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955" s="5">
-        <v>100737</v>
+        <v>100726</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956" s="5">
-        <v>100738</v>
+        <v>100727</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957" s="5">
-        <v>100739</v>
+        <v>100728</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958" s="5">
-        <v>100740</v>
+        <v>100729</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959" s="5">
-        <v>100741</v>
+        <v>100730</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960" s="5">
-        <v>100742</v>
+        <v>100731</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961" s="5">
-        <v>100743</v>
+        <v>100732</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962" s="5">
-        <v>100744</v>
+        <v>100733</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963" s="5">
-        <v>100745</v>
+        <v>100734</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964" s="5">
-        <v>100746</v>
+        <v>100735</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965" s="5">
-        <v>100747</v>
+        <v>100736</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966" s="5">
-        <v>100748</v>
+        <v>100737</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967" s="5">
-        <v>100749</v>
+        <v>100738</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968" s="5">
-        <v>100750</v>
+        <v>100739</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969" s="5">
-        <v>100751</v>
+        <v>100740</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A970" s="5">
-        <v>100752</v>
+        <v>100741</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971" s="5">
-        <v>100753</v>
+        <v>100742</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972" s="5">
-        <v>100754</v>
+        <v>100743</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973" s="5">
-        <v>100755</v>
+        <v>100744</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974" s="5">
-        <v>100756</v>
+        <v>100745</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975" s="5">
-        <v>100757</v>
+        <v>100746</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976" s="5">
-        <v>100758</v>
+        <v>100747</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977" s="5">
-        <v>100759</v>
+        <v>100748</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978" s="5">
-        <v>100760</v>
+        <v>100749</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979" s="5">
-        <v>100761</v>
+        <v>100750</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980" s="5">
-        <v>100762</v>
+        <v>100751</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981" s="5">
-        <v>100763</v>
+        <v>100752</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982" s="5">
-        <v>100764</v>
+        <v>100753</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983" s="5">
-        <v>100765</v>
+        <v>100754</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984" s="5">
-        <v>100766</v>
+        <v>100755</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A985" s="5">
-        <v>100767</v>
+        <v>100756</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A986" s="5">
-        <v>100768</v>
+        <v>100757</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987" s="5">
-        <v>100769</v>
+        <v>100758</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988" s="5">
-        <v>100770</v>
+        <v>100759</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989" s="5">
-        <v>100771</v>
+        <v>100760</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A990" s="5">
-        <v>100772</v>
+        <v>100761</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A991" s="5">
-        <v>100773</v>
+        <v>100762</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992" s="5">
-        <v>100774</v>
+        <v>100763</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993" s="5">
-        <v>100775</v>
+        <v>100764</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A994" s="5">
-        <v>100776</v>
+        <v>100765</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995" s="5">
-        <v>100777</v>
+        <v>100766</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996" s="5">
-        <v>100778</v>
+        <v>100767</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997" s="5">
-        <v>100779</v>
+        <v>100768</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998" s="5">
-        <v>100780</v>
+        <v>100769</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999" s="5">
-        <v>100781</v>
+        <v>100770</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000" s="5">
-        <v>100782</v>
+        <v>100771</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1001" s="5">
-        <v>100783</v>
+        <v>100772</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1002" s="5">
-        <v>100784</v>
+        <v>100773</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1003" s="5">
-        <v>100785</v>
+        <v>100774</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1004" s="5">
-        <v>100786</v>
+        <v>100775</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1005" s="5">
-        <v>100787</v>
+        <v>100776</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1006" s="5">
-        <v>100788</v>
+        <v>100777</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1007" s="5">
-        <v>100789</v>
+        <v>100778</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1008" s="5">
-        <v>100790</v>
+        <v>100779</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1009" s="5">
-        <v>100791</v>
+        <v>100780</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1010" s="5">
-        <v>100792</v>
+        <v>100781</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1011" s="5">
-        <v>100793</v>
+        <v>100782</v>
       </c>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1012" s="5">
-        <v>100794</v>
+        <v>100783</v>
       </c>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1013" s="5">
-        <v>100795</v>
+        <v>100784</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1014" s="5">
-        <v>100796</v>
+        <v>100785</v>
       </c>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1015" s="5">
-        <v>100797</v>
+        <v>100786</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1016" s="5">
-        <v>100798</v>
+        <v>100787</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1017" s="5">
-        <v>100799</v>
+        <v>100788</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1018" s="5">
-        <v>100800</v>
+        <v>100789</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1019" s="5">
-        <v>100801</v>
+        <v>100790</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1020" s="5">
-        <v>100802</v>
+        <v>100791</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1021" s="5">
-        <v>100803</v>
+        <v>100792</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1022" s="5">
-        <v>100804</v>
+        <v>100793</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1023" s="5">
-        <v>100805</v>
+        <v>100794</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1024" s="5">
-        <v>100806</v>
+        <v>100795</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1025" s="5">
-        <v>100807</v>
+        <v>100796</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1026" s="5">
-        <v>100808</v>
+        <v>100797</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1027" s="5">
-        <v>100809</v>
+        <v>100798</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1028" s="5">
-        <v>100810</v>
+        <v>100799</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1029" s="5">
-        <v>100811</v>
+        <v>100800</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1030" s="5">
-        <v>100812</v>
+        <v>100801</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1031" s="5">
-        <v>100813</v>
+        <v>100802</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1032" s="5">
-        <v>100814</v>
+        <v>100803</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1033" s="5">
-        <v>100815</v>
+        <v>100804</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1034" s="5">
-        <v>100816</v>
+        <v>100805</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1035" s="5">
-        <v>100817</v>
+        <v>100806</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1036" s="5">
-        <v>100818</v>
+        <v>100807</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1037" s="5">
-        <v>100819</v>
+        <v>100808</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1038" s="5">
-        <v>100820</v>
+        <v>100809</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1039" s="5">
-        <v>100821</v>
+        <v>100810</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1040" s="5">
-        <v>100822</v>
+        <v>100811</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1041" s="5">
-        <v>100823</v>
+        <v>100812</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1042" s="5">
-        <v>100824</v>
+        <v>100813</v>
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1043" s="5">
-        <v>100825</v>
+        <v>100814</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1044" s="5">
-        <v>100826</v>
+        <v>100815</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1045" s="5">
-        <v>100827</v>
+        <v>100816</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1046" s="5">
-        <v>100828</v>
+        <v>100817</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1047" s="5">
-        <v>100829</v>
+        <v>100818</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048" s="5">
-        <v>100830</v>
+        <v>100819</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1049" s="5">
-        <v>100831</v>
+        <v>100820</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1050" s="5">
-        <v>100832</v>
+        <v>100821</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1051" s="5">
-        <v>100833</v>
+        <v>100822</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1052" s="5">
-        <v>100834</v>
+        <v>100823</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1053" s="5">
-        <v>100835</v>
+        <v>100824</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1054" s="5">
-        <v>100836</v>
+        <v>100825</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1055" s="5">
-        <v>100837</v>
+        <v>100826</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056" s="5">
-        <v>100838</v>
+        <v>100827</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1057" s="5">
-        <v>100839</v>
+        <v>100828</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1058" s="5">
-        <v>100840</v>
+        <v>100829</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1059" s="5">
-        <v>100841</v>
+        <v>100830</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1060" s="5">
-        <v>100842</v>
+        <v>100831</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1061" s="5">
-        <v>100843</v>
+        <v>100832</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062" s="5">
-        <v>100844</v>
+        <v>100833</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1063" s="5">
-        <v>100845</v>
+        <v>100834</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1064" s="5">
-        <v>100846</v>
+        <v>100835</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1065" s="5">
-        <v>100847</v>
+        <v>100836</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1066" s="5">
-        <v>100848</v>
+        <v>100837</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1067" s="5">
-        <v>100849</v>
+        <v>100838</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1068" s="5">
-        <v>100850</v>
+        <v>100839</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1069" s="5">
-        <v>100851</v>
+        <v>100840</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1070" s="5">
-        <v>100852</v>
+        <v>100841</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1071" s="5">
-        <v>100853</v>
+        <v>100842</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1072" s="5">
-        <v>100854</v>
+        <v>100843</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1073" s="5">
-        <v>100855</v>
+        <v>100844</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1074" s="5">
-        <v>100856</v>
+        <v>100845</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1075" s="5">
-        <v>100857</v>
+        <v>100846</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1076" s="5">
-        <v>100858</v>
+        <v>100847</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1077" s="5">
-        <v>100859</v>
+        <v>100848</v>
       </c>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1078" s="5">
-        <v>100860</v>
+        <v>100849</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1079" s="5">
-        <v>100861</v>
+        <v>100850</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1080" s="5">
-        <v>100862</v>
+        <v>100851</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1081" s="5">
-        <v>100863</v>
+        <v>100852</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1082" s="5">
-        <v>100864</v>
+        <v>100853</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1083" s="5">
-        <v>100865</v>
+        <v>100854</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1084" s="5">
-        <v>100866</v>
+        <v>100855</v>
       </c>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1085" s="5">
-        <v>100867</v>
+        <v>100856</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1086" s="5">
-        <v>100868</v>
+        <v>100857</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1087" s="5">
-        <v>100869</v>
+        <v>100858</v>
       </c>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1088" s="5">
-        <v>100870</v>
+        <v>100859</v>
       </c>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1089" s="5">
-        <v>100871</v>
+        <v>100860</v>
       </c>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1090" s="5">
-        <v>100872</v>
+        <v>100861</v>
       </c>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1091" s="5">
-        <v>100873</v>
+        <v>100862</v>
       </c>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1092" s="5">
-        <v>100874</v>
+        <v>100863</v>
       </c>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1093" s="5">
-        <v>100875</v>
+        <v>100864</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1094" s="5">
-        <v>100876</v>
+        <v>100865</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1095" s="5">
-        <v>100877</v>
+        <v>100866</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1096" s="5">
-        <v>100878</v>
+        <v>100867</v>
       </c>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1097" s="5">
-        <v>100879</v>
+        <v>100868</v>
       </c>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1098" s="5">
-        <v>100880</v>
+        <v>100869</v>
       </c>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1099" s="5">
-        <v>100881</v>
+        <v>100870</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1100" s="5">
-        <v>100882</v>
+        <v>100871</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1101" s="5">
-        <v>100883</v>
+        <v>100872</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1102" s="5">
-        <v>100884</v>
+        <v>100873</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1103" s="5">
-        <v>100885</v>
+        <v>100874</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1104" s="5">
-        <v>100886</v>
+        <v>100875</v>
       </c>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1105" s="5">
-        <v>100887</v>
+        <v>100876</v>
       </c>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1106" s="5">
-        <v>100888</v>
+        <v>100877</v>
       </c>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1107" s="5">
-        <v>100889</v>
+        <v>100878</v>
       </c>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1108" s="5">
-        <v>100890</v>
+        <v>100879</v>
       </c>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1109" s="5">
-        <v>100891</v>
+        <v>100880</v>
       </c>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1110" s="5">
-        <v>100892</v>
+        <v>100881</v>
       </c>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1111" s="5">
-        <v>100893</v>
+        <v>100882</v>
       </c>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1112" s="5">
-        <v>100894</v>
+        <v>100883</v>
       </c>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1113" s="5">
-        <v>100895</v>
+        <v>100884</v>
       </c>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1114" s="5">
-        <v>100896</v>
+        <v>100885</v>
       </c>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1115" s="5">
-        <v>100897</v>
+        <v>100886</v>
       </c>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1116" s="5">
-        <v>100898</v>
+        <v>100887</v>
       </c>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1117" s="5">
-        <v>100899</v>
+        <v>100888</v>
       </c>
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1118" s="5">
-        <v>100900</v>
+        <v>100889</v>
       </c>
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1119" s="5">
-        <v>100901</v>
+        <v>100890</v>
       </c>
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1120" s="5">
-        <v>100902</v>
+        <v>100891</v>
       </c>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1121" s="5">
-        <v>100903</v>
+        <v>100892</v>
       </c>
     </row>
     <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1122" s="5">
-        <v>100904</v>
+        <v>100893</v>
       </c>
     </row>
     <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1123" s="5">
-        <v>100905</v>
+        <v>100894</v>
       </c>
     </row>
     <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1124" s="5">
-        <v>100906</v>
+        <v>100895</v>
       </c>
     </row>
     <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1125" s="5">
-        <v>100907</v>
+        <v>100896</v>
       </c>
     </row>
     <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1126" s="5">
-        <v>100908</v>
+        <v>100897</v>
       </c>
     </row>
     <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1127" s="5">
-        <v>100909</v>
+        <v>100898</v>
       </c>
     </row>
     <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1128" s="5">
-        <v>100910</v>
+        <v>100899</v>
       </c>
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1129" s="5">
-        <v>100911</v>
+        <v>100900</v>
       </c>
     </row>
     <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1130" s="5">
-        <v>100912</v>
+        <v>100901</v>
       </c>
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1131" s="5">
-        <v>100913</v>
+        <v>100902</v>
       </c>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1132" s="5">
-        <v>100914</v>
+        <v>100903</v>
       </c>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1133" s="5">
-        <v>100915</v>
+        <v>100904</v>
       </c>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1134" s="5">
-        <v>100916</v>
+        <v>100905</v>
       </c>
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1135" s="5">
-        <v>100917</v>
+        <v>100906</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1136" s="5">
-        <v>100918</v>
+        <v>100907</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1137" s="5">
-        <v>100919</v>
+        <v>100908</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1138" s="5">
-        <v>100920</v>
+        <v>100909</v>
       </c>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1139" s="5">
-        <v>100921</v>
+        <v>100910</v>
       </c>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1140" s="5">
-        <v>100922</v>
+        <v>100911</v>
       </c>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1141" s="5">
-        <v>100923</v>
+        <v>100912</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1142" s="5">
-        <v>100924</v>
+        <v>100913</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1143" s="5">
-        <v>100925</v>
+        <v>100914</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1144" s="5">
-        <v>100926</v>
+        <v>100915</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1145" s="5">
-        <v>100927</v>
+        <v>100916</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1146" s="5">
-        <v>100928</v>
+        <v>100917</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1147" s="5">
-        <v>100929</v>
+        <v>100918</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1148" s="5">
-        <v>100930</v>
+        <v>100919</v>
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1149" s="5">
-        <v>100931</v>
+        <v>100920</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1150" s="5">
-        <v>100932</v>
+        <v>100921</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1151" s="5">
-        <v>100933</v>
+        <v>100922</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1152" s="5">
-        <v>100934</v>
+        <v>100923</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1153" s="5">
-        <v>100935</v>
+        <v>100924</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1154" s="5">
-        <v>100936</v>
+        <v>100925</v>
       </c>
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1155" s="5">
-        <v>100937</v>
+        <v>100926</v>
       </c>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1156" s="5">
-        <v>100938</v>
+        <v>100927</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1157" s="5">
-        <v>100939</v>
+        <v>100928</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1158" s="5">
-        <v>100940</v>
+        <v>100929</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1159" s="5">
-        <v>100941</v>
+        <v>100930</v>
       </c>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1160" s="5">
-        <v>100942</v>
+        <v>100931</v>
       </c>
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1161" s="5">
-        <v>100943</v>
+        <v>100932</v>
       </c>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1162" s="5">
-        <v>100944</v>
+        <v>100933</v>
       </c>
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1163" s="5">
-        <v>100945</v>
+        <v>100934</v>
       </c>
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1164" s="5">
-        <v>100946</v>
+        <v>100935</v>
       </c>
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1165" s="5">
-        <v>100947</v>
+        <v>100936</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1166" s="5">
-        <v>100948</v>
+        <v>100937</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1167" s="5">
-        <v>100949</v>
+        <v>100938</v>
       </c>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1168" s="5">
-        <v>100950</v>
+        <v>100939</v>
       </c>
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1169" s="5">
-        <v>100951</v>
+        <v>100940</v>
       </c>
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1170" s="5">
-        <v>100952</v>
+        <v>100941</v>
       </c>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1171" s="5">
-        <v>100953</v>
+        <v>100942</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1172" s="5">
-        <v>100954</v>
+        <v>100943</v>
       </c>
     </row>
     <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1173" s="5">
-        <v>100955</v>
+        <v>100944</v>
       </c>
     </row>
     <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1174" s="5">
-        <v>100956</v>
+        <v>100945</v>
       </c>
     </row>
     <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1175" s="5">
-        <v>100957</v>
+        <v>100946</v>
       </c>
     </row>
     <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1176" s="5">
-        <v>100958</v>
+        <v>100947</v>
       </c>
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1177" s="5">
-        <v>100959</v>
+        <v>100948</v>
       </c>
     </row>
     <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1178" s="5">
-        <v>100960</v>
+        <v>100949</v>
       </c>
     </row>
     <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1179" s="5">
-        <v>100961</v>
+        <v>100950</v>
       </c>
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1180" s="5">
+        <v>100951</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1181" s="5">
+        <v>100952</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1182" s="5">
+        <v>100953</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1183" s="5">
+        <v>100954</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1184" s="5">
+        <v>100955</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1185" s="5">
+        <v>100956</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1186" s="5">
+        <v>100957</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1187" s="5">
+        <v>100958</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1188" s="5">
+        <v>100959</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1189" s="5">
+        <v>100960</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1190" s="5">
+        <v>100961</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1191" s="5">
         <v>100962</v>
       </c>
-    </row>
-    <row r="1048574" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1048574" s="10"/>
-    </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1048576" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAB6F00-0C58-481F-B3B5-958CB5136BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301471BE-4338-44E3-9A3B-21162462B192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15495" yWindow="1995" windowWidth="20220" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8880" yWindow="2505" windowWidth="20220" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -81,21 +81,6 @@
     <t>еще не выпущена</t>
   </si>
   <si>
-    <t>в ремонте. Пришла без наклеек и надписей</t>
-  </si>
-  <si>
-    <t>в ремонте. Пришла с наклейкой (машина 31982, Ногинск, технопарк, Лемана про)</t>
-  </si>
-  <si>
-    <t>в ремонте. На сумке есть наклейка 31502</t>
-  </si>
-  <si>
-    <t>в ремонте. На сумке есть надпись "30117"</t>
-  </si>
-  <si>
-    <t>в ремонте. На сумке есть наклейка с надписью Райфайзен</t>
-  </si>
-  <si>
     <t>была в ремонте 05.09.2025</t>
   </si>
   <si>
@@ -110,25 +95,37 @@
   <si>
     <t>МАКС</t>
   </si>
+  <si>
+    <t>06.11.2025 отремонтирована
+в ремонте. Пришла без наклеек и надписей</t>
+  </si>
+  <si>
+    <t>06.11.2025 отремонтирована
+в ремонте. Пришла с наклейкой (машина 31982, Ногинск, технопарк, Лемана про)</t>
+  </si>
+  <si>
+    <t>06.11.2025 отремонтирована
+в ремонте. На сумке есть наклейка с надписью Райфайзен</t>
+  </si>
+  <si>
+    <t>06.11.2025 отремонтирована
+в ремонте. На сумке есть наклейка 31502</t>
+  </si>
+  <si>
+    <t>06.11.2025 отремонтирована
+в ремонте. На сумке есть надпись "30117"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,42 +204,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="C288" sqref="C288"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,14 +569,14 @@
       <c r="A3" s="3">
         <v>12345</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>24</v>
+      <c r="B3" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="4">
         <v>45292</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -593,7 +591,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>24925</v>
       </c>
@@ -603,11 +601,11 @@
       <c r="C5" s="7">
         <v>45532</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>24945</v>
       </c>
@@ -617,11 +615,11 @@
       <c r="C6" s="7">
         <v>45553</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>24946</v>
       </c>
@@ -631,11 +629,11 @@
       <c r="C7" s="7">
         <v>45553</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>24953</v>
       </c>
@@ -645,11 +643,11 @@
       <c r="C8" s="7">
         <v>45553</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>24903</v>
       </c>
@@ -659,11 +657,11 @@
       <c r="C9" s="7">
         <v>45553</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>24986</v>
       </c>
@@ -673,8 +671,8 @@
       <c r="C10" s="7">
         <v>45544</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>20</v>
+      <c r="D10" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3047,7 +3045,7 @@
       <c r="A230" s="5">
         <v>25221</v>
       </c>
-      <c r="B230" s="10" t="s">
+      <c r="B230" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C230" s="7">
@@ -3058,7 +3056,7 @@
       <c r="A231" s="5">
         <v>25210</v>
       </c>
-      <c r="B231" s="10" t="s">
+      <c r="B231" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C231" s="7">
@@ -3069,7 +3067,7 @@
       <c r="A232" s="5">
         <v>25218</v>
       </c>
-      <c r="B232" s="10" t="s">
+      <c r="B232" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C232" s="7">
@@ -3080,7 +3078,7 @@
       <c r="A233" s="5">
         <v>25248</v>
       </c>
-      <c r="B233" s="10" t="s">
+      <c r="B233" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C233" s="7">
@@ -3091,7 +3089,7 @@
       <c r="A234" s="5">
         <v>25206</v>
       </c>
-      <c r="B234" s="10" t="s">
+      <c r="B234" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C234" s="7">
@@ -3102,7 +3100,7 @@
       <c r="A235" s="5">
         <v>25239</v>
       </c>
-      <c r="B235" s="10" t="s">
+      <c r="B235" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C235" s="7">
@@ -3113,7 +3111,7 @@
       <c r="A236" s="5">
         <v>25217</v>
       </c>
-      <c r="B236" s="10" t="s">
+      <c r="B236" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C236" s="7">
@@ -3124,7 +3122,7 @@
       <c r="A237" s="5">
         <v>25231</v>
       </c>
-      <c r="B237" s="10" t="s">
+      <c r="B237" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C237" s="7">
@@ -3135,7 +3133,7 @@
       <c r="A238" s="5">
         <v>25216</v>
       </c>
-      <c r="B238" s="10" t="s">
+      <c r="B238" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C238" s="7">
@@ -3146,7 +3144,7 @@
       <c r="A239" s="5">
         <v>25243</v>
       </c>
-      <c r="B239" s="10" t="s">
+      <c r="B239" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C239" s="7">
@@ -3157,7 +3155,7 @@
       <c r="A240" s="5">
         <v>25236</v>
       </c>
-      <c r="B240" s="10" t="s">
+      <c r="B240" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C240" s="7">
@@ -3168,7 +3166,7 @@
       <c r="A241" s="5">
         <v>25203</v>
       </c>
-      <c r="B241" s="10" t="s">
+      <c r="B241" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C241" s="7">
@@ -3179,7 +3177,7 @@
       <c r="A242" s="5">
         <v>25234</v>
       </c>
-      <c r="B242" s="10" t="s">
+      <c r="B242" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C242" s="7">
@@ -3190,7 +3188,7 @@
       <c r="A243" s="5">
         <v>25245</v>
       </c>
-      <c r="B243" s="10" t="s">
+      <c r="B243" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C243" s="7">
@@ -3201,7 +3199,7 @@
       <c r="A244" s="5">
         <v>25227</v>
       </c>
-      <c r="B244" s="10" t="s">
+      <c r="B244" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C244" s="7">
@@ -3212,7 +3210,7 @@
       <c r="A245" s="5">
         <v>25247</v>
       </c>
-      <c r="B245" s="10" t="s">
+      <c r="B245" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C245" s="7">
@@ -3223,7 +3221,7 @@
       <c r="A246" s="5">
         <v>25208</v>
       </c>
-      <c r="B246" s="10" t="s">
+      <c r="B246" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C246" s="7">
@@ -3234,7 +3232,7 @@
       <c r="A247" s="5">
         <v>25434</v>
       </c>
-      <c r="B247" s="10" t="s">
+      <c r="B247" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C247" s="7">
@@ -3245,7 +3243,7 @@
       <c r="A248" s="5">
         <v>25433</v>
       </c>
-      <c r="B248" s="10" t="s">
+      <c r="B248" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C248" s="7">
@@ -3256,7 +3254,7 @@
       <c r="A249" s="5">
         <v>25432</v>
       </c>
-      <c r="B249" s="10" t="s">
+      <c r="B249" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C249" s="7">
@@ -3267,7 +3265,7 @@
       <c r="A250" s="5">
         <v>25431</v>
       </c>
-      <c r="B250" s="10" t="s">
+      <c r="B250" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C250" s="7">
@@ -3278,7 +3276,7 @@
       <c r="A251" s="5">
         <v>25440</v>
       </c>
-      <c r="B251" s="10" t="s">
+      <c r="B251" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C251" s="7">
@@ -3289,7 +3287,7 @@
       <c r="A252" s="5">
         <v>25439</v>
       </c>
-      <c r="B252" s="10" t="s">
+      <c r="B252" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C252" s="7">
@@ -3300,7 +3298,7 @@
       <c r="A253" s="5">
         <v>25436</v>
       </c>
-      <c r="B253" s="10" t="s">
+      <c r="B253" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C253" s="7">
@@ -3311,7 +3309,7 @@
       <c r="A254" s="5">
         <v>25437</v>
       </c>
-      <c r="B254" s="10" t="s">
+      <c r="B254" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C254" s="7">
@@ -3322,7 +3320,7 @@
       <c r="A255" s="5">
         <v>25438</v>
       </c>
-      <c r="B255" s="10" t="s">
+      <c r="B255" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C255" s="7">
@@ -3333,7 +3331,7 @@
       <c r="A256" s="5">
         <v>25444</v>
       </c>
-      <c r="B256" s="10" t="s">
+      <c r="B256" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C256" s="7">
@@ -3344,7 +3342,7 @@
       <c r="A257" s="5">
         <v>25443</v>
       </c>
-      <c r="B257" s="10" t="s">
+      <c r="B257" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C257" s="7">
@@ -3355,7 +3353,7 @@
       <c r="A258" s="5">
         <v>25442</v>
       </c>
-      <c r="B258" s="10" t="s">
+      <c r="B258" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C258" s="7">
@@ -3366,7 +3364,7 @@
       <c r="A259" s="5">
         <v>25233</v>
       </c>
-      <c r="B259" s="10" t="s">
+      <c r="B259" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C259" s="7">
@@ -3377,7 +3375,7 @@
       <c r="A260" s="5">
         <v>25445</v>
       </c>
-      <c r="B260" s="10" t="s">
+      <c r="B260" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C260" s="7">
@@ -3388,7 +3386,7 @@
       <c r="A261" s="5">
         <v>25441</v>
       </c>
-      <c r="B261" s="10" t="s">
+      <c r="B261" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C261" s="7">
@@ -3399,7 +3397,7 @@
       <c r="A262" s="5">
         <v>25207</v>
       </c>
-      <c r="B262" s="10" t="s">
+      <c r="B262" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C262" s="7">
@@ -3410,7 +3408,7 @@
       <c r="A263" s="5">
         <v>25211</v>
       </c>
-      <c r="B263" s="10" t="s">
+      <c r="B263" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C263" s="7">
@@ -3421,7 +3419,7 @@
       <c r="A264" s="5">
         <v>25237</v>
       </c>
-      <c r="B264" s="10" t="s">
+      <c r="B264" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C264" s="7">
@@ -3432,7 +3430,7 @@
       <c r="A265" s="5">
         <v>25222</v>
       </c>
-      <c r="B265" s="10" t="s">
+      <c r="B265" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C265" s="7">
@@ -3443,7 +3441,7 @@
       <c r="A266" s="5">
         <v>25220</v>
       </c>
-      <c r="B266" s="10" t="s">
+      <c r="B266" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C266" s="7">
@@ -3454,7 +3452,7 @@
       <c r="A267" s="5">
         <v>25228</v>
       </c>
-      <c r="B267" s="10" t="s">
+      <c r="B267" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C267" s="7">
@@ -3465,7 +3463,7 @@
       <c r="A268" s="5">
         <v>25205</v>
       </c>
-      <c r="B268" s="10" t="s">
+      <c r="B268" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C268" s="7">
@@ -3476,7 +3474,7 @@
       <c r="A269" s="5">
         <v>25242</v>
       </c>
-      <c r="B269" s="10" t="s">
+      <c r="B269" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C269" s="7">
@@ -3487,7 +3485,7 @@
       <c r="A270" s="5">
         <v>25201</v>
       </c>
-      <c r="B270" s="10" t="s">
+      <c r="B270" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C270" s="7">
@@ -3498,7 +3496,7 @@
       <c r="A271" s="5">
         <v>25240</v>
       </c>
-      <c r="B271" s="10" t="s">
+      <c r="B271" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C271" s="7">
@@ -3509,7 +3507,7 @@
       <c r="A272" s="5">
         <v>25299</v>
       </c>
-      <c r="C272" s="12">
+      <c r="C272" s="10">
         <v>45903</v>
       </c>
     </row>
@@ -3517,32 +3515,32 @@
       <c r="A273" s="5">
         <v>24936</v>
       </c>
-      <c r="B273" s="11" t="s">
+      <c r="B273" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C273" s="7"/>
-      <c r="D273" s="13" t="s">
-        <v>23</v>
+      <c r="D273" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
         <v>25059</v>
       </c>
-      <c r="B274" s="11" t="s">
+      <c r="B274" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C274" s="7"/>
-      <c r="D274" s="13" t="s">
-        <v>22</v>
+      <c r="D274" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
         <v>24978</v>
       </c>
-      <c r="B275" s="15" t="s">
-        <v>26</v>
+      <c r="B275" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C275" s="7">
         <v>45532</v>
@@ -3552,8 +3550,8 @@
       <c r="A276" s="5">
         <v>24924</v>
       </c>
-      <c r="B276" s="15" t="s">
-        <v>26</v>
+      <c r="B276" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C276" s="7">
         <v>45532</v>
@@ -3563,8 +3561,8 @@
       <c r="A277" s="5">
         <v>24916</v>
       </c>
-      <c r="B277" s="15" t="s">
-        <v>26</v>
+      <c r="B277" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C277" s="7">
         <v>45532</v>
@@ -3574,8 +3572,8 @@
       <c r="A278" s="5">
         <v>24924</v>
       </c>
-      <c r="B278" s="15" t="s">
-        <v>26</v>
+      <c r="B278" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C278" s="7">
         <v>45532</v>
@@ -3585,8 +3583,8 @@
       <c r="A279" s="5">
         <v>24902</v>
       </c>
-      <c r="B279" s="15" t="s">
-        <v>26</v>
+      <c r="B279" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C279" s="7">
         <v>45532</v>
@@ -3596,8 +3594,8 @@
       <c r="A280" s="5">
         <v>24976</v>
       </c>
-      <c r="B280" s="15" t="s">
-        <v>26</v>
+      <c r="B280" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C280" s="7">
         <v>45532</v>
@@ -3607,8 +3605,8 @@
       <c r="A281" s="5">
         <v>24923</v>
       </c>
-      <c r="B281" s="15" t="s">
-        <v>26</v>
+      <c r="B281" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C281" s="7">
         <v>45532</v>
@@ -3618,8 +3616,8 @@
       <c r="A282" s="5">
         <v>24911</v>
       </c>
-      <c r="B282" s="15" t="s">
-        <v>26</v>
+      <c r="B282" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C282" s="7">
         <v>45532</v>
@@ -3629,8 +3627,8 @@
       <c r="A283" s="5">
         <v>24981</v>
       </c>
-      <c r="B283" s="15" t="s">
-        <v>26</v>
+      <c r="B283" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C283" s="7">
         <v>45532</v>
@@ -3640,8 +3638,8 @@
       <c r="A284" s="5">
         <v>24939</v>
       </c>
-      <c r="B284" s="15" t="s">
-        <v>26</v>
+      <c r="B284" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C284" s="7">
         <v>45532</v>
@@ -3651,7 +3649,7 @@
       <c r="A285" s="5">
         <v>24908</v>
       </c>
-      <c r="B285" s="11" t="s">
+      <c r="B285" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C285" s="7">
@@ -3662,7 +3660,7 @@
       <c r="A286" s="5">
         <v>24975</v>
       </c>
-      <c r="B286" s="11" t="s">
+      <c r="B286" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C286" s="7">
@@ -3673,7 +3671,7 @@
       <c r="A287" s="5">
         <v>24900</v>
       </c>
-      <c r="B287" s="11" t="s">
+      <c r="B287" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C287" s="7">
@@ -3684,7 +3682,7 @@
       <c r="A288" s="5">
         <v>24958</v>
       </c>
-      <c r="B288" s="11" t="s">
+      <c r="B288" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C288" s="7">
@@ -3891,7 +3889,7 @@
       <c r="A316" s="5">
         <v>25450</v>
       </c>
-      <c r="B316" s="11" t="s">
+      <c r="B316" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C316" s="7">
@@ -3902,7 +3900,7 @@
       <c r="A317" s="5">
         <v>25449</v>
       </c>
-      <c r="B317" s="11" t="s">
+      <c r="B317" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C317" s="7">
@@ -3913,7 +3911,7 @@
       <c r="A318" s="5">
         <v>25448</v>
       </c>
-      <c r="B318" s="11" t="s">
+      <c r="B318" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C318" s="7">
@@ -3924,7 +3922,7 @@
       <c r="A319" s="5">
         <v>25447</v>
       </c>
-      <c r="B319" s="11" t="s">
+      <c r="B319" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C319" s="7">
@@ -3935,7 +3933,7 @@
       <c r="A320" s="5">
         <v>25446</v>
       </c>
-      <c r="B320" s="11" t="s">
+      <c r="B320" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C320" s="7">
@@ -3946,7 +3944,7 @@
       <c r="A321" s="5">
         <v>25260</v>
       </c>
-      <c r="B321" s="11" t="s">
+      <c r="B321" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C321" s="7">
@@ -3957,7 +3955,7 @@
       <c r="A322" s="5">
         <v>25355</v>
       </c>
-      <c r="B322" s="11" t="s">
+      <c r="B322" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C322" s="7">
@@ -3968,7 +3966,7 @@
       <c r="A323" s="5">
         <v>25270</v>
       </c>
-      <c r="B323" s="11" t="s">
+      <c r="B323" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C323" s="7">
@@ -3979,7 +3977,7 @@
       <c r="A324" s="5">
         <v>25357</v>
       </c>
-      <c r="B324" s="11" t="s">
+      <c r="B324" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C324" s="7">
@@ -3990,7 +3988,7 @@
       <c r="A325" s="5">
         <v>25367</v>
       </c>
-      <c r="B325" s="11" t="s">
+      <c r="B325" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C325" s="7">
@@ -4001,7 +3999,7 @@
       <c r="A326" s="5">
         <v>25363</v>
       </c>
-      <c r="B326" s="11" t="s">
+      <c r="B326" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C326" s="7">
@@ -4012,7 +4010,7 @@
       <c r="A327" s="5">
         <v>25276</v>
       </c>
-      <c r="B327" s="11" t="s">
+      <c r="B327" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C327" s="7">
@@ -4023,7 +4021,7 @@
       <c r="A328" s="5">
         <v>25366</v>
       </c>
-      <c r="B328" s="11" t="s">
+      <c r="B328" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C328" s="7">
@@ -4034,7 +4032,7 @@
       <c r="A329" s="5">
         <v>25384</v>
       </c>
-      <c r="B329" s="11" t="s">
+      <c r="B329" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C329" s="7">
@@ -4045,7 +4043,7 @@
       <c r="A330" s="5">
         <v>25391</v>
       </c>
-      <c r="B330" s="11" t="s">
+      <c r="B330" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C330" s="7">
@@ -4056,7 +4054,7 @@
       <c r="A331" s="5">
         <v>25385</v>
       </c>
-      <c r="B331" s="11" t="s">
+      <c r="B331" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C331" s="7">
@@ -4067,7 +4065,7 @@
       <c r="A332" s="5">
         <v>25359</v>
       </c>
-      <c r="B332" s="11" t="s">
+      <c r="B332" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C332" s="7">
@@ -4078,7 +4076,7 @@
       <c r="A333" s="5">
         <v>25364</v>
       </c>
-      <c r="B333" s="11" t="s">
+      <c r="B333" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C333" s="7">
@@ -4089,7 +4087,7 @@
       <c r="A334" s="5">
         <v>25369</v>
       </c>
-      <c r="B334" s="11" t="s">
+      <c r="B334" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C334" s="7">
@@ -4100,7 +4098,7 @@
       <c r="A335" s="5">
         <v>25368</v>
       </c>
-      <c r="B335" s="11" t="s">
+      <c r="B335" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C335" s="7">
@@ -4111,7 +4109,7 @@
       <c r="A336" s="5">
         <v>25395</v>
       </c>
-      <c r="B336" s="11" t="s">
+      <c r="B336" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C336" s="7">
@@ -4122,7 +4120,7 @@
       <c r="A337" s="5">
         <v>25400</v>
       </c>
-      <c r="B337" s="11" t="s">
+      <c r="B337" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C337" s="7">
@@ -4133,7 +4131,7 @@
       <c r="A338" s="5">
         <v>25358</v>
       </c>
-      <c r="B338" s="11" t="s">
+      <c r="B338" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C338" s="7">
@@ -4144,7 +4142,7 @@
       <c r="A339" s="5">
         <v>25361</v>
       </c>
-      <c r="B339" s="11" t="s">
+      <c r="B339" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C339" s="7">
@@ -4155,7 +4153,7 @@
       <c r="A340" s="5">
         <v>25394</v>
       </c>
-      <c r="B340" s="11" t="s">
+      <c r="B340" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C340" s="7">
@@ -4166,7 +4164,7 @@
       <c r="A341" s="5">
         <v>25354</v>
       </c>
-      <c r="B341" s="11" t="s">
+      <c r="B341" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C341" s="7">
@@ -4177,7 +4175,7 @@
       <c r="A342" s="5">
         <v>25362</v>
       </c>
-      <c r="B342" s="11" t="s">
+      <c r="B342" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C342" s="7">
@@ -4188,7 +4186,7 @@
       <c r="A343" s="5">
         <v>25393</v>
       </c>
-      <c r="B343" s="11" t="s">
+      <c r="B343" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C343" s="7">
@@ -4199,7 +4197,7 @@
       <c r="A344" s="5">
         <v>25389</v>
       </c>
-      <c r="B344" s="11" t="s">
+      <c r="B344" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C344" s="7">
@@ -4210,7 +4208,7 @@
       <c r="A345" s="5">
         <v>25399</v>
       </c>
-      <c r="B345" s="11" t="s">
+      <c r="B345" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C345" s="7">
@@ -4221,7 +4219,7 @@
       <c r="A346" s="5">
         <v>25392</v>
       </c>
-      <c r="B346" s="11" t="s">
+      <c r="B346" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C346" s="7">
@@ -4232,7 +4230,7 @@
       <c r="A347" s="5">
         <v>25388</v>
       </c>
-      <c r="B347" s="11" t="s">
+      <c r="B347" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C347" s="7">
@@ -4243,7 +4241,7 @@
       <c r="A348" s="5">
         <v>25352</v>
       </c>
-      <c r="B348" s="11" t="s">
+      <c r="B348" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C348" s="7">
@@ -4254,7 +4252,7 @@
       <c r="A349" s="5">
         <v>25360</v>
       </c>
-      <c r="B349" s="11" t="s">
+      <c r="B349" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C349" s="7">
@@ -4265,7 +4263,7 @@
       <c r="A350" s="5">
         <v>25356</v>
       </c>
-      <c r="B350" s="11" t="s">
+      <c r="B350" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C350" s="7">
@@ -4276,7 +4274,7 @@
       <c r="A351" s="5">
         <v>25390</v>
       </c>
-      <c r="B351" s="11" t="s">
+      <c r="B351" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C351" s="7">
@@ -4287,7 +4285,7 @@
       <c r="A352" s="5">
         <v>25387</v>
       </c>
-      <c r="B352" s="11" t="s">
+      <c r="B352" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C352" s="7">
@@ -4298,7 +4296,7 @@
       <c r="A353" s="5">
         <v>25397</v>
       </c>
-      <c r="B353" s="11" t="s">
+      <c r="B353" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C353" s="7">
@@ -4309,7 +4307,7 @@
       <c r="A354" s="5">
         <v>25398</v>
       </c>
-      <c r="B354" s="11" t="s">
+      <c r="B354" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C354" s="7">
@@ -4320,7 +4318,7 @@
       <c r="A355" s="5">
         <v>25353</v>
       </c>
-      <c r="B355" s="11" t="s">
+      <c r="B355" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C355" s="7">
@@ -4331,7 +4329,7 @@
       <c r="A356" s="5">
         <v>25396</v>
       </c>
-      <c r="B356" s="11" t="s">
+      <c r="B356" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C356" s="7">
@@ -4342,7 +4340,7 @@
       <c r="A357" s="5">
         <v>25351</v>
       </c>
-      <c r="B357" s="11" t="s">
+      <c r="B357" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C357" s="7">
@@ -4353,7 +4351,7 @@
       <c r="A358" s="5">
         <v>25485</v>
       </c>
-      <c r="B358" s="11" t="s">
+      <c r="B358" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C358" s="7">
@@ -4364,7 +4362,7 @@
       <c r="A359" s="5">
         <v>25471</v>
       </c>
-      <c r="B359" s="11" t="s">
+      <c r="B359" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C359" s="7">
@@ -4375,7 +4373,7 @@
       <c r="A360" s="5">
         <v>25480</v>
       </c>
-      <c r="B360" s="11" t="s">
+      <c r="B360" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C360" s="7">
@@ -4386,7 +4384,7 @@
       <c r="A361" s="5">
         <v>25484</v>
       </c>
-      <c r="B361" s="11" t="s">
+      <c r="B361" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C361" s="7">
@@ -4397,7 +4395,7 @@
       <c r="A362" s="5">
         <v>25482</v>
       </c>
-      <c r="B362" s="11" t="s">
+      <c r="B362" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C362" s="7">
@@ -4408,7 +4406,7 @@
       <c r="A363" s="5">
         <v>25483</v>
       </c>
-      <c r="B363" s="11" t="s">
+      <c r="B363" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C363" s="7">
@@ -4419,7 +4417,7 @@
       <c r="A364" s="5">
         <v>25481</v>
       </c>
-      <c r="B364" s="11" t="s">
+      <c r="B364" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C364" s="7">
@@ -4430,7 +4428,7 @@
       <c r="A365" s="5">
         <v>25479</v>
       </c>
-      <c r="B365" s="11" t="s">
+      <c r="B365" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C365" s="7">
@@ -4441,7 +4439,7 @@
       <c r="A366" s="5">
         <v>25476</v>
       </c>
-      <c r="B366" s="11" t="s">
+      <c r="B366" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C366" s="7">
@@ -4452,7 +4450,7 @@
       <c r="A367" s="5">
         <v>25490</v>
       </c>
-      <c r="B367" s="11" t="s">
+      <c r="B367" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C367" s="7">
@@ -4463,7 +4461,7 @@
       <c r="A368" s="5">
         <v>25478</v>
       </c>
-      <c r="B368" s="11" t="s">
+      <c r="B368" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C368" s="7">
@@ -4474,7 +4472,7 @@
       <c r="A369" s="5">
         <v>25477</v>
       </c>
-      <c r="B369" s="11" t="s">
+      <c r="B369" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C369" s="7">

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301471BE-4338-44E3-9A3B-21162462B192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4980CEE9-3EC6-4153-99C3-07CCF4A2E161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8880" yWindow="2505" windowWidth="20220" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,23 +97,23 @@
   </si>
   <si>
     <t>06.11.2025 отремонтирована
-в ремонте. Пришла без наклеек и надписей</t>
+27.10.2025 в ремонте. Пришла без наклеек и надписей</t>
   </si>
   <si>
     <t>06.11.2025 отремонтирована
-в ремонте. Пришла с наклейкой (машина 31982, Ногинск, технопарк, Лемана про)</t>
+27.10.2025 в ремонте. Пришла с наклейкой (машина 31982, Ногинск, технопарк, Лемана про)</t>
   </si>
   <si>
     <t>06.11.2025 отремонтирована
-в ремонте. На сумке есть наклейка с надписью Райфайзен</t>
+27.10.2025 в ремонте. На сумке есть наклейка с надписью Райфайзен</t>
   </si>
   <si>
     <t>06.11.2025 отремонтирована
-в ремонте. На сумке есть наклейка 31502</t>
+27.10.2025 в ремонте. На сумке есть наклейка 31502</t>
   </si>
   <si>
     <t>06.11.2025 отремонтирована
-в ремонте. На сумке есть надпись "30117"</t>
+27.10.2025 в ремонте. На сумке есть надпись "30117"</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="A1:D1191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>24946</v>
       </c>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4980CEE9-3EC6-4153-99C3-07CCF4A2E161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6C3907-05EA-4E23-A6F2-DE480E23EB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="2505" windowWidth="20220" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="27">
   <si>
     <t>code</t>
   </si>
@@ -522,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1191"/>
+  <dimension ref="A1:D1172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="A237" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +533,7 @@
     <col min="1" max="1" width="14.140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="26" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="88.140625" style="6" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
@@ -605,7 +605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>24945</v>
       </c>
@@ -619,7 +619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>24946</v>
       </c>
@@ -894,7 +894,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>24924</v>
+        <v>24976</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>6</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>24916</v>
+        <v>24911</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>6</v>
@@ -916,10 +916,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>24902</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>6</v>
+        <v>24981</v>
       </c>
       <c r="C39" s="7">
         <v>45532</v>
@@ -927,10 +924,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>24976</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>6</v>
+        <v>24939</v>
       </c>
       <c r="C40" s="7">
         <v>45532</v>
@@ -938,7 +932,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>24923</v>
+        <v>24975</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>6</v>
@@ -949,7 +943,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>24911</v>
+        <v>24900</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>6</v>
@@ -960,7 +954,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>24981</v>
+        <v>24958</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>6</v>
@@ -971,89 +965,74 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>24939</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>6</v>
+        <v>24985</v>
       </c>
       <c r="C44" s="7">
-        <v>45532</v>
+        <v>45537</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>24908</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>6</v>
+        <v>24984</v>
       </c>
       <c r="C45" s="7">
-        <v>45532</v>
+        <v>45537</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>24975</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>6</v>
+        <v>24987</v>
       </c>
       <c r="C46" s="7">
-        <v>45532</v>
+        <v>45544</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>24900</v>
+        <v>24927</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="7">
-        <v>45532</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>24958</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>6</v>
+        <v>24995</v>
       </c>
       <c r="C48" s="7">
-        <v>45532</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>24985</v>
+        <v>24994</v>
       </c>
       <c r="C49" s="7">
-        <v>45537</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>24984</v>
+        <v>24993</v>
       </c>
       <c r="C50" s="7">
-        <v>45537</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>24987</v>
+        <v>24992</v>
       </c>
       <c r="C51" s="7">
-        <v>45544</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>24927</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>6</v>
+        <v>24991</v>
       </c>
       <c r="C52" s="7">
         <v>45553</v>
@@ -1061,7 +1040,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>24995</v>
+        <v>24989</v>
       </c>
       <c r="C53" s="7">
         <v>45553</v>
@@ -1069,15 +1048,15 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>24994</v>
+        <v>24990</v>
       </c>
       <c r="C54" s="7">
         <v>45553</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>24993</v>
+      <c r="A55" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C55" s="7">
         <v>45553</v>
@@ -1085,7 +1064,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>24992</v>
+        <v>24988</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C56" s="7">
         <v>45553</v>
@@ -1093,7 +1075,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>24991</v>
+        <v>24955</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C57" s="7">
         <v>45553</v>
@@ -1101,7 +1086,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>24989</v>
+        <v>24954</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C58" s="7">
         <v>45553</v>
@@ -1109,15 +1097,21 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>24990</v>
+        <v>24932</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C59" s="7">
         <v>45553</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>7</v>
+      <c r="A60" s="5">
+        <v>24972</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C60" s="7">
         <v>45553</v>
@@ -1125,62 +1119,62 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>24988</v>
+        <v>25049</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C61" s="7">
-        <v>45553</v>
+        <v>45579</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>24955</v>
+        <v>24999</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C62" s="7">
-        <v>45553</v>
+        <v>45579</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>24954</v>
+        <v>25043</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C63" s="7">
-        <v>45553</v>
+        <v>45579</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>24932</v>
+        <v>24998</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C64" s="7">
-        <v>45553</v>
+        <v>45579</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>24972</v>
+        <v>25015</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C65" s="7">
-        <v>45553</v>
+        <v>45579</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>24936</v>
+        <v>25058</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>9</v>
@@ -1191,7 +1185,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>25049</v>
+        <v>25069</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>9</v>
@@ -1199,10 +1193,13 @@
       <c r="C67" s="7">
         <v>45579</v>
       </c>
+      <c r="D67" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>24999</v>
+        <v>25001</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>9</v>
@@ -1213,7 +1210,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>25043</v>
+        <v>25041</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>9</v>
@@ -1224,7 +1221,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>24998</v>
+        <v>25036</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>9</v>
@@ -1235,7 +1232,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <v>25015</v>
+        <v>25024</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>9</v>
@@ -1246,7 +1243,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>25058</v>
+        <v>25040</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>9</v>
@@ -1257,7 +1254,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>25069</v>
+        <v>25074</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>9</v>
@@ -1265,13 +1262,10 @@
       <c r="C73" s="7">
         <v>45579</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>25001</v>
+        <v>25048</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>9</v>
@@ -1282,7 +1276,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>25041</v>
+        <v>25035</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>9</v>
@@ -1293,7 +1287,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <v>25036</v>
+        <v>25010</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>9</v>
@@ -1304,7 +1298,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <v>25024</v>
+        <v>25000</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>9</v>
@@ -1314,85 +1308,85 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
-        <v>25040</v>
+      <c r="A78" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="7">
-        <v>45579</v>
+        <v>45616</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>25074</v>
+        <v>25026</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="7">
-        <v>45579</v>
+        <v>45615</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>25048</v>
+        <v>25023</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="7">
-        <v>45579</v>
+        <v>45615</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>25035</v>
+        <v>25071</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="7">
-        <v>45579</v>
+        <v>45615</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>25010</v>
+        <v>25080</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="7">
-        <v>45579</v>
+        <v>45615</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>25000</v>
+        <v>25017</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C83" s="7">
-        <v>45579</v>
+        <v>45615</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>11</v>
+      <c r="A84" s="5">
+        <v>25003</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C84" s="7">
-        <v>45616</v>
+        <v>45615</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>25026</v>
+        <v>25009</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>9</v>
@@ -1403,7 +1397,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>25023</v>
+        <v>25028</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>9</v>
@@ -1414,7 +1408,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>25071</v>
+        <v>25030</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>9</v>
@@ -1425,7 +1419,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>25080</v>
+        <v>25072</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>9</v>
@@ -1436,7 +1430,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>25017</v>
+        <v>25018</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>9</v>
@@ -1447,7 +1441,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>25003</v>
+        <v>25057</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>9</v>
@@ -1458,7 +1452,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>25009</v>
+        <v>25077</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>9</v>
@@ -1469,7 +1463,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>25028</v>
+        <v>25066</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>9</v>
@@ -1480,7 +1474,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>25030</v>
+        <v>25078</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>9</v>
@@ -1491,73 +1485,73 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>25072</v>
+        <v>25037</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C94" s="7">
-        <v>45615</v>
+        <v>45616</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>25018</v>
+        <v>25079</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C95" s="7">
-        <v>45615</v>
+        <v>45616</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>25057</v>
+        <v>25075</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C96" s="7">
-        <v>45615</v>
+        <v>45616</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>25077</v>
+        <v>25070</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C97" s="7">
-        <v>45615</v>
+        <v>45616</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <v>25066</v>
+        <v>25056</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C98" s="7">
-        <v>45615</v>
+        <v>45616</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>25078</v>
+        <v>25047</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C99" s="7">
-        <v>45615</v>
+        <v>45616</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
-        <v>25037</v>
+        <v>25016</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>6</v>
@@ -1568,7 +1562,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
-        <v>25079</v>
+        <v>25034</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>6</v>
@@ -1579,7 +1573,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
-        <v>25075</v>
+        <v>25013</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>6</v>
@@ -1590,7 +1584,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
-        <v>25070</v>
+        <v>25045</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>6</v>
@@ -1601,7 +1595,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
-        <v>25056</v>
+        <v>25012</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>6</v>
@@ -1612,7 +1606,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
-        <v>25047</v>
+        <v>25039</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>6</v>
@@ -1623,7 +1617,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <v>25016</v>
+        <v>25081</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>6</v>
@@ -1634,7 +1628,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
-        <v>25034</v>
+        <v>25006</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>6</v>
@@ -1645,7 +1639,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <v>25013</v>
+        <v>25019</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>6</v>
@@ -1656,73 +1650,73 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <v>25045</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>6</v>
+        <v>25055</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C109" s="7">
-        <v>45616</v>
+        <v>45636</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>25012</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>6</v>
+        <v>25085</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C110" s="7">
-        <v>45616</v>
+        <v>45636</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <v>25039</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>6</v>
+        <v>25052</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C111" s="7">
-        <v>45616</v>
+        <v>45636</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
-        <v>25081</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>6</v>
+        <v>25064</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C112" s="7">
-        <v>45616</v>
+        <v>45636</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <v>25006</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>6</v>
+        <v>25068</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C113" s="7">
-        <v>45616</v>
+        <v>45636</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
-        <v>25019</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>6</v>
+        <v>25062</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C114" s="7">
-        <v>45616</v>
+        <v>45636</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <v>25055</v>
+        <v>25061</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>9</v>
@@ -1733,7 +1727,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <v>25085</v>
+        <v>25053</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>9</v>
@@ -1744,7 +1738,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
-        <v>25052</v>
+        <v>25060</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>9</v>
@@ -1755,7 +1749,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
-        <v>25064</v>
+        <v>25014</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>9</v>
@@ -1766,7 +1760,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
-        <v>25068</v>
+        <v>25046</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>9</v>
@@ -1777,7 +1771,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
-        <v>25062</v>
+        <v>25021</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>9</v>
@@ -1788,7 +1782,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
-        <v>25061</v>
+        <v>25020</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>9</v>
@@ -1799,7 +1793,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>25053</v>
+        <v>25002</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>9</v>
@@ -1810,7 +1804,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>25060</v>
+        <v>25025</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>9</v>
@@ -1821,7 +1815,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>25014</v>
+        <v>25022</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>9</v>
@@ -1832,7 +1826,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <v>25046</v>
+        <v>25011</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>9</v>
@@ -1843,7 +1837,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>25021</v>
+        <v>25029</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>9</v>
@@ -1854,7 +1848,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>25020</v>
+        <v>25007</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>9</v>
@@ -1865,7 +1859,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>25002</v>
+        <v>25032</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>9</v>
@@ -1876,7 +1870,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>25025</v>
+        <v>25005</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>9</v>
@@ -1887,7 +1881,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>25022</v>
+        <v>25042</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>9</v>
@@ -1898,7 +1892,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
-        <v>25011</v>
+        <v>25031</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>9</v>
@@ -1909,7 +1903,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
-        <v>25029</v>
+        <v>25033</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>9</v>
@@ -1920,7 +1914,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
-        <v>25007</v>
+        <v>25038</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>9</v>
@@ -1931,7 +1925,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>9</v>
@@ -1942,7 +1936,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <v>25005</v>
+        <v>25050</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>9</v>
@@ -1953,7 +1947,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
-        <v>25042</v>
+        <v>25054</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>9</v>
@@ -1964,7 +1958,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
-        <v>25031</v>
+        <v>25063</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>9</v>
@@ -1974,74 +1968,80 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="5">
-        <v>25033</v>
+      <c r="A138" s="3">
+        <v>25502</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" s="7">
-        <v>45636</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C138" s="4">
+        <v>45951</v>
+      </c>
+      <c r="D138" s="1"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
-        <v>25038</v>
+      <c r="A139" s="3">
+        <v>25503</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" s="7">
-        <v>45636</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C139" s="4">
+        <v>45951</v>
+      </c>
+      <c r="D139" s="1"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="5">
-        <v>25044</v>
+      <c r="A140" s="3">
+        <v>25504</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="7">
-        <v>45636</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C140" s="4">
+        <v>45951</v>
+      </c>
+      <c r="D140" s="1"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="5">
-        <v>25050</v>
+      <c r="A141" s="3">
+        <v>25505</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="7">
-        <v>45636</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C141" s="4">
+        <v>45951</v>
+      </c>
+      <c r="D141" s="1"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="5">
-        <v>25054</v>
+      <c r="A142" s="3">
+        <v>25506</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="7">
-        <v>45636</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C142" s="4">
+        <v>45951</v>
+      </c>
+      <c r="D142" s="1"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="5">
-        <v>25063</v>
+      <c r="A143" s="3">
+        <v>25507</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" s="7">
-        <v>45636</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C143" s="4">
+        <v>45951</v>
+      </c>
+      <c r="D143" s="1"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>25502</v>
+        <v>25508</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>14</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>25503</v>
+        <v>25509</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>14</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>25504</v>
+        <v>25510</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>14</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <v>25505</v>
+        <v>25511</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>14</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <v>25506</v>
+        <v>25512</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>14</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <v>25507</v>
+        <v>25513</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>14</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>25508</v>
+        <v>25514</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>14</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>25509</v>
+        <v>25515</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>14</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <v>25510</v>
+        <v>25516</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>14</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
-        <v>25511</v>
+        <v>25517</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>14</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <v>25512</v>
+        <v>25518</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>14</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <v>25513</v>
+        <v>25519</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>14</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <v>25514</v>
+        <v>25520</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>14</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>25515</v>
+        <v>24858</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>14</v>
@@ -2205,85 +2205,85 @@
       <c r="C157" s="4">
         <v>45951</v>
       </c>
-      <c r="D157" s="1"/>
+      <c r="D157" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>25516</v>
+        <v>25421</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C158" s="4">
-        <v>45951</v>
+        <v>45796</v>
       </c>
       <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <v>25517</v>
+        <v>25422</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C159" s="4">
-        <v>45951</v>
+        <v>45796</v>
       </c>
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <v>25518</v>
+        <v>25423</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C160" s="4">
-        <v>45951</v>
+        <v>45796</v>
       </c>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
-        <v>25519</v>
+        <v>25424</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C161" s="4">
-        <v>45951</v>
+        <v>45796</v>
       </c>
       <c r="D161" s="1"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <v>25520</v>
+        <v>25425</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C162" s="4">
-        <v>45951</v>
+        <v>45796</v>
       </c>
       <c r="D162" s="1"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <v>24858</v>
+        <v>25426</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C163" s="4">
-        <v>45951</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>45796</v>
+      </c>
+      <c r="D163" s="1"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
-        <v>25421</v>
+        <v>25428</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>13</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
-        <v>25422</v>
+        <v>25429</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>13</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
-        <v>25423</v>
+        <v>25430</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>13</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
-        <v>25424</v>
+        <v>25435</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>13</v>
@@ -2331,79 +2331,91 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
-        <v>25425</v>
+        <v>25540</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C168" s="4">
-        <v>45796</v>
-      </c>
-      <c r="D168" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
-        <v>25426</v>
+        <v>25541</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C169" s="4">
-        <v>45796</v>
-      </c>
-      <c r="D169" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
-        <v>25428</v>
+        <v>25542</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C170" s="4">
-        <v>45796</v>
-      </c>
-      <c r="D170" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <v>25429</v>
+        <v>25543</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C171" s="4">
-        <v>45796</v>
-      </c>
-      <c r="D171" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
-        <v>25430</v>
+        <v>25544</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C172" s="4">
-        <v>45796</v>
-      </c>
-      <c r="D172" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
-        <v>25435</v>
+        <v>25545</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C173" s="4">
-        <v>45796</v>
-      </c>
-      <c r="D173" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
-        <v>25540</v>
+        <v>25549</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>14</v>
@@ -2417,7 +2429,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
-        <v>25541</v>
+        <v>25550</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>14</v>
@@ -2430,92 +2442,74 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
-        <v>25542</v>
+      <c r="A176" s="5">
+        <v>25214</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
-        <v>25543</v>
+        <v>13</v>
+      </c>
+      <c r="C176" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="5">
+        <v>25202</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
-        <v>25544</v>
+        <v>13</v>
+      </c>
+      <c r="C177" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="5">
+        <v>25238</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
-        <v>25545</v>
+        <v>13</v>
+      </c>
+      <c r="C178" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="5">
+        <v>25249</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
-        <v>25549</v>
+        <v>13</v>
+      </c>
+      <c r="C179" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="5">
+        <v>25215</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
-        <v>25550</v>
+        <v>13</v>
+      </c>
+      <c r="C180" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="5">
+        <v>25225</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C181" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
-        <v>25214</v>
+        <v>25209</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>13</v>
@@ -2524,9 +2518,9 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
-        <v>25202</v>
+        <v>25250</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>13</v>
@@ -2535,9 +2529,9 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
-        <v>25238</v>
+        <v>25235</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>13</v>
@@ -2546,9 +2540,9 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
-        <v>25249</v>
+        <v>25213</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>13</v>
@@ -2557,75 +2551,75 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
-        <v>25215</v>
+        <v>25268</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C186" s="7">
         <v>45741</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
-        <v>25225</v>
+        <v>25264</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C187" s="7">
         <v>45741</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
-        <v>25209</v>
+        <v>25283</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C188" s="7">
         <v>45741</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
-        <v>25250</v>
+        <v>25261</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C189" s="7">
         <v>45741</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
-        <v>25235</v>
+        <v>25279</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C190" s="7">
         <v>45741</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
-        <v>25213</v>
+        <v>25273</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C191" s="7">
         <v>45741</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
-        <v>25268</v>
+        <v>25291</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>14</v>
@@ -2636,7 +2630,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
-        <v>25264</v>
+        <v>25293</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>14</v>
@@ -2647,7 +2641,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
-        <v>25283</v>
+        <v>25263</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>14</v>
@@ -2658,7 +2652,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
-        <v>25261</v>
+        <v>25290</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>14</v>
@@ -2669,7 +2663,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
-        <v>25279</v>
+        <v>25266</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>14</v>
@@ -2680,7 +2674,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
-        <v>25273</v>
+        <v>25284</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>14</v>
@@ -2691,7 +2685,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
-        <v>25291</v>
+        <v>25292</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>14</v>
@@ -2702,7 +2696,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <v>25293</v>
+        <v>25300</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>14</v>
@@ -2713,7 +2707,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
-        <v>25263</v>
+        <v>25258</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>14</v>
@@ -2724,7 +2718,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
-        <v>25290</v>
+        <v>25257</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>14</v>
@@ -2735,7 +2729,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
-        <v>25266</v>
+        <v>25259</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>14</v>
@@ -2746,7 +2740,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
-        <v>25284</v>
+        <v>25285</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>14</v>
@@ -2757,7 +2751,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
-        <v>25292</v>
+        <v>25269</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>14</v>
@@ -2768,7 +2762,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
-        <v>25300</v>
+        <v>25287</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>14</v>
@@ -2779,7 +2773,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
-        <v>25258</v>
+        <v>25251</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>14</v>
@@ -2790,7 +2784,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
-        <v>25257</v>
+        <v>25278</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>14</v>
@@ -2801,7 +2795,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
-        <v>25259</v>
+        <v>25288</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>14</v>
@@ -2812,7 +2806,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
-        <v>25285</v>
+        <v>25252</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>14</v>
@@ -2823,7 +2817,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
-        <v>25269</v>
+        <v>25280</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>14</v>
@@ -2834,7 +2828,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
-        <v>25287</v>
+        <v>25297</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>14</v>
@@ -2845,7 +2839,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
-        <v>25251</v>
+        <v>25296</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>14</v>
@@ -2856,7 +2850,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
-        <v>25278</v>
+        <v>25282</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>14</v>
@@ -2867,7 +2861,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
-        <v>25288</v>
+        <v>25274</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>14</v>
@@ -2878,7 +2872,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
-        <v>25252</v>
+        <v>25255</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>14</v>
@@ -2889,7 +2883,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
-        <v>25280</v>
+        <v>25281</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>14</v>
@@ -2900,7 +2894,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
-        <v>25297</v>
+        <v>25253</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>14</v>
@@ -2911,7 +2905,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
-        <v>25296</v>
+        <v>25286</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>14</v>
@@ -2922,7 +2916,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
-        <v>25282</v>
+        <v>25271</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>14</v>
@@ -2933,7 +2927,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
-        <v>25274</v>
+        <v>25272</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>14</v>
@@ -2944,7 +2938,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
-        <v>25255</v>
+        <v>25289</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>14</v>
@@ -2955,7 +2949,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
-        <v>25281</v>
+        <v>25267</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>14</v>
@@ -2966,7 +2960,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
-        <v>25253</v>
+        <v>25256</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>14</v>
@@ -2977,10 +2971,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
-        <v>25286</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>14</v>
+        <v>25221</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C224" s="7">
         <v>45741</v>
@@ -2988,10 +2982,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
-        <v>25271</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>14</v>
+        <v>25210</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C225" s="7">
         <v>45741</v>
@@ -2999,10 +2993,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
-        <v>25272</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>14</v>
+        <v>25218</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C226" s="7">
         <v>45741</v>
@@ -3010,10 +3004,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
-        <v>25289</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>14</v>
+        <v>25248</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C227" s="7">
         <v>45741</v>
@@ -3021,10 +3015,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
-        <v>25267</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>14</v>
+        <v>25206</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C228" s="7">
         <v>45741</v>
@@ -3032,10 +3026,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
-        <v>25256</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>14</v>
+        <v>25239</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C229" s="7">
         <v>45741</v>
@@ -3043,7 +3037,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
-        <v>25221</v>
+        <v>25217</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>9</v>
@@ -3054,7 +3048,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
-        <v>25210</v>
+        <v>25231</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>9</v>
@@ -3065,7 +3059,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
-        <v>25218</v>
+        <v>25216</v>
       </c>
       <c r="B232" s="8" t="s">
         <v>9</v>
@@ -3076,7 +3070,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
-        <v>25248</v>
+        <v>25243</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>9</v>
@@ -3087,7 +3081,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
-        <v>25206</v>
+        <v>25236</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>9</v>
@@ -3098,7 +3092,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
-        <v>25239</v>
+        <v>25203</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>9</v>
@@ -3109,73 +3103,73 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
-        <v>25217</v>
+        <v>25234</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C236" s="7">
-        <v>45741</v>
+        <v>45791</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
-        <v>25231</v>
+        <v>25245</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C237" s="7">
-        <v>45741</v>
+        <v>45791</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
-        <v>25216</v>
+        <v>25227</v>
       </c>
       <c r="B238" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C238" s="7">
-        <v>45741</v>
+        <v>45791</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
-        <v>25243</v>
+        <v>25247</v>
       </c>
       <c r="B239" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C239" s="7">
-        <v>45741</v>
+        <v>45791</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
-        <v>25236</v>
+        <v>25208</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C240" s="7">
-        <v>45741</v>
+        <v>45791</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
-        <v>25203</v>
+        <v>25434</v>
       </c>
       <c r="B241" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C241" s="7">
-        <v>45741</v>
+        <v>45791</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
-        <v>25234</v>
+        <v>25433</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>9</v>
@@ -3186,7 +3180,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
-        <v>25245</v>
+        <v>25432</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>9</v>
@@ -3197,7 +3191,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
-        <v>25227</v>
+        <v>25431</v>
       </c>
       <c r="B244" s="8" t="s">
         <v>9</v>
@@ -3208,7 +3202,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
-        <v>25247</v>
+        <v>25440</v>
       </c>
       <c r="B245" s="8" t="s">
         <v>9</v>
@@ -3219,7 +3213,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
-        <v>25208</v>
+        <v>25439</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>9</v>
@@ -3230,7 +3224,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
-        <v>25434</v>
+        <v>25436</v>
       </c>
       <c r="B247" s="8" t="s">
         <v>9</v>
@@ -3241,7 +3235,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
-        <v>25433</v>
+        <v>25437</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>9</v>
@@ -3252,7 +3246,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
-        <v>25432</v>
+        <v>25438</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>9</v>
@@ -3263,7 +3257,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
-        <v>25431</v>
+        <v>25444</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>9</v>
@@ -3274,7 +3268,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
-        <v>25440</v>
+        <v>25443</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>9</v>
@@ -3285,7 +3279,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
-        <v>25439</v>
+        <v>25442</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>9</v>
@@ -3296,7 +3290,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
-        <v>25436</v>
+        <v>25233</v>
       </c>
       <c r="B253" s="8" t="s">
         <v>9</v>
@@ -3307,7 +3301,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
-        <v>25437</v>
+        <v>25445</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>9</v>
@@ -3318,7 +3312,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
-        <v>25438</v>
+        <v>25441</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>9</v>
@@ -3329,7 +3323,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
-        <v>25444</v>
+        <v>25207</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>9</v>
@@ -3338,9 +3332,9 @@
         <v>45791</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
-        <v>25443</v>
+        <v>25211</v>
       </c>
       <c r="B257" s="8" t="s">
         <v>9</v>
@@ -3349,9 +3343,9 @@
         <v>45791</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
-        <v>25442</v>
+        <v>25237</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>9</v>
@@ -3360,9 +3354,9 @@
         <v>45791</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
-        <v>25233</v>
+        <v>25222</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>9</v>
@@ -3371,9 +3365,9 @@
         <v>45791</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
-        <v>25445</v>
+        <v>25220</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>9</v>
@@ -3382,9 +3376,9 @@
         <v>45791</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
-        <v>25441</v>
+        <v>25228</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>9</v>
@@ -3393,9 +3387,9 @@
         <v>45791</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
-        <v>25207</v>
+        <v>25205</v>
       </c>
       <c r="B262" s="8" t="s">
         <v>9</v>
@@ -3404,9 +3398,9 @@
         <v>45791</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
-        <v>25211</v>
+        <v>25242</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>9</v>
@@ -3415,9 +3409,9 @@
         <v>45791</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
-        <v>25237</v>
+        <v>25201</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>9</v>
@@ -3426,9 +3420,9 @@
         <v>45791</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
-        <v>25222</v>
+        <v>25240</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>9</v>
@@ -3437,457 +3431,488 @@
         <v>45791</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
-        <v>25220</v>
-      </c>
-      <c r="B266" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C266" s="7">
-        <v>45791</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25299</v>
+      </c>
+      <c r="C266" s="10">
+        <v>45903</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
-        <v>25228</v>
-      </c>
-      <c r="B267" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C267" s="7">
-        <v>45791</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24936</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C267" s="7"/>
+      <c r="D267" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
-        <v>25205</v>
-      </c>
-      <c r="B268" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C268" s="7">
-        <v>45791</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25059</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" s="7"/>
+      <c r="D268" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
-        <v>25242</v>
-      </c>
-      <c r="B269" s="8" t="s">
-        <v>9</v>
+        <v>24978</v>
+      </c>
+      <c r="B269" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C269" s="7">
-        <v>45791</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
-        <v>25201</v>
-      </c>
-      <c r="B270" s="8" t="s">
-        <v>9</v>
+        <v>24916</v>
+      </c>
+      <c r="B270" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C270" s="7">
-        <v>45791</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
-        <v>25240</v>
-      </c>
-      <c r="B271" s="8" t="s">
-        <v>9</v>
-      </c>
+        <v>24924</v>
+      </c>
+      <c r="B271" s="13"/>
       <c r="C271" s="7">
-        <v>45791</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
-        <v>25299</v>
-      </c>
-      <c r="C272" s="10">
-        <v>45903</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24902</v>
+      </c>
+      <c r="B272" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C272" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
-        <v>24936</v>
-      </c>
-      <c r="B273" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C273" s="7"/>
-      <c r="D273" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24923</v>
+      </c>
+      <c r="B273" s="13"/>
+      <c r="C273" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
-        <v>25059</v>
+        <v>24908</v>
       </c>
       <c r="B274" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C274" s="7"/>
-      <c r="D274" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C274" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
-        <v>24978</v>
-      </c>
-      <c r="B275" s="13" t="s">
-        <v>21</v>
+        <v>25406</v>
       </c>
       <c r="C275" s="7">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
-        <v>24924</v>
-      </c>
-      <c r="B276" s="13" t="s">
-        <v>21</v>
+        <v>25417</v>
       </c>
       <c r="C276" s="7">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="5">
-        <v>24916</v>
-      </c>
-      <c r="B277" s="13" t="s">
-        <v>21</v>
+        <v>25414</v>
       </c>
       <c r="C277" s="7">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
-        <v>24924</v>
-      </c>
-      <c r="B278" s="13" t="s">
-        <v>21</v>
+        <v>25411</v>
       </c>
       <c r="C278" s="7">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
-        <v>24902</v>
-      </c>
-      <c r="B279" s="13" t="s">
-        <v>21</v>
+        <v>25416</v>
       </c>
       <c r="C279" s="7">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="5">
-        <v>24976</v>
-      </c>
-      <c r="B280" s="13" t="s">
-        <v>21</v>
+        <v>25404</v>
       </c>
       <c r="C280" s="7">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
-        <v>24923</v>
-      </c>
-      <c r="B281" s="13" t="s">
-        <v>21</v>
+        <v>25412</v>
       </c>
       <c r="C281" s="7">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
-        <v>24911</v>
-      </c>
-      <c r="B282" s="13" t="s">
-        <v>21</v>
+        <v>25413</v>
       </c>
       <c r="C282" s="7">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
-        <v>24981</v>
-      </c>
-      <c r="B283" s="13" t="s">
-        <v>21</v>
+        <v>25415</v>
       </c>
       <c r="C283" s="7">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
-        <v>24939</v>
-      </c>
-      <c r="B284" s="13" t="s">
-        <v>21</v>
+        <v>25420</v>
       </c>
       <c r="C284" s="7">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
-        <v>24908</v>
-      </c>
-      <c r="B285" s="9" t="s">
-        <v>6</v>
+        <v>25453</v>
       </c>
       <c r="C285" s="7">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="5">
-        <v>24975</v>
-      </c>
-      <c r="B286" s="9" t="s">
-        <v>6</v>
+        <v>25419</v>
       </c>
       <c r="C286" s="7">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
-        <v>24900</v>
-      </c>
-      <c r="B287" s="9" t="s">
-        <v>6</v>
+        <v>25224</v>
       </c>
       <c r="C287" s="7">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="5">
-        <v>24958</v>
-      </c>
-      <c r="B288" s="9" t="s">
-        <v>6</v>
+        <v>25226</v>
       </c>
       <c r="C288" s="7">
-        <v>45532</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
-        <v>24985</v>
+        <v>25230</v>
+      </c>
+      <c r="C289" s="7">
+        <v>45727</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="5">
-        <v>24984</v>
+        <v>25219</v>
+      </c>
+      <c r="C290" s="7">
+        <v>45727</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
-        <v>24986</v>
+        <v>25204</v>
+      </c>
+      <c r="C291" s="7">
+        <v>45727</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="5">
-        <v>24987</v>
+        <v>25232</v>
+      </c>
+      <c r="C292" s="7">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="5">
+        <v>25229</v>
+      </c>
+      <c r="C293" s="7">
+        <v>45727</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
-        <v>25406</v>
+        <v>25241</v>
       </c>
       <c r="C294" s="7">
-        <v>45825</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
-        <v>25417</v>
+        <v>25244</v>
       </c>
       <c r="C295" s="7">
-        <v>45825</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="5">
-        <v>25414</v>
+        <v>25246</v>
       </c>
       <c r="C296" s="7">
-        <v>45825</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
-        <v>25411</v>
+        <v>25450</v>
+      </c>
+      <c r="B297" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C297" s="7">
-        <v>45825</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="5">
-        <v>25416</v>
+        <v>25449</v>
+      </c>
+      <c r="B298" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C298" s="7">
-        <v>45825</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
-        <v>25404</v>
+        <v>25448</v>
+      </c>
+      <c r="B299" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C299" s="7">
-        <v>45825</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
-        <v>25412</v>
+        <v>25447</v>
+      </c>
+      <c r="B300" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C300" s="7">
-        <v>45825</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
-        <v>25413</v>
+        <v>25446</v>
+      </c>
+      <c r="B301" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C301" s="7">
-        <v>45825</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="5">
-        <v>25415</v>
+        <v>25260</v>
+      </c>
+      <c r="B302" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C302" s="7">
-        <v>45825</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="5">
-        <v>25420</v>
+        <v>25355</v>
+      </c>
+      <c r="B303" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C303" s="7">
-        <v>45825</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="5">
-        <v>25453</v>
+        <v>25270</v>
+      </c>
+      <c r="B304" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C304" s="7">
-        <v>45825</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
-        <v>25419</v>
+        <v>25357</v>
+      </c>
+      <c r="B305" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C305" s="7">
-        <v>45825</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
-        <v>25224</v>
+        <v>25367</v>
+      </c>
+      <c r="B306" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C306" s="7">
-        <v>45727</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
-        <v>25226</v>
+        <v>25363</v>
+      </c>
+      <c r="B307" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C307" s="7">
-        <v>45727</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="5">
-        <v>25230</v>
+        <v>25276</v>
+      </c>
+      <c r="B308" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C308" s="7">
-        <v>45727</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
-        <v>25219</v>
+        <v>25366</v>
+      </c>
+      <c r="B309" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C309" s="7">
-        <v>45727</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="5">
-        <v>25204</v>
+        <v>25384</v>
+      </c>
+      <c r="B310" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C310" s="7">
-        <v>45727</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
-        <v>25232</v>
+        <v>25391</v>
+      </c>
+      <c r="B311" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C311" s="7">
-        <v>45727</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
-        <v>25229</v>
+        <v>25385</v>
+      </c>
+      <c r="B312" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C312" s="7">
-        <v>45727</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
-        <v>25241</v>
+        <v>25359</v>
+      </c>
+      <c r="B313" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C313" s="7">
-        <v>45727</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="5">
-        <v>25244</v>
+        <v>25364</v>
+      </c>
+      <c r="B314" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C314" s="7">
-        <v>45727</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
-        <v>25246</v>
+        <v>25369</v>
+      </c>
+      <c r="B315" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C315" s="7">
-        <v>45727</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="5">
-        <v>25450</v>
+        <v>25368</v>
       </c>
       <c r="B316" s="9" t="s">
         <v>6</v>
@@ -3898,7 +3923,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
-        <v>25449</v>
+        <v>25395</v>
       </c>
       <c r="B317" s="9" t="s">
         <v>6</v>
@@ -3909,7 +3934,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="5">
-        <v>25448</v>
+        <v>25400</v>
       </c>
       <c r="B318" s="9" t="s">
         <v>6</v>
@@ -3920,7 +3945,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
-        <v>25447</v>
+        <v>25358</v>
       </c>
       <c r="B319" s="9" t="s">
         <v>6</v>
@@ -3931,7 +3956,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="5">
-        <v>25446</v>
+        <v>25361</v>
       </c>
       <c r="B320" s="9" t="s">
         <v>6</v>
@@ -3942,7 +3967,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
-        <v>25260</v>
+        <v>25394</v>
       </c>
       <c r="B321" s="9" t="s">
         <v>6</v>
@@ -3953,7 +3978,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="5">
-        <v>25355</v>
+        <v>25354</v>
       </c>
       <c r="B322" s="9" t="s">
         <v>6</v>
@@ -3964,7 +3989,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
-        <v>25270</v>
+        <v>25362</v>
       </c>
       <c r="B323" s="9" t="s">
         <v>6</v>
@@ -3975,7 +4000,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="5">
-        <v>25357</v>
+        <v>25393</v>
       </c>
       <c r="B324" s="9" t="s">
         <v>6</v>
@@ -3986,7 +4011,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
-        <v>25367</v>
+        <v>25389</v>
       </c>
       <c r="B325" s="9" t="s">
         <v>6</v>
@@ -3997,7 +4022,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="5">
-        <v>25363</v>
+        <v>25399</v>
       </c>
       <c r="B326" s="9" t="s">
         <v>6</v>
@@ -4008,7 +4033,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
-        <v>25276</v>
+        <v>25392</v>
       </c>
       <c r="B327" s="9" t="s">
         <v>6</v>
@@ -4019,7 +4044,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="5">
-        <v>25366</v>
+        <v>25388</v>
       </c>
       <c r="B328" s="9" t="s">
         <v>6</v>
@@ -4030,7 +4055,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="5">
-        <v>25384</v>
+        <v>25352</v>
       </c>
       <c r="B329" s="9" t="s">
         <v>6</v>
@@ -4041,7 +4066,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="5">
-        <v>25391</v>
+        <v>25360</v>
       </c>
       <c r="B330" s="9" t="s">
         <v>6</v>
@@ -4052,7 +4077,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="5">
-        <v>25385</v>
+        <v>25356</v>
       </c>
       <c r="B331" s="9" t="s">
         <v>6</v>
@@ -4063,7 +4088,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="5">
-        <v>25359</v>
+        <v>25390</v>
       </c>
       <c r="B332" s="9" t="s">
         <v>6</v>
@@ -4074,7 +4099,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="5">
-        <v>25364</v>
+        <v>25387</v>
       </c>
       <c r="B333" s="9" t="s">
         <v>6</v>
@@ -4085,7 +4110,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="5">
-        <v>25369</v>
+        <v>25397</v>
       </c>
       <c r="B334" s="9" t="s">
         <v>6</v>
@@ -4096,7 +4121,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="5">
-        <v>25368</v>
+        <v>25398</v>
       </c>
       <c r="B335" s="9" t="s">
         <v>6</v>
@@ -4107,7 +4132,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="5">
-        <v>25395</v>
+        <v>25353</v>
       </c>
       <c r="B336" s="9" t="s">
         <v>6</v>
@@ -4118,7 +4143,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
-        <v>25400</v>
+        <v>25396</v>
       </c>
       <c r="B337" s="9" t="s">
         <v>6</v>
@@ -4129,7 +4154,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="5">
-        <v>25358</v>
+        <v>25351</v>
       </c>
       <c r="B338" s="9" t="s">
         <v>6</v>
@@ -4140,4452 +4165,4243 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
-        <v>25361</v>
+        <v>25485</v>
       </c>
       <c r="B339" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C339" s="7">
-        <v>45775</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="5">
-        <v>25394</v>
+        <v>25471</v>
       </c>
       <c r="B340" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C340" s="7">
-        <v>45775</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="5">
-        <v>25354</v>
+        <v>25480</v>
       </c>
       <c r="B341" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C341" s="7">
-        <v>45775</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="5">
-        <v>25362</v>
+        <v>25484</v>
       </c>
       <c r="B342" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C342" s="7">
-        <v>45775</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="5">
-        <v>25393</v>
+        <v>25482</v>
       </c>
       <c r="B343" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C343" s="7">
-        <v>45775</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="5">
-        <v>25389</v>
+        <v>25483</v>
       </c>
       <c r="B344" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C344" s="7">
-        <v>45775</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="5">
-        <v>25399</v>
+        <v>25481</v>
       </c>
       <c r="B345" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C345" s="7">
-        <v>45775</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="5">
-        <v>25392</v>
+        <v>25479</v>
       </c>
       <c r="B346" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C346" s="7">
-        <v>45775</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="5">
-        <v>25388</v>
+        <v>25476</v>
       </c>
       <c r="B347" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C347" s="7">
-        <v>45775</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="5">
-        <v>25352</v>
+        <v>25490</v>
       </c>
       <c r="B348" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C348" s="7">
-        <v>45775</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="5">
-        <v>25360</v>
+        <v>25478</v>
       </c>
       <c r="B349" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C349" s="7">
-        <v>45775</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="5">
-        <v>25356</v>
+        <v>25477</v>
       </c>
       <c r="B350" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C350" s="7">
-        <v>45775</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="5">
-        <v>25390</v>
-      </c>
-      <c r="B351" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C351" s="7">
-        <v>45775</v>
+        <v>100141</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="5">
-        <v>25387</v>
-      </c>
-      <c r="B352" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C352" s="7">
-        <v>45775</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100142</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="5">
-        <v>25397</v>
-      </c>
-      <c r="B353" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C353" s="7">
-        <v>45775</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100143</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="5">
-        <v>25398</v>
-      </c>
-      <c r="B354" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C354" s="7">
-        <v>45775</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100144</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="5">
-        <v>25353</v>
-      </c>
-      <c r="B355" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C355" s="7">
-        <v>45775</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100145</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="5">
-        <v>25396</v>
-      </c>
-      <c r="B356" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C356" s="7">
-        <v>45775</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100146</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="5">
-        <v>25351</v>
-      </c>
-      <c r="B357" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C357" s="7">
-        <v>45775</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100147</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="5">
-        <v>25485</v>
-      </c>
-      <c r="B358" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C358" s="7">
-        <v>45841</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100148</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="5">
-        <v>25471</v>
-      </c>
-      <c r="B359" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C359" s="7">
-        <v>45841</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100149</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="5">
-        <v>25480</v>
-      </c>
-      <c r="B360" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C360" s="7">
-        <v>45841</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100150</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="5">
-        <v>25484</v>
-      </c>
-      <c r="B361" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C361" s="7">
-        <v>45841</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100151</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="5">
-        <v>25482</v>
-      </c>
-      <c r="B362" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C362" s="7">
-        <v>45841</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100152</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="5">
-        <v>25483</v>
-      </c>
-      <c r="B363" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C363" s="7">
-        <v>45841</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100153</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="5">
-        <v>25481</v>
-      </c>
-      <c r="B364" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C364" s="7">
-        <v>45841</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100154</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="5">
-        <v>25479</v>
-      </c>
-      <c r="B365" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C365" s="7">
-        <v>45841</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100155</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="5">
-        <v>25476</v>
-      </c>
-      <c r="B366" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C366" s="7">
-        <v>45841</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100156</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="5">
-        <v>25490</v>
-      </c>
-      <c r="B367" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C367" s="7">
-        <v>45841</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100157</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="5">
-        <v>25478</v>
-      </c>
-      <c r="B368" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C368" s="7">
-        <v>45841</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100158</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="5">
-        <v>25477</v>
-      </c>
-      <c r="B369" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C369" s="7">
-        <v>45841</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100159</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="5">
-        <v>100141</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100160</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="5">
-        <v>100142</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100161</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="5">
-        <v>100143</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100162</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="5">
-        <v>100144</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100163</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="5">
-        <v>100145</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100164</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="5">
-        <v>100146</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100165</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="5">
-        <v>100147</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100166</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="5">
-        <v>100148</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100167</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="5">
-        <v>100149</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100168</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="5">
-        <v>100150</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100169</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="5">
-        <v>100151</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100170</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="5">
-        <v>100152</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100171</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="5">
-        <v>100153</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100172</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="5">
-        <v>100154</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100173</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="5">
-        <v>100155</v>
+        <v>100174</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="5">
-        <v>100156</v>
+        <v>100175</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="5">
-        <v>100157</v>
+        <v>100176</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="5">
-        <v>100158</v>
+        <v>100177</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="5">
-        <v>100159</v>
+        <v>100178</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="5">
-        <v>100160</v>
+        <v>100179</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="5">
-        <v>100161</v>
+        <v>100180</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="5">
-        <v>100162</v>
+        <v>100181</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="5">
-        <v>100163</v>
+        <v>100182</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="5">
-        <v>100164</v>
+        <v>100183</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="5">
-        <v>100165</v>
+        <v>100184</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="5">
-        <v>100166</v>
+        <v>100185</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="5">
-        <v>100167</v>
+        <v>100186</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="5">
-        <v>100168</v>
+        <v>100187</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="5">
-        <v>100169</v>
+        <v>100188</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="5">
-        <v>100170</v>
+        <v>100189</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="5">
-        <v>100171</v>
+        <v>100190</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="5">
-        <v>100172</v>
+        <v>100191</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="5">
-        <v>100173</v>
+        <v>100192</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="5">
-        <v>100174</v>
+        <v>100193</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="5">
-        <v>100175</v>
+        <v>100194</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="5">
-        <v>100176</v>
+        <v>100195</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="5">
-        <v>100177</v>
+        <v>100196</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="5">
-        <v>100178</v>
+        <v>100197</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="5">
-        <v>100179</v>
+        <v>100198</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="5">
-        <v>100180</v>
+        <v>100199</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="5">
-        <v>100181</v>
+        <v>100200</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="5">
-        <v>100182</v>
+        <v>100201</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="5">
-        <v>100183</v>
+        <v>100202</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="5">
-        <v>100184</v>
+        <v>100203</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="5">
-        <v>100185</v>
+        <v>100204</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="5">
-        <v>100186</v>
+        <v>100205</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="5">
-        <v>100187</v>
+        <v>100206</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="5">
-        <v>100188</v>
+        <v>100207</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="5">
-        <v>100189</v>
+        <v>100208</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="5">
-        <v>100190</v>
+        <v>100209</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="5">
-        <v>100191</v>
+        <v>100210</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
-        <v>100192</v>
+        <v>100211</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="5">
-        <v>100193</v>
+        <v>100212</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
-        <v>100194</v>
+        <v>100213</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="5">
-        <v>100195</v>
+        <v>100214</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="5">
-        <v>100196</v>
+        <v>100215</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="5">
-        <v>100197</v>
+        <v>100216</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="5">
-        <v>100198</v>
+        <v>100217</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="5">
-        <v>100199</v>
+        <v>100218</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="5">
-        <v>100200</v>
+        <v>100219</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="5">
-        <v>100201</v>
+        <v>100220</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
-        <v>100202</v>
+        <v>100221</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="5">
-        <v>100203</v>
+        <v>100222</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
-        <v>100204</v>
+        <v>100223</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="5">
-        <v>100205</v>
+        <v>100224</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="5">
-        <v>100206</v>
+        <v>100225</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="5">
-        <v>100207</v>
+        <v>100226</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="5">
-        <v>100208</v>
+        <v>100227</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="5">
-        <v>100209</v>
+        <v>100228</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="5">
-        <v>100210</v>
+        <v>100229</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="5">
-        <v>100211</v>
+        <v>100230</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="5">
-        <v>100212</v>
+        <v>100231</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="5">
-        <v>100213</v>
+        <v>100232</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="5">
-        <v>100214</v>
+        <v>100233</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="5">
-        <v>100215</v>
+        <v>100234</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="5">
-        <v>100216</v>
+        <v>100235</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="5">
-        <v>100217</v>
+        <v>100236</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="5">
-        <v>100218</v>
+        <v>100237</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="5">
-        <v>100219</v>
+        <v>100238</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
-        <v>100220</v>
+        <v>100239</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="5">
-        <v>100221</v>
+        <v>100240</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="5">
-        <v>100222</v>
+        <v>100241</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="5">
-        <v>100223</v>
+        <v>100242</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="5">
-        <v>100224</v>
+        <v>100243</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="5">
-        <v>100225</v>
+        <v>100244</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="5">
-        <v>100226</v>
+        <v>100245</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="5">
-        <v>100227</v>
+        <v>100246</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="5">
-        <v>100228</v>
+        <v>100247</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="5">
-        <v>100229</v>
+        <v>100248</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="5">
-        <v>100230</v>
+        <v>100249</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="5">
-        <v>100231</v>
+        <v>100250</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
-        <v>100232</v>
+        <v>100251</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="5">
-        <v>100233</v>
+        <v>100252</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
-        <v>100234</v>
+        <v>100253</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="5">
-        <v>100235</v>
+        <v>100254</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="5">
-        <v>100236</v>
+        <v>100255</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="5">
-        <v>100237</v>
+        <v>100256</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
-        <v>100238</v>
+        <v>100257</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="5">
-        <v>100239</v>
+        <v>100258</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="5">
-        <v>100240</v>
+        <v>100259</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="5">
-        <v>100241</v>
+        <v>100260</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="5">
-        <v>100242</v>
+        <v>100261</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="5">
-        <v>100243</v>
+        <v>100262</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="5">
-        <v>100244</v>
+        <v>100263</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="5">
-        <v>100245</v>
+        <v>100264</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="5">
-        <v>100246</v>
+        <v>100265</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="5">
-        <v>100247</v>
+        <v>100266</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="5">
-        <v>100248</v>
+        <v>100267</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="5">
-        <v>100249</v>
+        <v>100268</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="5">
-        <v>100250</v>
+        <v>100269</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="5">
-        <v>100251</v>
+        <v>100270</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="5">
-        <v>100252</v>
+        <v>100271</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="5">
-        <v>100253</v>
+        <v>100272</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="5">
-        <v>100254</v>
+        <v>100273</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="5">
-        <v>100255</v>
+        <v>100274</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="5">
-        <v>100256</v>
+        <v>100275</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="5">
-        <v>100257</v>
+        <v>100276</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="5">
-        <v>100258</v>
+        <v>100277</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="5">
-        <v>100259</v>
+        <v>100278</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="5">
-        <v>100260</v>
+        <v>100279</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="5">
-        <v>100261</v>
+        <v>100280</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
-        <v>100262</v>
+        <v>100281</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="5">
-        <v>100263</v>
+        <v>100282</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="5">
-        <v>100264</v>
+        <v>100283</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="5">
-        <v>100265</v>
+        <v>100284</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="5">
-        <v>100266</v>
+        <v>100285</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="5">
-        <v>100267</v>
+        <v>100286</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
-        <v>100268</v>
+        <v>100287</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="5">
-        <v>100269</v>
+        <v>100288</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="5">
-        <v>100270</v>
+        <v>100289</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="5">
-        <v>100271</v>
+        <v>100290</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
-        <v>100272</v>
+        <v>100291</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="5">
-        <v>100273</v>
+        <v>100292</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="5">
-        <v>100274</v>
+        <v>100293</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="5">
-        <v>100275</v>
+        <v>100294</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="5">
-        <v>100276</v>
+        <v>100295</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="5">
-        <v>100277</v>
+        <v>100296</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="5">
-        <v>100278</v>
+        <v>100297</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="5">
-        <v>100279</v>
+        <v>100298</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="5">
-        <v>100280</v>
+        <v>100299</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="5">
-        <v>100281</v>
+        <v>100300</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="5">
-        <v>100282</v>
+        <v>100301</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="5">
-        <v>100283</v>
+        <v>100302</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="5">
-        <v>100284</v>
+        <v>100303</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="5">
-        <v>100285</v>
+        <v>100304</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="5">
-        <v>100286</v>
+        <v>100305</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="5">
-        <v>100287</v>
+        <v>100306</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="5">
-        <v>100288</v>
+        <v>100307</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="5">
-        <v>100289</v>
+        <v>100308</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="5">
-        <v>100290</v>
+        <v>100309</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="5">
-        <v>100291</v>
+        <v>100310</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="5">
-        <v>100292</v>
+        <v>100311</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="5">
-        <v>100293</v>
+        <v>100312</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="5">
-        <v>100294</v>
+        <v>100313</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="5">
-        <v>100295</v>
+        <v>100314</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="5">
-        <v>100296</v>
+        <v>100315</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="5">
-        <v>100297</v>
+        <v>100316</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="5">
-        <v>100298</v>
+        <v>100317</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="5">
-        <v>100299</v>
+        <v>100318</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="5">
-        <v>100300</v>
+        <v>100319</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="5">
-        <v>100301</v>
+        <v>100320</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="5">
-        <v>100302</v>
+        <v>100321</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="5">
-        <v>100303</v>
+        <v>100322</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="5">
-        <v>100304</v>
+        <v>100323</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="5">
-        <v>100305</v>
+        <v>100324</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="5">
-        <v>100306</v>
+        <v>100325</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="5">
-        <v>100307</v>
+        <v>100326</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="5">
-        <v>100308</v>
+        <v>100327</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="5">
-        <v>100309</v>
+        <v>100328</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="5">
-        <v>100310</v>
+        <v>100329</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="5">
-        <v>100311</v>
+        <v>100330</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="5">
-        <v>100312</v>
+        <v>100331</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="5">
-        <v>100313</v>
+        <v>100332</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="5">
-        <v>100314</v>
+        <v>100333</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="5">
-        <v>100315</v>
+        <v>100334</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="5">
-        <v>100316</v>
+        <v>100335</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="5">
-        <v>100317</v>
+        <v>100336</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="5">
-        <v>100318</v>
+        <v>100337</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="5">
-        <v>100319</v>
+        <v>100338</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="5">
-        <v>100320</v>
+        <v>100339</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="5">
-        <v>100321</v>
+        <v>100340</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="5">
-        <v>100322</v>
+        <v>100341</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="5">
-        <v>100323</v>
+        <v>100342</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="5">
-        <v>100324</v>
+        <v>100343</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="5">
-        <v>100325</v>
+        <v>100344</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="5">
-        <v>100326</v>
+        <v>100345</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="5">
-        <v>100327</v>
+        <v>100346</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="5">
-        <v>100328</v>
+        <v>100347</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="5">
-        <v>100329</v>
+        <v>100348</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="5">
-        <v>100330</v>
+        <v>100349</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="5">
-        <v>100331</v>
+        <v>100350</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="5">
-        <v>100332</v>
+        <v>100351</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="5">
-        <v>100333</v>
+        <v>100352</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="5">
-        <v>100334</v>
+        <v>100353</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="5">
-        <v>100335</v>
+        <v>100354</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="5">
-        <v>100336</v>
+        <v>100355</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="5">
-        <v>100337</v>
+        <v>100356</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="5">
-        <v>100338</v>
+        <v>100357</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="5">
-        <v>100339</v>
+        <v>100358</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="5">
-        <v>100340</v>
+        <v>100359</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="5">
-        <v>100341</v>
+        <v>100360</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="5">
-        <v>100342</v>
+        <v>100361</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="5">
-        <v>100343</v>
+        <v>100362</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" s="5">
-        <v>100344</v>
+        <v>100363</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="5">
-        <v>100345</v>
+        <v>100364</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="5">
-        <v>100346</v>
+        <v>100365</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="5">
-        <v>100347</v>
+        <v>100366</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" s="5">
-        <v>100348</v>
+        <v>100367</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" s="5">
-        <v>100349</v>
+        <v>100368</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" s="5">
-        <v>100350</v>
+        <v>100369</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" s="5">
-        <v>100351</v>
+        <v>100370</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" s="5">
-        <v>100352</v>
+        <v>100371</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" s="5">
-        <v>100353</v>
+        <v>100372</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" s="5">
-        <v>100354</v>
+        <v>100373</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" s="5">
-        <v>100355</v>
+        <v>100374</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" s="5">
-        <v>100356</v>
+        <v>100375</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" s="5">
-        <v>100357</v>
+        <v>100376</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" s="5">
-        <v>100358</v>
+        <v>100377</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" s="5">
-        <v>100359</v>
+        <v>100378</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" s="5">
-        <v>100360</v>
+        <v>100379</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" s="5">
-        <v>100361</v>
+        <v>100380</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" s="5">
-        <v>100362</v>
+        <v>100381</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" s="5">
-        <v>100363</v>
+        <v>100382</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" s="5">
-        <v>100364</v>
+        <v>100383</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" s="5">
-        <v>100365</v>
+        <v>100384</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" s="5">
-        <v>100366</v>
+        <v>100385</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" s="5">
-        <v>100367</v>
+        <v>100386</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" s="5">
-        <v>100368</v>
+        <v>100387</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" s="5">
-        <v>100369</v>
+        <v>100388</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" s="5">
-        <v>100370</v>
+        <v>100389</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" s="5">
-        <v>100371</v>
+        <v>100390</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" s="5">
-        <v>100372</v>
+        <v>100391</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" s="5">
-        <v>100373</v>
+        <v>100392</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" s="5">
-        <v>100374</v>
+        <v>100393</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" s="5">
-        <v>100375</v>
+        <v>100394</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" s="5">
-        <v>100376</v>
+        <v>100395</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" s="5">
-        <v>100377</v>
+        <v>100396</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" s="5">
-        <v>100378</v>
+        <v>100397</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" s="5">
-        <v>100379</v>
+        <v>100398</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" s="5">
-        <v>100380</v>
+        <v>100399</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" s="5">
-        <v>100381</v>
+        <v>100400</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" s="5">
-        <v>100382</v>
+        <v>100401</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" s="5">
-        <v>100383</v>
+        <v>100402</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" s="5">
-        <v>100384</v>
+        <v>100403</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" s="5">
-        <v>100385</v>
+        <v>100404</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" s="5">
-        <v>100386</v>
+        <v>100405</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" s="5">
-        <v>100387</v>
+        <v>100406</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" s="5">
-        <v>100388</v>
+        <v>100407</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" s="5">
-        <v>100389</v>
+        <v>100408</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" s="5">
-        <v>100390</v>
+        <v>100409</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" s="5">
-        <v>100391</v>
+        <v>100410</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" s="5">
-        <v>100392</v>
+        <v>100411</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" s="5">
-        <v>100393</v>
+        <v>100412</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" s="5">
-        <v>100394</v>
+        <v>100413</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" s="5">
-        <v>100395</v>
+        <v>100414</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" s="5">
-        <v>100396</v>
+        <v>100415</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" s="5">
-        <v>100397</v>
+        <v>100416</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" s="5">
-        <v>100398</v>
+        <v>100417</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" s="5">
-        <v>100399</v>
+        <v>100418</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" s="5">
-        <v>100400</v>
+        <v>100419</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" s="5">
-        <v>100401</v>
+        <v>100420</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" s="5">
-        <v>100402</v>
+        <v>100421</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" s="5">
-        <v>100403</v>
+        <v>100422</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" s="5">
-        <v>100404</v>
+        <v>100423</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" s="5">
-        <v>100405</v>
+        <v>100424</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" s="5">
-        <v>100406</v>
+        <v>100425</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" s="5">
-        <v>100407</v>
+        <v>100426</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" s="5">
-        <v>100408</v>
+        <v>100427</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" s="5">
-        <v>100409</v>
+        <v>100428</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" s="5">
-        <v>100410</v>
+        <v>100429</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" s="5">
-        <v>100411</v>
+        <v>100430</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" s="5">
-        <v>100412</v>
+        <v>100431</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" s="5">
-        <v>100413</v>
+        <v>100432</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" s="5">
-        <v>100414</v>
+        <v>100433</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" s="5">
-        <v>100415</v>
+        <v>100434</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" s="5">
-        <v>100416</v>
+        <v>100435</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" s="5">
-        <v>100417</v>
+        <v>100436</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" s="5">
-        <v>100418</v>
+        <v>100437</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" s="5">
-        <v>100419</v>
+        <v>100438</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" s="5">
-        <v>100420</v>
+        <v>100439</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" s="5">
-        <v>100421</v>
+        <v>100440</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" s="5">
-        <v>100422</v>
+        <v>100441</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" s="5">
-        <v>100423</v>
+        <v>100442</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" s="5">
-        <v>100424</v>
+        <v>100443</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" s="5">
-        <v>100425</v>
+        <v>100444</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" s="5">
-        <v>100426</v>
+        <v>100445</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" s="5">
-        <v>100427</v>
+        <v>100446</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" s="5">
-        <v>100428</v>
+        <v>100447</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" s="5">
-        <v>100429</v>
+        <v>100448</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" s="5">
-        <v>100430</v>
+        <v>100449</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" s="5">
-        <v>100431</v>
+        <v>100450</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" s="5">
-        <v>100432</v>
+        <v>100451</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" s="5">
-        <v>100433</v>
+        <v>100452</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" s="5">
-        <v>100434</v>
+        <v>100453</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" s="5">
-        <v>100435</v>
+        <v>100454</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" s="5">
-        <v>100436</v>
+        <v>100455</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" s="5">
-        <v>100437</v>
+        <v>100456</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" s="5">
-        <v>100438</v>
+        <v>100457</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" s="5">
-        <v>100439</v>
+        <v>100458</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" s="5">
-        <v>100440</v>
+        <v>100459</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" s="5">
-        <v>100441</v>
+        <v>100460</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" s="5">
-        <v>100442</v>
+        <v>100461</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" s="5">
-        <v>100443</v>
+        <v>100462</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" s="5">
-        <v>100444</v>
+        <v>100463</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" s="5">
-        <v>100445</v>
+        <v>100464</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" s="5">
-        <v>100446</v>
+        <v>100465</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" s="5">
-        <v>100447</v>
+        <v>100466</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" s="5">
-        <v>100448</v>
+        <v>100467</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" s="5">
-        <v>100449</v>
+        <v>100468</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" s="5">
-        <v>100450</v>
+        <v>100469</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" s="5">
-        <v>100451</v>
+        <v>100470</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" s="5">
-        <v>100452</v>
+        <v>100471</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" s="5">
-        <v>100453</v>
+        <v>100472</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" s="5">
-        <v>100454</v>
+        <v>100473</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" s="5">
-        <v>100455</v>
+        <v>100474</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" s="5">
-        <v>100456</v>
+        <v>100475</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" s="5">
-        <v>100457</v>
+        <v>100476</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" s="5">
-        <v>100458</v>
+        <v>100477</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" s="5">
-        <v>100459</v>
+        <v>100478</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" s="5">
-        <v>100460</v>
+        <v>100479</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" s="5">
-        <v>100461</v>
+        <v>100480</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" s="5">
-        <v>100462</v>
+        <v>100481</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" s="5">
-        <v>100463</v>
+        <v>100482</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" s="5">
-        <v>100464</v>
+        <v>100483</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" s="5">
-        <v>100465</v>
+        <v>100484</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" s="5">
-        <v>100466</v>
+        <v>100485</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" s="5">
-        <v>100467</v>
+        <v>100486</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" s="5">
-        <v>100468</v>
+        <v>100487</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" s="5">
-        <v>100469</v>
+        <v>100488</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" s="5">
-        <v>100470</v>
+        <v>100489</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" s="5">
-        <v>100471</v>
+        <v>100490</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" s="5">
-        <v>100472</v>
+        <v>100491</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" s="5">
-        <v>100473</v>
+        <v>100492</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" s="5">
-        <v>100474</v>
+        <v>100493</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704" s="5">
-        <v>100475</v>
+        <v>100494</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" s="5">
-        <v>100476</v>
+        <v>100495</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" s="5">
-        <v>100477</v>
+        <v>100496</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" s="5">
-        <v>100478</v>
+        <v>100497</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" s="5">
-        <v>100479</v>
+        <v>100498</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" s="5">
-        <v>100480</v>
+        <v>100499</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" s="5">
-        <v>100481</v>
+        <v>100500</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711" s="5">
-        <v>100482</v>
+        <v>100501</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712" s="5">
-        <v>100483</v>
+        <v>100502</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" s="5">
-        <v>100484</v>
+        <v>100503</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" s="5">
-        <v>100485</v>
+        <v>100504</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" s="5">
-        <v>100486</v>
+        <v>100505</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" s="5">
-        <v>100487</v>
+        <v>100506</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" s="5">
-        <v>100488</v>
+        <v>100507</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" s="5">
-        <v>100489</v>
+        <v>100508</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" s="5">
-        <v>100490</v>
+        <v>100509</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" s="5">
-        <v>100491</v>
+        <v>100510</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721" s="5">
-        <v>100492</v>
+        <v>100511</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" s="5">
-        <v>100493</v>
+        <v>100512</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723" s="5">
-        <v>100494</v>
+        <v>100513</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724" s="5">
-        <v>100495</v>
+        <v>100514</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725" s="5">
-        <v>100496</v>
+        <v>100515</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726" s="5">
-        <v>100497</v>
+        <v>100516</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727" s="5">
-        <v>100498</v>
+        <v>100517</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" s="5">
-        <v>100499</v>
+        <v>100518</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" s="5">
-        <v>100500</v>
+        <v>100519</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" s="5">
-        <v>100501</v>
+        <v>100520</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" s="5">
-        <v>100502</v>
+        <v>100521</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732" s="5">
-        <v>100503</v>
+        <v>100522</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733" s="5">
-        <v>100504</v>
+        <v>100523</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734" s="5">
-        <v>100505</v>
+        <v>100524</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" s="5">
-        <v>100506</v>
+        <v>100525</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" s="5">
-        <v>100507</v>
+        <v>100526</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" s="5">
-        <v>100508</v>
+        <v>100527</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" s="5">
-        <v>100509</v>
+        <v>100528</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" s="5">
-        <v>100510</v>
+        <v>100529</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740" s="5">
-        <v>100511</v>
+        <v>100530</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741" s="5">
-        <v>100512</v>
+        <v>100531</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742" s="5">
-        <v>100513</v>
+        <v>100532</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743" s="5">
-        <v>100514</v>
+        <v>100533</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744" s="5">
-        <v>100515</v>
+        <v>100534</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745" s="5">
-        <v>100516</v>
+        <v>100535</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746" s="5">
-        <v>100517</v>
+        <v>100536</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747" s="5">
-        <v>100518</v>
+        <v>100537</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748" s="5">
-        <v>100519</v>
+        <v>100538</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749" s="5">
-        <v>100520</v>
+        <v>100539</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750" s="5">
-        <v>100521</v>
+        <v>100540</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751" s="5">
-        <v>100522</v>
+        <v>100541</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752" s="5">
-        <v>100523</v>
+        <v>100542</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753" s="5">
-        <v>100524</v>
+        <v>100543</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754" s="5">
-        <v>100525</v>
+        <v>100544</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755" s="5">
-        <v>100526</v>
+        <v>100545</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756" s="5">
-        <v>100527</v>
+        <v>100546</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757" s="5">
-        <v>100528</v>
+        <v>100547</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758" s="5">
-        <v>100529</v>
+        <v>100548</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759" s="5">
-        <v>100530</v>
+        <v>100549</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" s="5">
-        <v>100531</v>
+        <v>100550</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" s="5">
-        <v>100532</v>
+        <v>100551</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" s="5">
-        <v>100533</v>
+        <v>100552</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" s="5">
-        <v>100534</v>
+        <v>100553</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" s="5">
-        <v>100535</v>
+        <v>100554</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" s="5">
-        <v>100536</v>
+        <v>100555</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" s="5">
-        <v>100537</v>
+        <v>100556</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" s="5">
-        <v>100538</v>
+        <v>100557</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" s="5">
-        <v>100539</v>
+        <v>100558</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" s="5">
-        <v>100540</v>
+        <v>100559</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" s="5">
-        <v>100541</v>
+        <v>100560</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" s="5">
-        <v>100542</v>
+        <v>100561</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" s="5">
-        <v>100543</v>
+        <v>100562</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" s="5">
-        <v>100544</v>
+        <v>100563</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" s="5">
-        <v>100545</v>
+        <v>100564</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" s="5">
-        <v>100546</v>
+        <v>100565</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" s="5">
-        <v>100547</v>
+        <v>100566</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" s="5">
-        <v>100548</v>
+        <v>100567</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" s="5">
-        <v>100549</v>
+        <v>100568</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" s="5">
-        <v>100550</v>
+        <v>100569</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" s="5">
-        <v>100551</v>
+        <v>100570</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" s="5">
-        <v>100552</v>
+        <v>100571</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" s="5">
-        <v>100553</v>
+        <v>100572</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" s="5">
-        <v>100554</v>
+        <v>100573</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" s="5">
-        <v>100555</v>
+        <v>100574</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" s="5">
-        <v>100556</v>
+        <v>100575</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" s="5">
-        <v>100557</v>
+        <v>100576</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787" s="5">
-        <v>100558</v>
+        <v>100577</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" s="5">
-        <v>100559</v>
+        <v>100578</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789" s="5">
-        <v>100560</v>
+        <v>100579</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790" s="5">
-        <v>100561</v>
+        <v>100580</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791" s="5">
-        <v>100562</v>
+        <v>100581</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792" s="5">
-        <v>100563</v>
+        <v>100582</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793" s="5">
-        <v>100564</v>
+        <v>100583</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" s="5">
-        <v>100565</v>
+        <v>100584</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795" s="5">
-        <v>100566</v>
+        <v>100585</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796" s="5">
-        <v>100567</v>
+        <v>100586</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797" s="5">
-        <v>100568</v>
+        <v>100587</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798" s="5">
-        <v>100569</v>
+        <v>100588</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799" s="5">
-        <v>100570</v>
+        <v>100589</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800" s="5">
-        <v>100571</v>
+        <v>100590</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801" s="5">
-        <v>100572</v>
+        <v>100591</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802" s="5">
-        <v>100573</v>
+        <v>100592</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803" s="5">
-        <v>100574</v>
+        <v>100593</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804" s="5">
-        <v>100575</v>
+        <v>100594</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805" s="5">
-        <v>100576</v>
+        <v>100595</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806" s="5">
-        <v>100577</v>
+        <v>100596</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807" s="5">
-        <v>100578</v>
+        <v>100597</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808" s="5">
-        <v>100579</v>
+        <v>100598</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809" s="5">
-        <v>100580</v>
+        <v>100599</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810" s="5">
-        <v>100581</v>
+        <v>100600</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811" s="5">
-        <v>100582</v>
+        <v>100601</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812" s="5">
-        <v>100583</v>
+        <v>100602</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813" s="5">
-        <v>100584</v>
+        <v>100603</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814" s="5">
-        <v>100585</v>
+        <v>100604</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815" s="5">
-        <v>100586</v>
+        <v>100605</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816" s="5">
-        <v>100587</v>
+        <v>100606</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817" s="5">
-        <v>100588</v>
+        <v>100607</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818" s="5">
-        <v>100589</v>
+        <v>100608</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819" s="5">
-        <v>100590</v>
+        <v>100609</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820" s="5">
-        <v>100591</v>
+        <v>100610</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821" s="5">
-        <v>100592</v>
+        <v>100611</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822" s="5">
-        <v>100593</v>
+        <v>100612</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823" s="5">
-        <v>100594</v>
+        <v>100613</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824" s="5">
-        <v>100595</v>
+        <v>100614</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825" s="5">
-        <v>100596</v>
+        <v>100615</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826" s="5">
-        <v>100597</v>
+        <v>100616</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827" s="5">
-        <v>100598</v>
+        <v>100617</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828" s="5">
-        <v>100599</v>
+        <v>100618</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829" s="5">
-        <v>100600</v>
+        <v>100619</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830" s="5">
-        <v>100601</v>
+        <v>100620</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831" s="5">
-        <v>100602</v>
+        <v>100621</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832" s="5">
-        <v>100603</v>
+        <v>100622</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833" s="5">
-        <v>100604</v>
+        <v>100623</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834" s="5">
-        <v>100605</v>
+        <v>100624</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835" s="5">
-        <v>100606</v>
+        <v>100625</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836" s="5">
-        <v>100607</v>
+        <v>100626</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837" s="5">
-        <v>100608</v>
+        <v>100627</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838" s="5">
-        <v>100609</v>
+        <v>100628</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839" s="5">
-        <v>100610</v>
+        <v>100629</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840" s="5">
-        <v>100611</v>
+        <v>100630</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841" s="5">
-        <v>100612</v>
+        <v>100631</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842" s="5">
-        <v>100613</v>
+        <v>100632</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843" s="5">
-        <v>100614</v>
+        <v>100633</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844" s="5">
-        <v>100615</v>
+        <v>100634</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845" s="5">
-        <v>100616</v>
+        <v>100635</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846" s="5">
-        <v>100617</v>
+        <v>100636</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847" s="5">
-        <v>100618</v>
+        <v>100637</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848" s="5">
-        <v>100619</v>
+        <v>100638</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849" s="5">
-        <v>100620</v>
+        <v>100639</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850" s="5">
-        <v>100621</v>
+        <v>100640</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851" s="5">
-        <v>100622</v>
+        <v>100641</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852" s="5">
-        <v>100623</v>
+        <v>100642</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853" s="5">
-        <v>100624</v>
+        <v>100643</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854" s="5">
-        <v>100625</v>
+        <v>100644</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855" s="5">
-        <v>100626</v>
+        <v>100645</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856" s="5">
-        <v>100627</v>
+        <v>100646</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857" s="5">
-        <v>100628</v>
+        <v>100647</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858" s="5">
-        <v>100629</v>
+        <v>100648</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859" s="5">
-        <v>100630</v>
+        <v>100649</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860" s="5">
-        <v>100631</v>
+        <v>100650</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861" s="5">
-        <v>100632</v>
+        <v>100651</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862" s="5">
-        <v>100633</v>
+        <v>100652</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863" s="5">
-        <v>100634</v>
+        <v>100653</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864" s="5">
-        <v>100635</v>
+        <v>100654</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865" s="5">
-        <v>100636</v>
+        <v>100655</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866" s="5">
-        <v>100637</v>
+        <v>100656</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867" s="5">
-        <v>100638</v>
+        <v>100657</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868" s="5">
-        <v>100639</v>
+        <v>100658</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869" s="5">
-        <v>100640</v>
+        <v>100659</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870" s="5">
-        <v>100641</v>
+        <v>100660</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871" s="5">
-        <v>100642</v>
+        <v>100661</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872" s="5">
-        <v>100643</v>
+        <v>100662</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873" s="5">
-        <v>100644</v>
+        <v>100663</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874" s="5">
-        <v>100645</v>
+        <v>100664</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875" s="5">
-        <v>100646</v>
+        <v>100665</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876" s="5">
-        <v>100647</v>
+        <v>100666</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877" s="5">
-        <v>100648</v>
+        <v>100667</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878" s="5">
-        <v>100649</v>
+        <v>100668</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879" s="5">
-        <v>100650</v>
+        <v>100669</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880" s="5">
-        <v>100651</v>
+        <v>100670</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881" s="5">
-        <v>100652</v>
+        <v>100671</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882" s="5">
-        <v>100653</v>
+        <v>100672</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883" s="5">
-        <v>100654</v>
+        <v>100673</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884" s="5">
-        <v>100655</v>
+        <v>100674</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885" s="5">
-        <v>100656</v>
+        <v>100675</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886" s="5">
-        <v>100657</v>
+        <v>100676</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887" s="5">
-        <v>100658</v>
+        <v>100677</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888" s="5">
-        <v>100659</v>
+        <v>100678</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889" s="5">
-        <v>100660</v>
+        <v>100679</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890" s="5">
-        <v>100661</v>
+        <v>100680</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891" s="5">
-        <v>100662</v>
+        <v>100681</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892" s="5">
-        <v>100663</v>
+        <v>100682</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893" s="5">
-        <v>100664</v>
+        <v>100683</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894" s="5">
-        <v>100665</v>
+        <v>100684</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895" s="5">
-        <v>100666</v>
+        <v>100685</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896" s="5">
-        <v>100667</v>
+        <v>100686</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897" s="5">
-        <v>100668</v>
+        <v>100687</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898" s="5">
-        <v>100669</v>
+        <v>100688</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899" s="5">
-        <v>100670</v>
+        <v>100689</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900" s="5">
-        <v>100671</v>
+        <v>100690</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901" s="5">
-        <v>100672</v>
+        <v>100691</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902" s="5">
-        <v>100673</v>
+        <v>100692</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903" s="5">
-        <v>100674</v>
+        <v>100693</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904" s="5">
-        <v>100675</v>
+        <v>100694</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905" s="5">
-        <v>100676</v>
+        <v>100695</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906" s="5">
-        <v>100677</v>
+        <v>100696</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907" s="5">
-        <v>100678</v>
+        <v>100697</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908" s="5">
-        <v>100679</v>
+        <v>100698</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909" s="5">
-        <v>100680</v>
+        <v>100699</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910" s="5">
-        <v>100681</v>
+        <v>100700</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911" s="5">
-        <v>100682</v>
+        <v>100701</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912" s="5">
-        <v>100683</v>
+        <v>100702</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913" s="5">
-        <v>100684</v>
+        <v>100703</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914" s="5">
-        <v>100685</v>
+        <v>100704</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915" s="5">
-        <v>100686</v>
+        <v>100705</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916" s="5">
-        <v>100687</v>
+        <v>100706</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917" s="5">
-        <v>100688</v>
+        <v>100707</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918" s="5">
-        <v>100689</v>
+        <v>100708</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919" s="5">
-        <v>100690</v>
+        <v>100709</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920" s="5">
-        <v>100691</v>
+        <v>100710</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921" s="5">
-        <v>100692</v>
+        <v>100711</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922" s="5">
-        <v>100693</v>
+        <v>100712</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923" s="5">
-        <v>100694</v>
+        <v>100713</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924" s="5">
-        <v>100695</v>
+        <v>100714</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925" s="5">
-        <v>100696</v>
+        <v>100715</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926" s="5">
-        <v>100697</v>
+        <v>100716</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927" s="5">
-        <v>100698</v>
+        <v>100717</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928" s="5">
-        <v>100699</v>
+        <v>100718</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929" s="5">
-        <v>100700</v>
+        <v>100719</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930" s="5">
-        <v>100701</v>
+        <v>100720</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931" s="5">
-        <v>100702</v>
+        <v>100721</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932" s="5">
-        <v>100703</v>
+        <v>100722</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933" s="5">
-        <v>100704</v>
+        <v>100723</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934" s="5">
-        <v>100705</v>
+        <v>100724</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935" s="5">
-        <v>100706</v>
+        <v>100725</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936" s="5">
-        <v>100707</v>
+        <v>100726</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937" s="5">
-        <v>100708</v>
+        <v>100727</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938" s="5">
-        <v>100709</v>
+        <v>100728</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939" s="5">
-        <v>100710</v>
+        <v>100729</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940" s="5">
-        <v>100711</v>
+        <v>100730</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941" s="5">
-        <v>100712</v>
+        <v>100731</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942" s="5">
-        <v>100713</v>
+        <v>100732</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943" s="5">
-        <v>100714</v>
+        <v>100733</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944" s="5">
-        <v>100715</v>
+        <v>100734</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945" s="5">
-        <v>100716</v>
+        <v>100735</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946" s="5">
-        <v>100717</v>
+        <v>100736</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947" s="5">
-        <v>100718</v>
+        <v>100737</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948" s="5">
-        <v>100719</v>
+        <v>100738</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949" s="5">
-        <v>100720</v>
+        <v>100739</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950" s="5">
-        <v>100721</v>
+        <v>100740</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951" s="5">
-        <v>100722</v>
+        <v>100741</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952" s="5">
-        <v>100723</v>
+        <v>100742</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953" s="5">
-        <v>100724</v>
+        <v>100743</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954" s="5">
-        <v>100725</v>
+        <v>100744</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955" s="5">
-        <v>100726</v>
+        <v>100745</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956" s="5">
-        <v>100727</v>
+        <v>100746</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957" s="5">
-        <v>100728</v>
+        <v>100747</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958" s="5">
-        <v>100729</v>
+        <v>100748</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959" s="5">
-        <v>100730</v>
+        <v>100749</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960" s="5">
-        <v>100731</v>
+        <v>100750</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961" s="5">
-        <v>100732</v>
+        <v>100751</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962" s="5">
-        <v>100733</v>
+        <v>100752</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963" s="5">
-        <v>100734</v>
+        <v>100753</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964" s="5">
-        <v>100735</v>
+        <v>100754</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965" s="5">
-        <v>100736</v>
+        <v>100755</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966" s="5">
-        <v>100737</v>
+        <v>100756</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967" s="5">
-        <v>100738</v>
+        <v>100757</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968" s="5">
-        <v>100739</v>
+        <v>100758</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969" s="5">
-        <v>100740</v>
+        <v>100759</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A970" s="5">
-        <v>100741</v>
+        <v>100760</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971" s="5">
-        <v>100742</v>
+        <v>100761</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972" s="5">
-        <v>100743</v>
+        <v>100762</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973" s="5">
-        <v>100744</v>
+        <v>100763</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974" s="5">
-        <v>100745</v>
+        <v>100764</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975" s="5">
-        <v>100746</v>
+        <v>100765</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976" s="5">
-        <v>100747</v>
+        <v>100766</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977" s="5">
-        <v>100748</v>
+        <v>100767</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978" s="5">
-        <v>100749</v>
+        <v>100768</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979" s="5">
-        <v>100750</v>
+        <v>100769</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980" s="5">
-        <v>100751</v>
+        <v>100770</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981" s="5">
-        <v>100752</v>
+        <v>100771</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982" s="5">
-        <v>100753</v>
+        <v>100772</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983" s="5">
-        <v>100754</v>
+        <v>100773</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984" s="5">
-        <v>100755</v>
+        <v>100774</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A985" s="5">
-        <v>100756</v>
+        <v>100775</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A986" s="5">
-        <v>100757</v>
+        <v>100776</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987" s="5">
-        <v>100758</v>
+        <v>100777</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988" s="5">
-        <v>100759</v>
+        <v>100778</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989" s="5">
-        <v>100760</v>
+        <v>100779</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A990" s="5">
-        <v>100761</v>
+        <v>100780</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A991" s="5">
-        <v>100762</v>
+        <v>100781</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992" s="5">
-        <v>100763</v>
+        <v>100782</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993" s="5">
-        <v>100764</v>
+        <v>100783</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A994" s="5">
-        <v>100765</v>
+        <v>100784</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995" s="5">
-        <v>100766</v>
+        <v>100785</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996" s="5">
-        <v>100767</v>
+        <v>100786</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997" s="5">
-        <v>100768</v>
+        <v>100787</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998" s="5">
-        <v>100769</v>
+        <v>100788</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999" s="5">
-        <v>100770</v>
+        <v>100789</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000" s="5">
-        <v>100771</v>
+        <v>100790</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1001" s="5">
-        <v>100772</v>
+        <v>100791</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1002" s="5">
-        <v>100773</v>
+        <v>100792</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1003" s="5">
-        <v>100774</v>
+        <v>100793</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1004" s="5">
-        <v>100775</v>
+        <v>100794</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1005" s="5">
-        <v>100776</v>
+        <v>100795</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1006" s="5">
-        <v>100777</v>
+        <v>100796</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1007" s="5">
-        <v>100778</v>
+        <v>100797</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1008" s="5">
-        <v>100779</v>
+        <v>100798</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1009" s="5">
-        <v>100780</v>
+        <v>100799</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1010" s="5">
-        <v>100781</v>
+        <v>100800</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1011" s="5">
-        <v>100782</v>
+        <v>100801</v>
       </c>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1012" s="5">
-        <v>100783</v>
+        <v>100802</v>
       </c>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1013" s="5">
-        <v>100784</v>
+        <v>100803</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1014" s="5">
-        <v>100785</v>
+        <v>100804</v>
       </c>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1015" s="5">
-        <v>100786</v>
+        <v>100805</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1016" s="5">
-        <v>100787</v>
+        <v>100806</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1017" s="5">
-        <v>100788</v>
+        <v>100807</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1018" s="5">
-        <v>100789</v>
+        <v>100808</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1019" s="5">
-        <v>100790</v>
+        <v>100809</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1020" s="5">
-        <v>100791</v>
+        <v>100810</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1021" s="5">
-        <v>100792</v>
+        <v>100811</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1022" s="5">
-        <v>100793</v>
+        <v>100812</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1023" s="5">
-        <v>100794</v>
+        <v>100813</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1024" s="5">
-        <v>100795</v>
+        <v>100814</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1025" s="5">
-        <v>100796</v>
+        <v>100815</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1026" s="5">
-        <v>100797</v>
+        <v>100816</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1027" s="5">
-        <v>100798</v>
+        <v>100817</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1028" s="5">
-        <v>100799</v>
+        <v>100818</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1029" s="5">
-        <v>100800</v>
+        <v>100819</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1030" s="5">
-        <v>100801</v>
+        <v>100820</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1031" s="5">
-        <v>100802</v>
+        <v>100821</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1032" s="5">
-        <v>100803</v>
+        <v>100822</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1033" s="5">
-        <v>100804</v>
+        <v>100823</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1034" s="5">
-        <v>100805</v>
+        <v>100824</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1035" s="5">
-        <v>100806</v>
+        <v>100825</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1036" s="5">
-        <v>100807</v>
+        <v>100826</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1037" s="5">
-        <v>100808</v>
+        <v>100827</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1038" s="5">
-        <v>100809</v>
+        <v>100828</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1039" s="5">
-        <v>100810</v>
+        <v>100829</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1040" s="5">
-        <v>100811</v>
+        <v>100830</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1041" s="5">
-        <v>100812</v>
+        <v>100831</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1042" s="5">
-        <v>100813</v>
+        <v>100832</v>
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1043" s="5">
-        <v>100814</v>
+        <v>100833</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1044" s="5">
-        <v>100815</v>
+        <v>100834</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1045" s="5">
-        <v>100816</v>
+        <v>100835</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1046" s="5">
-        <v>100817</v>
+        <v>100836</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1047" s="5">
-        <v>100818</v>
+        <v>100837</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048" s="5">
-        <v>100819</v>
+        <v>100838</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1049" s="5">
-        <v>100820</v>
+        <v>100839</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1050" s="5">
-        <v>100821</v>
+        <v>100840</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1051" s="5">
-        <v>100822</v>
+        <v>100841</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1052" s="5">
-        <v>100823</v>
+        <v>100842</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1053" s="5">
-        <v>100824</v>
+        <v>100843</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1054" s="5">
-        <v>100825</v>
+        <v>100844</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1055" s="5">
-        <v>100826</v>
+        <v>100845</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056" s="5">
-        <v>100827</v>
+        <v>100846</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1057" s="5">
-        <v>100828</v>
+        <v>100847</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1058" s="5">
-        <v>100829</v>
+        <v>100848</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1059" s="5">
-        <v>100830</v>
+        <v>100849</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1060" s="5">
-        <v>100831</v>
+        <v>100850</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1061" s="5">
-        <v>100832</v>
+        <v>100851</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062" s="5">
-        <v>100833</v>
+        <v>100852</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1063" s="5">
-        <v>100834</v>
+        <v>100853</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1064" s="5">
-        <v>100835</v>
+        <v>100854</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1065" s="5">
-        <v>100836</v>
+        <v>100855</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1066" s="5">
-        <v>100837</v>
+        <v>100856</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1067" s="5">
-        <v>100838</v>
+        <v>100857</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1068" s="5">
-        <v>100839</v>
+        <v>100858</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1069" s="5">
-        <v>100840</v>
+        <v>100859</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1070" s="5">
-        <v>100841</v>
+        <v>100860</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1071" s="5">
-        <v>100842</v>
+        <v>100861</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1072" s="5">
-        <v>100843</v>
+        <v>100862</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1073" s="5">
-        <v>100844</v>
+        <v>100863</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1074" s="5">
-        <v>100845</v>
+        <v>100864</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1075" s="5">
-        <v>100846</v>
+        <v>100865</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1076" s="5">
-        <v>100847</v>
+        <v>100866</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1077" s="5">
-        <v>100848</v>
+        <v>100867</v>
       </c>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1078" s="5">
-        <v>100849</v>
+        <v>100868</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1079" s="5">
-        <v>100850</v>
+        <v>100869</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1080" s="5">
-        <v>100851</v>
+        <v>100870</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1081" s="5">
-        <v>100852</v>
+        <v>100871</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1082" s="5">
-        <v>100853</v>
+        <v>100872</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1083" s="5">
-        <v>100854</v>
+        <v>100873</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1084" s="5">
-        <v>100855</v>
+        <v>100874</v>
       </c>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1085" s="5">
-        <v>100856</v>
+        <v>100875</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1086" s="5">
-        <v>100857</v>
+        <v>100876</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1087" s="5">
-        <v>100858</v>
+        <v>100877</v>
       </c>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1088" s="5">
-        <v>100859</v>
+        <v>100878</v>
       </c>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1089" s="5">
-        <v>100860</v>
+        <v>100879</v>
       </c>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1090" s="5">
-        <v>100861</v>
+        <v>100880</v>
       </c>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1091" s="5">
-        <v>100862</v>
+        <v>100881</v>
       </c>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1092" s="5">
-        <v>100863</v>
+        <v>100882</v>
       </c>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1093" s="5">
-        <v>100864</v>
+        <v>100883</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1094" s="5">
-        <v>100865</v>
+        <v>100884</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1095" s="5">
-        <v>100866</v>
+        <v>100885</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1096" s="5">
-        <v>100867</v>
+        <v>100886</v>
       </c>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1097" s="5">
-        <v>100868</v>
+        <v>100887</v>
       </c>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1098" s="5">
-        <v>100869</v>
+        <v>100888</v>
       </c>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1099" s="5">
-        <v>100870</v>
+        <v>100889</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1100" s="5">
-        <v>100871</v>
+        <v>100890</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1101" s="5">
-        <v>100872</v>
+        <v>100891</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1102" s="5">
-        <v>100873</v>
+        <v>100892</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1103" s="5">
-        <v>100874</v>
+        <v>100893</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1104" s="5">
-        <v>100875</v>
+        <v>100894</v>
       </c>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1105" s="5">
-        <v>100876</v>
+        <v>100895</v>
       </c>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1106" s="5">
-        <v>100877</v>
+        <v>100896</v>
       </c>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1107" s="5">
-        <v>100878</v>
+        <v>100897</v>
       </c>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1108" s="5">
-        <v>100879</v>
+        <v>100898</v>
       </c>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1109" s="5">
-        <v>100880</v>
+        <v>100899</v>
       </c>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1110" s="5">
-        <v>100881</v>
+        <v>100900</v>
       </c>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1111" s="5">
-        <v>100882</v>
+        <v>100901</v>
       </c>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1112" s="5">
-        <v>100883</v>
+        <v>100902</v>
       </c>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1113" s="5">
-        <v>100884</v>
+        <v>100903</v>
       </c>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1114" s="5">
-        <v>100885</v>
+        <v>100904</v>
       </c>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1115" s="5">
-        <v>100886</v>
+        <v>100905</v>
       </c>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1116" s="5">
-        <v>100887</v>
+        <v>100906</v>
       </c>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1117" s="5">
-        <v>100888</v>
+        <v>100907</v>
       </c>
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1118" s="5">
-        <v>100889</v>
+        <v>100908</v>
       </c>
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1119" s="5">
-        <v>100890</v>
+        <v>100909</v>
       </c>
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1120" s="5">
-        <v>100891</v>
+        <v>100910</v>
       </c>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1121" s="5">
-        <v>100892</v>
+        <v>100911</v>
       </c>
     </row>
     <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1122" s="5">
-        <v>100893</v>
+        <v>100912</v>
       </c>
     </row>
     <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1123" s="5">
-        <v>100894</v>
+        <v>100913</v>
       </c>
     </row>
     <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1124" s="5">
-        <v>100895</v>
+        <v>100914</v>
       </c>
     </row>
     <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1125" s="5">
-        <v>100896</v>
+        <v>100915</v>
       </c>
     </row>
     <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1126" s="5">
-        <v>100897</v>
+        <v>100916</v>
       </c>
     </row>
     <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1127" s="5">
-        <v>100898</v>
+        <v>100917</v>
       </c>
     </row>
     <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1128" s="5">
-        <v>100899</v>
+        <v>100918</v>
       </c>
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1129" s="5">
-        <v>100900</v>
+        <v>100919</v>
       </c>
     </row>
     <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1130" s="5">
-        <v>100901</v>
+        <v>100920</v>
       </c>
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1131" s="5">
-        <v>100902</v>
+        <v>100921</v>
       </c>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1132" s="5">
-        <v>100903</v>
+        <v>100922</v>
       </c>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1133" s="5">
-        <v>100904</v>
+        <v>100923</v>
       </c>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1134" s="5">
-        <v>100905</v>
+        <v>100924</v>
       </c>
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1135" s="5">
-        <v>100906</v>
+        <v>100925</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1136" s="5">
-        <v>100907</v>
+        <v>100926</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1137" s="5">
-        <v>100908</v>
+        <v>100927</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1138" s="5">
-        <v>100909</v>
+        <v>100928</v>
       </c>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1139" s="5">
-        <v>100910</v>
+        <v>100929</v>
       </c>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1140" s="5">
-        <v>100911</v>
+        <v>100930</v>
       </c>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1141" s="5">
-        <v>100912</v>
+        <v>100931</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1142" s="5">
-        <v>100913</v>
+        <v>100932</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1143" s="5">
-        <v>100914</v>
+        <v>100933</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1144" s="5">
-        <v>100915</v>
+        <v>100934</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1145" s="5">
-        <v>100916</v>
+        <v>100935</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1146" s="5">
-        <v>100917</v>
+        <v>100936</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1147" s="5">
-        <v>100918</v>
+        <v>100937</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1148" s="5">
-        <v>100919</v>
+        <v>100938</v>
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1149" s="5">
-        <v>100920</v>
+        <v>100939</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1150" s="5">
-        <v>100921</v>
+        <v>100940</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1151" s="5">
-        <v>100922</v>
+        <v>100941</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1152" s="5">
-        <v>100923</v>
+        <v>100942</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1153" s="5">
-        <v>100924</v>
+        <v>100943</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1154" s="5">
-        <v>100925</v>
+        <v>100944</v>
       </c>
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1155" s="5">
-        <v>100926</v>
+        <v>100945</v>
       </c>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1156" s="5">
-        <v>100927</v>
+        <v>100946</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1157" s="5">
-        <v>100928</v>
+        <v>100947</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1158" s="5">
-        <v>100929</v>
+        <v>100948</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1159" s="5">
-        <v>100930</v>
+        <v>100949</v>
       </c>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1160" s="5">
-        <v>100931</v>
+        <v>100950</v>
       </c>
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1161" s="5">
-        <v>100932</v>
+        <v>100951</v>
       </c>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1162" s="5">
-        <v>100933</v>
+        <v>100952</v>
       </c>
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1163" s="5">
-        <v>100934</v>
+        <v>100953</v>
       </c>
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1164" s="5">
-        <v>100935</v>
+        <v>100954</v>
       </c>
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1165" s="5">
-        <v>100936</v>
+        <v>100955</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1166" s="5">
-        <v>100937</v>
+        <v>100956</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1167" s="5">
-        <v>100938</v>
+        <v>100957</v>
       </c>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1168" s="5">
-        <v>100939</v>
+        <v>100958</v>
       </c>
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1169" s="5">
-        <v>100940</v>
+        <v>100959</v>
       </c>
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1170" s="5">
-        <v>100941</v>
+        <v>100960</v>
       </c>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1171" s="5">
-        <v>100942</v>
+        <v>100961</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1172" s="5">
-        <v>100943</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1173" s="5">
-        <v>100944</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1174" s="5">
-        <v>100945</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1175" s="5">
-        <v>100946</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1176" s="5">
-        <v>100947</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1177" s="5">
-        <v>100948</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1178" s="5">
-        <v>100949</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1179" s="5">
-        <v>100950</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1180" s="5">
-        <v>100951</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1181" s="5">
-        <v>100952</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1182" s="5">
-        <v>100953</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1183" s="5">
-        <v>100954</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1184" s="5">
-        <v>100955</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1185" s="5">
-        <v>100956</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1186" s="5">
-        <v>100957</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1187" s="5">
-        <v>100958</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1188" s="5">
-        <v>100959</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1189" s="5">
-        <v>100960</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1190" s="5">
-        <v>100961</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1191" s="5">
         <v>100962</v>
       </c>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14F4971-036D-4555-B123-B5B8A42549C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF4BD7E-EA84-4955-B2C1-C4421D089094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18765" yWindow="3600" windowWidth="17400" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="29">
   <si>
     <t>code</t>
   </si>
@@ -96,24 +96,35 @@
     <t>МАКС</t>
   </si>
   <si>
-    <t>06.11.2025 отремонтирована
-27.10.2025 в ремонте. Пришла без наклеек и надписей</t>
+    <t>Панда HD</t>
   </si>
   <si>
-    <t>06.11.2025 отремонтирована
-27.10.2025 в ремонте. Пришла с наклейкой (машина 31982, Ногинск, технопарк, Лемана про)</t>
+    <t>27.10.2025 в ремонте. Пришла с наклейкой (машина 31982, Ногинск, технопарк, Лемана про)
+06.11.2025 отремонтирована
+11.11.2025 уехала в Павловский посад</t>
   </si>
   <si>
-    <t>06.11.2025 отремонтирована
-27.10.2025 в ремонте. На сумке есть наклейка с надписью Райфайзен</t>
+    <t>27.10.2025 в ремонте. Пришла без наклеек и надписей
+06.11.2025 отремонтирована
+11.11.2025 уехала в Павловский посад</t>
   </si>
   <si>
-    <t>06.11.2025 отремонтирована
-27.10.2025 в ремонте. На сумке есть наклейка 31502</t>
+    <t>27.10.2025 в ремонте. На сумке есть надпись "30117"
+06.11.2025 отремонтирована</t>
   </si>
   <si>
-    <t>06.11.2025 отремонтирована
-27.10.2025 в ремонте. На сумке есть надпись "30117"</t>
+    <t>27.10.2025 в ремонте. Пришла без наклеек и надписей
+06.11.2025 отремонтирована</t>
+  </si>
+  <si>
+    <t>27.10.2025 в ремонте. На сумке есть наклейка с надписью Райфайзен
+06.11.2025 отремонтирована
+11.11.2025 уехала (в Ростов или Воронеж)</t>
+  </si>
+  <si>
+    <t>27.10.2025 в ремонте. На сумке есть наклейка 31502
+06.11.2025 отремонтирована
+11.11.2025 уехала (в Ростов или Воронеж)</t>
   </si>
 </sst>
 </file>
@@ -226,9 +237,6 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -244,6 +252,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,8 +541,8 @@
   </sheetPr>
   <dimension ref="A1:D1171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A670" workbookViewId="0">
-      <selection activeCell="D357" sqref="D357"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>12345</v>
       </c>
@@ -597,7 +608,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>24925</v>
       </c>
@@ -607,11 +618,11 @@
       <c r="C5" s="8">
         <v>45532</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D5" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>24945</v>
       </c>
@@ -621,11 +632,11 @@
       <c r="C6" s="8">
         <v>45553</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>24946</v>
       </c>
@@ -635,11 +646,11 @@
       <c r="C7" s="8">
         <v>45553</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>24953</v>
       </c>
@@ -649,11 +660,11 @@
       <c r="C8" s="8">
         <v>45553</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>24903</v>
       </c>
@@ -663,8 +674,8 @@
       <c r="C9" s="8">
         <v>45553</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>25</v>
+      <c r="D9" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -677,8 +688,8 @@
       <c r="C10" s="8">
         <v>45544</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>26</v>
+      <c r="D10" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,7 +2990,7 @@
       <c r="A224" s="1">
         <v>25221</v>
       </c>
-      <c r="B224" s="10" t="s">
+      <c r="B224" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C224" s="8">
@@ -2990,7 +3001,7 @@
       <c r="A225" s="1">
         <v>25210</v>
       </c>
-      <c r="B225" s="10" t="s">
+      <c r="B225" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C225" s="8">
@@ -3001,7 +3012,7 @@
       <c r="A226" s="1">
         <v>25218</v>
       </c>
-      <c r="B226" s="10" t="s">
+      <c r="B226" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C226" s="8">
@@ -3012,7 +3023,7 @@
       <c r="A227" s="1">
         <v>25248</v>
       </c>
-      <c r="B227" s="10" t="s">
+      <c r="B227" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C227" s="8">
@@ -3023,7 +3034,7 @@
       <c r="A228" s="1">
         <v>25206</v>
       </c>
-      <c r="B228" s="10" t="s">
+      <c r="B228" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C228" s="8">
@@ -3034,7 +3045,7 @@
       <c r="A229" s="1">
         <v>25239</v>
       </c>
-      <c r="B229" s="10" t="s">
+      <c r="B229" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C229" s="8">
@@ -3045,7 +3056,7 @@
       <c r="A230" s="1">
         <v>25217</v>
       </c>
-      <c r="B230" s="10" t="s">
+      <c r="B230" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C230" s="8">
@@ -3056,7 +3067,7 @@
       <c r="A231" s="1">
         <v>25231</v>
       </c>
-      <c r="B231" s="10" t="s">
+      <c r="B231" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C231" s="8">
@@ -3067,7 +3078,7 @@
       <c r="A232" s="1">
         <v>25216</v>
       </c>
-      <c r="B232" s="10" t="s">
+      <c r="B232" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C232" s="8">
@@ -3078,7 +3089,7 @@
       <c r="A233" s="1">
         <v>25243</v>
       </c>
-      <c r="B233" s="10" t="s">
+      <c r="B233" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C233" s="8">
@@ -3089,7 +3100,7 @@
       <c r="A234" s="1">
         <v>25236</v>
       </c>
-      <c r="B234" s="10" t="s">
+      <c r="B234" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C234" s="8">
@@ -3100,7 +3111,7 @@
       <c r="A235" s="1">
         <v>25203</v>
       </c>
-      <c r="B235" s="10" t="s">
+      <c r="B235" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C235" s="8">
@@ -3111,7 +3122,7 @@
       <c r="A236" s="1">
         <v>25234</v>
       </c>
-      <c r="B236" s="10" t="s">
+      <c r="B236" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C236" s="8">
@@ -3122,7 +3133,7 @@
       <c r="A237" s="1">
         <v>25245</v>
       </c>
-      <c r="B237" s="10" t="s">
+      <c r="B237" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C237" s="8">
@@ -3133,7 +3144,7 @@
       <c r="A238" s="1">
         <v>25227</v>
       </c>
-      <c r="B238" s="10" t="s">
+      <c r="B238" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C238" s="8">
@@ -3144,7 +3155,7 @@
       <c r="A239" s="1">
         <v>25247</v>
       </c>
-      <c r="B239" s="10" t="s">
+      <c r="B239" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C239" s="8">
@@ -3155,7 +3166,7 @@
       <c r="A240" s="1">
         <v>25208</v>
       </c>
-      <c r="B240" s="10" t="s">
+      <c r="B240" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C240" s="8">
@@ -3166,7 +3177,7 @@
       <c r="A241" s="1">
         <v>25434</v>
       </c>
-      <c r="B241" s="10" t="s">
+      <c r="B241" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C241" s="8">
@@ -3177,7 +3188,7 @@
       <c r="A242" s="1">
         <v>25433</v>
       </c>
-      <c r="B242" s="10" t="s">
+      <c r="B242" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C242" s="8">
@@ -3188,7 +3199,7 @@
       <c r="A243" s="1">
         <v>25432</v>
       </c>
-      <c r="B243" s="10" t="s">
+      <c r="B243" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C243" s="8">
@@ -3199,7 +3210,7 @@
       <c r="A244" s="1">
         <v>25431</v>
       </c>
-      <c r="B244" s="10" t="s">
+      <c r="B244" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C244" s="8">
@@ -3210,7 +3221,7 @@
       <c r="A245" s="1">
         <v>25440</v>
       </c>
-      <c r="B245" s="10" t="s">
+      <c r="B245" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C245" s="8">
@@ -3221,7 +3232,7 @@
       <c r="A246" s="1">
         <v>25439</v>
       </c>
-      <c r="B246" s="10" t="s">
+      <c r="B246" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C246" s="8">
@@ -3232,7 +3243,7 @@
       <c r="A247" s="1">
         <v>25436</v>
       </c>
-      <c r="B247" s="10" t="s">
+      <c r="B247" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C247" s="8">
@@ -3243,7 +3254,7 @@
       <c r="A248" s="1">
         <v>25437</v>
       </c>
-      <c r="B248" s="10" t="s">
+      <c r="B248" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C248" s="8">
@@ -3254,7 +3265,7 @@
       <c r="A249" s="1">
         <v>25438</v>
       </c>
-      <c r="B249" s="10" t="s">
+      <c r="B249" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C249" s="8">
@@ -3265,7 +3276,7 @@
       <c r="A250" s="1">
         <v>25444</v>
       </c>
-      <c r="B250" s="10" t="s">
+      <c r="B250" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C250" s="8">
@@ -3276,7 +3287,7 @@
       <c r="A251" s="1">
         <v>25443</v>
       </c>
-      <c r="B251" s="10" t="s">
+      <c r="B251" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C251" s="8">
@@ -3287,7 +3298,7 @@
       <c r="A252" s="1">
         <v>25442</v>
       </c>
-      <c r="B252" s="10" t="s">
+      <c r="B252" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C252" s="8">
@@ -3298,7 +3309,7 @@
       <c r="A253" s="1">
         <v>25233</v>
       </c>
-      <c r="B253" s="10" t="s">
+      <c r="B253" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C253" s="8">
@@ -3309,7 +3320,7 @@
       <c r="A254" s="1">
         <v>25445</v>
       </c>
-      <c r="B254" s="10" t="s">
+      <c r="B254" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C254" s="8">
@@ -3320,7 +3331,7 @@
       <c r="A255" s="1">
         <v>25441</v>
       </c>
-      <c r="B255" s="10" t="s">
+      <c r="B255" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C255" s="8">
@@ -3331,7 +3342,7 @@
       <c r="A256" s="1">
         <v>25207</v>
       </c>
-      <c r="B256" s="10" t="s">
+      <c r="B256" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C256" s="8">
@@ -3342,7 +3353,7 @@
       <c r="A257" s="1">
         <v>25211</v>
       </c>
-      <c r="B257" s="10" t="s">
+      <c r="B257" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C257" s="8">
@@ -3353,7 +3364,7 @@
       <c r="A258" s="1">
         <v>25237</v>
       </c>
-      <c r="B258" s="10" t="s">
+      <c r="B258" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C258" s="8">
@@ -3364,7 +3375,7 @@
       <c r="A259" s="1">
         <v>25222</v>
       </c>
-      <c r="B259" s="10" t="s">
+      <c r="B259" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C259" s="8">
@@ -3375,7 +3386,7 @@
       <c r="A260" s="1">
         <v>25220</v>
       </c>
-      <c r="B260" s="10" t="s">
+      <c r="B260" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C260" s="8">
@@ -3386,7 +3397,7 @@
       <c r="A261" s="1">
         <v>25228</v>
       </c>
-      <c r="B261" s="10" t="s">
+      <c r="B261" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C261" s="8">
@@ -3397,7 +3408,7 @@
       <c r="A262" s="1">
         <v>25205</v>
       </c>
-      <c r="B262" s="10" t="s">
+      <c r="B262" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C262" s="8">
@@ -3408,7 +3419,7 @@
       <c r="A263" s="1">
         <v>25242</v>
       </c>
-      <c r="B263" s="10" t="s">
+      <c r="B263" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C263" s="8">
@@ -3419,7 +3430,7 @@
       <c r="A264" s="1">
         <v>25201</v>
       </c>
-      <c r="B264" s="10" t="s">
+      <c r="B264" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C264" s="8">
@@ -3430,7 +3441,7 @@
       <c r="A265" s="1">
         <v>25240</v>
       </c>
-      <c r="B265" s="10" t="s">
+      <c r="B265" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C265" s="8">
@@ -3441,7 +3452,7 @@
       <c r="A266" s="1">
         <v>25299</v>
       </c>
-      <c r="C266" s="11">
+      <c r="C266" s="10">
         <v>45903</v>
       </c>
     </row>
@@ -3449,11 +3460,11 @@
       <c r="A267" s="1">
         <v>24936</v>
       </c>
-      <c r="B267" s="12" t="s">
+      <c r="B267" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C267" s="8"/>
-      <c r="D267" s="13" t="s">
+      <c r="D267" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3461,11 +3472,11 @@
       <c r="A268" s="1">
         <v>25059</v>
       </c>
-      <c r="B268" s="12" t="s">
+      <c r="B268" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C268" s="8"/>
-      <c r="D268" s="13" t="s">
+      <c r="D268" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3473,7 +3484,7 @@
       <c r="A269" s="1">
         <v>24978</v>
       </c>
-      <c r="B269" s="14" t="s">
+      <c r="B269" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C269" s="8">
@@ -3484,7 +3495,7 @@
       <c r="A270" s="1">
         <v>24916</v>
       </c>
-      <c r="B270" s="14" t="s">
+      <c r="B270" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C270" s="8">
@@ -3495,7 +3506,7 @@
       <c r="A271" s="1">
         <v>24924</v>
       </c>
-      <c r="B271" s="14"/>
+      <c r="B271" s="13"/>
       <c r="C271" s="8">
         <v>45532</v>
       </c>
@@ -3504,7 +3515,7 @@
       <c r="A272" s="1">
         <v>24902</v>
       </c>
-      <c r="B272" s="14" t="s">
+      <c r="B272" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C272" s="8">
@@ -3515,7 +3526,7 @@
       <c r="A273" s="1">
         <v>24923</v>
       </c>
-      <c r="B273" s="14"/>
+      <c r="B273" s="13"/>
       <c r="C273" s="8">
         <v>45532</v>
       </c>
@@ -3524,7 +3535,7 @@
       <c r="A274" s="1">
         <v>24908</v>
       </c>
-      <c r="B274" s="12" t="s">
+      <c r="B274" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C274" s="8">
@@ -3711,7 +3722,7 @@
       <c r="A297" s="1">
         <v>25450</v>
       </c>
-      <c r="B297" s="12" t="s">
+      <c r="B297" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C297" s="8">
@@ -3722,7 +3733,7 @@
       <c r="A298" s="1">
         <v>25449</v>
       </c>
-      <c r="B298" s="12" t="s">
+      <c r="B298" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C298" s="8">
@@ -3733,7 +3744,7 @@
       <c r="A299" s="1">
         <v>25448</v>
       </c>
-      <c r="B299" s="12" t="s">
+      <c r="B299" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C299" s="8">
@@ -3744,7 +3755,7 @@
       <c r="A300" s="1">
         <v>25447</v>
       </c>
-      <c r="B300" s="12" t="s">
+      <c r="B300" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C300" s="8">
@@ -3755,7 +3766,7 @@
       <c r="A301" s="1">
         <v>25446</v>
       </c>
-      <c r="B301" s="12" t="s">
+      <c r="B301" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C301" s="8">
@@ -3766,7 +3777,7 @@
       <c r="A302" s="1">
         <v>25260</v>
       </c>
-      <c r="B302" s="12" t="s">
+      <c r="B302" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C302" s="8">
@@ -3777,7 +3788,7 @@
       <c r="A303" s="1">
         <v>25355</v>
       </c>
-      <c r="B303" s="12" t="s">
+      <c r="B303" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C303" s="8">
@@ -3788,7 +3799,7 @@
       <c r="A304" s="1">
         <v>25270</v>
       </c>
-      <c r="B304" s="12" t="s">
+      <c r="B304" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C304" s="8">
@@ -3799,7 +3810,7 @@
       <c r="A305" s="1">
         <v>25357</v>
       </c>
-      <c r="B305" s="12" t="s">
+      <c r="B305" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C305" s="8">
@@ -3810,7 +3821,7 @@
       <c r="A306" s="1">
         <v>25367</v>
       </c>
-      <c r="B306" s="12" t="s">
+      <c r="B306" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C306" s="8">
@@ -3821,7 +3832,7 @@
       <c r="A307" s="1">
         <v>25363</v>
       </c>
-      <c r="B307" s="12" t="s">
+      <c r="B307" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C307" s="8">
@@ -3832,7 +3843,7 @@
       <c r="A308" s="1">
         <v>25276</v>
       </c>
-      <c r="B308" s="12" t="s">
+      <c r="B308" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C308" s="8">
@@ -3843,7 +3854,7 @@
       <c r="A309" s="1">
         <v>25366</v>
       </c>
-      <c r="B309" s="12" t="s">
+      <c r="B309" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C309" s="8">
@@ -3854,7 +3865,7 @@
       <c r="A310" s="1">
         <v>25384</v>
       </c>
-      <c r="B310" s="12" t="s">
+      <c r="B310" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C310" s="8">
@@ -3865,7 +3876,7 @@
       <c r="A311" s="1">
         <v>25391</v>
       </c>
-      <c r="B311" s="12" t="s">
+      <c r="B311" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C311" s="8">
@@ -3876,7 +3887,7 @@
       <c r="A312" s="1">
         <v>25385</v>
       </c>
-      <c r="B312" s="12" t="s">
+      <c r="B312" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C312" s="8">
@@ -3887,7 +3898,7 @@
       <c r="A313" s="1">
         <v>25359</v>
       </c>
-      <c r="B313" s="12" t="s">
+      <c r="B313" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C313" s="8">
@@ -3898,7 +3909,7 @@
       <c r="A314" s="1">
         <v>25364</v>
       </c>
-      <c r="B314" s="12" t="s">
+      <c r="B314" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C314" s="8">
@@ -3909,7 +3920,7 @@
       <c r="A315" s="1">
         <v>25369</v>
       </c>
-      <c r="B315" s="12" t="s">
+      <c r="B315" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C315" s="8">
@@ -3920,7 +3931,7 @@
       <c r="A316" s="1">
         <v>25368</v>
       </c>
-      <c r="B316" s="12" t="s">
+      <c r="B316" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C316" s="8">
@@ -3931,7 +3942,7 @@
       <c r="A317" s="1">
         <v>25395</v>
       </c>
-      <c r="B317" s="12" t="s">
+      <c r="B317" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C317" s="8">
@@ -3942,7 +3953,7 @@
       <c r="A318" s="1">
         <v>25400</v>
       </c>
-      <c r="B318" s="12" t="s">
+      <c r="B318" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C318" s="8">
@@ -3953,7 +3964,7 @@
       <c r="A319" s="1">
         <v>25358</v>
       </c>
-      <c r="B319" s="12" t="s">
+      <c r="B319" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C319" s="8">
@@ -3964,7 +3975,7 @@
       <c r="A320" s="1">
         <v>25361</v>
       </c>
-      <c r="B320" s="12" t="s">
+      <c r="B320" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C320" s="8">
@@ -3975,7 +3986,7 @@
       <c r="A321" s="1">
         <v>25394</v>
       </c>
-      <c r="B321" s="12" t="s">
+      <c r="B321" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C321" s="8">
@@ -3986,7 +3997,7 @@
       <c r="A322" s="1">
         <v>25354</v>
       </c>
-      <c r="B322" s="12" t="s">
+      <c r="B322" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C322" s="8">
@@ -3997,7 +4008,7 @@
       <c r="A323" s="1">
         <v>25362</v>
       </c>
-      <c r="B323" s="12" t="s">
+      <c r="B323" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C323" s="8">
@@ -4008,7 +4019,7 @@
       <c r="A324" s="1">
         <v>25393</v>
       </c>
-      <c r="B324" s="12" t="s">
+      <c r="B324" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C324" s="8">
@@ -4019,7 +4030,7 @@
       <c r="A325" s="1">
         <v>25389</v>
       </c>
-      <c r="B325" s="12" t="s">
+      <c r="B325" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C325" s="8">
@@ -4030,7 +4041,7 @@
       <c r="A326" s="1">
         <v>25399</v>
       </c>
-      <c r="B326" s="12" t="s">
+      <c r="B326" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C326" s="8">
@@ -4041,7 +4052,7 @@
       <c r="A327" s="1">
         <v>25392</v>
       </c>
-      <c r="B327" s="12" t="s">
+      <c r="B327" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C327" s="8">
@@ -4052,7 +4063,7 @@
       <c r="A328" s="1">
         <v>25388</v>
       </c>
-      <c r="B328" s="12" t="s">
+      <c r="B328" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C328" s="8">
@@ -4063,7 +4074,7 @@
       <c r="A329" s="1">
         <v>25352</v>
       </c>
-      <c r="B329" s="12" t="s">
+      <c r="B329" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C329" s="8">
@@ -4074,7 +4085,7 @@
       <c r="A330" s="1">
         <v>25360</v>
       </c>
-      <c r="B330" s="12" t="s">
+      <c r="B330" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C330" s="8">
@@ -4085,7 +4096,7 @@
       <c r="A331" s="1">
         <v>25356</v>
       </c>
-      <c r="B331" s="12" t="s">
+      <c r="B331" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C331" s="8">
@@ -4096,7 +4107,7 @@
       <c r="A332" s="1">
         <v>25390</v>
       </c>
-      <c r="B332" s="12" t="s">
+      <c r="B332" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C332" s="8">
@@ -4107,7 +4118,7 @@
       <c r="A333" s="1">
         <v>25387</v>
       </c>
-      <c r="B333" s="12" t="s">
+      <c r="B333" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C333" s="8">
@@ -4118,7 +4129,7 @@
       <c r="A334" s="1">
         <v>25397</v>
       </c>
-      <c r="B334" s="12" t="s">
+      <c r="B334" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C334" s="8">
@@ -4129,7 +4140,7 @@
       <c r="A335" s="1">
         <v>25398</v>
       </c>
-      <c r="B335" s="12" t="s">
+      <c r="B335" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C335" s="8">
@@ -4140,7 +4151,7 @@
       <c r="A336" s="1">
         <v>25353</v>
       </c>
-      <c r="B336" s="12" t="s">
+      <c r="B336" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C336" s="8">
@@ -4151,7 +4162,7 @@
       <c r="A337" s="1">
         <v>25396</v>
       </c>
-      <c r="B337" s="12" t="s">
+      <c r="B337" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C337" s="8">
@@ -4162,7 +4173,7 @@
       <c r="A338" s="1">
         <v>25351</v>
       </c>
-      <c r="B338" s="12" t="s">
+      <c r="B338" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C338" s="8">
@@ -4173,7 +4184,7 @@
       <c r="A339" s="1">
         <v>25485</v>
       </c>
-      <c r="B339" s="12" t="s">
+      <c r="B339" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C339" s="8">
@@ -4184,7 +4195,7 @@
       <c r="A340" s="1">
         <v>25471</v>
       </c>
-      <c r="B340" s="12" t="s">
+      <c r="B340" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C340" s="8">
@@ -4195,7 +4206,7 @@
       <c r="A341" s="1">
         <v>25480</v>
       </c>
-      <c r="B341" s="12" t="s">
+      <c r="B341" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C341" s="8">
@@ -4206,7 +4217,7 @@
       <c r="A342" s="1">
         <v>25484</v>
       </c>
-      <c r="B342" s="12" t="s">
+      <c r="B342" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C342" s="8">
@@ -4217,7 +4228,7 @@
       <c r="A343" s="1">
         <v>25482</v>
       </c>
-      <c r="B343" s="12" t="s">
+      <c r="B343" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C343" s="8">
@@ -4228,7 +4239,7 @@
       <c r="A344" s="1">
         <v>25483</v>
       </c>
-      <c r="B344" s="12" t="s">
+      <c r="B344" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C344" s="8">
@@ -4239,7 +4250,7 @@
       <c r="A345" s="1">
         <v>25481</v>
       </c>
-      <c r="B345" s="12" t="s">
+      <c r="B345" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C345" s="8">
@@ -4250,7 +4261,7 @@
       <c r="A346" s="1">
         <v>25479</v>
       </c>
-      <c r="B346" s="12" t="s">
+      <c r="B346" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C346" s="8">
@@ -4261,7 +4272,7 @@
       <c r="A347" s="1">
         <v>25476</v>
       </c>
-      <c r="B347" s="12" t="s">
+      <c r="B347" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C347" s="8">
@@ -4272,7 +4283,7 @@
       <c r="A348" s="1">
         <v>25490</v>
       </c>
-      <c r="B348" s="12" t="s">
+      <c r="B348" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C348" s="8">
@@ -4283,7 +4294,7 @@
       <c r="A349" s="1">
         <v>25478</v>
       </c>
-      <c r="B349" s="12" t="s">
+      <c r="B349" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C349" s="8">
@@ -4294,7 +4305,7 @@
       <c r="A350" s="1">
         <v>25477</v>
       </c>
-      <c r="B350" s="12" t="s">
+      <c r="B350" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C350" s="8">
@@ -4305,7 +4316,7 @@
       <c r="A351" s="1">
         <v>25530</v>
       </c>
-      <c r="B351" s="12" t="s">
+      <c r="B351" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C351" s="8">
@@ -4316,7 +4327,7 @@
       <c r="A352" s="1">
         <v>25531</v>
       </c>
-      <c r="B352" s="12" t="s">
+      <c r="B352" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C352" s="8">
@@ -4327,7 +4338,7 @@
       <c r="A353" s="1">
         <v>25532</v>
       </c>
-      <c r="B353" s="12" t="s">
+      <c r="B353" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C353" s="8">
@@ -4338,7 +4349,7 @@
       <c r="A354" s="1">
         <v>25533</v>
       </c>
-      <c r="B354" s="12" t="s">
+      <c r="B354" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C354" s="8">
@@ -4349,7 +4360,7 @@
       <c r="A355" s="1">
         <v>25534</v>
       </c>
-      <c r="B355" s="12" t="s">
+      <c r="B355" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C355" s="8">
@@ -4360,7 +4371,7 @@
       <c r="A356" s="1">
         <v>25535</v>
       </c>
-      <c r="B356" s="12" t="s">
+      <c r="B356" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C356" s="8">
@@ -4371,7 +4382,7 @@
       <c r="A357" s="1">
         <v>25536</v>
       </c>
-      <c r="B357" s="12" t="s">
+      <c r="B357" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C357" s="8">
@@ -4382,7 +4393,7 @@
       <c r="A358" s="1">
         <v>25537</v>
       </c>
-      <c r="B358" s="12" t="s">
+      <c r="B358" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C358" s="8">
@@ -4393,7 +4404,7 @@
       <c r="A359" s="1">
         <v>25538</v>
       </c>
-      <c r="B359" s="12" t="s">
+      <c r="B359" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C359" s="8">
@@ -4404,7 +4415,7 @@
       <c r="A360" s="1">
         <v>25539</v>
       </c>
-      <c r="B360" s="12" t="s">
+      <c r="B360" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C360" s="8">
@@ -4415,7 +4426,7 @@
       <c r="A361" s="1">
         <v>25521</v>
       </c>
-      <c r="B361" s="14" t="s">
+      <c r="B361" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C361" s="8">
@@ -4426,7 +4437,7 @@
       <c r="A362" s="1">
         <v>25522</v>
       </c>
-      <c r="B362" s="14" t="s">
+      <c r="B362" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C362" s="8">
@@ -4437,7 +4448,7 @@
       <c r="A363" s="1">
         <v>25523</v>
       </c>
-      <c r="B363" s="14" t="s">
+      <c r="B363" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C363" s="8">
@@ -4448,7 +4459,7 @@
       <c r="A364" s="1">
         <v>25524</v>
       </c>
-      <c r="B364" s="14" t="s">
+      <c r="B364" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C364" s="8">
@@ -4459,7 +4470,7 @@
       <c r="A365" s="1">
         <v>25525</v>
       </c>
-      <c r="B365" s="14" t="s">
+      <c r="B365" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C365" s="8">
@@ -4470,7 +4481,7 @@
       <c r="A366" s="1">
         <v>25526</v>
       </c>
-      <c r="B366" s="14" t="s">
+      <c r="B366" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C366" s="8">
@@ -4481,7 +4492,7 @@
       <c r="A367" s="1">
         <v>25527</v>
       </c>
-      <c r="B367" s="14" t="s">
+      <c r="B367" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C367" s="8">
@@ -4492,7 +4503,7 @@
       <c r="A368" s="1">
         <v>25528</v>
       </c>
-      <c r="B368" s="14" t="s">
+      <c r="B368" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C368" s="8">
@@ -4503,7 +4514,7 @@
       <c r="A369" s="1">
         <v>25529</v>
       </c>
-      <c r="B369" s="14" t="s">
+      <c r="B369" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C369" s="8">
@@ -4514,7 +4525,7 @@
       <c r="A370" s="1">
         <v>25407</v>
       </c>
-      <c r="B370" s="14" t="s">
+      <c r="B370" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C370" s="8">
@@ -4525,804 +4536,1121 @@
       <c r="A371" s="1">
         <v>25551</v>
       </c>
+      <c r="C371" s="8">
+        <v>45854</v>
+      </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>25552</v>
       </c>
+      <c r="C372" s="8">
+        <v>45854</v>
+      </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>25553</v>
       </c>
+      <c r="C373" s="8">
+        <v>45854</v>
+      </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>25554</v>
       </c>
+      <c r="C374" s="8">
+        <v>45854</v>
+      </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>25555</v>
       </c>
-      <c r="C375" s="15"/>
+      <c r="C375" s="8">
+        <v>45854</v>
+      </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>25556</v>
       </c>
+      <c r="C376" s="8">
+        <v>45854</v>
+      </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>25557</v>
       </c>
+      <c r="C377" s="8">
+        <v>45854</v>
+      </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>25558</v>
       </c>
+      <c r="C378" s="8">
+        <v>45854</v>
+      </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>25559</v>
       </c>
+      <c r="C379" s="8">
+        <v>45854</v>
+      </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>25560</v>
       </c>
+      <c r="C380" s="8">
+        <v>45854</v>
+      </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>25561</v>
       </c>
+      <c r="C381" s="8">
+        <v>45854</v>
+      </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>25562</v>
       </c>
+      <c r="C382" s="8">
+        <v>45854</v>
+      </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>25563</v>
       </c>
+      <c r="C383" s="8">
+        <v>45854</v>
+      </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>25564</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C384" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>25566</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C385" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>25567</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C386" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>25568</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C387" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>25569</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C388" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>25570</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C389" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>25571</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C390" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>25572</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C391" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>25573</v>
       </c>
-      <c r="B392" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B392" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C392" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>25574</v>
       </c>
-      <c r="B393" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B393" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C393" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>25575</v>
       </c>
-      <c r="B394" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B394" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C394" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>25576</v>
       </c>
-      <c r="B395" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B395" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C395" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>25577</v>
       </c>
-      <c r="B396" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B396" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C396" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>25578</v>
       </c>
-      <c r="B397" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B397" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C397" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>25579</v>
       </c>
-      <c r="B398" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B398" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C398" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>25580</v>
       </c>
-      <c r="B399" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B399" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C399" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>25581</v>
       </c>
-      <c r="B400" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B400" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C400" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>25582</v>
       </c>
-      <c r="B401" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B401" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C401" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>25583</v>
       </c>
-      <c r="B402" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B402" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C402" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>25584</v>
       </c>
-      <c r="B403" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B403" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C403" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>25585</v>
       </c>
-      <c r="B404" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B404" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C404" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>25586</v>
       </c>
-      <c r="B405" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B405" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C405" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>25587</v>
       </c>
-      <c r="B406" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B406" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C406" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>25588</v>
       </c>
-      <c r="B407" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B407" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C407" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>25589</v>
       </c>
-      <c r="B408" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B408" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C408" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>25590</v>
       </c>
-      <c r="B409" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B409" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C409" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>25591</v>
       </c>
-      <c r="B410" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B410" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C410" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>25592</v>
       </c>
-      <c r="B411" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B411" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C411" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>25593</v>
       </c>
-      <c r="B412" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B412" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C412" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>25594</v>
       </c>
-      <c r="B413" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B413" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C413" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>25595</v>
       </c>
-      <c r="B414" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B414" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C414" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>25596</v>
       </c>
-      <c r="B415" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B415" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C415" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>25597</v>
       </c>
-      <c r="B416" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B416" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C416" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>25598</v>
       </c>
-      <c r="B417" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B417" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C417" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>25599</v>
       </c>
-      <c r="B418" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B418" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C418" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>25600</v>
       </c>
-      <c r="B419" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B419" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C419" s="8">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>25565</v>
       </c>
-      <c r="B420" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B420" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>25601</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B421" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C421" s="8">
+        <v>45924</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>25602</v>
       </c>
-      <c r="B422" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B422" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C422" s="8">
+        <v>45924</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>25603</v>
       </c>
-      <c r="B423" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B423" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C423" s="8">
+        <v>45924</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>25604</v>
       </c>
-      <c r="B424" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B424" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C424" s="8">
+        <v>45924</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>25605</v>
       </c>
-      <c r="B425" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B425" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C425" s="8">
+        <v>45924</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>25606</v>
       </c>
-      <c r="B426" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B426" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C426" s="8">
+        <v>45924</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>25607</v>
       </c>
-      <c r="B427" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B427" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C427" s="8">
+        <v>45924</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>25608</v>
       </c>
-      <c r="B428" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B428" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C428" s="8">
+        <v>45924</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>25609</v>
       </c>
-      <c r="B429" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B429" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C429" s="8">
+        <v>45924</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>25610</v>
       </c>
-      <c r="B430" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B430" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C430" s="8">
+        <v>45924</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>25611</v>
       </c>
-      <c r="B431" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B431" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C431" s="8">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>25612</v>
       </c>
-      <c r="B432" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B432" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C432" s="8">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>25613</v>
       </c>
-      <c r="B433" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B433" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C433" s="8">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>25614</v>
       </c>
-      <c r="B434" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B434" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C434" s="8">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>25615</v>
       </c>
-      <c r="B435" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B435" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C435" s="8">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>25616</v>
       </c>
-      <c r="B436" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B436" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C436" s="8">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>25617</v>
       </c>
-      <c r="B437" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B437" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C437" s="8">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>25618</v>
       </c>
-      <c r="B438" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B438" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C438" s="8">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>25619</v>
       </c>
-      <c r="B439" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B439" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C439" s="8">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>25620</v>
       </c>
-      <c r="B440" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B440" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C440" s="8">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>25621</v>
       </c>
-      <c r="B441" s="12"/>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B441" s="11"/>
+      <c r="C441" s="8">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>25622</v>
       </c>
-      <c r="B442" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B442" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C442" s="8">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>25623</v>
       </c>
-      <c r="B443" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B443" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C443" s="8">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>25624</v>
       </c>
-      <c r="B444" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B444" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C444" s="8">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>25625</v>
       </c>
-      <c r="B445" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B445" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C445" s="8">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>25626</v>
       </c>
-      <c r="B446" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B446" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C446" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>25627</v>
       </c>
-      <c r="B447" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B447" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C447" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>25628</v>
       </c>
-      <c r="B448" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B448" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C448" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>25629</v>
       </c>
-      <c r="B449" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B449" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C449" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>25630</v>
       </c>
-      <c r="B450" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B450" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C450" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>25631</v>
       </c>
-      <c r="B451" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B451" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C451" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>25632</v>
       </c>
-      <c r="B452" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B452" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C452" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>25633</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C453" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>25634</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C454" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>25635</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C455" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>25636</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C456" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>25637</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C457" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>25638</v>
       </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C458" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>25639</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C459" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>25640</v>
       </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C460" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>25641</v>
       </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C461" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>25642</v>
       </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C462" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>25643</v>
       </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C463" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>25644</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C464" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>25645</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C465" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>25646</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C466" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>25647</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C467" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>25648</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C468" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>25649</v>
       </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C469" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>25650</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C470" s="8">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
+        <v>25365</v>
+      </c>
+      <c r="B471" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C471" s="8">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>100263</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25370</v>
+      </c>
+      <c r="B472" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C472" s="8">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>100264</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25371</v>
+      </c>
+      <c r="B473" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C473" s="8">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>100265</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25372</v>
+      </c>
+      <c r="B474" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C474" s="8">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>100266</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25373</v>
+      </c>
+      <c r="B475" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C475" s="8">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>100267</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25377</v>
+      </c>
+      <c r="B476" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C476" s="8">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>100268</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25376</v>
+      </c>
+      <c r="B477" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C477" s="8">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
-        <v>100269</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25382</v>
+      </c>
+      <c r="B478" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C478" s="8">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>100270</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25375</v>
+      </c>
+      <c r="B479" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C479" s="8">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>100271</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25386</v>
+      </c>
+      <c r="B480" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C480" s="8">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>100272</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25383</v>
+      </c>
+      <c r="B481" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C481" s="8">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>100273</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25275</v>
+      </c>
+      <c r="B482" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C482" s="8">
+        <v>45763</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>100274</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="1">
-        <v>100275</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="1">
-        <v>100276</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="1">
-        <v>100277</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="1">
-        <v>100278</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="1">
-        <v>100279</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="1">
-        <v>100280</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="1">
-        <v>100281</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="1">
-        <v>100282</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="1">
-        <v>100283</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="1">
-        <v>100284</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="1">
-        <v>100285</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="1">
-        <v>100286</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="1">
-        <v>100287</v>
+        <v>25262</v>
+      </c>
+      <c r="B483" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C483" s="8">
+        <v>45763</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF4BD7E-EA84-4955-B2C1-C4421D089094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B55C34C-F2F1-405D-8D30-B3156AAA517B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18765" yWindow="3600" windowWidth="17400" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,11 +99,6 @@
     <t>Панда HD</t>
   </si>
   <si>
-    <t>27.10.2025 в ремонте. Пришла с наклейкой (машина 31982, Ногинск, технопарк, Лемана про)
-06.11.2025 отремонтирована
-11.11.2025 уехала в Павловский посад</t>
-  </si>
-  <si>
     <t>27.10.2025 в ремонте. Пришла без наклеек и надписей
 06.11.2025 отремонтирована
 11.11.2025 уехала в Павловский посад</t>
@@ -126,17 +121,30 @@
 06.11.2025 отремонтирована
 11.11.2025 уехала (в Ростов или Воронеж)</t>
   </si>
+  <si>
+    <t>27.10.2025 в ремонте. Пришла с наклейкой (31982, Ногинск, технопарк, Лемана про)
+06.11.2025 отремонтирована
+11.11.2025 уехала в Павловский посад</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,43 +223,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -541,8 +552,8 @@
   </sheetPr>
   <dimension ref="A1:D1171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +630,7 @@
         <v>45532</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -632,8 +643,8 @@
       <c r="C6" s="8">
         <v>45553</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>23</v>
+      <c r="D6" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -647,7 +658,7 @@
         <v>45553</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -661,7 +672,7 @@
         <v>45553</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -675,7 +686,7 @@
         <v>45553</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -689,7 +700,7 @@
         <v>45544</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B55C34C-F2F1-405D-8D30-B3156AAA517B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89547C50-72B5-4CDB-A2F1-9BAB33A09C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18765" yWindow="3600" windowWidth="17400" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13905" yWindow="30" windowWidth="20565" windowHeight="20265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="31">
   <si>
     <t>code</t>
   </si>
@@ -54,9 +54,6 @@
     <t>22601k</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Стандарт</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
   </si>
   <si>
     <t>Была сломана шторка</t>
-  </si>
-  <si>
-    <t>еще не выпущена</t>
   </si>
   <si>
     <t>была в ремонте 05.09.2025</t>
@@ -104,14 +98,6 @@
 11.11.2025 уехала в Павловский посад</t>
   </si>
   <si>
-    <t>27.10.2025 в ремонте. На сумке есть надпись "30117"
-06.11.2025 отремонтирована</t>
-  </si>
-  <si>
-    <t>27.10.2025 в ремонте. Пришла без наклеек и надписей
-06.11.2025 отремонтирована</t>
-  </si>
-  <si>
     <t>27.10.2025 в ремонте. На сумке есть наклейка с надписью Райфайзен
 06.11.2025 отремонтирована
 11.11.2025 уехала (в Ростов или Воронеж)</t>
@@ -126,17 +112,56 @@
 06.11.2025 отремонтирована
 11.11.2025 уехала в Павловский посад</t>
   </si>
+  <si>
+    <t>27.10.2025 в ремонте. Пришла без наклеек и надписей
+06.11.2025 отремонтирована
+12.11.2025 уехала курьером в Москву</t>
+  </si>
+  <si>
+    <t>23013s</t>
+  </si>
+  <si>
+    <t>23011s</t>
+  </si>
+  <si>
+    <t>28.10.2025 пришла на профилактику вместе с АДМ
+20.11.2025 уехала в сервис</t>
+  </si>
+  <si>
+    <t>27.10.2025 в ремонте. На сумке есть надпись "30117"
+06.11.2025 отремонтирована
+16.11.2025 уехала клиенту</t>
+  </si>
+  <si>
+    <t>17.11.2025 Уехала экспрессом сразу клиенту</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,49 +248,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,8 +589,8 @@
   </sheetPr>
   <dimension ref="A1:D1171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="B498" sqref="B498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4">
         <v>45292</v>
@@ -598,13 +635,13 @@
         <v>12345</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4">
         <v>45292</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -619,17 +656,17 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>24925</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="8">
         <v>45532</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -638,13 +675,13 @@
         <v>24945</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="8">
         <v>45553</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -652,13 +689,13 @@
         <v>24946</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="8">
         <v>45553</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -666,13 +703,13 @@
         <v>24953</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="8">
         <v>45553</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -680,27 +717,27 @@
         <v>24903</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="8">
         <v>45553</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>24986</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="8">
         <v>45544</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>24</v>
+      <c r="D10" s="19" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1150,7 +1187,7 @@
         <v>25049</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C61" s="8">
         <v>45579</v>
@@ -1161,7 +1198,7 @@
         <v>24999</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C62" s="8">
         <v>45579</v>
@@ -1172,7 +1209,7 @@
         <v>25043</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C63" s="8">
         <v>45579</v>
@@ -1183,7 +1220,7 @@
         <v>24998</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C64" s="8">
         <v>45579</v>
@@ -1194,7 +1231,7 @@
         <v>25015</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C65" s="8">
         <v>45579</v>
@@ -1205,7 +1242,7 @@
         <v>25058</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C66" s="8">
         <v>45579</v>
@@ -1216,13 +1253,13 @@
         <v>25069</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C67" s="8">
         <v>45579</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1230,7 +1267,7 @@
         <v>25001</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C68" s="8">
         <v>45579</v>
@@ -1241,7 +1278,7 @@
         <v>25041</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C69" s="8">
         <v>45579</v>
@@ -1252,7 +1289,7 @@
         <v>25036</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C70" s="8">
         <v>45579</v>
@@ -1263,7 +1300,7 @@
         <v>25024</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71" s="8">
         <v>45579</v>
@@ -1274,7 +1311,7 @@
         <v>25040</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C72" s="8">
         <v>45579</v>
@@ -1285,7 +1322,7 @@
         <v>25074</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C73" s="8">
         <v>45579</v>
@@ -1296,7 +1333,7 @@
         <v>25048</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C74" s="8">
         <v>45579</v>
@@ -1307,7 +1344,7 @@
         <v>25035</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C75" s="8">
         <v>45579</v>
@@ -1318,7 +1355,7 @@
         <v>25010</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C76" s="8">
         <v>45579</v>
@@ -1329,7 +1366,7 @@
         <v>25000</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C77" s="8">
         <v>45579</v>
@@ -1337,10 +1374,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C78" s="8">
         <v>45616</v>
@@ -1351,7 +1388,7 @@
         <v>25026</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C79" s="8">
         <v>45615</v>
@@ -1362,7 +1399,7 @@
         <v>25023</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C80" s="8">
         <v>45615</v>
@@ -1373,7 +1410,7 @@
         <v>25071</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C81" s="8">
         <v>45615</v>
@@ -1384,7 +1421,7 @@
         <v>25080</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82" s="8">
         <v>45615</v>
@@ -1395,7 +1432,7 @@
         <v>25017</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C83" s="8">
         <v>45615</v>
@@ -1406,7 +1443,7 @@
         <v>25003</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C84" s="8">
         <v>45615</v>
@@ -1417,7 +1454,7 @@
         <v>25009</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C85" s="8">
         <v>45615</v>
@@ -1428,7 +1465,7 @@
         <v>25028</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C86" s="8">
         <v>45615</v>
@@ -1439,7 +1476,7 @@
         <v>25030</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C87" s="8">
         <v>45615</v>
@@ -1450,7 +1487,7 @@
         <v>25072</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C88" s="8">
         <v>45615</v>
@@ -1461,7 +1498,7 @@
         <v>25018</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C89" s="8">
         <v>45615</v>
@@ -1472,7 +1509,7 @@
         <v>25057</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C90" s="8">
         <v>45615</v>
@@ -1483,7 +1520,7 @@
         <v>25077</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C91" s="8">
         <v>45615</v>
@@ -1494,7 +1531,7 @@
         <v>25066</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C92" s="8">
         <v>45615</v>
@@ -1505,7 +1542,7 @@
         <v>25078</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C93" s="8">
         <v>45615</v>
@@ -1681,7 +1718,7 @@
         <v>25055</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C109" s="8">
         <v>45636</v>
@@ -1692,7 +1729,7 @@
         <v>25085</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C110" s="8">
         <v>45636</v>
@@ -1703,7 +1740,7 @@
         <v>25052</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C111" s="8">
         <v>45636</v>
@@ -1714,7 +1751,7 @@
         <v>25064</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C112" s="8">
         <v>45636</v>
@@ -1725,7 +1762,7 @@
         <v>25068</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C113" s="8">
         <v>45636</v>
@@ -1736,7 +1773,7 @@
         <v>25062</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C114" s="8">
         <v>45636</v>
@@ -1747,7 +1784,7 @@
         <v>25061</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C115" s="8">
         <v>45636</v>
@@ -1758,7 +1795,7 @@
         <v>25053</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C116" s="8">
         <v>45636</v>
@@ -1769,7 +1806,7 @@
         <v>25060</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C117" s="8">
         <v>45636</v>
@@ -1780,7 +1817,7 @@
         <v>25014</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C118" s="8">
         <v>45636</v>
@@ -1791,7 +1828,7 @@
         <v>25046</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C119" s="8">
         <v>45636</v>
@@ -1802,7 +1839,7 @@
         <v>25021</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C120" s="8">
         <v>45636</v>
@@ -1813,7 +1850,7 @@
         <v>25020</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C121" s="8">
         <v>45636</v>
@@ -1824,7 +1861,7 @@
         <v>25002</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C122" s="8">
         <v>45636</v>
@@ -1835,7 +1872,7 @@
         <v>25025</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C123" s="8">
         <v>45636</v>
@@ -1846,7 +1883,7 @@
         <v>25022</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C124" s="8">
         <v>45636</v>
@@ -1857,7 +1894,7 @@
         <v>25011</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C125" s="8">
         <v>45636</v>
@@ -1868,7 +1905,7 @@
         <v>25029</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C126" s="8">
         <v>45636</v>
@@ -1879,7 +1916,7 @@
         <v>25007</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C127" s="8">
         <v>45636</v>
@@ -1890,7 +1927,7 @@
         <v>25032</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C128" s="8">
         <v>45636</v>
@@ -1901,7 +1938,7 @@
         <v>25005</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C129" s="8">
         <v>45636</v>
@@ -1912,7 +1949,7 @@
         <v>25042</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C130" s="8">
         <v>45636</v>
@@ -1923,7 +1960,7 @@
         <v>25031</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C131" s="8">
         <v>45636</v>
@@ -1934,7 +1971,7 @@
         <v>25033</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C132" s="8">
         <v>45636</v>
@@ -1945,7 +1982,7 @@
         <v>25038</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C133" s="8">
         <v>45636</v>
@@ -1956,7 +1993,7 @@
         <v>25044</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C134" s="8">
         <v>45636</v>
@@ -1967,7 +2004,7 @@
         <v>25050</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C135" s="8">
         <v>45636</v>
@@ -1978,7 +2015,7 @@
         <v>25054</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C136" s="8">
         <v>45636</v>
@@ -1989,7 +2026,7 @@
         <v>25063</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C137" s="8">
         <v>45636</v>
@@ -2000,7 +2037,7 @@
         <v>25502</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C138" s="4">
         <v>45951</v>
@@ -2012,7 +2049,7 @@
         <v>25503</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C139" s="4">
         <v>45951</v>
@@ -2024,7 +2061,7 @@
         <v>25504</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C140" s="4">
         <v>45951</v>
@@ -2036,7 +2073,7 @@
         <v>25505</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C141" s="4">
         <v>45951</v>
@@ -2048,7 +2085,7 @@
         <v>25506</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C142" s="4">
         <v>45951</v>
@@ -2060,7 +2097,7 @@
         <v>25507</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C143" s="4">
         <v>45951</v>
@@ -2072,7 +2109,7 @@
         <v>25508</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C144" s="4">
         <v>45951</v>
@@ -2084,7 +2121,7 @@
         <v>25509</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C145" s="4">
         <v>45951</v>
@@ -2096,7 +2133,7 @@
         <v>25510</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C146" s="4">
         <v>45951</v>
@@ -2108,7 +2145,7 @@
         <v>25511</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C147" s="4">
         <v>45951</v>
@@ -2120,7 +2157,7 @@
         <v>25512</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C148" s="4">
         <v>45951</v>
@@ -2132,7 +2169,7 @@
         <v>25513</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C149" s="4">
         <v>45951</v>
@@ -2144,7 +2181,7 @@
         <v>25514</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C150" s="4">
         <v>45951</v>
@@ -2156,7 +2193,7 @@
         <v>25515</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C151" s="4">
         <v>45951</v>
@@ -2168,7 +2205,7 @@
         <v>25516</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C152" s="4">
         <v>45951</v>
@@ -2180,7 +2217,7 @@
         <v>25517</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C153" s="4">
         <v>45951</v>
@@ -2192,7 +2229,7 @@
         <v>25518</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C154" s="4">
         <v>45951</v>
@@ -2204,7 +2241,7 @@
         <v>25519</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C155" s="4">
         <v>45951</v>
@@ -2216,7 +2253,7 @@
         <v>25520</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C156" s="4">
         <v>45951</v>
@@ -2228,13 +2265,13 @@
         <v>24858</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C157" s="4">
         <v>45951</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -2242,7 +2279,7 @@
         <v>25421</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C158" s="4">
         <v>45796</v>
@@ -2254,7 +2291,7 @@
         <v>25422</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C159" s="4">
         <v>45796</v>
@@ -2266,7 +2303,7 @@
         <v>25423</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C160" s="4">
         <v>45796</v>
@@ -2278,7 +2315,7 @@
         <v>25424</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C161" s="4">
         <v>45796</v>
@@ -2290,7 +2327,7 @@
         <v>25425</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C162" s="4">
         <v>45796</v>
@@ -2302,7 +2339,7 @@
         <v>25426</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C163" s="4">
         <v>45796</v>
@@ -2314,7 +2351,7 @@
         <v>25428</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C164" s="4">
         <v>45796</v>
@@ -2326,7 +2363,7 @@
         <v>25429</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C165" s="4">
         <v>45796</v>
@@ -2338,7 +2375,7 @@
         <v>25430</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C166" s="4">
         <v>45796</v>
@@ -2350,7 +2387,7 @@
         <v>25435</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C167" s="4">
         <v>45796</v>
@@ -2362,119 +2399,103 @@
         <v>25540</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C168" s="4">
+        <v>45981</v>
+      </c>
+      <c r="D168" s="5"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>25541</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C169" s="4">
+        <v>45981</v>
+      </c>
+      <c r="D169" s="5"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>25542</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C170" s="4">
+        <v>45981</v>
+      </c>
+      <c r="D170" s="5"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>25543</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C171" s="4">
+        <v>45981</v>
+      </c>
+      <c r="D171" s="5"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>25544</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C172" s="4">
+        <v>45981</v>
+      </c>
+      <c r="D172" s="5"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>25545</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C173" s="4">
+        <v>45981</v>
+      </c>
+      <c r="D173" s="5"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>25549</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C174" s="4">
+        <v>45981</v>
+      </c>
+      <c r="D174" s="5"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>25550</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C175" s="4">
+        <v>45981</v>
+      </c>
+      <c r="D175" s="5"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>25214</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C176" s="8">
         <v>45741</v>
@@ -2485,7 +2506,7 @@
         <v>25202</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C177" s="8">
         <v>45741</v>
@@ -2496,7 +2517,7 @@
         <v>25238</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C178" s="8">
         <v>45741</v>
@@ -2507,7 +2528,7 @@
         <v>25249</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C179" s="8">
         <v>45741</v>
@@ -2518,7 +2539,7 @@
         <v>25215</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C180" s="8">
         <v>45741</v>
@@ -2529,7 +2550,7 @@
         <v>25225</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C181" s="8">
         <v>45741</v>
@@ -2540,7 +2561,7 @@
         <v>25209</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C182" s="8">
         <v>45741</v>
@@ -2551,7 +2572,7 @@
         <v>25250</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C183" s="8">
         <v>45741</v>
@@ -2562,7 +2583,7 @@
         <v>25235</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C184" s="8">
         <v>45741</v>
@@ -2573,7 +2594,7 @@
         <v>25213</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C185" s="8">
         <v>45741</v>
@@ -2584,7 +2605,7 @@
         <v>25268</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C186" s="8">
         <v>45741</v>
@@ -2595,7 +2616,7 @@
         <v>25264</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C187" s="8">
         <v>45741</v>
@@ -2606,7 +2627,7 @@
         <v>25283</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C188" s="8">
         <v>45741</v>
@@ -2617,7 +2638,7 @@
         <v>25261</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C189" s="8">
         <v>45741</v>
@@ -2628,7 +2649,7 @@
         <v>25279</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C190" s="8">
         <v>45741</v>
@@ -2639,7 +2660,7 @@
         <v>25273</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C191" s="8">
         <v>45741</v>
@@ -2650,7 +2671,7 @@
         <v>25291</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C192" s="8">
         <v>45741</v>
@@ -2661,7 +2682,7 @@
         <v>25293</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C193" s="8">
         <v>45741</v>
@@ -2672,7 +2693,7 @@
         <v>25263</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C194" s="8">
         <v>45741</v>
@@ -2683,7 +2704,7 @@
         <v>25290</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C195" s="8">
         <v>45741</v>
@@ -2694,7 +2715,7 @@
         <v>25266</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C196" s="8">
         <v>45741</v>
@@ -2705,7 +2726,7 @@
         <v>25284</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C197" s="8">
         <v>45741</v>
@@ -2716,7 +2737,7 @@
         <v>25292</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C198" s="8">
         <v>45741</v>
@@ -2727,7 +2748,7 @@
         <v>25300</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C199" s="8">
         <v>45741</v>
@@ -2738,7 +2759,7 @@
         <v>25258</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C200" s="8">
         <v>45741</v>
@@ -2749,7 +2770,7 @@
         <v>25257</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C201" s="8">
         <v>45741</v>
@@ -2760,7 +2781,7 @@
         <v>25259</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C202" s="8">
         <v>45741</v>
@@ -2771,7 +2792,7 @@
         <v>25285</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C203" s="8">
         <v>45741</v>
@@ -2782,7 +2803,7 @@
         <v>25269</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C204" s="8">
         <v>45741</v>
@@ -2793,7 +2814,7 @@
         <v>25287</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C205" s="8">
         <v>45741</v>
@@ -2804,7 +2825,7 @@
         <v>25251</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C206" s="8">
         <v>45741</v>
@@ -2815,7 +2836,7 @@
         <v>25278</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C207" s="8">
         <v>45741</v>
@@ -2826,7 +2847,7 @@
         <v>25288</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C208" s="8">
         <v>45741</v>
@@ -2837,7 +2858,7 @@
         <v>25252</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C209" s="8">
         <v>45741</v>
@@ -2848,7 +2869,7 @@
         <v>25280</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C210" s="8">
         <v>45741</v>
@@ -2859,7 +2880,7 @@
         <v>25297</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C211" s="8">
         <v>45741</v>
@@ -2870,7 +2891,7 @@
         <v>25296</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C212" s="8">
         <v>45741</v>
@@ -2881,7 +2902,7 @@
         <v>25282</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C213" s="8">
         <v>45741</v>
@@ -2892,7 +2913,7 @@
         <v>25274</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C214" s="8">
         <v>45741</v>
@@ -2903,7 +2924,7 @@
         <v>25255</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C215" s="8">
         <v>45741</v>
@@ -2914,7 +2935,7 @@
         <v>25281</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C216" s="8">
         <v>45741</v>
@@ -2925,7 +2946,7 @@
         <v>25253</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C217" s="8">
         <v>45741</v>
@@ -2936,7 +2957,7 @@
         <v>25286</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C218" s="8">
         <v>45741</v>
@@ -2947,7 +2968,7 @@
         <v>25271</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C219" s="8">
         <v>45741</v>
@@ -2958,7 +2979,7 @@
         <v>25272</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C220" s="8">
         <v>45741</v>
@@ -2969,7 +2990,7 @@
         <v>25289</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C221" s="8">
         <v>45741</v>
@@ -2980,7 +3001,7 @@
         <v>25267</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C222" s="8">
         <v>45741</v>
@@ -2991,7 +3012,7 @@
         <v>25256</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C223" s="8">
         <v>45741</v>
@@ -3002,7 +3023,7 @@
         <v>25221</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C224" s="8">
         <v>45741</v>
@@ -3013,7 +3034,7 @@
         <v>25210</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C225" s="8">
         <v>45741</v>
@@ -3024,7 +3045,7 @@
         <v>25218</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C226" s="8">
         <v>45741</v>
@@ -3035,7 +3056,7 @@
         <v>25248</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C227" s="8">
         <v>45741</v>
@@ -3046,7 +3067,7 @@
         <v>25206</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C228" s="8">
         <v>45741</v>
@@ -3057,7 +3078,7 @@
         <v>25239</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C229" s="8">
         <v>45741</v>
@@ -3068,7 +3089,7 @@
         <v>25217</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C230" s="8">
         <v>45741</v>
@@ -3079,7 +3100,7 @@
         <v>25231</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C231" s="8">
         <v>45741</v>
@@ -3090,7 +3111,7 @@
         <v>25216</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C232" s="8">
         <v>45741</v>
@@ -3101,7 +3122,7 @@
         <v>25243</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C233" s="8">
         <v>45741</v>
@@ -3112,7 +3133,7 @@
         <v>25236</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C234" s="8">
         <v>45741</v>
@@ -3123,7 +3144,7 @@
         <v>25203</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C235" s="8">
         <v>45741</v>
@@ -3134,7 +3155,7 @@
         <v>25234</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C236" s="8">
         <v>45791</v>
@@ -3145,7 +3166,7 @@
         <v>25245</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C237" s="8">
         <v>45791</v>
@@ -3156,7 +3177,7 @@
         <v>25227</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C238" s="8">
         <v>45791</v>
@@ -3167,7 +3188,7 @@
         <v>25247</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C239" s="8">
         <v>45791</v>
@@ -3178,7 +3199,7 @@
         <v>25208</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C240" s="8">
         <v>45791</v>
@@ -3189,7 +3210,7 @@
         <v>25434</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C241" s="8">
         <v>45791</v>
@@ -3200,7 +3221,7 @@
         <v>25433</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C242" s="8">
         <v>45791</v>
@@ -3211,7 +3232,7 @@
         <v>25432</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C243" s="8">
         <v>45791</v>
@@ -3222,7 +3243,7 @@
         <v>25431</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C244" s="8">
         <v>45791</v>
@@ -3233,7 +3254,7 @@
         <v>25440</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C245" s="8">
         <v>45791</v>
@@ -3244,7 +3265,7 @@
         <v>25439</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C246" s="8">
         <v>45791</v>
@@ -3255,7 +3276,7 @@
         <v>25436</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C247" s="8">
         <v>45791</v>
@@ -3266,7 +3287,7 @@
         <v>25437</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C248" s="8">
         <v>45791</v>
@@ -3277,7 +3298,7 @@
         <v>25438</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C249" s="8">
         <v>45791</v>
@@ -3288,7 +3309,7 @@
         <v>25444</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C250" s="8">
         <v>45791</v>
@@ -3299,7 +3320,7 @@
         <v>25443</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C251" s="8">
         <v>45791</v>
@@ -3310,7 +3331,7 @@
         <v>25442</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C252" s="8">
         <v>45791</v>
@@ -3321,7 +3342,7 @@
         <v>25233</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C253" s="8">
         <v>45791</v>
@@ -3332,7 +3353,7 @@
         <v>25445</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C254" s="8">
         <v>45791</v>
@@ -3343,7 +3364,7 @@
         <v>25441</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C255" s="8">
         <v>45791</v>
@@ -3354,7 +3375,7 @@
         <v>25207</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C256" s="8">
         <v>45791</v>
@@ -3365,7 +3386,7 @@
         <v>25211</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C257" s="8">
         <v>45791</v>
@@ -3376,7 +3397,7 @@
         <v>25237</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C258" s="8">
         <v>45791</v>
@@ -3387,7 +3408,7 @@
         <v>25222</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C259" s="8">
         <v>45791</v>
@@ -3398,7 +3419,7 @@
         <v>25220</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C260" s="8">
         <v>45791</v>
@@ -3409,7 +3430,7 @@
         <v>25228</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C261" s="8">
         <v>45791</v>
@@ -3420,7 +3441,7 @@
         <v>25205</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C262" s="8">
         <v>45791</v>
@@ -3431,7 +3452,7 @@
         <v>25242</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C263" s="8">
         <v>45791</v>
@@ -3442,7 +3463,7 @@
         <v>25201</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C264" s="8">
         <v>45791</v>
@@ -3453,7 +3474,7 @@
         <v>25240</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C265" s="8">
         <v>45791</v>
@@ -3476,7 +3497,7 @@
       </c>
       <c r="C267" s="8"/>
       <c r="D267" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -3488,7 +3509,7 @@
       </c>
       <c r="C268" s="8"/>
       <c r="D268" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -3496,7 +3517,7 @@
         <v>24978</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C269" s="8">
         <v>45532</v>
@@ -3507,7 +3528,7 @@
         <v>24916</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C270" s="8">
         <v>45532</v>
@@ -3527,7 +3548,7 @@
         <v>24902</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C272" s="8">
         <v>45532</v>
@@ -4438,10 +4459,10 @@
         <v>25521</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C361" s="8">
-        <v>45966</v>
+        <v>45978</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -4449,10 +4470,10 @@
         <v>25522</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C362" s="8">
-        <v>45966</v>
+        <v>45978</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -4460,10 +4481,10 @@
         <v>25523</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C363" s="8">
-        <v>45966</v>
+        <v>45978</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -4471,10 +4492,10 @@
         <v>25524</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C364" s="8">
-        <v>45966</v>
+        <v>45978</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -4482,10 +4503,10 @@
         <v>25525</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C365" s="8">
-        <v>45966</v>
+        <v>45978</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -4493,10 +4514,10 @@
         <v>25526</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C366" s="8">
-        <v>45966</v>
+        <v>45978</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -4504,10 +4525,10 @@
         <v>25527</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C367" s="8">
-        <v>45966</v>
+        <v>45978</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -4515,35 +4536,38 @@
         <v>25528</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C368" s="8">
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>25529</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C369" s="8">
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45978</v>
+      </c>
+      <c r="D369" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>25407</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C370" s="8">
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>25551</v>
       </c>
@@ -4551,7 +4575,7 @@
         <v>45854</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>25552</v>
       </c>
@@ -4559,7 +4583,7 @@
         <v>45854</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>25553</v>
       </c>
@@ -4567,7 +4591,7 @@
         <v>45854</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>25554</v>
       </c>
@@ -4575,7 +4599,7 @@
         <v>45854</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>25555</v>
       </c>
@@ -4583,7 +4607,7 @@
         <v>45854</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>25556</v>
       </c>
@@ -4591,7 +4615,7 @@
         <v>45854</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>25557</v>
       </c>
@@ -4599,7 +4623,7 @@
         <v>45854</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>25558</v>
       </c>
@@ -4607,7 +4631,7 @@
         <v>45854</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>25559</v>
       </c>
@@ -4615,7 +4639,7 @@
         <v>45854</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>25560</v>
       </c>
@@ -4623,7 +4647,7 @@
         <v>45854</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>25561</v>
       </c>
@@ -4631,7 +4655,7 @@
         <v>45854</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>25562</v>
       </c>
@@ -4639,7 +4663,7 @@
         <v>45854</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>25563</v>
       </c>
@@ -4647,7 +4671,7 @@
         <v>45854</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>25564</v>
       </c>
@@ -5631,7 +5655,7 @@
         <v>45776</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>25383</v>
       </c>
@@ -5642,104 +5666,222 @@
         <v>45776</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>25275</v>
       </c>
       <c r="B482" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C482" s="8">
         <v>45763</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>25262</v>
       </c>
       <c r="B483" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C483" s="8">
         <v>45763</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A484" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B484" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C484" s="8">
+        <v>45585</v>
+      </c>
+      <c r="D484" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A485" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B485" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C485" s="8">
+        <v>45585</v>
+      </c>
+      <c r="D485" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
+        <v>25651</v>
+      </c>
+      <c r="B486" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C486" s="8">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
+        <v>25652</v>
+      </c>
+      <c r="B487" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C487" s="8">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
+        <v>25653</v>
+      </c>
+      <c r="B488" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C488" s="8">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
+        <v>25654</v>
+      </c>
+      <c r="B489" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C489" s="8">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>25655</v>
+      </c>
+      <c r="B490" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C490" s="8">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>25656</v>
+      </c>
+      <c r="B491" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C491" s="8">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>25657</v>
+      </c>
+      <c r="B492" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C492" s="8">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
+        <v>25658</v>
+      </c>
+      <c r="B493" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C493" s="8">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
+        <v>25659</v>
+      </c>
+      <c r="B494" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C494" s="8">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
+        <v>25660</v>
+      </c>
+      <c r="B495" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C495" s="8">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
+        <v>25661</v>
+      </c>
+      <c r="B496" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C496" s="8">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>100288</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="1">
-        <v>100289</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="1">
-        <v>100290</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="1">
-        <v>100291</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="1">
-        <v>100292</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="1">
-        <v>100293</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="1">
-        <v>100294</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="1">
-        <v>100295</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="1">
-        <v>100296</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25662</v>
+      </c>
+      <c r="B497" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C497" s="8">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B498" s="14"/>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>100297</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>100298</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>100299</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>100300</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>100301</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>100302</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>100303</v>
       </c>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89547C50-72B5-4CDB-A2F1-9BAB33A09C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AB7BF5-A936-427F-823F-5CBC9AB5F0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13905" yWindow="30" windowWidth="20565" windowHeight="20265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17370" yWindow="3795" windowWidth="13215" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -587,10 +587,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D1171"/>
+  <dimension ref="A1:D1170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="B498" sqref="B498"/>
+    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
+      <selection activeCell="A499" sqref="A499:XFD499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5851,3333 +5851,3333 @@
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B498" s="14"/>
     </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
+        <v>100297</v>
+      </c>
+    </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
-        <v>100297</v>
+        <v>100298</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
-        <v>100298</v>
+        <v>100299</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
-        <v>100299</v>
+        <v>100300</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>100300</v>
+        <v>100301</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>100301</v>
+        <v>100302</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>100302</v>
+        <v>100303</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>100303</v>
+        <v>100304</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
-        <v>100304</v>
+        <v>100305</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
-        <v>100305</v>
+        <v>100306</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
-        <v>100306</v>
+        <v>100307</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
-        <v>100307</v>
+        <v>100308</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
-        <v>100308</v>
+        <v>100309</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>100309</v>
+        <v>100310</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>100310</v>
+        <v>100311</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
-        <v>100311</v>
+        <v>100312</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>100312</v>
+        <v>100313</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>100313</v>
+        <v>100314</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>100314</v>
+        <v>100315</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>100315</v>
+        <v>100316</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>100316</v>
+        <v>100317</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>100317</v>
+        <v>100318</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>100318</v>
+        <v>100319</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>100319</v>
+        <v>100320</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>100320</v>
+        <v>100321</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>100321</v>
+        <v>100322</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>100322</v>
+        <v>100323</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>100323</v>
+        <v>100324</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
-        <v>100324</v>
+        <v>100325</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
-        <v>100325</v>
+        <v>100326</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>100326</v>
+        <v>100327</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>100327</v>
+        <v>100328</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
-        <v>100328</v>
+        <v>100329</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
-        <v>100329</v>
+        <v>100330</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
-        <v>100330</v>
+        <v>100331</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
-        <v>100331</v>
+        <v>100332</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>100332</v>
+        <v>100333</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
-        <v>100333</v>
+        <v>100334</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
-        <v>100334</v>
+        <v>100335</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
-        <v>100335</v>
+        <v>100336</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>100336</v>
+        <v>100337</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
-        <v>100337</v>
+        <v>100338</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
-        <v>100338</v>
+        <v>100339</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
-        <v>100339</v>
+        <v>100340</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>100340</v>
+        <v>100341</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
-        <v>100341</v>
+        <v>100342</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>100342</v>
+        <v>100343</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>100343</v>
+        <v>100344</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>100344</v>
+        <v>100345</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
-        <v>100345</v>
+        <v>100346</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>100346</v>
+        <v>100347</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>100347</v>
+        <v>100348</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>100348</v>
+        <v>100349</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>100349</v>
+        <v>100350</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>100350</v>
+        <v>100351</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
-        <v>100351</v>
+        <v>100352</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
-        <v>100352</v>
+        <v>100353</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
-        <v>100353</v>
+        <v>100354</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
-        <v>100354</v>
+        <v>100355</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
-        <v>100355</v>
+        <v>100356</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>100356</v>
+        <v>100357</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
-        <v>100357</v>
+        <v>100358</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
-        <v>100358</v>
+        <v>100359</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
-        <v>100359</v>
+        <v>100360</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>100360</v>
+        <v>100361</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>100361</v>
+        <v>100362</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>100362</v>
+        <v>100363</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>100363</v>
+        <v>100364</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
-        <v>100364</v>
+        <v>100365</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
-        <v>100365</v>
+        <v>100366</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
-        <v>100366</v>
+        <v>100367</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>100367</v>
+        <v>100368</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
-        <v>100368</v>
+        <v>100369</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
-        <v>100369</v>
+        <v>100370</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>100370</v>
+        <v>100371</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
-        <v>100371</v>
+        <v>100372</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>100372</v>
+        <v>100373</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>100373</v>
+        <v>100374</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>100374</v>
+        <v>100375</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>100375</v>
+        <v>100376</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>100376</v>
+        <v>100377</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>100377</v>
+        <v>100378</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
-        <v>100378</v>
+        <v>100379</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
-        <v>100379</v>
+        <v>100380</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>100380</v>
+        <v>100381</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>100381</v>
+        <v>100382</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
-        <v>100382</v>
+        <v>100383</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
-        <v>100383</v>
+        <v>100384</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>100384</v>
+        <v>100385</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>100385</v>
+        <v>100386</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>100386</v>
+        <v>100387</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
-        <v>100387</v>
+        <v>100388</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>100388</v>
+        <v>100389</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
-        <v>100389</v>
+        <v>100390</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
-        <v>100390</v>
+        <v>100391</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
-        <v>100391</v>
+        <v>100392</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
-        <v>100392</v>
+        <v>100393</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
-        <v>100393</v>
+        <v>100394</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
-        <v>100394</v>
+        <v>100395</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
-        <v>100395</v>
+        <v>100396</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>100396</v>
+        <v>100397</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
-        <v>100397</v>
+        <v>100398</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
-        <v>100398</v>
+        <v>100399</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
-        <v>100399</v>
+        <v>100400</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>100400</v>
+        <v>100401</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
-        <v>100401</v>
+        <v>100402</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
-        <v>100402</v>
+        <v>100403</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
-        <v>100403</v>
+        <v>100404</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
-        <v>100404</v>
+        <v>100405</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
-        <v>100405</v>
+        <v>100406</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
-        <v>100406</v>
+        <v>100407</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
-        <v>100407</v>
+        <v>100408</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
-        <v>100408</v>
+        <v>100409</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
-        <v>100409</v>
+        <v>100410</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>100410</v>
+        <v>100411</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
-        <v>100411</v>
+        <v>100412</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
-        <v>100412</v>
+        <v>100413</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>100413</v>
+        <v>100414</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
-        <v>100414</v>
+        <v>100415</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>100415</v>
+        <v>100416</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
-        <v>100416</v>
+        <v>100417</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>100417</v>
+        <v>100418</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
-        <v>100418</v>
+        <v>100419</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
-        <v>100419</v>
+        <v>100420</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>100420</v>
+        <v>100421</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>100421</v>
+        <v>100422</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
-        <v>100422</v>
+        <v>100423</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
-        <v>100423</v>
+        <v>100424</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
-        <v>100424</v>
+        <v>100425</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
-        <v>100425</v>
+        <v>100426</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>100426</v>
+        <v>100427</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
-        <v>100427</v>
+        <v>100428</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>100428</v>
+        <v>100429</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>100429</v>
+        <v>100430</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>100430</v>
+        <v>100431</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>100431</v>
+        <v>100432</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>100432</v>
+        <v>100433</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>100433</v>
+        <v>100434</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>100434</v>
+        <v>100435</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>100435</v>
+        <v>100436</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>100436</v>
+        <v>100437</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
-        <v>100437</v>
+        <v>100438</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
-        <v>100438</v>
+        <v>100439</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
-        <v>100439</v>
+        <v>100440</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
-        <v>100440</v>
+        <v>100441</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
-        <v>100441</v>
+        <v>100442</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
-        <v>100442</v>
+        <v>100443</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
-        <v>100443</v>
+        <v>100444</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
-        <v>100444</v>
+        <v>100445</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
-        <v>100445</v>
+        <v>100446</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
-        <v>100446</v>
+        <v>100447</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
-        <v>100447</v>
+        <v>100448</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
-        <v>100448</v>
+        <v>100449</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
-        <v>100449</v>
+        <v>100450</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
-        <v>100450</v>
+        <v>100451</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
-        <v>100451</v>
+        <v>100452</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
-        <v>100452</v>
+        <v>100453</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
-        <v>100453</v>
+        <v>100454</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
-        <v>100454</v>
+        <v>100455</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
-        <v>100455</v>
+        <v>100456</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
-        <v>100456</v>
+        <v>100457</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
-        <v>100457</v>
+        <v>100458</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
-        <v>100458</v>
+        <v>100459</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
-        <v>100459</v>
+        <v>100460</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
-        <v>100460</v>
+        <v>100461</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
-        <v>100461</v>
+        <v>100462</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
-        <v>100462</v>
+        <v>100463</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
-        <v>100463</v>
+        <v>100464</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
-        <v>100464</v>
+        <v>100465</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
-        <v>100465</v>
+        <v>100466</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
-        <v>100466</v>
+        <v>100467</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
-        <v>100467</v>
+        <v>100468</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
-        <v>100468</v>
+        <v>100469</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
-        <v>100469</v>
+        <v>100470</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
-        <v>100470</v>
+        <v>100471</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
-        <v>100471</v>
+        <v>100472</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
-        <v>100472</v>
+        <v>100473</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
-        <v>100473</v>
+        <v>100474</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
-        <v>100474</v>
+        <v>100475</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
-        <v>100475</v>
+        <v>100476</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
-        <v>100476</v>
+        <v>100477</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
-        <v>100477</v>
+        <v>100478</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
-        <v>100478</v>
+        <v>100479</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
-        <v>100479</v>
+        <v>100480</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
-        <v>100480</v>
+        <v>100481</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
-        <v>100481</v>
+        <v>100482</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
-        <v>100482</v>
+        <v>100483</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
-        <v>100483</v>
+        <v>100484</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
-        <v>100484</v>
+        <v>100485</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
-        <v>100485</v>
+        <v>100486</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
-        <v>100486</v>
+        <v>100487</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
-        <v>100487</v>
+        <v>100488</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
-        <v>100488</v>
+        <v>100489</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
-        <v>100489</v>
+        <v>100490</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
-        <v>100490</v>
+        <v>100491</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
-        <v>100491</v>
+        <v>100492</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
-        <v>100492</v>
+        <v>100493</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
-        <v>100493</v>
+        <v>100494</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
-        <v>100494</v>
+        <v>100495</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
-        <v>100495</v>
+        <v>100496</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
-        <v>100496</v>
+        <v>100497</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
-        <v>100497</v>
+        <v>100498</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
-        <v>100498</v>
+        <v>100499</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
-        <v>100499</v>
+        <v>100500</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
-        <v>100500</v>
+        <v>100501</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
-        <v>100501</v>
+        <v>100502</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
-        <v>100502</v>
+        <v>100503</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
-        <v>100503</v>
+        <v>100504</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
-        <v>100504</v>
+        <v>100505</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
-        <v>100505</v>
+        <v>100506</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
-        <v>100506</v>
+        <v>100507</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
-        <v>100507</v>
+        <v>100508</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
-        <v>100508</v>
+        <v>100509</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
-        <v>100509</v>
+        <v>100510</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
-        <v>100510</v>
+        <v>100511</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
-        <v>100511</v>
+        <v>100512</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
-        <v>100512</v>
+        <v>100513</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
-        <v>100513</v>
+        <v>100514</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
-        <v>100514</v>
+        <v>100515</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
-        <v>100515</v>
+        <v>100516</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
-        <v>100516</v>
+        <v>100517</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
-        <v>100517</v>
+        <v>100518</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
-        <v>100518</v>
+        <v>100519</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
-        <v>100519</v>
+        <v>100520</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
-        <v>100520</v>
+        <v>100521</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
-        <v>100521</v>
+        <v>100522</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
-        <v>100522</v>
+        <v>100523</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
-        <v>100523</v>
+        <v>100524</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
-        <v>100524</v>
+        <v>100525</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
-        <v>100525</v>
+        <v>100526</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
-        <v>100526</v>
+        <v>100527</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
-        <v>100527</v>
+        <v>100528</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
-        <v>100528</v>
+        <v>100529</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
-        <v>100529</v>
+        <v>100530</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
-        <v>100530</v>
+        <v>100531</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
-        <v>100531</v>
+        <v>100532</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
-        <v>100532</v>
+        <v>100533</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
-        <v>100533</v>
+        <v>100534</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
-        <v>100534</v>
+        <v>100535</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
-        <v>100535</v>
+        <v>100536</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
-        <v>100536</v>
+        <v>100537</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
-        <v>100537</v>
+        <v>100538</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
-        <v>100538</v>
+        <v>100539</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
-        <v>100539</v>
+        <v>100540</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
-        <v>100540</v>
+        <v>100541</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
-        <v>100541</v>
+        <v>100542</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
-        <v>100542</v>
+        <v>100543</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
-        <v>100543</v>
+        <v>100544</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
-        <v>100544</v>
+        <v>100545</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
-        <v>100545</v>
+        <v>100546</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
-        <v>100546</v>
+        <v>100547</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
-        <v>100547</v>
+        <v>100548</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
-        <v>100548</v>
+        <v>100549</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
-        <v>100549</v>
+        <v>100550</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
-        <v>100550</v>
+        <v>100551</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
-        <v>100551</v>
+        <v>100552</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
-        <v>100552</v>
+        <v>100553</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
-        <v>100553</v>
+        <v>100554</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
-        <v>100554</v>
+        <v>100555</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
-        <v>100555</v>
+        <v>100556</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
-        <v>100556</v>
+        <v>100557</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
-        <v>100557</v>
+        <v>100558</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
-        <v>100558</v>
+        <v>100559</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
-        <v>100559</v>
+        <v>100560</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
-        <v>100560</v>
+        <v>100561</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
-        <v>100561</v>
+        <v>100562</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
-        <v>100562</v>
+        <v>100563</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
-        <v>100563</v>
+        <v>100564</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
-        <v>100564</v>
+        <v>100565</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
-        <v>100565</v>
+        <v>100566</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
-        <v>100566</v>
+        <v>100567</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
-        <v>100567</v>
+        <v>100568</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
-        <v>100568</v>
+        <v>100569</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
-        <v>100569</v>
+        <v>100570</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
-        <v>100570</v>
+        <v>100571</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
-        <v>100571</v>
+        <v>100572</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
-        <v>100572</v>
+        <v>100573</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
-        <v>100573</v>
+        <v>100574</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
-        <v>100574</v>
+        <v>100575</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
-        <v>100575</v>
+        <v>100576</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
-        <v>100576</v>
+        <v>100577</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
-        <v>100577</v>
+        <v>100578</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
-        <v>100578</v>
+        <v>100579</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
-        <v>100579</v>
+        <v>100580</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
-        <v>100580</v>
+        <v>100581</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
-        <v>100581</v>
+        <v>100582</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
-        <v>100582</v>
+        <v>100583</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
-        <v>100583</v>
+        <v>100584</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
-        <v>100584</v>
+        <v>100585</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
-        <v>100585</v>
+        <v>100586</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
-        <v>100586</v>
+        <v>100587</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
-        <v>100587</v>
+        <v>100588</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
-        <v>100588</v>
+        <v>100589</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
-        <v>100589</v>
+        <v>100590</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
-        <v>100590</v>
+        <v>100591</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
-        <v>100591</v>
+        <v>100592</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
-        <v>100592</v>
+        <v>100593</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
-        <v>100593</v>
+        <v>100594</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
-        <v>100594</v>
+        <v>100595</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
-        <v>100595</v>
+        <v>100596</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
-        <v>100596</v>
+        <v>100597</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
-        <v>100597</v>
+        <v>100598</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
-        <v>100598</v>
+        <v>100599</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
-        <v>100599</v>
+        <v>100600</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
-        <v>100600</v>
+        <v>100601</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
-        <v>100601</v>
+        <v>100602</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
-        <v>100602</v>
+        <v>100603</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
-        <v>100603</v>
+        <v>100604</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
-        <v>100604</v>
+        <v>100605</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
-        <v>100605</v>
+        <v>100606</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
-        <v>100606</v>
+        <v>100607</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
-        <v>100607</v>
+        <v>100608</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
-        <v>100608</v>
+        <v>100609</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
-        <v>100609</v>
+        <v>100610</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
-        <v>100610</v>
+        <v>100611</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
-        <v>100611</v>
+        <v>100612</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
-        <v>100612</v>
+        <v>100613</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
-        <v>100613</v>
+        <v>100614</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
-        <v>100614</v>
+        <v>100615</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
-        <v>100615</v>
+        <v>100616</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
-        <v>100616</v>
+        <v>100617</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
-        <v>100617</v>
+        <v>100618</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
-        <v>100618</v>
+        <v>100619</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
-        <v>100619</v>
+        <v>100620</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
-        <v>100620</v>
+        <v>100621</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
-        <v>100621</v>
+        <v>100622</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
-        <v>100622</v>
+        <v>100623</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
-        <v>100623</v>
+        <v>100624</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
-        <v>100624</v>
+        <v>100625</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
-        <v>100625</v>
+        <v>100626</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
-        <v>100626</v>
+        <v>100627</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
-        <v>100627</v>
+        <v>100628</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
-        <v>100628</v>
+        <v>100629</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
-        <v>100629</v>
+        <v>100630</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
-        <v>100630</v>
+        <v>100631</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
-        <v>100631</v>
+        <v>100632</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
-        <v>100632</v>
+        <v>100633</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
-        <v>100633</v>
+        <v>100634</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
-        <v>100634</v>
+        <v>100635</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
-        <v>100635</v>
+        <v>100636</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
-        <v>100636</v>
+        <v>100637</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
-        <v>100637</v>
+        <v>100638</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
-        <v>100638</v>
+        <v>100639</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
-        <v>100639</v>
+        <v>100640</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
-        <v>100640</v>
+        <v>100641</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
-        <v>100641</v>
+        <v>100642</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
-        <v>100642</v>
+        <v>100643</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
-        <v>100643</v>
+        <v>100644</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
-        <v>100644</v>
+        <v>100645</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
-        <v>100645</v>
+        <v>100646</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
-        <v>100646</v>
+        <v>100647</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
-        <v>100647</v>
+        <v>100648</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
-        <v>100648</v>
+        <v>100649</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
-        <v>100649</v>
+        <v>100650</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
-        <v>100650</v>
+        <v>100651</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
-        <v>100651</v>
+        <v>100652</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
-        <v>100652</v>
+        <v>100653</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
-        <v>100653</v>
+        <v>100654</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
-        <v>100654</v>
+        <v>100655</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
-        <v>100655</v>
+        <v>100656</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
-        <v>100656</v>
+        <v>100657</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
-        <v>100657</v>
+        <v>100658</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
-        <v>100658</v>
+        <v>100659</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
-        <v>100659</v>
+        <v>100660</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
-        <v>100660</v>
+        <v>100661</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
-        <v>100661</v>
+        <v>100662</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
-        <v>100662</v>
+        <v>100663</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
-        <v>100663</v>
+        <v>100664</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
-        <v>100664</v>
+        <v>100665</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
-        <v>100665</v>
+        <v>100666</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
-        <v>100666</v>
+        <v>100667</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
-        <v>100667</v>
+        <v>100668</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877" s="1">
-        <v>100668</v>
+        <v>100669</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878" s="1">
-        <v>100669</v>
+        <v>100670</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879" s="1">
-        <v>100670</v>
+        <v>100671</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
-        <v>100671</v>
+        <v>100672</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
-        <v>100672</v>
+        <v>100673</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
-        <v>100673</v>
+        <v>100674</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
-        <v>100674</v>
+        <v>100675</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
-        <v>100675</v>
+        <v>100676</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
-        <v>100676</v>
+        <v>100677</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
-        <v>100677</v>
+        <v>100678</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887" s="1">
-        <v>100678</v>
+        <v>100679</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
-        <v>100679</v>
+        <v>100680</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
-        <v>100680</v>
+        <v>100681</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
-        <v>100681</v>
+        <v>100682</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
-        <v>100682</v>
+        <v>100683</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
-        <v>100683</v>
+        <v>100684</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893" s="1">
-        <v>100684</v>
+        <v>100685</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
-        <v>100685</v>
+        <v>100686</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
-        <v>100686</v>
+        <v>100687</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
-        <v>100687</v>
+        <v>100688</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897" s="1">
-        <v>100688</v>
+        <v>100689</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898" s="1">
-        <v>100689</v>
+        <v>100690</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899" s="1">
-        <v>100690</v>
+        <v>100691</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900" s="1">
-        <v>100691</v>
+        <v>100692</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901" s="1">
-        <v>100692</v>
+        <v>100693</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
-        <v>100693</v>
+        <v>100694</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
-        <v>100694</v>
+        <v>100695</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904" s="1">
-        <v>100695</v>
+        <v>100696</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
-        <v>100696</v>
+        <v>100697</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906" s="1">
-        <v>100697</v>
+        <v>100698</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907" s="1">
-        <v>100698</v>
+        <v>100699</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908" s="1">
-        <v>100699</v>
+        <v>100700</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909" s="1">
-        <v>100700</v>
+        <v>100701</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910" s="1">
-        <v>100701</v>
+        <v>100702</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911" s="1">
-        <v>100702</v>
+        <v>100703</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912" s="1">
-        <v>100703</v>
+        <v>100704</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913" s="1">
-        <v>100704</v>
+        <v>100705</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914" s="1">
-        <v>100705</v>
+        <v>100706</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915" s="1">
-        <v>100706</v>
+        <v>100707</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916" s="1">
-        <v>100707</v>
+        <v>100708</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917" s="1">
-        <v>100708</v>
+        <v>100709</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918" s="1">
-        <v>100709</v>
+        <v>100710</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919" s="1">
-        <v>100710</v>
+        <v>100711</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920" s="1">
-        <v>100711</v>
+        <v>100712</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
-        <v>100712</v>
+        <v>100713</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922" s="1">
-        <v>100713</v>
+        <v>100714</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923" s="1">
-        <v>100714</v>
+        <v>100715</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
-        <v>100715</v>
+        <v>100716</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925" s="1">
-        <v>100716</v>
+        <v>100717</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926" s="1">
-        <v>100717</v>
+        <v>100718</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927" s="1">
-        <v>100718</v>
+        <v>100719</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928" s="1">
-        <v>100719</v>
+        <v>100720</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929" s="1">
-        <v>100720</v>
+        <v>100721</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930" s="1">
-        <v>100721</v>
+        <v>100722</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931" s="1">
-        <v>100722</v>
+        <v>100723</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932" s="1">
-        <v>100723</v>
+        <v>100724</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933" s="1">
-        <v>100724</v>
+        <v>100725</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934" s="1">
-        <v>100725</v>
+        <v>100726</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935" s="1">
-        <v>100726</v>
+        <v>100727</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936" s="1">
-        <v>100727</v>
+        <v>100728</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937" s="1">
-        <v>100728</v>
+        <v>100729</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938" s="1">
-        <v>100729</v>
+        <v>100730</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939" s="1">
-        <v>100730</v>
+        <v>100731</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940" s="1">
-        <v>100731</v>
+        <v>100732</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941" s="1">
-        <v>100732</v>
+        <v>100733</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942" s="1">
-        <v>100733</v>
+        <v>100734</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943" s="1">
-        <v>100734</v>
+        <v>100735</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944" s="1">
-        <v>100735</v>
+        <v>100736</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945" s="1">
-        <v>100736</v>
+        <v>100737</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946" s="1">
-        <v>100737</v>
+        <v>100738</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947" s="1">
-        <v>100738</v>
+        <v>100739</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948" s="1">
-        <v>100739</v>
+        <v>100740</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949" s="1">
-        <v>100740</v>
+        <v>100741</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950" s="1">
-        <v>100741</v>
+        <v>100742</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951" s="1">
-        <v>100742</v>
+        <v>100743</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952" s="1">
-        <v>100743</v>
+        <v>100744</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953" s="1">
-        <v>100744</v>
+        <v>100745</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954" s="1">
-        <v>100745</v>
+        <v>100746</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955" s="1">
-        <v>100746</v>
+        <v>100747</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956" s="1">
-        <v>100747</v>
+        <v>100748</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957" s="1">
-        <v>100748</v>
+        <v>100749</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958" s="1">
-        <v>100749</v>
+        <v>100750</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959" s="1">
-        <v>100750</v>
+        <v>100751</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960" s="1">
-        <v>100751</v>
+        <v>100752</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961" s="1">
-        <v>100752</v>
+        <v>100753</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962" s="1">
-        <v>100753</v>
+        <v>100754</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963" s="1">
-        <v>100754</v>
+        <v>100755</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964" s="1">
-        <v>100755</v>
+        <v>100756</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965" s="1">
-        <v>100756</v>
+        <v>100757</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966" s="1">
-        <v>100757</v>
+        <v>100758</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967" s="1">
-        <v>100758</v>
+        <v>100759</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968" s="1">
-        <v>100759</v>
+        <v>100760</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969" s="1">
-        <v>100760</v>
+        <v>100761</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A970" s="1">
-        <v>100761</v>
+        <v>100762</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971" s="1">
-        <v>100762</v>
+        <v>100763</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972" s="1">
-        <v>100763</v>
+        <v>100764</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973" s="1">
-        <v>100764</v>
+        <v>100765</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974" s="1">
-        <v>100765</v>
+        <v>100766</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975" s="1">
-        <v>100766</v>
+        <v>100767</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976" s="1">
-        <v>100767</v>
+        <v>100768</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977" s="1">
-        <v>100768</v>
+        <v>100769</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978" s="1">
-        <v>100769</v>
+        <v>100770</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979" s="1">
-        <v>100770</v>
+        <v>100771</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980" s="1">
-        <v>100771</v>
+        <v>100772</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981" s="1">
-        <v>100772</v>
+        <v>100773</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982" s="1">
-        <v>100773</v>
+        <v>100774</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983" s="1">
-        <v>100774</v>
+        <v>100775</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984" s="1">
-        <v>100775</v>
+        <v>100776</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A985" s="1">
-        <v>100776</v>
+        <v>100777</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A986" s="1">
-        <v>100777</v>
+        <v>100778</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987" s="1">
-        <v>100778</v>
+        <v>100779</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988" s="1">
-        <v>100779</v>
+        <v>100780</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989" s="1">
-        <v>100780</v>
+        <v>100781</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A990" s="1">
-        <v>100781</v>
+        <v>100782</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A991" s="1">
-        <v>100782</v>
+        <v>100783</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992" s="1">
-        <v>100783</v>
+        <v>100784</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993" s="1">
-        <v>100784</v>
+        <v>100785</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A994" s="1">
-        <v>100785</v>
+        <v>100786</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995" s="1">
-        <v>100786</v>
+        <v>100787</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996" s="1">
-        <v>100787</v>
+        <v>100788</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997" s="1">
-        <v>100788</v>
+        <v>100789</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998" s="1">
-        <v>100789</v>
+        <v>100790</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999" s="1">
-        <v>100790</v>
+        <v>100791</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000" s="1">
-        <v>100791</v>
+        <v>100792</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1001" s="1">
-        <v>100792</v>
+        <v>100793</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1002" s="1">
-        <v>100793</v>
+        <v>100794</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1003" s="1">
-        <v>100794</v>
+        <v>100795</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1004" s="1">
-        <v>100795</v>
+        <v>100796</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1005" s="1">
-        <v>100796</v>
+        <v>100797</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1006" s="1">
-        <v>100797</v>
+        <v>100798</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1007" s="1">
-        <v>100798</v>
+        <v>100799</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1008" s="1">
-        <v>100799</v>
+        <v>100800</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1009" s="1">
-        <v>100800</v>
+        <v>100801</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1010" s="1">
-        <v>100801</v>
+        <v>100802</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1011" s="1">
-        <v>100802</v>
+        <v>100803</v>
       </c>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1012" s="1">
-        <v>100803</v>
+        <v>100804</v>
       </c>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1013" s="1">
-        <v>100804</v>
+        <v>100805</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1014" s="1">
-        <v>100805</v>
+        <v>100806</v>
       </c>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1015" s="1">
-        <v>100806</v>
+        <v>100807</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1016" s="1">
-        <v>100807</v>
+        <v>100808</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1017" s="1">
-        <v>100808</v>
+        <v>100809</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1018" s="1">
-        <v>100809</v>
+        <v>100810</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1019" s="1">
-        <v>100810</v>
+        <v>100811</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1020" s="1">
-        <v>100811</v>
+        <v>100812</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1021" s="1">
-        <v>100812</v>
+        <v>100813</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1022" s="1">
-        <v>100813</v>
+        <v>100814</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1023" s="1">
-        <v>100814</v>
+        <v>100815</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1024" s="1">
-        <v>100815</v>
+        <v>100816</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1025" s="1">
-        <v>100816</v>
+        <v>100817</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1026" s="1">
-        <v>100817</v>
+        <v>100818</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1027" s="1">
-        <v>100818</v>
+        <v>100819</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1028" s="1">
-        <v>100819</v>
+        <v>100820</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1029" s="1">
-        <v>100820</v>
+        <v>100821</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1030" s="1">
-        <v>100821</v>
+        <v>100822</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1031" s="1">
-        <v>100822</v>
+        <v>100823</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1032" s="1">
-        <v>100823</v>
+        <v>100824</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1033" s="1">
-        <v>100824</v>
+        <v>100825</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1034" s="1">
-        <v>100825</v>
+        <v>100826</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1035" s="1">
-        <v>100826</v>
+        <v>100827</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1036" s="1">
-        <v>100827</v>
+        <v>100828</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1037" s="1">
-        <v>100828</v>
+        <v>100829</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1038" s="1">
-        <v>100829</v>
+        <v>100830</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1039" s="1">
-        <v>100830</v>
+        <v>100831</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1040" s="1">
-        <v>100831</v>
+        <v>100832</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1041" s="1">
-        <v>100832</v>
+        <v>100833</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1042" s="1">
-        <v>100833</v>
+        <v>100834</v>
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1043" s="1">
-        <v>100834</v>
+        <v>100835</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1044" s="1">
-        <v>100835</v>
+        <v>100836</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1045" s="1">
-        <v>100836</v>
+        <v>100837</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1046" s="1">
-        <v>100837</v>
+        <v>100838</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1047" s="1">
-        <v>100838</v>
+        <v>100839</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048" s="1">
-        <v>100839</v>
+        <v>100840</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1049" s="1">
-        <v>100840</v>
+        <v>100841</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1050" s="1">
-        <v>100841</v>
+        <v>100842</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1051" s="1">
-        <v>100842</v>
+        <v>100843</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1052" s="1">
-        <v>100843</v>
+        <v>100844</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1053" s="1">
-        <v>100844</v>
+        <v>100845</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1054" s="1">
-        <v>100845</v>
+        <v>100846</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1055" s="1">
-        <v>100846</v>
+        <v>100847</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056" s="1">
-        <v>100847</v>
+        <v>100848</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1057" s="1">
-        <v>100848</v>
+        <v>100849</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1058" s="1">
-        <v>100849</v>
+        <v>100850</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1059" s="1">
-        <v>100850</v>
+        <v>100851</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1060" s="1">
-        <v>100851</v>
+        <v>100852</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1061" s="1">
-        <v>100852</v>
+        <v>100853</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062" s="1">
-        <v>100853</v>
+        <v>100854</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1063" s="1">
-        <v>100854</v>
+        <v>100855</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1064" s="1">
-        <v>100855</v>
+        <v>100856</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1065" s="1">
-        <v>100856</v>
+        <v>100857</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1066" s="1">
-        <v>100857</v>
+        <v>100858</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1067" s="1">
-        <v>100858</v>
+        <v>100859</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1068" s="1">
-        <v>100859</v>
+        <v>100860</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1069" s="1">
-        <v>100860</v>
+        <v>100861</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1070" s="1">
-        <v>100861</v>
+        <v>100862</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1071" s="1">
-        <v>100862</v>
+        <v>100863</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1072" s="1">
-        <v>100863</v>
+        <v>100864</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1073" s="1">
-        <v>100864</v>
+        <v>100865</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1074" s="1">
-        <v>100865</v>
+        <v>100866</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1075" s="1">
-        <v>100866</v>
+        <v>100867</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1076" s="1">
-        <v>100867</v>
+        <v>100868</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1077" s="1">
-        <v>100868</v>
+        <v>100869</v>
       </c>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1078" s="1">
-        <v>100869</v>
+        <v>100870</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1079" s="1">
-        <v>100870</v>
+        <v>100871</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1080" s="1">
-        <v>100871</v>
+        <v>100872</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1081" s="1">
-        <v>100872</v>
+        <v>100873</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1082" s="1">
-        <v>100873</v>
+        <v>100874</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1083" s="1">
-        <v>100874</v>
+        <v>100875</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1084" s="1">
-        <v>100875</v>
+        <v>100876</v>
       </c>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1085" s="1">
-        <v>100876</v>
+        <v>100877</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1086" s="1">
-        <v>100877</v>
+        <v>100878</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1087" s="1">
-        <v>100878</v>
+        <v>100879</v>
       </c>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1088" s="1">
-        <v>100879</v>
+        <v>100880</v>
       </c>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1089" s="1">
-        <v>100880</v>
+        <v>100881</v>
       </c>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1090" s="1">
-        <v>100881</v>
+        <v>100882</v>
       </c>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1091" s="1">
-        <v>100882</v>
+        <v>100883</v>
       </c>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1092" s="1">
-        <v>100883</v>
+        <v>100884</v>
       </c>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1093" s="1">
-        <v>100884</v>
+        <v>100885</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1094" s="1">
-        <v>100885</v>
+        <v>100886</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1095" s="1">
-        <v>100886</v>
+        <v>100887</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1096" s="1">
-        <v>100887</v>
+        <v>100888</v>
       </c>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1097" s="1">
-        <v>100888</v>
+        <v>100889</v>
       </c>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1098" s="1">
-        <v>100889</v>
+        <v>100890</v>
       </c>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1099" s="1">
-        <v>100890</v>
+        <v>100891</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1100" s="1">
-        <v>100891</v>
+        <v>100892</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1101" s="1">
-        <v>100892</v>
+        <v>100893</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1102" s="1">
-        <v>100893</v>
+        <v>100894</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1103" s="1">
-        <v>100894</v>
+        <v>100895</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1104" s="1">
-        <v>100895</v>
+        <v>100896</v>
       </c>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1105" s="1">
-        <v>100896</v>
+        <v>100897</v>
       </c>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1106" s="1">
-        <v>100897</v>
+        <v>100898</v>
       </c>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1107" s="1">
-        <v>100898</v>
+        <v>100899</v>
       </c>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1108" s="1">
-        <v>100899</v>
+        <v>100900</v>
       </c>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1109" s="1">
-        <v>100900</v>
+        <v>100901</v>
       </c>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1110" s="1">
-        <v>100901</v>
+        <v>100902</v>
       </c>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1111" s="1">
-        <v>100902</v>
+        <v>100903</v>
       </c>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1112" s="1">
-        <v>100903</v>
+        <v>100904</v>
       </c>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1113" s="1">
-        <v>100904</v>
+        <v>100905</v>
       </c>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1114" s="1">
-        <v>100905</v>
+        <v>100906</v>
       </c>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1115" s="1">
-        <v>100906</v>
+        <v>100907</v>
       </c>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1116" s="1">
-        <v>100907</v>
+        <v>100908</v>
       </c>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1117" s="1">
-        <v>100908</v>
+        <v>100909</v>
       </c>
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1118" s="1">
-        <v>100909</v>
+        <v>100910</v>
       </c>
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1119" s="1">
-        <v>100910</v>
+        <v>100911</v>
       </c>
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1120" s="1">
-        <v>100911</v>
+        <v>100912</v>
       </c>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1121" s="1">
-        <v>100912</v>
+        <v>100913</v>
       </c>
     </row>
     <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1122" s="1">
-        <v>100913</v>
+        <v>100914</v>
       </c>
     </row>
     <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1123" s="1">
-        <v>100914</v>
+        <v>100915</v>
       </c>
     </row>
     <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1124" s="1">
-        <v>100915</v>
+        <v>100916</v>
       </c>
     </row>
     <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1125" s="1">
-        <v>100916</v>
+        <v>100917</v>
       </c>
     </row>
     <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1126" s="1">
-        <v>100917</v>
+        <v>100918</v>
       </c>
     </row>
     <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1127" s="1">
-        <v>100918</v>
+        <v>100919</v>
       </c>
     </row>
     <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1128" s="1">
-        <v>100919</v>
+        <v>100920</v>
       </c>
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1129" s="1">
-        <v>100920</v>
+        <v>100921</v>
       </c>
     </row>
     <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1130" s="1">
-        <v>100921</v>
+        <v>100922</v>
       </c>
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1131" s="1">
-        <v>100922</v>
+        <v>100923</v>
       </c>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1132" s="1">
-        <v>100923</v>
+        <v>100924</v>
       </c>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1133" s="1">
-        <v>100924</v>
+        <v>100925</v>
       </c>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1134" s="1">
-        <v>100925</v>
+        <v>100926</v>
       </c>
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1135" s="1">
-        <v>100926</v>
+        <v>100927</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1136" s="1">
-        <v>100927</v>
+        <v>100928</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1137" s="1">
-        <v>100928</v>
+        <v>100929</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1138" s="1">
-        <v>100929</v>
+        <v>100930</v>
       </c>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1139" s="1">
-        <v>100930</v>
+        <v>100931</v>
       </c>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1140" s="1">
-        <v>100931</v>
+        <v>100932</v>
       </c>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1141" s="1">
-        <v>100932</v>
+        <v>100933</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1142" s="1">
-        <v>100933</v>
+        <v>100934</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1143" s="1">
-        <v>100934</v>
+        <v>100935</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1144" s="1">
-        <v>100935</v>
+        <v>100936</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1145" s="1">
-        <v>100936</v>
+        <v>100937</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1146" s="1">
-        <v>100937</v>
+        <v>100938</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1147" s="1">
-        <v>100938</v>
+        <v>100939</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1148" s="1">
-        <v>100939</v>
+        <v>100940</v>
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1149" s="1">
-        <v>100940</v>
+        <v>100941</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1150" s="1">
-        <v>100941</v>
+        <v>100942</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1151" s="1">
-        <v>100942</v>
+        <v>100943</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1152" s="1">
-        <v>100943</v>
+        <v>100944</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1153" s="1">
-        <v>100944</v>
+        <v>100945</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1154" s="1">
-        <v>100945</v>
+        <v>100946</v>
       </c>
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1155" s="1">
-        <v>100946</v>
+        <v>100947</v>
       </c>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1156" s="1">
-        <v>100947</v>
+        <v>100948</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1157" s="1">
-        <v>100948</v>
+        <v>100949</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1158" s="1">
-        <v>100949</v>
+        <v>100950</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1159" s="1">
-        <v>100950</v>
+        <v>100951</v>
       </c>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1160" s="1">
-        <v>100951</v>
+        <v>100952</v>
       </c>
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1161" s="1">
-        <v>100952</v>
+        <v>100953</v>
       </c>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1162" s="1">
-        <v>100953</v>
+        <v>100954</v>
       </c>
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1163" s="1">
-        <v>100954</v>
+        <v>100955</v>
       </c>
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1164" s="1">
-        <v>100955</v>
+        <v>100956</v>
       </c>
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1165" s="1">
-        <v>100956</v>
+        <v>100957</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1166" s="1">
-        <v>100957</v>
+        <v>100958</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1167" s="1">
-        <v>100958</v>
+        <v>100959</v>
       </c>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1168" s="1">
-        <v>100959</v>
+        <v>100960</v>
       </c>
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1169" s="1">
-        <v>100960</v>
+        <v>100961</v>
       </c>
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1170" s="1">
-        <v>100961</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1171" s="1">
         <v>100962</v>
       </c>
     </row>
